--- a/docs/resultados_convocatorias.xlsx
+++ b/docs/resultados_convocatorias.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Recursos" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumen'!$A$4:$M$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Seguimiento'!$A$1:$J$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumen'!$A$4:$M$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Seguimiento'!$A$1:$J$79</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -691,7 +691,7 @@
     <row r="2" ht="22" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Mision Climatica - Neutralidad 2030 - Actualizado: 13/02/2026 08:13 - 69 convocatorias - 15 nuevas</t>
+          <t>Mision Climatica - Neutralidad 2030 - Actualizado: 14/02/2026 07:52 - 78 convocatorias - 24 nuevas</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>EUS-15293</t>
+          <t>EUS-89962</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>EUS-60835</t>
+          <t>EUS-51969</t>
         </is>
       </c>
       <c r="C62" s="6" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>EUS-59232</t>
+          <t>EUS-56284</t>
         </is>
       </c>
       <c r="C63" s="6" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t>EUS-36628</t>
+          <t>EUS-28861</t>
         </is>
       </c>
       <c r="C64" s="6" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>EUS-18488</t>
+          <t>EUS-17841</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
@@ -4169,12 +4169,12 @@
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>EUS-87234</t>
+          <t>EUS-27002</t>
         </is>
       </c>
       <c r="C66" s="6" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
+          <t>Asesoría Legal - Consultas tramitación de proyectos de energías renovables y, en especial, en materia medioambiental</t>
         </is>
       </c>
       <c r="D66" s="6" t="inlineStr">
@@ -4191,12 +4191,12 @@
       <c r="G66" s="6" t="inlineStr"/>
       <c r="H66" s="6" t="inlineStr">
         <is>
-          <t>Ayuda/Subvencion Euskadi</t>
-        </is>
-      </c>
-      <c r="I66" s="10" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="J66" s="6" t="inlineStr"/>
@@ -4224,12 +4224,12 @@
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>EUS-73772</t>
+          <t>EUS-18210</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
+          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
         </is>
       </c>
       <c r="D67" s="6" t="inlineStr">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>EUS-49109</t>
+          <t>EUS-59993</t>
         </is>
       </c>
       <c r="C68" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
+          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
         </is>
       </c>
       <c r="D68" s="6" t="inlineStr">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>EUS-72760</t>
+          <t>EUS-25797</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
+          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
         </is>
       </c>
       <c r="D69" s="6" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>EUS-28905</t>
+          <t>EUS-12160</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
+          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
         </is>
       </c>
       <c r="D70" s="6" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>EUS-54869</t>
+          <t>EUS-77123</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
         </is>
       </c>
       <c r="D71" s="6" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>EUS-95967</t>
+          <t>EUS-64792</t>
         </is>
       </c>
       <c r="C72" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="D72" s="6" t="inlineStr">
@@ -4554,12 +4554,12 @@
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>EUS-17430</t>
+          <t>EUS-00130</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
         </is>
       </c>
       <c r="D73" s="6" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>EUS-18205</t>
+          <t>EUS-83114</t>
         </is>
       </c>
       <c r="C74" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
         </is>
       </c>
       <c r="D74" s="6" t="inlineStr">
@@ -4664,12 +4664,12 @@
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>EUS-12970</t>
+          <t>EUS-36808</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>Asignaciones individualizadas de transporte escolar para el curso 2025-2026 del alumnado de los centros docentes públicos no universitarios de la Comunidad Autónoma del País Vasco financiado por el de</t>
+          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
@@ -4711,8 +4711,503 @@
         </is>
       </c>
     </row>
+    <row r="76" ht="40" customHeight="1">
+      <c r="A76" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>EUS-28459</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>Asignaciones individualizadas de transporte escolar para el curso 2025-2026 del alumnado de los centros docentes públicos no universitarios de la Comunidad Autónoma del País Vasco financiado por el de</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E76" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="inlineStr"/>
+      <c r="G76" s="6" t="inlineStr"/>
+      <c r="H76" s="6" t="inlineStr">
+        <is>
+          <t>Ayuda/Subvencion Euskadi</t>
+        </is>
+      </c>
+      <c r="I76" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J76" s="6" t="inlineStr"/>
+      <c r="K76" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L76" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M76" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="40" customHeight="1">
+      <c r="A77" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>EUS-68968</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>Mantenimiento preventivo de 10 grúas de techo ubicadas en el edificio de hospitalización de la OSI Debagoiena</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="inlineStr"/>
+      <c r="G77" s="6" t="inlineStr"/>
+      <c r="H77" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I77" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J77" s="6" t="inlineStr"/>
+      <c r="K77" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L77" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M77" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="40" customHeight="1">
+      <c r="A78" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>EUS-40629</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>Asesoría Legal - Asesoramiento legal contestación borofax Solaria y análisis terrenos Indarberri</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E78" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F78" s="6" t="inlineStr"/>
+      <c r="G78" s="6" t="inlineStr"/>
+      <c r="H78" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I78" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J78" s="6" t="inlineStr"/>
+      <c r="K78" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L78" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M78" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="40" customHeight="1">
+      <c r="A79" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>EUS-35956</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>Otras Consultorías/ Servicios - Asesoramiento en la valoración de plantas fotovoltaicas</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="inlineStr"/>
+      <c r="G79" s="6" t="inlineStr"/>
+      <c r="H79" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I79" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J79" s="6" t="inlineStr"/>
+      <c r="K79" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L79" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M79" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="40" customHeight="1">
+      <c r="A80" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>EUS-21012</t>
+        </is>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>Otras Consultorías/ Servicios - Asesoramiento en la valoración de plantas fotovoltaicas</t>
+        </is>
+      </c>
+      <c r="D80" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E80" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F80" s="6" t="inlineStr"/>
+      <c r="G80" s="6" t="inlineStr"/>
+      <c r="H80" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I80" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J80" s="6" t="inlineStr"/>
+      <c r="K80" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L80" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M80" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="40" customHeight="1">
+      <c r="A81" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>EUS-80336</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>Asesoría Legal - Asesoramiento en negociación proyecto plantas fotovoltaicas</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="inlineStr"/>
+      <c r="G81" s="6" t="inlineStr"/>
+      <c r="H81" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I81" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J81" s="6" t="inlineStr"/>
+      <c r="K81" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L81" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M81" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="40" customHeight="1">
+      <c r="A82" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>EUS-82751</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>Limpieza de foso ascensor san juan mekola</t>
+        </is>
+      </c>
+      <c r="D82" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E82" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F82" s="6" t="inlineStr"/>
+      <c r="G82" s="6" t="inlineStr"/>
+      <c r="H82" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I82" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J82" s="6" t="inlineStr"/>
+      <c r="K82" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L82" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M82" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="40" customHeight="1">
+      <c r="A83" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>EUS-08134</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>Limpieza sumideros de errebal</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F83" s="6" t="inlineStr"/>
+      <c r="G83" s="6" t="inlineStr"/>
+      <c r="H83" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I83" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J83" s="6" t="inlineStr"/>
+      <c r="K83" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L83" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M83" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="40" customHeight="1">
+      <c r="A84" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>EUS-92185</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>Reparación de cableados de circuitos de fuerza y alumbrado que se encuentran requemados y sin aislamiento en el fronton astelena</t>
+        </is>
+      </c>
+      <c r="D84" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E84" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="inlineStr"/>
+      <c r="G84" s="6" t="inlineStr"/>
+      <c r="H84" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I84" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J84" s="6" t="inlineStr"/>
+      <c r="K84" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L84" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M84" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:M75"/>
+  <autoFilter ref="A4:M84"/>
   <mergeCells count="4">
     <mergeCell ref="A60:M60"/>
     <mergeCell ref="A2:M2"/>
@@ -4789,6 +5284,15 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M73" r:id="rId67"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M74" r:id="rId68"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M75" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M76" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M77" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M78" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M79" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M80" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M81" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M82" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M83" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M84" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4800,7 +5304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1034"/>
+  <dimension ref="A1:F1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16447,7 +16951,7 @@
     <row r="811" ht="30" customHeight="1">
       <c r="A811" s="16" t="inlineStr">
         <is>
-          <t>FICHA 55: EUS-15293</t>
+          <t>FICHA 55: EUS-89962</t>
         </is>
       </c>
       <c r="B811" s="17" t="n"/>
@@ -16496,7 +17000,7 @@
       </c>
       <c r="B814" s="19" t="inlineStr">
         <is>
-          <t>EUS-15293</t>
+          <t>EUS-89962</t>
         </is>
       </c>
       <c r="C814" s="20" t="n"/>
@@ -16659,7 +17163,7 @@
     <row r="826" ht="30" customHeight="1">
       <c r="A826" s="16" t="inlineStr">
         <is>
-          <t>FICHA 56: EUS-60835</t>
+          <t>FICHA 56: EUS-51969</t>
         </is>
       </c>
       <c r="B826" s="17" t="n"/>
@@ -16708,7 +17212,7 @@
       </c>
       <c r="B829" s="19" t="inlineStr">
         <is>
-          <t>EUS-60835</t>
+          <t>EUS-51969</t>
         </is>
       </c>
       <c r="C829" s="20" t="n"/>
@@ -16871,7 +17375,7 @@
     <row r="841" ht="30" customHeight="1">
       <c r="A841" s="16" t="inlineStr">
         <is>
-          <t>FICHA 57: EUS-59232</t>
+          <t>FICHA 57: EUS-56284</t>
         </is>
       </c>
       <c r="B841" s="17" t="n"/>
@@ -16920,7 +17424,7 @@
       </c>
       <c r="B844" s="19" t="inlineStr">
         <is>
-          <t>EUS-59232</t>
+          <t>EUS-56284</t>
         </is>
       </c>
       <c r="C844" s="20" t="n"/>
@@ -17083,7 +17587,7 @@
     <row r="856" ht="30" customHeight="1">
       <c r="A856" s="16" t="inlineStr">
         <is>
-          <t>FICHA 58: EUS-36628</t>
+          <t>FICHA 58: EUS-28861</t>
         </is>
       </c>
       <c r="B856" s="17" t="n"/>
@@ -17132,7 +17636,7 @@
       </c>
       <c r="B859" s="19" t="inlineStr">
         <is>
-          <t>EUS-36628</t>
+          <t>EUS-28861</t>
         </is>
       </c>
       <c r="C859" s="20" t="n"/>
@@ -17295,7 +17799,7 @@
     <row r="871" ht="30" customHeight="1">
       <c r="A871" s="16" t="inlineStr">
         <is>
-          <t>FICHA 59: EUS-18488</t>
+          <t>FICHA 59: EUS-17841</t>
         </is>
       </c>
       <c r="B871" s="17" t="n"/>
@@ -17344,7 +17848,7 @@
       </c>
       <c r="B874" s="19" t="inlineStr">
         <is>
-          <t>EUS-18488</t>
+          <t>EUS-17841</t>
         </is>
       </c>
       <c r="C874" s="20" t="n"/>
@@ -17507,7 +18011,7 @@
     <row r="886" ht="30" customHeight="1">
       <c r="A886" s="16" t="inlineStr">
         <is>
-          <t>FICHA 60: EUS-87234</t>
+          <t>FICHA 60: EUS-27002</t>
         </is>
       </c>
       <c r="B886" s="17" t="n"/>
@@ -17540,7 +18044,7 @@
       </c>
       <c r="B888" s="19" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
+          <t>Asesoría Legal - Consultas tramitación de proyectos de energías renovables y, en especial, en materia medioambiental</t>
         </is>
       </c>
       <c r="C888" s="20" t="n"/>
@@ -17556,7 +18060,7 @@
       </c>
       <c r="B889" s="19" t="inlineStr">
         <is>
-          <t>EUS-87234</t>
+          <t>EUS-27002</t>
         </is>
       </c>
       <c r="C889" s="20" t="n"/>
@@ -17632,7 +18136,7 @@
       </c>
       <c r="B894" s="19" t="inlineStr">
         <is>
-          <t>Ayuda/Subvencion Euskadi</t>
+          <t>Licitacion Euskadi</t>
         </is>
       </c>
       <c r="C894" s="20" t="n"/>
@@ -17690,9 +18194,9 @@
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B898" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MEDIA — </t>
+      <c r="B898" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALTA — </t>
         </is>
       </c>
       <c r="C898" s="20" t="n"/>
@@ -17708,7 +18212,7 @@
       </c>
       <c r="B899" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260204smartcities/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/asesoria-legal-consultas-tramitacion-proyectos-energias-renovables-y-especial-materia-medioambiental/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C899" s="20" t="n"/>
@@ -17719,7 +18223,7 @@
     <row r="901" ht="30" customHeight="1">
       <c r="A901" s="16" t="inlineStr">
         <is>
-          <t>FICHA 61: EUS-73772</t>
+          <t>FICHA 61: EUS-18210</t>
         </is>
       </c>
       <c r="B901" s="17" t="n"/>
@@ -17752,7 +18256,7 @@
       </c>
       <c r="B903" s="19" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
+          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
         </is>
       </c>
       <c r="C903" s="20" t="n"/>
@@ -17768,7 +18272,7 @@
       </c>
       <c r="B904" s="19" t="inlineStr">
         <is>
-          <t>EUS-73772</t>
+          <t>EUS-18210</t>
         </is>
       </c>
       <c r="C904" s="20" t="n"/>
@@ -17920,7 +18424,7 @@
       </c>
       <c r="B914" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260119nextlanbidedigital/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260204smartcities/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C914" s="20" t="n"/>
@@ -17931,7 +18435,7 @@
     <row r="916" ht="30" customHeight="1">
       <c r="A916" s="16" t="inlineStr">
         <is>
-          <t>FICHA 62: EUS-49109</t>
+          <t>FICHA 62: EUS-59993</t>
         </is>
       </c>
       <c r="B916" s="17" t="n"/>
@@ -17964,7 +18468,7 @@
       </c>
       <c r="B918" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
+          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
         </is>
       </c>
       <c r="C918" s="20" t="n"/>
@@ -17980,7 +18484,7 @@
       </c>
       <c r="B919" s="19" t="inlineStr">
         <is>
-          <t>EUS-49109</t>
+          <t>EUS-59993</t>
         </is>
       </c>
       <c r="C919" s="20" t="n"/>
@@ -18132,7 +18636,7 @@
       </c>
       <c r="B929" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/250119horizondiginduspaceklust/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260119nextlanbidedigital/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C929" s="20" t="n"/>
@@ -18143,7 +18647,7 @@
     <row r="931" ht="30" customHeight="1">
       <c r="A931" s="16" t="inlineStr">
         <is>
-          <t>FICHA 63: EUS-72760</t>
+          <t>FICHA 63: EUS-25797</t>
         </is>
       </c>
       <c r="B931" s="17" t="n"/>
@@ -18176,7 +18680,7 @@
       </c>
       <c r="B933" s="19" t="inlineStr">
         <is>
-          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
+          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
         </is>
       </c>
       <c r="C933" s="20" t="n"/>
@@ -18192,7 +18696,7 @@
       </c>
       <c r="B934" s="19" t="inlineStr">
         <is>
-          <t>EUS-72760</t>
+          <t>EUS-25797</t>
         </is>
       </c>
       <c r="C934" s="20" t="n"/>
@@ -18344,7 +18848,7 @@
       </c>
       <c r="B944" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/horizonkluster5hirimisioa/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/250119horizondiginduspaceklust/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C944" s="20" t="n"/>
@@ -18355,7 +18859,7 @@
     <row r="946" ht="30" customHeight="1">
       <c r="A946" s="16" t="inlineStr">
         <is>
-          <t>FICHA 64: EUS-28905</t>
+          <t>FICHA 64: EUS-12160</t>
         </is>
       </c>
       <c r="B946" s="17" t="n"/>
@@ -18388,7 +18892,7 @@
       </c>
       <c r="B948" s="19" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
+          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
         </is>
       </c>
       <c r="C948" s="20" t="n"/>
@@ -18404,7 +18908,7 @@
       </c>
       <c r="B949" s="19" t="inlineStr">
         <is>
-          <t>EUS-28905</t>
+          <t>EUS-12160</t>
         </is>
       </c>
       <c r="C949" s="20" t="n"/>
@@ -18556,7 +19060,7 @@
       </c>
       <c r="B959" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/azpitek-2026-programa-de-ayudas/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/horizonkluster5hirimisioa/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C959" s="20" t="n"/>
@@ -18567,7 +19071,7 @@
     <row r="961" ht="30" customHeight="1">
       <c r="A961" s="16" t="inlineStr">
         <is>
-          <t>FICHA 65: EUS-54869</t>
+          <t>FICHA 65: EUS-77123</t>
         </is>
       </c>
       <c r="B961" s="17" t="n"/>
@@ -18592,7 +19096,7 @@
       <c r="E962" s="20" t="n"/>
       <c r="F962" s="20" t="n"/>
     </row>
-    <row r="963" ht="20" customHeight="1">
+    <row r="963" ht="45" customHeight="1">
       <c r="A963" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -18600,7 +19104,7 @@
       </c>
       <c r="B963" s="19" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
         </is>
       </c>
       <c r="C963" s="20" t="n"/>
@@ -18616,7 +19120,7 @@
       </c>
       <c r="B964" s="19" t="inlineStr">
         <is>
-          <t>EUS-54869</t>
+          <t>EUS-77123</t>
         </is>
       </c>
       <c r="C964" s="20" t="n"/>
@@ -18768,7 +19272,7 @@
       </c>
       <c r="B974" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/subvenciones-para-innovacion-en-economia-circular-2026/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/azpitek-2026-programa-de-ayudas/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C974" s="20" t="n"/>
@@ -18779,7 +19283,7 @@
     <row r="976" ht="30" customHeight="1">
       <c r="A976" s="16" t="inlineStr">
         <is>
-          <t>FICHA 66: EUS-95967</t>
+          <t>FICHA 66: EUS-64792</t>
         </is>
       </c>
       <c r="B976" s="17" t="n"/>
@@ -18804,7 +19308,7 @@
       <c r="E977" s="20" t="n"/>
       <c r="F977" s="20" t="n"/>
     </row>
-    <row r="978" ht="45" customHeight="1">
+    <row r="978" ht="20" customHeight="1">
       <c r="A978" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -18812,7 +19316,7 @@
       </c>
       <c r="B978" s="19" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="C978" s="20" t="n"/>
@@ -18828,7 +19332,7 @@
       </c>
       <c r="B979" s="19" t="inlineStr">
         <is>
-          <t>EUS-95967</t>
+          <t>EUS-64792</t>
         </is>
       </c>
       <c r="C979" s="20" t="n"/>
@@ -18980,7 +19484,7 @@
       </c>
       <c r="B989" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/251222horizon2627sprieeni/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/subvenciones-para-innovacion-en-economia-circular-2026/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C989" s="20" t="n"/>
@@ -18991,7 +19495,7 @@
     <row r="991" ht="30" customHeight="1">
       <c r="A991" s="16" t="inlineStr">
         <is>
-          <t>FICHA 67: EUS-17430</t>
+          <t>FICHA 67: EUS-00130</t>
         </is>
       </c>
       <c r="B991" s="17" t="n"/>
@@ -19024,7 +19528,7 @@
       </c>
       <c r="B993" s="19" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
         </is>
       </c>
       <c r="C993" s="20" t="n"/>
@@ -19040,7 +19544,7 @@
       </c>
       <c r="B994" s="19" t="inlineStr">
         <is>
-          <t>EUS-17430</t>
+          <t>EUS-00130</t>
         </is>
       </c>
       <c r="C994" s="20" t="n"/>
@@ -19192,7 +19696,7 @@
       </c>
       <c r="B1004" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/demokraziaezkutua251218/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/251222horizon2627sprieeni/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1004" s="20" t="n"/>
@@ -19203,7 +19707,7 @@
     <row r="1006" ht="30" customHeight="1">
       <c r="A1006" s="16" t="inlineStr">
         <is>
-          <t>FICHA 68: EUS-18205</t>
+          <t>FICHA 68: EUS-83114</t>
         </is>
       </c>
       <c r="B1006" s="17" t="n"/>
@@ -19236,7 +19740,7 @@
       </c>
       <c r="B1008" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
         </is>
       </c>
       <c r="C1008" s="20" t="n"/>
@@ -19252,7 +19756,7 @@
       </c>
       <c r="B1009" s="19" t="inlineStr">
         <is>
-          <t>EUS-18205</t>
+          <t>EUS-83114</t>
         </is>
       </c>
       <c r="C1009" s="20" t="n"/>
@@ -19404,7 +19908,7 @@
       </c>
       <c r="B1019" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/ksiberritzalieplus251218/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/demokraziaezkutua251218/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1019" s="20" t="n"/>
@@ -19415,7 +19919,7 @@
     <row r="1021" ht="30" customHeight="1">
       <c r="A1021" s="16" t="inlineStr">
         <is>
-          <t>FICHA 69: EUS-12970</t>
+          <t>FICHA 69: EUS-36808</t>
         </is>
       </c>
       <c r="B1021" s="17" t="n"/>
@@ -19448,7 +19952,7 @@
       </c>
       <c r="B1023" s="19" t="inlineStr">
         <is>
-          <t>Asignaciones individualizadas de transporte escolar para el curso 2025-2026 del alumnado de los centros docentes públicos no universitarios de la Comunidad Autónoma del País Vasco financiado por el de</t>
+          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
         </is>
       </c>
       <c r="C1023" s="20" t="n"/>
@@ -19464,7 +19968,7 @@
       </c>
       <c r="B1024" s="19" t="inlineStr">
         <is>
-          <t>EUS-12970</t>
+          <t>EUS-36808</t>
         </is>
       </c>
       <c r="C1024" s="20" t="n"/>
@@ -19616,7 +20120,7 @@
       </c>
       <c r="B1034" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/transp-escolar-25-26/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/ksiberritzalieplus251218/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1034" s="20" t="n"/>
@@ -19624,8 +20128,1916 @@
       <c r="E1034" s="20" t="n"/>
       <c r="F1034" s="20" t="n"/>
     </row>
+    <row r="1036" ht="30" customHeight="1">
+      <c r="A1036" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 70: EUS-28459</t>
+        </is>
+      </c>
+      <c r="B1036" s="17" t="n"/>
+      <c r="C1036" s="17" t="n"/>
+      <c r="D1036" s="17" t="n"/>
+      <c r="E1036" s="17" t="n"/>
+      <c r="F1036" s="17" t="n"/>
+    </row>
+    <row r="1037" ht="20" customHeight="1">
+      <c r="A1037" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1037" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1037" s="20" t="n"/>
+      <c r="D1037" s="20" t="n"/>
+      <c r="E1037" s="20" t="n"/>
+      <c r="F1037" s="20" t="n"/>
+    </row>
+    <row r="1038" ht="45" customHeight="1">
+      <c r="A1038" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1038" s="19" t="inlineStr">
+        <is>
+          <t>Asignaciones individualizadas de transporte escolar para el curso 2025-2026 del alumnado de los centros docentes públicos no universitarios de la Comunidad Autónoma del País Vasco financiado por el de</t>
+        </is>
+      </c>
+      <c r="C1038" s="20" t="n"/>
+      <c r="D1038" s="20" t="n"/>
+      <c r="E1038" s="20" t="n"/>
+      <c r="F1038" s="20" t="n"/>
+    </row>
+    <row r="1039" ht="20" customHeight="1">
+      <c r="A1039" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1039" s="19" t="inlineStr">
+        <is>
+          <t>EUS-28459</t>
+        </is>
+      </c>
+      <c r="C1039" s="20" t="n"/>
+      <c r="D1039" s="20" t="n"/>
+      <c r="E1039" s="20" t="n"/>
+      <c r="F1039" s="20" t="n"/>
+    </row>
+    <row r="1040" ht="20" customHeight="1">
+      <c r="A1040" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1040" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1040" s="20" t="n"/>
+      <c r="D1040" s="20" t="n"/>
+      <c r="E1040" s="20" t="n"/>
+      <c r="F1040" s="20" t="n"/>
+    </row>
+    <row r="1041" ht="20" customHeight="1">
+      <c r="A1041" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1041" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1041" s="20" t="n"/>
+      <c r="D1041" s="20" t="n"/>
+      <c r="E1041" s="20" t="n"/>
+      <c r="F1041" s="20" t="n"/>
+    </row>
+    <row r="1042" ht="20" customHeight="1">
+      <c r="A1042" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1042" s="19" t="inlineStr"/>
+      <c r="C1042" s="20" t="n"/>
+      <c r="D1042" s="20" t="n"/>
+      <c r="E1042" s="20" t="n"/>
+      <c r="F1042" s="20" t="n"/>
+    </row>
+    <row r="1043" ht="20" customHeight="1">
+      <c r="A1043" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1043" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1043" s="20" t="n"/>
+      <c r="D1043" s="20" t="n"/>
+      <c r="E1043" s="20" t="n"/>
+      <c r="F1043" s="20" t="n"/>
+    </row>
+    <row r="1044" ht="20" customHeight="1">
+      <c r="A1044" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1044" s="19" t="inlineStr">
+        <is>
+          <t>Ayuda/Subvencion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1044" s="20" t="n"/>
+      <c r="D1044" s="20" t="n"/>
+      <c r="E1044" s="20" t="n"/>
+      <c r="F1044" s="20" t="n"/>
+    </row>
+    <row r="1045" ht="20" customHeight="1">
+      <c r="A1045" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1045" s="19" t="inlineStr"/>
+      <c r="C1045" s="20" t="n"/>
+      <c r="D1045" s="20" t="n"/>
+      <c r="E1045" s="20" t="n"/>
+      <c r="F1045" s="20" t="n"/>
+    </row>
+    <row r="1046" ht="20" customHeight="1">
+      <c r="A1046" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1046" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1046" s="20" t="n"/>
+      <c r="D1046" s="20" t="n"/>
+      <c r="E1046" s="20" t="n"/>
+      <c r="F1046" s="20" t="n"/>
+    </row>
+    <row r="1047" ht="20" customHeight="1">
+      <c r="A1047" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1047" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1047" s="20" t="n"/>
+      <c r="D1047" s="20" t="n"/>
+      <c r="E1047" s="20" t="n"/>
+      <c r="F1047" s="20" t="n"/>
+    </row>
+    <row r="1048" ht="20" customHeight="1">
+      <c r="A1048" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1048" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1048" s="20" t="n"/>
+      <c r="D1048" s="20" t="n"/>
+      <c r="E1048" s="20" t="n"/>
+      <c r="F1048" s="20" t="n"/>
+    </row>
+    <row r="1049" ht="45" customHeight="1">
+      <c r="A1049" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1049" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/transp-escolar-25-26/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1049" s="20" t="n"/>
+      <c r="D1049" s="20" t="n"/>
+      <c r="E1049" s="20" t="n"/>
+      <c r="F1049" s="20" t="n"/>
+    </row>
+    <row r="1051" ht="30" customHeight="1">
+      <c r="A1051" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 71: EUS-68968</t>
+        </is>
+      </c>
+      <c r="B1051" s="17" t="n"/>
+      <c r="C1051" s="17" t="n"/>
+      <c r="D1051" s="17" t="n"/>
+      <c r="E1051" s="17" t="n"/>
+      <c r="F1051" s="17" t="n"/>
+    </row>
+    <row r="1052" ht="20" customHeight="1">
+      <c r="A1052" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1052" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1052" s="20" t="n"/>
+      <c r="D1052" s="20" t="n"/>
+      <c r="E1052" s="20" t="n"/>
+      <c r="F1052" s="20" t="n"/>
+    </row>
+    <row r="1053" ht="45" customHeight="1">
+      <c r="A1053" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1053" s="19" t="inlineStr">
+        <is>
+          <t>Mantenimiento preventivo de 10 grúas de techo ubicadas en el edificio de hospitalización de la OSI Debagoiena</t>
+        </is>
+      </c>
+      <c r="C1053" s="20" t="n"/>
+      <c r="D1053" s="20" t="n"/>
+      <c r="E1053" s="20" t="n"/>
+      <c r="F1053" s="20" t="n"/>
+    </row>
+    <row r="1054" ht="20" customHeight="1">
+      <c r="A1054" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1054" s="19" t="inlineStr">
+        <is>
+          <t>EUS-68968</t>
+        </is>
+      </c>
+      <c r="C1054" s="20" t="n"/>
+      <c r="D1054" s="20" t="n"/>
+      <c r="E1054" s="20" t="n"/>
+      <c r="F1054" s="20" t="n"/>
+    </row>
+    <row r="1055" ht="20" customHeight="1">
+      <c r="A1055" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1055" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1055" s="20" t="n"/>
+      <c r="D1055" s="20" t="n"/>
+      <c r="E1055" s="20" t="n"/>
+      <c r="F1055" s="20" t="n"/>
+    </row>
+    <row r="1056" ht="20" customHeight="1">
+      <c r="A1056" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1056" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1056" s="20" t="n"/>
+      <c r="D1056" s="20" t="n"/>
+      <c r="E1056" s="20" t="n"/>
+      <c r="F1056" s="20" t="n"/>
+    </row>
+    <row r="1057" ht="20" customHeight="1">
+      <c r="A1057" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1057" s="19" t="inlineStr"/>
+      <c r="C1057" s="20" t="n"/>
+      <c r="D1057" s="20" t="n"/>
+      <c r="E1057" s="20" t="n"/>
+      <c r="F1057" s="20" t="n"/>
+    </row>
+    <row r="1058" ht="20" customHeight="1">
+      <c r="A1058" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1058" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1058" s="20" t="n"/>
+      <c r="D1058" s="20" t="n"/>
+      <c r="E1058" s="20" t="n"/>
+      <c r="F1058" s="20" t="n"/>
+    </row>
+    <row r="1059" ht="20" customHeight="1">
+      <c r="A1059" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1059" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1059" s="20" t="n"/>
+      <c r="D1059" s="20" t="n"/>
+      <c r="E1059" s="20" t="n"/>
+      <c r="F1059" s="20" t="n"/>
+    </row>
+    <row r="1060" ht="20" customHeight="1">
+      <c r="A1060" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1060" s="19" t="inlineStr"/>
+      <c r="C1060" s="20" t="n"/>
+      <c r="D1060" s="20" t="n"/>
+      <c r="E1060" s="20" t="n"/>
+      <c r="F1060" s="20" t="n"/>
+    </row>
+    <row r="1061" ht="20" customHeight="1">
+      <c r="A1061" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1061" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1061" s="20" t="n"/>
+      <c r="D1061" s="20" t="n"/>
+      <c r="E1061" s="20" t="n"/>
+      <c r="F1061" s="20" t="n"/>
+    </row>
+    <row r="1062" ht="20" customHeight="1">
+      <c r="A1062" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1062" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1062" s="20" t="n"/>
+      <c r="D1062" s="20" t="n"/>
+      <c r="E1062" s="20" t="n"/>
+      <c r="F1062" s="20" t="n"/>
+    </row>
+    <row r="1063" ht="20" customHeight="1">
+      <c r="A1063" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1063" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1063" s="20" t="n"/>
+      <c r="D1063" s="20" t="n"/>
+      <c r="E1063" s="20" t="n"/>
+      <c r="F1063" s="20" t="n"/>
+    </row>
+    <row r="1064" ht="45" customHeight="1">
+      <c r="A1064" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1064" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/mantenimiento-preventivo-10-gruas-techo-ubicadas-edificio-hospitalizacion-osi-debagoiena/exposakisap2026000132/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1064" s="20" t="n"/>
+      <c r="D1064" s="20" t="n"/>
+      <c r="E1064" s="20" t="n"/>
+      <c r="F1064" s="20" t="n"/>
+    </row>
+    <row r="1066" ht="30" customHeight="1">
+      <c r="A1066" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 72: EUS-40629</t>
+        </is>
+      </c>
+      <c r="B1066" s="17" t="n"/>
+      <c r="C1066" s="17" t="n"/>
+      <c r="D1066" s="17" t="n"/>
+      <c r="E1066" s="17" t="n"/>
+      <c r="F1066" s="17" t="n"/>
+    </row>
+    <row r="1067" ht="20" customHeight="1">
+      <c r="A1067" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1067" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1067" s="20" t="n"/>
+      <c r="D1067" s="20" t="n"/>
+      <c r="E1067" s="20" t="n"/>
+      <c r="F1067" s="20" t="n"/>
+    </row>
+    <row r="1068" ht="45" customHeight="1">
+      <c r="A1068" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1068" s="19" t="inlineStr">
+        <is>
+          <t>Asesoría Legal - Asesoramiento legal contestación borofax Solaria y análisis terrenos Indarberri</t>
+        </is>
+      </c>
+      <c r="C1068" s="20" t="n"/>
+      <c r="D1068" s="20" t="n"/>
+      <c r="E1068" s="20" t="n"/>
+      <c r="F1068" s="20" t="n"/>
+    </row>
+    <row r="1069" ht="20" customHeight="1">
+      <c r="A1069" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1069" s="19" t="inlineStr">
+        <is>
+          <t>EUS-40629</t>
+        </is>
+      </c>
+      <c r="C1069" s="20" t="n"/>
+      <c r="D1069" s="20" t="n"/>
+      <c r="E1069" s="20" t="n"/>
+      <c r="F1069" s="20" t="n"/>
+    </row>
+    <row r="1070" ht="20" customHeight="1">
+      <c r="A1070" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1070" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1070" s="20" t="n"/>
+      <c r="D1070" s="20" t="n"/>
+      <c r="E1070" s="20" t="n"/>
+      <c r="F1070" s="20" t="n"/>
+    </row>
+    <row r="1071" ht="20" customHeight="1">
+      <c r="A1071" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1071" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1071" s="20" t="n"/>
+      <c r="D1071" s="20" t="n"/>
+      <c r="E1071" s="20" t="n"/>
+      <c r="F1071" s="20" t="n"/>
+    </row>
+    <row r="1072" ht="20" customHeight="1">
+      <c r="A1072" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1072" s="19" t="inlineStr"/>
+      <c r="C1072" s="20" t="n"/>
+      <c r="D1072" s="20" t="n"/>
+      <c r="E1072" s="20" t="n"/>
+      <c r="F1072" s="20" t="n"/>
+    </row>
+    <row r="1073" ht="20" customHeight="1">
+      <c r="A1073" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1073" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1073" s="20" t="n"/>
+      <c r="D1073" s="20" t="n"/>
+      <c r="E1073" s="20" t="n"/>
+      <c r="F1073" s="20" t="n"/>
+    </row>
+    <row r="1074" ht="20" customHeight="1">
+      <c r="A1074" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1074" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1074" s="20" t="n"/>
+      <c r="D1074" s="20" t="n"/>
+      <c r="E1074" s="20" t="n"/>
+      <c r="F1074" s="20" t="n"/>
+    </row>
+    <row r="1075" ht="20" customHeight="1">
+      <c r="A1075" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1075" s="19" t="inlineStr"/>
+      <c r="C1075" s="20" t="n"/>
+      <c r="D1075" s="20" t="n"/>
+      <c r="E1075" s="20" t="n"/>
+      <c r="F1075" s="20" t="n"/>
+    </row>
+    <row r="1076" ht="20" customHeight="1">
+      <c r="A1076" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1076" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1076" s="20" t="n"/>
+      <c r="D1076" s="20" t="n"/>
+      <c r="E1076" s="20" t="n"/>
+      <c r="F1076" s="20" t="n"/>
+    </row>
+    <row r="1077" ht="20" customHeight="1">
+      <c r="A1077" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1077" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1077" s="20" t="n"/>
+      <c r="D1077" s="20" t="n"/>
+      <c r="E1077" s="20" t="n"/>
+      <c r="F1077" s="20" t="n"/>
+    </row>
+    <row r="1078" ht="20" customHeight="1">
+      <c r="A1078" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1078" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1078" s="20" t="n"/>
+      <c r="D1078" s="20" t="n"/>
+      <c r="E1078" s="20" t="n"/>
+      <c r="F1078" s="20" t="n"/>
+    </row>
+    <row r="1079" ht="45" customHeight="1">
+      <c r="A1079" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1079" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/asesoria-legal-asesoramiento-legal-contestacion-borofax-solaria-y-analisis-terrenos-indarberri/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1079" s="20" t="n"/>
+      <c r="D1079" s="20" t="n"/>
+      <c r="E1079" s="20" t="n"/>
+      <c r="F1079" s="20" t="n"/>
+    </row>
+    <row r="1081" ht="30" customHeight="1">
+      <c r="A1081" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 73: EUS-35956</t>
+        </is>
+      </c>
+      <c r="B1081" s="17" t="n"/>
+      <c r="C1081" s="17" t="n"/>
+      <c r="D1081" s="17" t="n"/>
+      <c r="E1081" s="17" t="n"/>
+      <c r="F1081" s="17" t="n"/>
+    </row>
+    <row r="1082" ht="20" customHeight="1">
+      <c r="A1082" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1082" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1082" s="20" t="n"/>
+      <c r="D1082" s="20" t="n"/>
+      <c r="E1082" s="20" t="n"/>
+      <c r="F1082" s="20" t="n"/>
+    </row>
+    <row r="1083" ht="45" customHeight="1">
+      <c r="A1083" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1083" s="19" t="inlineStr">
+        <is>
+          <t>Otras Consultorías/ Servicios - Asesoramiento en la valoración de plantas fotovoltaicas</t>
+        </is>
+      </c>
+      <c r="C1083" s="20" t="n"/>
+      <c r="D1083" s="20" t="n"/>
+      <c r="E1083" s="20" t="n"/>
+      <c r="F1083" s="20" t="n"/>
+    </row>
+    <row r="1084" ht="20" customHeight="1">
+      <c r="A1084" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1084" s="19" t="inlineStr">
+        <is>
+          <t>EUS-35956</t>
+        </is>
+      </c>
+      <c r="C1084" s="20" t="n"/>
+      <c r="D1084" s="20" t="n"/>
+      <c r="E1084" s="20" t="n"/>
+      <c r="F1084" s="20" t="n"/>
+    </row>
+    <row r="1085" ht="20" customHeight="1">
+      <c r="A1085" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1085" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1085" s="20" t="n"/>
+      <c r="D1085" s="20" t="n"/>
+      <c r="E1085" s="20" t="n"/>
+      <c r="F1085" s="20" t="n"/>
+    </row>
+    <row r="1086" ht="20" customHeight="1">
+      <c r="A1086" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1086" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1086" s="20" t="n"/>
+      <c r="D1086" s="20" t="n"/>
+      <c r="E1086" s="20" t="n"/>
+      <c r="F1086" s="20" t="n"/>
+    </row>
+    <row r="1087" ht="20" customHeight="1">
+      <c r="A1087" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1087" s="19" t="inlineStr"/>
+      <c r="C1087" s="20" t="n"/>
+      <c r="D1087" s="20" t="n"/>
+      <c r="E1087" s="20" t="n"/>
+      <c r="F1087" s="20" t="n"/>
+    </row>
+    <row r="1088" ht="20" customHeight="1">
+      <c r="A1088" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1088" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1088" s="20" t="n"/>
+      <c r="D1088" s="20" t="n"/>
+      <c r="E1088" s="20" t="n"/>
+      <c r="F1088" s="20" t="n"/>
+    </row>
+    <row r="1089" ht="20" customHeight="1">
+      <c r="A1089" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1089" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1089" s="20" t="n"/>
+      <c r="D1089" s="20" t="n"/>
+      <c r="E1089" s="20" t="n"/>
+      <c r="F1089" s="20" t="n"/>
+    </row>
+    <row r="1090" ht="20" customHeight="1">
+      <c r="A1090" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1090" s="19" t="inlineStr"/>
+      <c r="C1090" s="20" t="n"/>
+      <c r="D1090" s="20" t="n"/>
+      <c r="E1090" s="20" t="n"/>
+      <c r="F1090" s="20" t="n"/>
+    </row>
+    <row r="1091" ht="20" customHeight="1">
+      <c r="A1091" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1091" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1091" s="20" t="n"/>
+      <c r="D1091" s="20" t="n"/>
+      <c r="E1091" s="20" t="n"/>
+      <c r="F1091" s="20" t="n"/>
+    </row>
+    <row r="1092" ht="20" customHeight="1">
+      <c r="A1092" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1092" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1092" s="20" t="n"/>
+      <c r="D1092" s="20" t="n"/>
+      <c r="E1092" s="20" t="n"/>
+      <c r="F1092" s="20" t="n"/>
+    </row>
+    <row r="1093" ht="20" customHeight="1">
+      <c r="A1093" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1093" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1093" s="20" t="n"/>
+      <c r="D1093" s="20" t="n"/>
+      <c r="E1093" s="20" t="n"/>
+      <c r="F1093" s="20" t="n"/>
+    </row>
+    <row r="1094" ht="45" customHeight="1">
+      <c r="A1094" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1094" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/otras-consultorias-servicios-asesoramiento-valoracion-plantas-fotovoltaicas/expcm487019/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1094" s="20" t="n"/>
+      <c r="D1094" s="20" t="n"/>
+      <c r="E1094" s="20" t="n"/>
+      <c r="F1094" s="20" t="n"/>
+    </row>
+    <row r="1096" ht="30" customHeight="1">
+      <c r="A1096" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 74: EUS-21012</t>
+        </is>
+      </c>
+      <c r="B1096" s="17" t="n"/>
+      <c r="C1096" s="17" t="n"/>
+      <c r="D1096" s="17" t="n"/>
+      <c r="E1096" s="17" t="n"/>
+      <c r="F1096" s="17" t="n"/>
+    </row>
+    <row r="1097" ht="20" customHeight="1">
+      <c r="A1097" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1097" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1097" s="20" t="n"/>
+      <c r="D1097" s="20" t="n"/>
+      <c r="E1097" s="20" t="n"/>
+      <c r="F1097" s="20" t="n"/>
+    </row>
+    <row r="1098" ht="45" customHeight="1">
+      <c r="A1098" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1098" s="19" t="inlineStr">
+        <is>
+          <t>Otras Consultorías/ Servicios - Asesoramiento en la valoración de plantas fotovoltaicas</t>
+        </is>
+      </c>
+      <c r="C1098" s="20" t="n"/>
+      <c r="D1098" s="20" t="n"/>
+      <c r="E1098" s="20" t="n"/>
+      <c r="F1098" s="20" t="n"/>
+    </row>
+    <row r="1099" ht="20" customHeight="1">
+      <c r="A1099" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1099" s="19" t="inlineStr">
+        <is>
+          <t>EUS-21012</t>
+        </is>
+      </c>
+      <c r="C1099" s="20" t="n"/>
+      <c r="D1099" s="20" t="n"/>
+      <c r="E1099" s="20" t="n"/>
+      <c r="F1099" s="20" t="n"/>
+    </row>
+    <row r="1100" ht="20" customHeight="1">
+      <c r="A1100" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1100" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1100" s="20" t="n"/>
+      <c r="D1100" s="20" t="n"/>
+      <c r="E1100" s="20" t="n"/>
+      <c r="F1100" s="20" t="n"/>
+    </row>
+    <row r="1101" ht="20" customHeight="1">
+      <c r="A1101" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1101" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1101" s="20" t="n"/>
+      <c r="D1101" s="20" t="n"/>
+      <c r="E1101" s="20" t="n"/>
+      <c r="F1101" s="20" t="n"/>
+    </row>
+    <row r="1102" ht="20" customHeight="1">
+      <c r="A1102" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1102" s="19" t="inlineStr"/>
+      <c r="C1102" s="20" t="n"/>
+      <c r="D1102" s="20" t="n"/>
+      <c r="E1102" s="20" t="n"/>
+      <c r="F1102" s="20" t="n"/>
+    </row>
+    <row r="1103" ht="20" customHeight="1">
+      <c r="A1103" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1103" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1103" s="20" t="n"/>
+      <c r="D1103" s="20" t="n"/>
+      <c r="E1103" s="20" t="n"/>
+      <c r="F1103" s="20" t="n"/>
+    </row>
+    <row r="1104" ht="20" customHeight="1">
+      <c r="A1104" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1104" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1104" s="20" t="n"/>
+      <c r="D1104" s="20" t="n"/>
+      <c r="E1104" s="20" t="n"/>
+      <c r="F1104" s="20" t="n"/>
+    </row>
+    <row r="1105" ht="20" customHeight="1">
+      <c r="A1105" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1105" s="19" t="inlineStr"/>
+      <c r="C1105" s="20" t="n"/>
+      <c r="D1105" s="20" t="n"/>
+      <c r="E1105" s="20" t="n"/>
+      <c r="F1105" s="20" t="n"/>
+    </row>
+    <row r="1106" ht="20" customHeight="1">
+      <c r="A1106" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1106" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1106" s="20" t="n"/>
+      <c r="D1106" s="20" t="n"/>
+      <c r="E1106" s="20" t="n"/>
+      <c r="F1106" s="20" t="n"/>
+    </row>
+    <row r="1107" ht="20" customHeight="1">
+      <c r="A1107" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1107" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1107" s="20" t="n"/>
+      <c r="D1107" s="20" t="n"/>
+      <c r="E1107" s="20" t="n"/>
+      <c r="F1107" s="20" t="n"/>
+    </row>
+    <row r="1108" ht="20" customHeight="1">
+      <c r="A1108" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1108" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1108" s="20" t="n"/>
+      <c r="D1108" s="20" t="n"/>
+      <c r="E1108" s="20" t="n"/>
+      <c r="F1108" s="20" t="n"/>
+    </row>
+    <row r="1109" ht="45" customHeight="1">
+      <c r="A1109" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1109" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/otras-consultorias-servicios-asesoramiento-valoracion-plantas-fotovoltaicas/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1109" s="20" t="n"/>
+      <c r="D1109" s="20" t="n"/>
+      <c r="E1109" s="20" t="n"/>
+      <c r="F1109" s="20" t="n"/>
+    </row>
+    <row r="1111" ht="30" customHeight="1">
+      <c r="A1111" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 75: EUS-80336</t>
+        </is>
+      </c>
+      <c r="B1111" s="17" t="n"/>
+      <c r="C1111" s="17" t="n"/>
+      <c r="D1111" s="17" t="n"/>
+      <c r="E1111" s="17" t="n"/>
+      <c r="F1111" s="17" t="n"/>
+    </row>
+    <row r="1112" ht="20" customHeight="1">
+      <c r="A1112" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1112" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1112" s="20" t="n"/>
+      <c r="D1112" s="20" t="n"/>
+      <c r="E1112" s="20" t="n"/>
+      <c r="F1112" s="20" t="n"/>
+    </row>
+    <row r="1113" ht="20" customHeight="1">
+      <c r="A1113" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1113" s="19" t="inlineStr">
+        <is>
+          <t>Asesoría Legal - Asesoramiento en negociación proyecto plantas fotovoltaicas</t>
+        </is>
+      </c>
+      <c r="C1113" s="20" t="n"/>
+      <c r="D1113" s="20" t="n"/>
+      <c r="E1113" s="20" t="n"/>
+      <c r="F1113" s="20" t="n"/>
+    </row>
+    <row r="1114" ht="20" customHeight="1">
+      <c r="A1114" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1114" s="19" t="inlineStr">
+        <is>
+          <t>EUS-80336</t>
+        </is>
+      </c>
+      <c r="C1114" s="20" t="n"/>
+      <c r="D1114" s="20" t="n"/>
+      <c r="E1114" s="20" t="n"/>
+      <c r="F1114" s="20" t="n"/>
+    </row>
+    <row r="1115" ht="20" customHeight="1">
+      <c r="A1115" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1115" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1115" s="20" t="n"/>
+      <c r="D1115" s="20" t="n"/>
+      <c r="E1115" s="20" t="n"/>
+      <c r="F1115" s="20" t="n"/>
+    </row>
+    <row r="1116" ht="20" customHeight="1">
+      <c r="A1116" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1116" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1116" s="20" t="n"/>
+      <c r="D1116" s="20" t="n"/>
+      <c r="E1116" s="20" t="n"/>
+      <c r="F1116" s="20" t="n"/>
+    </row>
+    <row r="1117" ht="20" customHeight="1">
+      <c r="A1117" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1117" s="19" t="inlineStr"/>
+      <c r="C1117" s="20" t="n"/>
+      <c r="D1117" s="20" t="n"/>
+      <c r="E1117" s="20" t="n"/>
+      <c r="F1117" s="20" t="n"/>
+    </row>
+    <row r="1118" ht="20" customHeight="1">
+      <c r="A1118" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1118" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1118" s="20" t="n"/>
+      <c r="D1118" s="20" t="n"/>
+      <c r="E1118" s="20" t="n"/>
+      <c r="F1118" s="20" t="n"/>
+    </row>
+    <row r="1119" ht="20" customHeight="1">
+      <c r="A1119" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1119" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1119" s="20" t="n"/>
+      <c r="D1119" s="20" t="n"/>
+      <c r="E1119" s="20" t="n"/>
+      <c r="F1119" s="20" t="n"/>
+    </row>
+    <row r="1120" ht="20" customHeight="1">
+      <c r="A1120" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1120" s="19" t="inlineStr"/>
+      <c r="C1120" s="20" t="n"/>
+      <c r="D1120" s="20" t="n"/>
+      <c r="E1120" s="20" t="n"/>
+      <c r="F1120" s="20" t="n"/>
+    </row>
+    <row r="1121" ht="20" customHeight="1">
+      <c r="A1121" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1121" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1121" s="20" t="n"/>
+      <c r="D1121" s="20" t="n"/>
+      <c r="E1121" s="20" t="n"/>
+      <c r="F1121" s="20" t="n"/>
+    </row>
+    <row r="1122" ht="20" customHeight="1">
+      <c r="A1122" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1122" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1122" s="20" t="n"/>
+      <c r="D1122" s="20" t="n"/>
+      <c r="E1122" s="20" t="n"/>
+      <c r="F1122" s="20" t="n"/>
+    </row>
+    <row r="1123" ht="20" customHeight="1">
+      <c r="A1123" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1123" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1123" s="20" t="n"/>
+      <c r="D1123" s="20" t="n"/>
+      <c r="E1123" s="20" t="n"/>
+      <c r="F1123" s="20" t="n"/>
+    </row>
+    <row r="1124" ht="45" customHeight="1">
+      <c r="A1124" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1124" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/asesoria-legal-asesoramiento-negociacion-proyecto-plantas-fotovoltaicas/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1124" s="20" t="n"/>
+      <c r="D1124" s="20" t="n"/>
+      <c r="E1124" s="20" t="n"/>
+      <c r="F1124" s="20" t="n"/>
+    </row>
+    <row r="1126" ht="30" customHeight="1">
+      <c r="A1126" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 76: EUS-82751</t>
+        </is>
+      </c>
+      <c r="B1126" s="17" t="n"/>
+      <c r="C1126" s="17" t="n"/>
+      <c r="D1126" s="17" t="n"/>
+      <c r="E1126" s="17" t="n"/>
+      <c r="F1126" s="17" t="n"/>
+    </row>
+    <row r="1127" ht="20" customHeight="1">
+      <c r="A1127" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1127" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1127" s="20" t="n"/>
+      <c r="D1127" s="20" t="n"/>
+      <c r="E1127" s="20" t="n"/>
+      <c r="F1127" s="20" t="n"/>
+    </row>
+    <row r="1128" ht="20" customHeight="1">
+      <c r="A1128" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1128" s="19" t="inlineStr">
+        <is>
+          <t>Limpieza de foso ascensor san juan mekola</t>
+        </is>
+      </c>
+      <c r="C1128" s="20" t="n"/>
+      <c r="D1128" s="20" t="n"/>
+      <c r="E1128" s="20" t="n"/>
+      <c r="F1128" s="20" t="n"/>
+    </row>
+    <row r="1129" ht="20" customHeight="1">
+      <c r="A1129" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1129" s="19" t="inlineStr">
+        <is>
+          <t>EUS-82751</t>
+        </is>
+      </c>
+      <c r="C1129" s="20" t="n"/>
+      <c r="D1129" s="20" t="n"/>
+      <c r="E1129" s="20" t="n"/>
+      <c r="F1129" s="20" t="n"/>
+    </row>
+    <row r="1130" ht="20" customHeight="1">
+      <c r="A1130" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1130" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1130" s="20" t="n"/>
+      <c r="D1130" s="20" t="n"/>
+      <c r="E1130" s="20" t="n"/>
+      <c r="F1130" s="20" t="n"/>
+    </row>
+    <row r="1131" ht="20" customHeight="1">
+      <c r="A1131" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1131" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1131" s="20" t="n"/>
+      <c r="D1131" s="20" t="n"/>
+      <c r="E1131" s="20" t="n"/>
+      <c r="F1131" s="20" t="n"/>
+    </row>
+    <row r="1132" ht="20" customHeight="1">
+      <c r="A1132" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1132" s="19" t="inlineStr"/>
+      <c r="C1132" s="20" t="n"/>
+      <c r="D1132" s="20" t="n"/>
+      <c r="E1132" s="20" t="n"/>
+      <c r="F1132" s="20" t="n"/>
+    </row>
+    <row r="1133" ht="20" customHeight="1">
+      <c r="A1133" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1133" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1133" s="20" t="n"/>
+      <c r="D1133" s="20" t="n"/>
+      <c r="E1133" s="20" t="n"/>
+      <c r="F1133" s="20" t="n"/>
+    </row>
+    <row r="1134" ht="20" customHeight="1">
+      <c r="A1134" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1134" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1134" s="20" t="n"/>
+      <c r="D1134" s="20" t="n"/>
+      <c r="E1134" s="20" t="n"/>
+      <c r="F1134" s="20" t="n"/>
+    </row>
+    <row r="1135" ht="20" customHeight="1">
+      <c r="A1135" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1135" s="19" t="inlineStr"/>
+      <c r="C1135" s="20" t="n"/>
+      <c r="D1135" s="20" t="n"/>
+      <c r="E1135" s="20" t="n"/>
+      <c r="F1135" s="20" t="n"/>
+    </row>
+    <row r="1136" ht="20" customHeight="1">
+      <c r="A1136" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1136" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1136" s="20" t="n"/>
+      <c r="D1136" s="20" t="n"/>
+      <c r="E1136" s="20" t="n"/>
+      <c r="F1136" s="20" t="n"/>
+    </row>
+    <row r="1137" ht="20" customHeight="1">
+      <c r="A1137" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1137" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1137" s="20" t="n"/>
+      <c r="D1137" s="20" t="n"/>
+      <c r="E1137" s="20" t="n"/>
+      <c r="F1137" s="20" t="n"/>
+    </row>
+    <row r="1138" ht="20" customHeight="1">
+      <c r="A1138" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1138" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1138" s="20" t="n"/>
+      <c r="D1138" s="20" t="n"/>
+      <c r="E1138" s="20" t="n"/>
+      <c r="F1138" s="20" t="n"/>
+    </row>
+    <row r="1139" ht="45" customHeight="1">
+      <c r="A1139" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1139" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/limpieza-foso-ascensor-san-juan-mekola/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1139" s="20" t="n"/>
+      <c r="D1139" s="20" t="n"/>
+      <c r="E1139" s="20" t="n"/>
+      <c r="F1139" s="20" t="n"/>
+    </row>
+    <row r="1141" ht="30" customHeight="1">
+      <c r="A1141" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 77: EUS-08134</t>
+        </is>
+      </c>
+      <c r="B1141" s="17" t="n"/>
+      <c r="C1141" s="17" t="n"/>
+      <c r="D1141" s="17" t="n"/>
+      <c r="E1141" s="17" t="n"/>
+      <c r="F1141" s="17" t="n"/>
+    </row>
+    <row r="1142" ht="20" customHeight="1">
+      <c r="A1142" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1142" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1142" s="20" t="n"/>
+      <c r="D1142" s="20" t="n"/>
+      <c r="E1142" s="20" t="n"/>
+      <c r="F1142" s="20" t="n"/>
+    </row>
+    <row r="1143" ht="20" customHeight="1">
+      <c r="A1143" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1143" s="19" t="inlineStr">
+        <is>
+          <t>Limpieza sumideros de errebal</t>
+        </is>
+      </c>
+      <c r="C1143" s="20" t="n"/>
+      <c r="D1143" s="20" t="n"/>
+      <c r="E1143" s="20" t="n"/>
+      <c r="F1143" s="20" t="n"/>
+    </row>
+    <row r="1144" ht="20" customHeight="1">
+      <c r="A1144" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1144" s="19" t="inlineStr">
+        <is>
+          <t>EUS-08134</t>
+        </is>
+      </c>
+      <c r="C1144" s="20" t="n"/>
+      <c r="D1144" s="20" t="n"/>
+      <c r="E1144" s="20" t="n"/>
+      <c r="F1144" s="20" t="n"/>
+    </row>
+    <row r="1145" ht="20" customHeight="1">
+      <c r="A1145" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1145" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1145" s="20" t="n"/>
+      <c r="D1145" s="20" t="n"/>
+      <c r="E1145" s="20" t="n"/>
+      <c r="F1145" s="20" t="n"/>
+    </row>
+    <row r="1146" ht="20" customHeight="1">
+      <c r="A1146" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1146" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1146" s="20" t="n"/>
+      <c r="D1146" s="20" t="n"/>
+      <c r="E1146" s="20" t="n"/>
+      <c r="F1146" s="20" t="n"/>
+    </row>
+    <row r="1147" ht="20" customHeight="1">
+      <c r="A1147" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1147" s="19" t="inlineStr"/>
+      <c r="C1147" s="20" t="n"/>
+      <c r="D1147" s="20" t="n"/>
+      <c r="E1147" s="20" t="n"/>
+      <c r="F1147" s="20" t="n"/>
+    </row>
+    <row r="1148" ht="20" customHeight="1">
+      <c r="A1148" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1148" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1148" s="20" t="n"/>
+      <c r="D1148" s="20" t="n"/>
+      <c r="E1148" s="20" t="n"/>
+      <c r="F1148" s="20" t="n"/>
+    </row>
+    <row r="1149" ht="20" customHeight="1">
+      <c r="A1149" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1149" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1149" s="20" t="n"/>
+      <c r="D1149" s="20" t="n"/>
+      <c r="E1149" s="20" t="n"/>
+      <c r="F1149" s="20" t="n"/>
+    </row>
+    <row r="1150" ht="20" customHeight="1">
+      <c r="A1150" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1150" s="19" t="inlineStr"/>
+      <c r="C1150" s="20" t="n"/>
+      <c r="D1150" s="20" t="n"/>
+      <c r="E1150" s="20" t="n"/>
+      <c r="F1150" s="20" t="n"/>
+    </row>
+    <row r="1151" ht="20" customHeight="1">
+      <c r="A1151" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1151" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1151" s="20" t="n"/>
+      <c r="D1151" s="20" t="n"/>
+      <c r="E1151" s="20" t="n"/>
+      <c r="F1151" s="20" t="n"/>
+    </row>
+    <row r="1152" ht="20" customHeight="1">
+      <c r="A1152" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1152" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1152" s="20" t="n"/>
+      <c r="D1152" s="20" t="n"/>
+      <c r="E1152" s="20" t="n"/>
+      <c r="F1152" s="20" t="n"/>
+    </row>
+    <row r="1153" ht="20" customHeight="1">
+      <c r="A1153" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1153" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1153" s="20" t="n"/>
+      <c r="D1153" s="20" t="n"/>
+      <c r="E1153" s="20" t="n"/>
+      <c r="F1153" s="20" t="n"/>
+    </row>
+    <row r="1154" ht="45" customHeight="1">
+      <c r="A1154" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1154" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/limpieza-sumideros-errebal/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1154" s="20" t="n"/>
+      <c r="D1154" s="20" t="n"/>
+      <c r="E1154" s="20" t="n"/>
+      <c r="F1154" s="20" t="n"/>
+    </row>
+    <row r="1156" ht="30" customHeight="1">
+      <c r="A1156" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 78: EUS-92185</t>
+        </is>
+      </c>
+      <c r="B1156" s="17" t="n"/>
+      <c r="C1156" s="17" t="n"/>
+      <c r="D1156" s="17" t="n"/>
+      <c r="E1156" s="17" t="n"/>
+      <c r="F1156" s="17" t="n"/>
+    </row>
+    <row r="1157" ht="20" customHeight="1">
+      <c r="A1157" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1157" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1157" s="20" t="n"/>
+      <c r="D1157" s="20" t="n"/>
+      <c r="E1157" s="20" t="n"/>
+      <c r="F1157" s="20" t="n"/>
+    </row>
+    <row r="1158" ht="45" customHeight="1">
+      <c r="A1158" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1158" s="19" t="inlineStr">
+        <is>
+          <t>Reparación de cableados de circuitos de fuerza y alumbrado que se encuentran requemados y sin aislamiento en el fronton astelena</t>
+        </is>
+      </c>
+      <c r="C1158" s="20" t="n"/>
+      <c r="D1158" s="20" t="n"/>
+      <c r="E1158" s="20" t="n"/>
+      <c r="F1158" s="20" t="n"/>
+    </row>
+    <row r="1159" ht="20" customHeight="1">
+      <c r="A1159" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1159" s="19" t="inlineStr">
+        <is>
+          <t>EUS-92185</t>
+        </is>
+      </c>
+      <c r="C1159" s="20" t="n"/>
+      <c r="D1159" s="20" t="n"/>
+      <c r="E1159" s="20" t="n"/>
+      <c r="F1159" s="20" t="n"/>
+    </row>
+    <row r="1160" ht="20" customHeight="1">
+      <c r="A1160" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1160" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1160" s="20" t="n"/>
+      <c r="D1160" s="20" t="n"/>
+      <c r="E1160" s="20" t="n"/>
+      <c r="F1160" s="20" t="n"/>
+    </row>
+    <row r="1161" ht="20" customHeight="1">
+      <c r="A1161" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1161" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1161" s="20" t="n"/>
+      <c r="D1161" s="20" t="n"/>
+      <c r="E1161" s="20" t="n"/>
+      <c r="F1161" s="20" t="n"/>
+    </row>
+    <row r="1162" ht="20" customHeight="1">
+      <c r="A1162" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1162" s="19" t="inlineStr"/>
+      <c r="C1162" s="20" t="n"/>
+      <c r="D1162" s="20" t="n"/>
+      <c r="E1162" s="20" t="n"/>
+      <c r="F1162" s="20" t="n"/>
+    </row>
+    <row r="1163" ht="20" customHeight="1">
+      <c r="A1163" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1163" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1163" s="20" t="n"/>
+      <c r="D1163" s="20" t="n"/>
+      <c r="E1163" s="20" t="n"/>
+      <c r="F1163" s="20" t="n"/>
+    </row>
+    <row r="1164" ht="20" customHeight="1">
+      <c r="A1164" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1164" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1164" s="20" t="n"/>
+      <c r="D1164" s="20" t="n"/>
+      <c r="E1164" s="20" t="n"/>
+      <c r="F1164" s="20" t="n"/>
+    </row>
+    <row r="1165" ht="20" customHeight="1">
+      <c r="A1165" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1165" s="19" t="inlineStr"/>
+      <c r="C1165" s="20" t="n"/>
+      <c r="D1165" s="20" t="n"/>
+      <c r="E1165" s="20" t="n"/>
+      <c r="F1165" s="20" t="n"/>
+    </row>
+    <row r="1166" ht="20" customHeight="1">
+      <c r="A1166" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1166" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1166" s="20" t="n"/>
+      <c r="D1166" s="20" t="n"/>
+      <c r="E1166" s="20" t="n"/>
+      <c r="F1166" s="20" t="n"/>
+    </row>
+    <row r="1167" ht="20" customHeight="1">
+      <c r="A1167" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1167" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1167" s="20" t="n"/>
+      <c r="D1167" s="20" t="n"/>
+      <c r="E1167" s="20" t="n"/>
+      <c r="F1167" s="20" t="n"/>
+    </row>
+    <row r="1168" ht="20" customHeight="1">
+      <c r="A1168" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1168" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1168" s="20" t="n"/>
+      <c r="D1168" s="20" t="n"/>
+      <c r="E1168" s="20" t="n"/>
+      <c r="F1168" s="20" t="n"/>
+    </row>
+    <row r="1169" ht="45" customHeight="1">
+      <c r="A1169" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1169" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/reparacion-cableados-circuitos-fuerza-y-alumbrado-que-se-encuentran-requemados-y-aislamiento-fronton-astelena/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1169" s="20" t="n"/>
+      <c r="D1169" s="20" t="n"/>
+      <c r="E1169" s="20" t="n"/>
+      <c r="F1169" s="20" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="966">
+  <mergeCells count="1092">
     <mergeCell ref="B679:F679"/>
     <mergeCell ref="B666:F666"/>
     <mergeCell ref="B964:F964"/>
@@ -19665,20 +22077,27 @@
     <mergeCell ref="B532:F532"/>
     <mergeCell ref="B799:F799"/>
     <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B1041:F1041"/>
     <mergeCell ref="B342:F342"/>
     <mergeCell ref="B578:F578"/>
     <mergeCell ref="A541:F541"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1099:F1099"/>
     <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B1128:F1128"/>
     <mergeCell ref="A841:F841"/>
     <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B1094:F1094"/>
     <mergeCell ref="B723:F723"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B894:F894"/>
     <mergeCell ref="B133:F133"/>
     <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B1130:F1130"/>
     <mergeCell ref="B369:F369"/>
     <mergeCell ref="B667:F667"/>
     <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B1142:F1142"/>
     <mergeCell ref="B356:F356"/>
     <mergeCell ref="B160:F160"/>
     <mergeCell ref="B489:F489"/>
@@ -19693,6 +22112,8 @@
     <mergeCell ref="B1023:F1023"/>
     <mergeCell ref="B433:F433"/>
     <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1085:F1085"/>
     <mergeCell ref="B227:F227"/>
     <mergeCell ref="B531:F531"/>
     <mergeCell ref="B591:F591"/>
@@ -19700,15 +22121,18 @@
     <mergeCell ref="B662:F662"/>
     <mergeCell ref="B718:F718"/>
     <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B1131:F1131"/>
     <mergeCell ref="B72:F72"/>
     <mergeCell ref="B954:F954"/>
     <mergeCell ref="B199:F199"/>
     <mergeCell ref="B370:F370"/>
     <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1112:F1112"/>
     <mergeCell ref="B291:F291"/>
     <mergeCell ref="B655:F655"/>
     <mergeCell ref="B974:F974"/>
     <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B1072:F1072"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B228:F228"/>
     <mergeCell ref="B293:F293"/>
@@ -19733,6 +22157,7 @@
     <mergeCell ref="B217:F217"/>
     <mergeCell ref="B388:F388"/>
     <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B1038:F1038"/>
     <mergeCell ref="B304:F304"/>
     <mergeCell ref="B746:F746"/>
     <mergeCell ref="B546:F546"/>
@@ -19744,9 +22169,11 @@
     <mergeCell ref="B83:F83"/>
     <mergeCell ref="B254:F254"/>
     <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B1105:F1105"/>
     <mergeCell ref="B319:F319"/>
     <mergeCell ref="B490:F490"/>
     <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B1046:F1046"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="B85:F85"/>
     <mergeCell ref="B383:F383"/>
@@ -19754,6 +22181,7 @@
     <mergeCell ref="A346:F346"/>
     <mergeCell ref="B904:F904"/>
     <mergeCell ref="B635:F635"/>
+    <mergeCell ref="A1141:F1141"/>
     <mergeCell ref="B141:F141"/>
     <mergeCell ref="B439:F439"/>
     <mergeCell ref="A136:F136"/>
@@ -19774,8 +22202,10 @@
     <mergeCell ref="B530:F530"/>
     <mergeCell ref="B726:F726"/>
     <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B1133:F1133"/>
     <mergeCell ref="A886:F886"/>
     <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B1060:F1060"/>
     <mergeCell ref="B499:F499"/>
     <mergeCell ref="B299:F299"/>
     <mergeCell ref="B274:F274"/>
@@ -19785,11 +22215,13 @@
     <mergeCell ref="B741:F741"/>
     <mergeCell ref="B461:F461"/>
     <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B1039:F1039"/>
     <mergeCell ref="B249:F249"/>
     <mergeCell ref="A481:F481"/>
     <mergeCell ref="B559:F559"/>
     <mergeCell ref="B243:F243"/>
     <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1075:F1075"/>
     <mergeCell ref="B678:F678"/>
     <mergeCell ref="B363:F363"/>
     <mergeCell ref="B534:F534"/>
@@ -19799,28 +22231,36 @@
     <mergeCell ref="B957:F957"/>
     <mergeCell ref="B373:F373"/>
     <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1055:F1055"/>
     <mergeCell ref="B536:F536"/>
     <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B1143:F1143"/>
     <mergeCell ref="B899:F899"/>
     <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B1070:F1070"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B1115:F1115"/>
     <mergeCell ref="B325:F325"/>
     <mergeCell ref="B154:F154"/>
     <mergeCell ref="A271:F271"/>
     <mergeCell ref="B561:F561"/>
     <mergeCell ref="B754:F754"/>
     <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B1052:F1052"/>
     <mergeCell ref="B981:F981"/>
     <mergeCell ref="B846:F846"/>
     <mergeCell ref="B973:F973"/>
     <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B1044:F1044"/>
     <mergeCell ref="B156:F156"/>
     <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B1144:F1144"/>
     <mergeCell ref="B454:F454"/>
     <mergeCell ref="B625:F625"/>
     <mergeCell ref="B923:F923"/>
     <mergeCell ref="A571:F571"/>
     <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B1054:F1054"/>
     <mergeCell ref="B910:F910"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B155:F155"/>
@@ -19834,8 +22274,12 @@
     <mergeCell ref="B518:F518"/>
     <mergeCell ref="B562:F562"/>
     <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1123:F1123"/>
     <mergeCell ref="B86:F86"/>
     <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B1083:F1083"/>
     <mergeCell ref="B262:F262"/>
     <mergeCell ref="B887:F887"/>
     <mergeCell ref="B862:F862"/>
@@ -19865,6 +22309,7 @@
     <mergeCell ref="B778:F778"/>
     <mergeCell ref="B978:F978"/>
     <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B1076:F1076"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B302:F302"/>
@@ -19878,10 +22323,13 @@
     <mergeCell ref="B836:F836"/>
     <mergeCell ref="B81:F81"/>
     <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B1042:F1042"/>
     <mergeCell ref="B366:F366"/>
     <mergeCell ref="B979:F979"/>
     <mergeCell ref="B381:F381"/>
     <mergeCell ref="B552:F552"/>
+    <mergeCell ref="A1111:F1111"/>
+    <mergeCell ref="B1084:F1084"/>
     <mergeCell ref="A976:F976"/>
     <mergeCell ref="B170:F170"/>
     <mergeCell ref="B157:F157"/>
@@ -19914,7 +22362,9 @@
     <mergeCell ref="B92:F92"/>
     <mergeCell ref="B984:F984"/>
     <mergeCell ref="A226:F226"/>
+    <mergeCell ref="B1124:F1124"/>
     <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B1162:F1162"/>
     <mergeCell ref="B692:F692"/>
     <mergeCell ref="A931:F931"/>
     <mergeCell ref="B486:F486"/>
@@ -19926,21 +22376,26 @@
     <mergeCell ref="B265:F265"/>
     <mergeCell ref="B458:F458"/>
     <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B1091:F1091"/>
     <mergeCell ref="A526:F526"/>
     <mergeCell ref="B694:F694"/>
     <mergeCell ref="B786:F786"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="A286:F286"/>
     <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B1073:F1073"/>
     <mergeCell ref="B185:F185"/>
     <mergeCell ref="A826:F826"/>
     <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B1165:F1165"/>
     <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B1048:F1048"/>
     <mergeCell ref="B475:F475"/>
     <mergeCell ref="B768:F768"/>
     <mergeCell ref="B817:F817"/>
     <mergeCell ref="B944:F944"/>
     <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B1102:F1102"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B176:F176"/>
     <mergeCell ref="B347:F347"/>
@@ -19954,19 +22409,25 @@
     <mergeCell ref="B639:F639"/>
     <mergeCell ref="B710:F710"/>
     <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B1068:F1068"/>
     <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B1117:F1117"/>
     <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1160:F1160"/>
     <mergeCell ref="B641:F641"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B883:F883"/>
     <mergeCell ref="B908:F908"/>
     <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B1168:F1168"/>
     <mergeCell ref="B407:F407"/>
     <mergeCell ref="A646:F646"/>
     <mergeCell ref="B972:F972"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B463:F463"/>
     <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B1145:F1145"/>
     <mergeCell ref="B359:F359"/>
     <mergeCell ref="B207:F207"/>
     <mergeCell ref="B788:F788"/>
@@ -19979,7 +22440,10 @@
     <mergeCell ref="B934:F934"/>
     <mergeCell ref="B173:F173"/>
     <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1061:F1061"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1153:F1153"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="B507:F507"/>
     <mergeCell ref="B62:F62"/>
@@ -19993,9 +22457,13 @@
     <mergeCell ref="B473:F473"/>
     <mergeCell ref="B273:F273"/>
     <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1161:F1161"/>
     <mergeCell ref="B807:F807"/>
     <mergeCell ref="B1000:F1000"/>
     <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B1092:F1092"/>
     <mergeCell ref="B508:F508"/>
     <mergeCell ref="B573:F573"/>
     <mergeCell ref="A961:F961"/>
@@ -20024,7 +22492,9 @@
     <mergeCell ref="B1018:F1018"/>
     <mergeCell ref="B624:F624"/>
     <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B1118:F1118"/>
     <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B1167:F1167"/>
     <mergeCell ref="B222:F222"/>
     <mergeCell ref="B344:F344"/>
     <mergeCell ref="B415:F415"/>
@@ -20035,6 +22505,7 @@
     <mergeCell ref="B123:F123"/>
     <mergeCell ref="B949:F949"/>
     <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1120:F1120"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B221:F221"/>
     <mergeCell ref="B110:F110"/>
@@ -20051,6 +22522,7 @@
     <mergeCell ref="B802:F802"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B1136:F1136"/>
     <mergeCell ref="B248:F248"/>
     <mergeCell ref="B297:F297"/>
     <mergeCell ref="B813:F813"/>
@@ -20064,13 +22536,17 @@
     <mergeCell ref="B337:F337"/>
     <mergeCell ref="B312:F312"/>
     <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B1089:F1089"/>
     <mergeCell ref="B610:F610"/>
     <mergeCell ref="B877:F877"/>
     <mergeCell ref="B815:F815"/>
     <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1113:F1113"/>
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B1100:F1100"/>
     <mergeCell ref="B205:F205"/>
     <mergeCell ref="B339:F339"/>
     <mergeCell ref="B314:F314"/>
@@ -20079,6 +22555,8 @@
     <mergeCell ref="B808:F808"/>
     <mergeCell ref="B879:F879"/>
     <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1158:F1158"/>
     <mergeCell ref="B403:F403"/>
     <mergeCell ref="B574:F574"/>
     <mergeCell ref="B745:F745"/>
@@ -20086,6 +22564,7 @@
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B1003:F1003"/>
     <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B1166:F1166"/>
     <mergeCell ref="A706:F706"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B129:F129"/>
@@ -20099,6 +22578,7 @@
     <mergeCell ref="B292:F292"/>
     <mergeCell ref="B492:F492"/>
     <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B1082:F1082"/>
     <mergeCell ref="B528:F528"/>
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B1019:F1019"/>
@@ -20136,11 +22616,13 @@
     <mergeCell ref="B892:F892"/>
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="A436:F436"/>
+    <mergeCell ref="B1079:F1079"/>
     <mergeCell ref="A121:F121"/>
     <mergeCell ref="B289:F289"/>
     <mergeCell ref="A721:F721"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B1152:F1152"/>
     <mergeCell ref="B668:F668"/>
     <mergeCell ref="B84:F84"/>
     <mergeCell ref="A736:F736"/>
@@ -20151,6 +22633,7 @@
     <mergeCell ref="A1021:F1021"/>
     <mergeCell ref="B434:F434"/>
     <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B1047:F1047"/>
     <mergeCell ref="B142:F142"/>
     <mergeCell ref="B313:F313"/>
     <mergeCell ref="B80:F80"/>
@@ -20163,8 +22646,10 @@
     <mergeCell ref="B305:F305"/>
     <mergeCell ref="B816:F816"/>
     <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B1114:F1114"/>
     <mergeCell ref="B607:F607"/>
     <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B1049:F1049"/>
     <mergeCell ref="B905:F905"/>
     <mergeCell ref="B1032:F1032"/>
     <mergeCell ref="B144:F144"/>
@@ -20172,6 +22657,7 @@
     <mergeCell ref="B442:F442"/>
     <mergeCell ref="B242:F242"/>
     <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B1116:F1116"/>
     <mergeCell ref="B671:F671"/>
     <mergeCell ref="B969:F969"/>
     <mergeCell ref="B907:F907"/>
@@ -20189,12 +22675,15 @@
     <mergeCell ref="B760:F760"/>
     <mergeCell ref="B437:F437"/>
     <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B1119:F1119"/>
     <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B1098:F1098"/>
     <mergeCell ref="B898:F898"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B520:F520"/>
     <mergeCell ref="B958:F958"/>
     <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B1134:F1134"/>
     <mergeCell ref="B854:F854"/>
     <mergeCell ref="B99:F99"/>
     <mergeCell ref="B737:F737"/>
@@ -20211,26 +22700,33 @@
     <mergeCell ref="B239:F239"/>
     <mergeCell ref="B310:F310"/>
     <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B1071:F1071"/>
     <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B1127:F1127"/>
     <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B1037:F1037"/>
     <mergeCell ref="B722:F722"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="A856:F856"/>
     <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B1129:F1129"/>
     <mergeCell ref="B374:F374"/>
     <mergeCell ref="B659:F659"/>
     <mergeCell ref="B830:F830"/>
     <mergeCell ref="A871:F871"/>
     <mergeCell ref="B895:F895"/>
+    <mergeCell ref="A1156:F1156"/>
     <mergeCell ref="B232:F232"/>
     <mergeCell ref="B321:F321"/>
     <mergeCell ref="B215:F215"/>
     <mergeCell ref="B513:F513"/>
     <mergeCell ref="B684:F684"/>
     <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B1053:F1053"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B847:F847"/>
     <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B1040:F1040"/>
     <mergeCell ref="B152:F152"/>
     <mergeCell ref="B323:F323"/>
     <mergeCell ref="A76:F76"/>
@@ -20283,6 +22779,8 @@
     <mergeCell ref="B309:F309"/>
     <mergeCell ref="A316:F316"/>
     <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="A1081:F1081"/>
     <mergeCell ref="B100:F100"/>
     <mergeCell ref="B336:F336"/>
     <mergeCell ref="B634:F634"/>
@@ -20291,21 +22789,25 @@
     <mergeCell ref="B140:F140"/>
     <mergeCell ref="B115:F115"/>
     <mergeCell ref="B382:F382"/>
+    <mergeCell ref="A1096:F1096"/>
     <mergeCell ref="B680:F680"/>
     <mergeCell ref="A376:F376"/>
     <mergeCell ref="B102:F102"/>
     <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B1137:F1137"/>
     <mergeCell ref="B400:F400"/>
     <mergeCell ref="B698:F698"/>
     <mergeCell ref="B832:F832"/>
     <mergeCell ref="B77:F77"/>
     <mergeCell ref="B903:F903"/>
     <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B1074:F1074"/>
     <mergeCell ref="B440:F440"/>
     <mergeCell ref="B611:F611"/>
     <mergeCell ref="B598:F598"/>
     <mergeCell ref="B402:F402"/>
     <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B1138:F1138"/>
     <mergeCell ref="B377:F377"/>
     <mergeCell ref="A451:F451"/>
     <mergeCell ref="B29:F29"/>
@@ -20315,6 +22817,7 @@
     <mergeCell ref="B756:F756"/>
     <mergeCell ref="B992:F992"/>
     <mergeCell ref="A811:F811"/>
+    <mergeCell ref="B1150:F1150"/>
     <mergeCell ref="B329:F329"/>
     <mergeCell ref="B627:F627"/>
     <mergeCell ref="B49:F49"/>
@@ -20324,10 +22827,12 @@
     <mergeCell ref="B614:F614"/>
     <mergeCell ref="A511:F511"/>
     <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B1056:F1056"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B850:F850"/>
     <mergeCell ref="B95:F95"/>
     <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B1043:F1043"/>
     <mergeCell ref="B89:F89"/>
     <mergeCell ref="B393:F393"/>
     <mergeCell ref="B453:F453"/>
@@ -20341,6 +22846,7 @@
     <mergeCell ref="B987:F987"/>
     <mergeCell ref="B787:F787"/>
     <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B1058:F1058"/>
     <mergeCell ref="B914:F914"/>
     <mergeCell ref="B197:F197"/>
     <mergeCell ref="B26:F26"/>
@@ -20358,11 +22864,15 @@
     <mergeCell ref="B851:F851"/>
     <mergeCell ref="B845:F845"/>
     <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1149:F1149"/>
     <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B1062:F1062"/>
     <mergeCell ref="A301:F301"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B782:F782"/>
     <mergeCell ref="A331:F331"/>
+    <mergeCell ref="B1069:F1069"/>
     <mergeCell ref="B548:F548"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="A616:F616"/>
@@ -20376,6 +22886,7 @@
     <mergeCell ref="B250:F250"/>
     <mergeCell ref="B927:F927"/>
     <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B1163:F1163"/>
     <mergeCell ref="B408:F408"/>
     <mergeCell ref="B464:F464"/>
     <mergeCell ref="A916:F916"/>
@@ -20407,20 +22918,24 @@
     <mergeCell ref="B281:F281"/>
     <mergeCell ref="B775:F775"/>
     <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1036:F1036"/>
     <mergeCell ref="B497:F497"/>
     <mergeCell ref="B1033:F1033"/>
     <mergeCell ref="B983:F983"/>
+    <mergeCell ref="A1051:F1051"/>
     <mergeCell ref="B970:F970"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="B355:F355"/>
     <mergeCell ref="B134:F134"/>
     <mergeCell ref="B572:F572"/>
     <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B1057:F1057"/>
     <mergeCell ref="B357:F357"/>
     <mergeCell ref="B995:F995"/>
     <mergeCell ref="B96:F96"/>
     <mergeCell ref="B922:F922"/>
     <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B1093:F1093"/>
     <mergeCell ref="B332:F332"/>
     <mergeCell ref="B503:F503"/>
     <mergeCell ref="B701:F701"/>
@@ -20430,12 +22945,16 @@
     <mergeCell ref="B111:F111"/>
     <mergeCell ref="B617:F617"/>
     <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1086:F1086"/>
     <mergeCell ref="B853:F853"/>
     <mergeCell ref="B98:F98"/>
     <mergeCell ref="B986:F986"/>
     <mergeCell ref="B1024:F1024"/>
     <mergeCell ref="B396:F396"/>
     <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1157:F1157"/>
     <mergeCell ref="B632:F632"/>
     <mergeCell ref="B803:F803"/>
     <mergeCell ref="B996:F996"/>
@@ -20445,14 +22964,18 @@
     <mergeCell ref="B162:F162"/>
     <mergeCell ref="B267:F267"/>
     <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1159:F1159"/>
     <mergeCell ref="B398:F398"/>
     <mergeCell ref="B569:F569"/>
     <mergeCell ref="A466:F466"/>
     <mergeCell ref="B696:F696"/>
     <mergeCell ref="B867:F867"/>
+    <mergeCell ref="A1066:F1066"/>
     <mergeCell ref="B269:F269"/>
     <mergeCell ref="B187:F187"/>
     <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B1154:F1154"/>
     <mergeCell ref="B124:F124"/>
     <mergeCell ref="B251:F251"/>
     <mergeCell ref="B806:F806"/>
@@ -20460,7 +22983,9 @@
     <mergeCell ref="B493:F493"/>
     <mergeCell ref="B216:F216"/>
     <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B1077:F1077"/>
     <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B1169:F1169"/>
     <mergeCell ref="B414:F414"/>
     <mergeCell ref="B474:F474"/>
     <mergeCell ref="B772:F772"/>
@@ -20497,11 +23022,15 @@
     <mergeCell ref="B409:F409"/>
     <mergeCell ref="B580:F580"/>
     <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B1108:F1108"/>
     <mergeCell ref="B711:F711"/>
     <mergeCell ref="B1009:F1009"/>
     <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B1101:F1101"/>
     <mergeCell ref="B582:F582"/>
     <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1132:F1132"/>
     <mergeCell ref="B73:F73"/>
     <mergeCell ref="B371:F371"/>
     <mergeCell ref="B638:F638"/>
@@ -20514,6 +23043,7 @@
     <mergeCell ref="A676:F676"/>
     <mergeCell ref="B137:F137"/>
     <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B1106:F1106"/>
     <mergeCell ref="B702:F702"/>
     <mergeCell ref="B677:F677"/>
     <mergeCell ref="B640:F640"/>
@@ -20544,9 +23074,11 @@
     <mergeCell ref="B66:F66"/>
     <mergeCell ref="B326:F326"/>
     <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B1103:F1103"/>
     <mergeCell ref="A406:F406"/>
     <mergeCell ref="B951:F951"/>
     <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B1078:F1078"/>
     <mergeCell ref="A946:F946"/>
     <mergeCell ref="A631:F631"/>
     <mergeCell ref="B117:F117"/>
@@ -20561,6 +23093,8 @@
     <mergeCell ref="B132:F132"/>
     <mergeCell ref="B425:F425"/>
     <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1045:F1045"/>
     <mergeCell ref="B119:F119"/>
     <mergeCell ref="B290:F290"/>
     <mergeCell ref="B417:F417"/>
@@ -20570,10 +23104,13 @@
     <mergeCell ref="B824:F824"/>
     <mergeCell ref="B1017:F1017"/>
     <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B1122:F1122"/>
     <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B1139:F1139"/>
     <mergeCell ref="B112:F112"/>
     <mergeCell ref="B283:F283"/>
     <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B1109:F1109"/>
     <mergeCell ref="B348:F348"/>
     <mergeCell ref="B519:F519"/>
     <mergeCell ref="B419:F419"/>
@@ -20589,6 +23126,7 @@
     <mergeCell ref="B648:F648"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B51:F51"/>
+    <mergeCell ref="A1126:F1126"/>
     <mergeCell ref="B443:F443"/>
     <mergeCell ref="A196:F196"/>
     <mergeCell ref="B237:F237"/>
@@ -20663,6 +23201,15 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1004" r:id="rId67"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1019" r:id="rId68"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1034" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1049" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1064" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1079" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1094" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1109" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1124" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1139" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1154" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1169" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20674,7 +23221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22786,7 +25333,7 @@
     <row r="56" ht="28" customHeight="1">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>EUS-15293</t>
+          <t>EUS-89962</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
@@ -22822,7 +25369,7 @@
     <row r="57" ht="28" customHeight="1">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>EUS-60835</t>
+          <t>EUS-51969</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr">
@@ -22858,7 +25405,7 @@
     <row r="58" ht="28" customHeight="1">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>EUS-59232</t>
+          <t>EUS-56284</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
@@ -22894,7 +25441,7 @@
     <row r="59" ht="28" customHeight="1">
       <c r="A59" s="6" t="inlineStr">
         <is>
-          <t>EUS-36628</t>
+          <t>EUS-28861</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr">
@@ -22930,7 +25477,7 @@
     <row r="60" ht="28" customHeight="1">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>EUS-18488</t>
+          <t>EUS-17841</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
@@ -22966,12 +25513,12 @@
     <row r="61" ht="28" customHeight="1">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>EUS-87234</t>
+          <t>EUS-27002</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligente</t>
+          <t>Asesoría Legal - Consultas tramitación de proyectos de energ</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
@@ -22987,7 +25534,7 @@
       <c r="E61" s="6" t="inlineStr"/>
       <c r="F61" s="25" t="inlineStr">
         <is>
-          <t>MEDIA</t>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="G61" s="6" t="inlineStr"/>
@@ -23002,12 +25549,12 @@
     <row r="62" ht="28" customHeight="1">
       <c r="A62" s="6" t="inlineStr">
         <is>
-          <t>EUS-73772</t>
+          <t>EUS-18210</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos N</t>
+          <t>Programa de impulso a las ciudades y territorios inteligente</t>
         </is>
       </c>
       <c r="C62" s="6" t="inlineStr">
@@ -23038,12 +25585,12 @@
     <row r="63" ht="28" customHeight="1">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>EUS-49109</t>
+          <t>EUS-59993</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe. Clúster digital, industrial y espacial. Apoy</t>
+          <t>Formación digital para empleabilidad turística: los fondos N</t>
         </is>
       </c>
       <c r="C63" s="6" t="inlineStr">
@@ -23074,12 +25621,12 @@
     <row r="64" ht="28" customHeight="1">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>EUS-72760</t>
+          <t>EUS-25797</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe: ayudas de la línea de energía del clúster 5 </t>
+          <t>Horizon Europe. Clúster digital, industrial y espacial. Apoy</t>
         </is>
       </c>
       <c r="C64" s="6" t="inlineStr">
@@ -23110,12 +25657,12 @@
     <row r="65" ht="28" customHeight="1">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>EUS-28905</t>
+          <t>EUS-12160</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instal</t>
+          <t xml:space="preserve">Horizon Europe: ayudas de la línea de energía del clúster 5 </t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
@@ -23146,12 +25693,12 @@
     <row r="66" ht="28" customHeight="1">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>EUS-54869</t>
+          <t>EUS-77123</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instal</t>
         </is>
       </c>
       <c r="C66" s="6" t="inlineStr">
@@ -23182,12 +25729,12 @@
     <row r="67" ht="28" customHeight="1">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>EUS-95967</t>
+          <t>EUS-64792</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones amb</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
@@ -23218,12 +25765,12 @@
     <row r="68" ht="28" customHeight="1">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>EUS-17430</t>
+          <t>EUS-00130</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfab</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones amb</t>
         </is>
       </c>
       <c r="C68" s="6" t="inlineStr">
@@ -23254,12 +25801,12 @@
     <row r="69" ht="28" customHeight="1">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>EUS-18205</t>
+          <t>EUS-83114</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Indust</t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfab</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
@@ -23290,12 +25837,12 @@
     <row r="70" ht="28" customHeight="1">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>EUS-12970</t>
+          <t>EUS-36808</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asignaciones individualizadas de transporte escolar para el </t>
+          <t>KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Indust</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
@@ -23323,8 +25870,332 @@
       <c r="I70" s="6" t="inlineStr"/>
       <c r="J70" s="6" t="inlineStr"/>
     </row>
+    <row r="71" ht="28" customHeight="1">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>EUS-28459</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asignaciones individualizadas de transporte escolar para el </t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E71" s="6" t="inlineStr"/>
+      <c r="F71" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G71" s="6" t="inlineStr"/>
+      <c r="H71" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I71" s="6" t="inlineStr"/>
+      <c r="J71" s="6" t="inlineStr"/>
+    </row>
+    <row r="72" ht="28" customHeight="1">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>EUS-68968</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>Mantenimiento preventivo de 10 grúas de techo ubicadas en el</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="inlineStr"/>
+      <c r="F72" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr"/>
+      <c r="H72" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I72" s="6" t="inlineStr"/>
+      <c r="J72" s="6" t="inlineStr"/>
+    </row>
+    <row r="73" ht="28" customHeight="1">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>EUS-40629</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>Asesoría Legal - Asesoramiento legal contestación borofax So</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="inlineStr"/>
+      <c r="F73" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr"/>
+      <c r="H73" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I73" s="6" t="inlineStr"/>
+      <c r="J73" s="6" t="inlineStr"/>
+    </row>
+    <row r="74" ht="28" customHeight="1">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>EUS-35956</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>Otras Consultorías/ Servicios - Asesoramiento en la valoraci</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="inlineStr"/>
+      <c r="F74" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr"/>
+      <c r="H74" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I74" s="6" t="inlineStr"/>
+      <c r="J74" s="6" t="inlineStr"/>
+    </row>
+    <row r="75" ht="28" customHeight="1">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>EUS-21012</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>Otras Consultorías/ Servicios - Asesoramiento en la valoraci</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E75" s="6" t="inlineStr"/>
+      <c r="F75" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G75" s="6" t="inlineStr"/>
+      <c r="H75" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I75" s="6" t="inlineStr"/>
+      <c r="J75" s="6" t="inlineStr"/>
+    </row>
+    <row r="76" ht="28" customHeight="1">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>EUS-80336</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>Asesoría Legal - Asesoramiento en negociación proyecto plant</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E76" s="6" t="inlineStr"/>
+      <c r="F76" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G76" s="6" t="inlineStr"/>
+      <c r="H76" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I76" s="6" t="inlineStr"/>
+      <c r="J76" s="6" t="inlineStr"/>
+    </row>
+    <row r="77" ht="28" customHeight="1">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>EUS-82751</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>Limpieza de foso ascensor san juan mekola</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="inlineStr"/>
+      <c r="F77" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G77" s="6" t="inlineStr"/>
+      <c r="H77" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I77" s="6" t="inlineStr"/>
+      <c r="J77" s="6" t="inlineStr"/>
+    </row>
+    <row r="78" ht="28" customHeight="1">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>EUS-08134</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>Limpieza sumideros de errebal</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E78" s="6" t="inlineStr"/>
+      <c r="F78" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G78" s="6" t="inlineStr"/>
+      <c r="H78" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I78" s="6" t="inlineStr"/>
+      <c r="J78" s="6" t="inlineStr"/>
+    </row>
+    <row r="79" ht="28" customHeight="1">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>EUS-92185</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>Reparación de cableados de circuitos de fuerza y alumbrado q</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E79" s="6" t="inlineStr"/>
+      <c r="F79" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G79" s="6" t="inlineStr"/>
+      <c r="H79" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I79" s="6" t="inlineStr"/>
+      <c r="J79" s="6" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J70"/>
+  <autoFilter ref="A1:J79"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/resultados_convocatorias.xlsx
+++ b/docs/resultados_convocatorias.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Recursos" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumen'!$A$4:$M$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Seguimiento'!$A$1:$J$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumen'!$A$4:$M$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Seguimiento'!$A$1:$J$83</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -78,13 +78,13 @@
     <font>
       <name val="Leelawadee UI"/>
       <b val="1"/>
-      <color rgb="00065F46"/>
+      <color rgb="00DC2626"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Leelawadee UI"/>
       <b val="1"/>
-      <color rgb="00DC2626"/>
+      <color rgb="00065F46"/>
       <sz val="10"/>
     </font>
     <font>
@@ -145,6 +145,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FEF2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DCFCE7"/>
       </patternFill>
     </fill>
@@ -156,11 +161,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00D1FAE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEF2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -243,14 +243,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -290,8 +290,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -691,7 +691,7 @@
     <row r="2" ht="22" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Mision Climatica - Neutralidad 2030 - Actualizado: 17/02/2026 08:12 - 79 convocatorias - 20 nuevas</t>
+          <t>Mision Climatica - Neutralidad 2030 - Actualizado: 18/02/2026 08:06 - 82 convocatorias - 24 nuevas</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
         </is>
       </c>
       <c r="L13" s="6" t="inlineStr"/>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
         </is>
       </c>
       <c r="D14" s="6" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
         </is>
       </c>
       <c r="L14" s="6" t="inlineStr"/>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
         </is>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
@@ -2040,12 +2040,12 @@
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
+          <t>HORIZON-CL5-2026-04-Two-Stage-D3-02</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>Addressing homelessness through housing-led approaches aligned with the New European Bauhaus</t>
+          <t>Next generation of renewable energy technologies</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
@@ -2053,14 +2053,14 @@
           <t>Horizon Europe</t>
         </is>
       </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Forthcoming</t>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
         </is>
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>01/12/2026</t>
+          <t>31/03/2026</t>
         </is>
       </c>
       <c r="G27" s="6" t="inlineStr">
@@ -2070,22 +2070,22 @@
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>Innovation Actions</t>
-        </is>
-      </c>
-      <c r="I27" s="8" t="inlineStr">
-        <is>
-          <t>ALTA</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
+        </is>
+      </c>
+      <c r="I27" s="11" t="inlineStr">
+        <is>
+          <t>INFO</t>
         </is>
       </c>
       <c r="J27" s="6" t="inlineStr">
         <is>
-          <t>NEB combina sostenibilidad + diseño + inclusion. Ideal para regeneracion urbana Bilbao (Zorrotzaurre, Casco Viejo).</t>
+          <t>Revisar relevancia para el Ayuntamiento de Bilbao.</t>
         </is>
       </c>
       <c r="K27" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Housing-led approaches[1] aligned with the NEB are made available to stakeholders involved in tack</t>
+          <t>Expected Outcome:Projects are expected to contribute to all of the following expected outcomes:Breakthrough and game changing renewable energy technologies enabling a faster transition to a net-zero g</t>
         </is>
       </c>
       <c r="L27" s="6" t="inlineStr"/>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-BUSINESS-03</t>
+          <t>HORIZON-CL5-2026-03-D3-22</t>
         </is>
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>Anticipating the long-term future of neighbourhoods in line with the New European Bauhaus</t>
+          <t>AI-driven forecasting algorithms for Grid and Consumer friendly Energy Sharing – Societal Readiness pilot</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
@@ -2116,42 +2116,46 @@
           <t>Horizon Europe</t>
         </is>
       </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>Forthcoming</t>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
         </is>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>01/12/2027</t>
+          <t>31/03/2026</t>
         </is>
       </c>
       <c r="G28" s="6" t="inlineStr">
         <is>
-          <t>5,500,000</t>
+          <t>5,000,000</t>
         </is>
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
-        </is>
-      </c>
-      <c r="I28" s="8" t="inlineStr">
-        <is>
-          <t>ALTA</t>
+          <t>Innovation Actions</t>
+        </is>
+      </c>
+      <c r="I28" s="11" t="inlineStr">
+        <is>
+          <t>INFO</t>
         </is>
       </c>
       <c r="J28" s="6" t="inlineStr">
         <is>
-          <t>NEB combina sostenibilidad + diseño + inclusion. Ideal para regeneracion urbana Bilbao (Zorrotzaurre, Casco Viejo).</t>
+          <t>Revisar relevancia para el Ayuntamiento de Bilbao.</t>
         </is>
       </c>
       <c r="K28" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Local stakeholders adopt long-term stewardship and participate[1] in anticipating and envisioning </t>
-        </is>
-      </c>
-      <c r="L28" s="6" t="inlineStr"/>
+          <t xml:space="preserve">Expected Outcome:Projects are expected to contribute to all the following expected outcomes:Develop and test AI-driven forecasting algorithms that use machine learning processes to optimise the value </t>
+        </is>
+      </c>
+      <c r="L28" s="12" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
       <c r="M28" s="9" t="inlineStr">
         <is>
           <t>Ver</t>
@@ -2166,12 +2170,12 @@
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-PARTICIPATION-02</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>Intergenerational neighbourhoods and communities aligned with the New European Bauhaus</t>
+          <t>Addressing homelessness through housing-led approaches aligned with the New European Bauhaus</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
@@ -2186,12 +2190,12 @@
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
-          <t>01/12/2027</t>
+          <t>01/12/2026</t>
         </is>
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t>5,500,000</t>
+          <t>4,000,000</t>
         </is>
       </c>
       <c r="H29" s="6" t="inlineStr">
@@ -2211,7 +2215,7 @@
       </c>
       <c r="K29" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Demonstrated methodology is used by architects, spatial planners, designers and other relevant act</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Housing-led approaches[1] aligned with the NEB are made available to stakeholders involved in tack</t>
         </is>
       </c>
       <c r="L29" s="6" t="inlineStr"/>
@@ -2229,12 +2233,12 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-62</t>
+          <t>HORIZON-NEB-2027-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>Fast Track to Innovation for breakthroughs in the Chemical Industry Action Plan  (Research and Innovation Action)</t>
+          <t>Intergenerational neighbourhoods and communities aligned with the New European Bauhaus</t>
         </is>
       </c>
       <c r="D30" s="6" t="inlineStr">
@@ -2249,17 +2253,17 @@
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
-          <t>02/02/2027</t>
+          <t>01/12/2027</t>
         </is>
       </c>
       <c r="G30" s="6" t="inlineStr">
         <is>
-          <t>0 - 2,500,000</t>
+          <t>5,500,000</t>
         </is>
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Innovation Actions</t>
         </is>
       </c>
       <c r="I30" s="8" t="inlineStr">
@@ -2269,12 +2273,12 @@
       </c>
       <c r="J30" s="6" t="inlineStr">
         <is>
-          <t>Bilbao tiene Plan de Economía Circular y proyectos en Mercabilbao.</t>
+          <t>NEB combina sostenibilidad + diseño + inclusion. Ideal para regeneracion urbana Bilbao (Zorrotzaurre, Casco Viejo).</t>
         </is>
       </c>
       <c r="K30" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Proposals should describe a credible pathway from their project results and outcomes towards the expected impact of this Destination;Enable the acceleration of the market uptake of gr</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Demonstrated methodology is used by architects, spatial planners, designers and other relevant act</t>
         </is>
       </c>
       <c r="L30" s="6" t="inlineStr"/>
@@ -2292,12 +2296,12 @@
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-CCRI-04</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-62</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>Advancing circular logistics solutions in cities</t>
+          <t>Fast Track to Innovation for breakthroughs in the Chemical Industry Action Plan  (Research and Innovation Action)</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
@@ -2312,17 +2316,17 @@
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>02/02/2027</t>
         </is>
       </c>
       <c r="G31" s="6" t="inlineStr">
         <is>
-          <t>7,500,000</t>
+          <t>0 - 2,500,000</t>
         </is>
       </c>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>Innovation Actions</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
         </is>
       </c>
       <c r="I31" s="8" t="inlineStr">
@@ -2337,7 +2341,7 @@
       </c>
       <c r="K31" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Projects are expected to contribute to all the following outcomes:Accelerated transition towards circular economy in the freight transport sector and throughout the urban logistics va</t>
+          <t>Expected Outcome:Proposals should describe a credible pathway from their project results and outcomes towards the expected impact of this Destination;Enable the acceleration of the market uptake of gr</t>
         </is>
       </c>
       <c r="L31" s="6" t="inlineStr"/>
@@ -2355,12 +2359,12 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
+          <t>HORIZON-MISS-2027-04-CIT-CCRI-04</t>
         </is>
       </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>Bioremediation of Ukraine’s ecosystems contaminated by conflicts</t>
+          <t>Advancing circular logistics solutions in cities</t>
         </is>
       </c>
       <c r="D32" s="6" t="inlineStr">
@@ -2375,12 +2379,12 @@
       </c>
       <c r="F32" s="6" t="inlineStr">
         <is>
-          <t>17/09/2026</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
-          <t>4,000,000</t>
+          <t>7,500,000</t>
         </is>
       </c>
       <c r="H32" s="6" t="inlineStr">
@@ -2395,12 +2399,12 @@
       </c>
       <c r="J32" s="6" t="inlineStr">
         <is>
-          <t>Proyectos de renaturalización en Zorrotzaurre y Abandoibarra. Plan Verde municipal.</t>
+          <t>Bilbao tiene Plan de Economía Circular y proyectos en Mercabilbao.</t>
         </is>
       </c>
       <c r="K32" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:The actions funded under this topic should support communities, land managers, local administrators, policy makers, and researchers to deploy solutions contributing to the goals of th</t>
+          <t>Expected Outcome:Projects are expected to contribute to all the following outcomes:Accelerated transition towards circular economy in the freight transport sector and throughout the urban logistics va</t>
         </is>
       </c>
       <c r="L32" s="6" t="inlineStr"/>
@@ -2418,12 +2422,12 @@
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-02</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen cities</t>
+          <t>Bioremediation of Ukraine’s ecosystems contaminated by conflicts</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
@@ -2438,32 +2442,32 @@
       </c>
       <c r="F33" s="6" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>17/09/2026</t>
         </is>
       </c>
       <c r="G33" s="6" t="inlineStr">
         <is>
-          <t>7,500,000</t>
+          <t>4,000,000</t>
         </is>
       </c>
       <c r="H33" s="6" t="inlineStr">
         <is>
-          <t>Coordination and Support Actions</t>
-        </is>
-      </c>
-      <c r="I33" s="10" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
+          <t>Innovation Actions</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="J33" s="6" t="inlineStr">
         <is>
-          <t>Corredor Vasco del Hidrógeno. Petronor y Puerto de Bilbao involucrados.</t>
+          <t>Proyectos de renaturalización en Zorrotzaurre y Abandoibarra. Plan Verde municipal.</t>
         </is>
       </c>
       <c r="K33" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:A growing number of cities across Europe is developing hydrogen strategies, either for mobility applications or for decarbonising their local and peri-urban industries and hard-to-aba</t>
+          <t>Expected Outcome:The actions funded under this topic should support communities, land managers, local administrators, policy makers, and researchers to deploy solutions contributing to the goals of th</t>
         </is>
       </c>
       <c r="L33" s="6" t="inlineStr"/>
@@ -2481,12 +2485,12 @@
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
+          <t>HORIZON-MISS-2027-04-CIT-02</t>
         </is>
       </c>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>Long-term drivers and consequences of soil degradation: learning from the past to improve future soil health</t>
+          <t>Hydrogen cities</t>
         </is>
       </c>
       <c r="D34" s="6" t="inlineStr">
@@ -2501,17 +2505,17 @@
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>08/04/2027</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
         <is>
-          <t>12,000,000</t>
+          <t>7,500,000</t>
         </is>
       </c>
       <c r="H34" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Coordination and Support Actions</t>
         </is>
       </c>
       <c r="I34" s="10" t="inlineStr">
@@ -2521,12 +2525,12 @@
       </c>
       <c r="J34" s="6" t="inlineStr">
         <is>
-          <t>Suelos contaminados industriales en Zorrotzaurre y Margen Izquierda.</t>
+          <t>Corredor Vasco del Hidrógeno. Petronor y Puerto de Bilbao involucrados.</t>
         </is>
       </c>
       <c r="K34" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Activities under this topic will help progress towards the objectives and targets of the Mission Soil and the EU Soil Strategy for 2030. Moreover, activities should also contribute to</t>
+          <t>Expected Outcome:A growing number of cities across Europe is developing hydrogen strategies, either for mobility applications or for decarbonising their local and peri-urban industries and hard-to-aba</t>
         </is>
       </c>
       <c r="L34" s="6" t="inlineStr"/>
@@ -2544,12 +2548,12 @@
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
+          <t>HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
         </is>
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>Living Labs for co-creating solutions to reduce eutrophication from agriculture</t>
+          <t>Long-term drivers and consequences of soil degradation: learning from the past to improve future soil health</t>
         </is>
       </c>
       <c r="D35" s="6" t="inlineStr">
@@ -2589,7 +2593,7 @@
       </c>
       <c r="K35" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expected Outcome:Activities under this topic respond directly to the goal of the Mission Soil to set up 100 living labs and lighthouses to lead the transition to healthy soils by 2030 and support the </t>
+          <t>Expected Outcome:Activities under this topic will help progress towards the objectives and targets of the Mission Soil and the EU Soil Strategy for 2030. Moreover, activities should also contribute to</t>
         </is>
       </c>
       <c r="L35" s="6" t="inlineStr"/>
@@ -2607,12 +2611,12 @@
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-01-D1-11</t>
+          <t>HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>Africa-EU CO-FUND action on climate</t>
+          <t>Living Labs for co-creating solutions to reduce eutrophication from agriculture</t>
         </is>
       </c>
       <c r="D36" s="6" t="inlineStr">
@@ -2627,32 +2631,32 @@
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>04/03/2027</t>
+          <t>08/04/2027</t>
         </is>
       </c>
       <c r="G36" s="6" t="inlineStr">
         <is>
-          <t>15,000,000</t>
+          <t>12,000,000</t>
         </is>
       </c>
       <c r="H36" s="6" t="inlineStr">
         <is>
-          <t>Programme Cofund Actions</t>
-        </is>
-      </c>
-      <c r="I36" s="11" t="inlineStr">
-        <is>
-          <t>INFO</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
+        </is>
+      </c>
+      <c r="I36" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
         </is>
       </c>
       <c r="J36" s="6" t="inlineStr">
         <is>
-          <t>Revisar relevancia para el Ayuntamiento de Bilbao.</t>
+          <t>Suelos contaminados industriales en Zorrotzaurre y Margen Izquierda.</t>
         </is>
       </c>
       <c r="K36" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:A long-term collaboration on climate change research between the EU and the African Union is estab</t>
+          <t xml:space="preserve">Expected Outcome:Activities under this topic respond directly to the goal of the Mission Soil to set up 100 living labs and lighthouses to lead the transition to healthy soils by 2030 and support the </t>
         </is>
       </c>
       <c r="L36" s="6" t="inlineStr"/>
@@ -2985,12 +2989,12 @@
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-01-D1-13</t>
+          <t>HORIZON-CL5-2027-01-D1-11</t>
         </is>
       </c>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>Next generation scenarios for informing climate and sustainability transitions</t>
+          <t>Africa-EU CO-FUND action on climate</t>
         </is>
       </c>
       <c r="D42" s="6" t="inlineStr">
@@ -3015,7 +3019,7 @@
       </c>
       <c r="H42" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Programme Cofund Actions</t>
         </is>
       </c>
       <c r="I42" s="11" t="inlineStr">
@@ -3030,7 +3034,7 @@
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to some of the following expected outcomes:Strengthened collaboration and integration across research communities, better capturing interact</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:A long-term collaboration on climate change research between the EU and the African Union is estab</t>
         </is>
       </c>
       <c r="L42" s="6" t="inlineStr"/>
@@ -3048,12 +3052,12 @@
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-INFRA-02</t>
+          <t>HORIZON-CL5-2027-01-D1-13</t>
         </is>
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>Security challenges of the green transition in urban und peri urban areas</t>
+          <t>Next generation scenarios for informing climate and sustainability transitions</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
@@ -3068,12 +3072,12 @@
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
-          <t>05/11/2026</t>
+          <t>04/03/2027</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>1,330,000</t>
+          <t>15,000,000</t>
         </is>
       </c>
       <c r="H43" s="6" t="inlineStr">
@@ -3093,7 +3097,7 @@
       </c>
       <c r="K43" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to some or all of the following outcomes:Identification and analysis of potential new security risks related to innovative technologies bein</t>
+          <t>Expected Outcome:Project results are expected to contribute to some of the following expected outcomes:Strengthened collaboration and integration across research communities, better capturing interact</t>
         </is>
       </c>
       <c r="L43" s="6" t="inlineStr"/>
@@ -3111,12 +3115,12 @@
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-05</t>
+          <t>HORIZON-CL3-2026-01-INFRA-02</t>
         </is>
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>Boosting the transformation towards climate-neutral cities, the net-zero economy and open strategic autonomy through Pre-Commercial Procurement (PCP)</t>
+          <t>Security challenges of the green transition in urban und peri urban areas</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
@@ -3131,17 +3135,17 @@
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>05/11/2026</t>
         </is>
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>7,500,000</t>
+          <t>1,330,000</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
         <is>
-          <t>Pre-commercial Procurement</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
         </is>
       </c>
       <c r="I44" s="11" t="inlineStr">
@@ -3156,7 +3160,7 @@
       </c>
       <c r="K44" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Projects are expected to contribute to the following outcomes:Public procurers stimulate from demand side the competitive development of market ready innovative solutions to reduce gr</t>
+          <t>Expected Outcome:Project results are expected to contribute to some or all of the following outcomes:Identification and analysis of potential new security risks related to innovative technologies bein</t>
         </is>
       </c>
       <c r="L44" s="6" t="inlineStr"/>
@@ -3174,12 +3178,12 @@
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
+          <t>HORIZON-MISS-2027-04-CIT-05</t>
         </is>
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>Open topic: Using the Circular Cities and Regions Initiative to strengthen urban manufacturing in support of the Clean Industrial Deal</t>
+          <t>Boosting the transformation towards climate-neutral cities, the net-zero economy and open strategic autonomy through Pre-Commercial Procurement (PCP)</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
@@ -3194,17 +3198,17 @@
       </c>
       <c r="F45" s="6" t="inlineStr">
         <is>
-          <t>08/04/2027</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>6,000,000</t>
+          <t>7,500,000</t>
         </is>
       </c>
       <c r="H45" s="6" t="inlineStr">
         <is>
-          <t>Innovation Actions</t>
+          <t>Pre-commercial Procurement</t>
         </is>
       </c>
       <c r="I45" s="11" t="inlineStr">
@@ -3219,7 +3223,7 @@
       </c>
       <c r="K45" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:urban manufacturers significantly increase their resource efficiency through increased circular ma</t>
+          <t>Expected Outcome:Projects are expected to contribute to the following outcomes:Public procurers stimulate from demand side the competitive development of market ready innovative solutions to reduce gr</t>
         </is>
       </c>
       <c r="L45" s="6" t="inlineStr"/>
@@ -3237,12 +3241,12 @@
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
         </is>
       </c>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>Deploying circular systemic solutions through living labs in cities and regions (Circular Cities and Regions Initiative topic)</t>
+          <t>Open topic: Using the Circular Cities and Regions Initiative to strengthen urban manufacturing in support of the Clean Industrial Deal</t>
         </is>
       </c>
       <c r="D46" s="6" t="inlineStr">
@@ -3282,7 +3286,7 @@
       </c>
       <c r="K46" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:increased circularity and reduced emissions of greenhouse gases and air pollutants in the economic</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:urban manufacturers significantly increase their resource efficiency through increased circular ma</t>
         </is>
       </c>
       <c r="L46" s="6" t="inlineStr"/>
@@ -3300,12 +3304,12 @@
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
         </is>
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>Open topic: Innovative solutions for the European Water Resilience Strategy</t>
+          <t>Deploying circular systemic solutions through living labs in cities and regions (Circular Cities and Regions Initiative topic)</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
@@ -3325,7 +3329,7 @@
       </c>
       <c r="G47" s="6" t="inlineStr">
         <is>
-          <t>5,500,000</t>
+          <t>6,000,000</t>
         </is>
       </c>
       <c r="H47" s="6" t="inlineStr">
@@ -3345,7 +3349,7 @@
       </c>
       <c r="K47" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to one or more of the following expected outcomes corresponding to the European Water Resilience Strategy objectives:the water cycle is rest</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:increased circularity and reduced emissions of greenhouse gases and air pollutants in the economic</t>
         </is>
       </c>
       <c r="L47" s="6" t="inlineStr"/>
@@ -3363,12 +3367,12 @@
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
         </is>
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>Accelerating the transition to a nature positive economy: Integrating biodiversity into the private sector</t>
+          <t>Open topic: Innovative solutions for the European Water Resilience Strategy</t>
         </is>
       </c>
       <c r="D48" s="6" t="inlineStr">
@@ -3383,17 +3387,17 @@
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
-          <t>22/09/2027</t>
+          <t>08/04/2027</t>
         </is>
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>4,000,000 - 5,000,000</t>
+          <t>5,500,000</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Innovation Actions</t>
         </is>
       </c>
       <c r="I48" s="11" t="inlineStr">
@@ -3408,7 +3412,7 @@
       </c>
       <c r="K48" s="6" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all the following expected outcomes, driving transformative change for biodiversity and nature positive economic practices:overall, the e</t>
+          <t>Expected Outcome:Project results are expected to contribute to one or more of the following expected outcomes corresponding to the European Water Resilience Strategy objectives:the water cycle is rest</t>
         </is>
       </c>
       <c r="L48" s="6" t="inlineStr"/>
@@ -3426,36 +3430,52 @@
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>caa3aead-778e-4dce-b1b3-46da20e64a20</t>
+          <t>HORIZON-CL5-2026-09-D3-03</t>
         </is>
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr"/>
-      <c r="E49" s="11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F49" s="6" t="inlineStr"/>
-      <c r="G49" s="6" t="inlineStr"/>
-      <c r="H49" s="6" t="inlineStr"/>
-      <c r="I49" s="12" t="inlineStr">
-        <is>
-          <t>MUY ALTA</t>
+          <t>Innovative technologies and solutions to improve wind energy systems supporting the Strategic Energy Technology (SET) Plan on wind</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>Horizon Europe</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>Forthcoming</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>15/09/2026</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>5,250,000</t>
+        </is>
+      </c>
+      <c r="H49" s="6" t="inlineStr">
+        <is>
+          <t>Innovation Actions</t>
+        </is>
+      </c>
+      <c r="I49" s="11" t="inlineStr">
+        <is>
+          <t>INFO</t>
         </is>
       </c>
       <c r="J49" s="6" t="inlineStr">
         <is>
-          <t>Bilbao es nodo TEN-T. Metro, tranvía, BizkaiBus. Proyecto SuperIsla.</t>
+          <t>Revisar relevancia para el Ayuntamiento de Bilbao.</t>
         </is>
       </c>
       <c r="K49" s="6" t="inlineStr">
         <is>
-          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
+          <t>Expected Outcome:Project results are expected to contribute to all the following expected outcomes:Advance in the achievement of the Strategic Energy Technology (SET) Plan’s research and innovation pr</t>
         </is>
       </c>
       <c r="L49" s="6" t="inlineStr"/>
@@ -3473,36 +3493,52 @@
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>c1c9444c-6204-4735-9763-000ea7cd5d46</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
         </is>
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Skopje, including Action plan and guidelines</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr"/>
-      <c r="E50" s="11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F50" s="6" t="inlineStr"/>
-      <c r="G50" s="6" t="inlineStr"/>
-      <c r="H50" s="6" t="inlineStr"/>
-      <c r="I50" s="12" t="inlineStr">
-        <is>
-          <t>MUY ALTA</t>
+          <t>Accelerating the transition to a nature positive economy: Integrating biodiversity into the private sector</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>Horizon Europe</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>Forthcoming</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>22/09/2027</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="inlineStr">
+        <is>
+          <t>4,000,000 - 5,000,000</t>
+        </is>
+      </c>
+      <c r="H50" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
+        </is>
+      </c>
+      <c r="I50" s="11" t="inlineStr">
+        <is>
+          <t>INFO</t>
         </is>
       </c>
       <c r="J50" s="6" t="inlineStr">
         <is>
-          <t>Bilbao es nodo TEN-T. Metro, tranvía, BizkaiBus. Proyecto SuperIsla.</t>
+          <t>Revisar relevancia para el Ayuntamiento de Bilbao.</t>
         </is>
       </c>
       <c r="K50" s="6" t="inlineStr">
         <is>
-          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Skopje, including Action plan and guidelines</t>
+          <t>Expected Outcome:Project results are expected to contribute to all the following expected outcomes, driving transformative change for biodiversity and nature positive economic practices:overall, the e</t>
         </is>
       </c>
       <c r="L50" s="6" t="inlineStr"/>
@@ -3520,19 +3556,15 @@
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>HORIZON</t>
+          <t>caa3aead-778e-4dce-b1b3-46da20e64a20</t>
         </is>
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>Powering access to investment for next generation circular economy initiatives in cities and regions</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
-        <is>
-          <t>Horizon Europe</t>
-        </is>
-      </c>
+          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr"/>
       <c r="E51" s="11" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -3541,19 +3573,19 @@
       <c r="F51" s="6" t="inlineStr"/>
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="inlineStr"/>
-      <c r="I51" s="8" t="inlineStr">
-        <is>
-          <t>ALTA</t>
+      <c r="I51" s="13" t="inlineStr">
+        <is>
+          <t>MUY ALTA</t>
         </is>
       </c>
       <c r="J51" s="6" t="inlineStr">
         <is>
-          <t>Bilbao tiene Plan de Economía Circular y proyectos en Mercabilbao.</t>
+          <t>Bilbao es nodo TEN-T. Metro, tranvía, BizkaiBus. Proyecto SuperIsla.</t>
         </is>
       </c>
       <c r="K51" s="6" t="inlineStr">
         <is>
-          <t>Powering access to investment for next generation circular economy initiatives in cities and regions</t>
+          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
         </is>
       </c>
       <c r="L51" s="6" t="inlineStr"/>
@@ -3571,19 +3603,15 @@
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-JU-CLEANH2-2025-04-01</t>
+          <t>c1c9444c-6204-4735-9763-000ea7cd5d46</t>
         </is>
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>Demonstration of stationary fuel cells in renewable energy communities</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>Horizon Europe</t>
-        </is>
-      </c>
+          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Skopje, including Action plan and guidelines</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -3592,19 +3620,19 @@
       <c r="F52" s="6" t="inlineStr"/>
       <c r="G52" s="6" t="inlineStr"/>
       <c r="H52" s="6" t="inlineStr"/>
-      <c r="I52" s="8" t="inlineStr">
-        <is>
-          <t>ALTA</t>
+      <c r="I52" s="13" t="inlineStr">
+        <is>
+          <t>MUY ALTA</t>
         </is>
       </c>
       <c r="J52" s="6" t="inlineStr">
         <is>
-          <t>Estrategia energética municipal incluye comunidades energéticas locales.</t>
+          <t>Bilbao es nodo TEN-T. Metro, tranvía, BizkaiBus. Proyecto SuperIsla.</t>
         </is>
       </c>
       <c r="K52" s="6" t="inlineStr">
         <is>
-          <t>Demonstration of stationary fuel cells in renewable energy communities</t>
+          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Skopje, including Action plan and guidelines</t>
         </is>
       </c>
       <c r="L52" s="6" t="inlineStr"/>
@@ -3622,17 +3650,17 @@
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>DIGITAL</t>
+          <t>HORIZON</t>
         </is>
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTEMS</t>
+          <t>Powering access to investment for next generation circular economy initiatives in cities and regions</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>Digital Europe</t>
+          <t>Horizon Europe</t>
         </is>
       </c>
       <c r="E53" s="11" t="inlineStr">
@@ -3650,12 +3678,12 @@
       </c>
       <c r="J53" s="6" t="inlineStr">
         <is>
-          <t>Proyecto BIM/GIS de Bilbao. Complementa estrategia digital.</t>
+          <t>Bilbao tiene Plan de Economía Circular y proyectos en Mercabilbao.</t>
         </is>
       </c>
       <c r="K53" s="6" t="inlineStr">
         <is>
-          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTEMS</t>
+          <t>Powering access to investment for next generation circular economy initiatives in cities and regions</t>
         </is>
       </c>
       <c r="L53" s="6" t="inlineStr"/>
@@ -3673,15 +3701,19 @@
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
-          <t>8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
+          <t>DIGITAL</t>
         </is>
       </c>
       <c r="C54" s="6" t="inlineStr">
         <is>
-          <t>Technical Assistance for river basin and flood risk plan</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr"/>
+          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTEMS</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
+          <t>Digital Europe</t>
+        </is>
+      </c>
       <c r="E54" s="11" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -3697,12 +3729,12 @@
       </c>
       <c r="J54" s="6" t="inlineStr">
         <is>
-          <t>Bilbao tiene historial de inundaciones (ría del Nervión). Planes activos.</t>
+          <t>Proyecto BIM/GIS de Bilbao. Complementa estrategia digital.</t>
         </is>
       </c>
       <c r="K54" s="6" t="inlineStr">
         <is>
-          <t>Technical Assistance for river basin and flood risk plan</t>
+          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTEMS</t>
         </is>
       </c>
       <c r="L54" s="6" t="inlineStr"/>
@@ -3720,12 +3752,12 @@
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
-          <t>c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
+          <t>8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
         </is>
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>EEA/SUN/25/001- Clean tech production in Europe: implications for quality jobs and a just transition</t>
+          <t>Technical Assistance for river basin and flood risk plan</t>
         </is>
       </c>
       <c r="D55" s="6" t="inlineStr"/>
@@ -3737,19 +3769,19 @@
       <c r="F55" s="6" t="inlineStr"/>
       <c r="G55" s="6" t="inlineStr"/>
       <c r="H55" s="6" t="inlineStr"/>
-      <c r="I55" s="10" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
+      <c r="I55" s="8" t="inlineStr">
+        <is>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="J55" s="6" t="inlineStr">
         <is>
-          <t>Margen izquierda con pasado industrial. Potencial reconversión.</t>
+          <t>Bilbao tiene historial de inundaciones (ría del Nervión). Planes activos.</t>
         </is>
       </c>
       <c r="K55" s="6" t="inlineStr">
         <is>
-          <t>EEA/SUN/25/001- Clean tech production in Europe: implications for quality jobs and a just transition</t>
+          <t>Technical Assistance for river basin and flood risk plan</t>
         </is>
       </c>
       <c r="L55" s="6" t="inlineStr"/>
@@ -3767,12 +3799,12 @@
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>IMREG</t>
+          <t>c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
         </is>
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>Cohesion Policy in Bulgaria - our European plan</t>
+          <t>EEA/SUN/25/001- Clean tech production in Europe: implications for quality jobs and a just transition</t>
         </is>
       </c>
       <c r="D56" s="6" t="inlineStr"/>
@@ -3791,12 +3823,12 @@
       </c>
       <c r="J56" s="6" t="inlineStr">
         <is>
-          <t>País Vasco es región en transición. Fondos FEDER disponibles.</t>
+          <t>Margen izquierda con pasado industrial. Potencial reconversión.</t>
         </is>
       </c>
       <c r="K56" s="6" t="inlineStr">
         <is>
-          <t>Cohesion Policy in Bulgaria - our European plan</t>
+          <t>EEA/SUN/25/001- Clean tech production in Europe: implications for quality jobs and a just transition</t>
         </is>
       </c>
       <c r="L56" s="6" t="inlineStr"/>
@@ -4183,21 +4215,21 @@
       </c>
     </row>
     <row r="65" ht="28" customHeight="1">
-      <c r="A65" s="13" t="inlineStr">
+      <c r="A65" s="14" t="inlineStr">
         <is>
           <t>🟢 Euskadi</t>
         </is>
       </c>
     </row>
     <row r="66" ht="40" customHeight="1">
-      <c r="A66" s="14" t="inlineStr">
+      <c r="A66" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>EUS-34302</t>
+          <t>EUS-26033</t>
         </is>
       </c>
       <c r="C66" s="6" t="inlineStr">
@@ -4233,7 +4265,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L66" s="15" t="inlineStr">
+      <c r="L66" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4245,14 +4277,14 @@
       </c>
     </row>
     <row r="67" ht="40" customHeight="1">
-      <c r="A67" s="14" t="inlineStr">
+      <c r="A67" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>EUS-01741</t>
+          <t>EUS-89459</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
@@ -4288,7 +4320,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L67" s="15" t="inlineStr">
+      <c r="L67" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4300,14 +4332,14 @@
       </c>
     </row>
     <row r="68" ht="40" customHeight="1">
-      <c r="A68" s="14" t="inlineStr">
+      <c r="A68" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>EUS-68453</t>
+          <t>EUS-53547</t>
         </is>
       </c>
       <c r="C68" s="6" t="inlineStr">
@@ -4343,7 +4375,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L68" s="15" t="inlineStr">
+      <c r="L68" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4355,14 +4387,14 @@
       </c>
     </row>
     <row r="69" ht="40" customHeight="1">
-      <c r="A69" s="14" t="inlineStr">
+      <c r="A69" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>EUS-07749</t>
+          <t>EUS-32988</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
@@ -4398,7 +4430,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L69" s="15" t="inlineStr">
+      <c r="L69" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4410,14 +4442,14 @@
       </c>
     </row>
     <row r="70" ht="40" customHeight="1">
-      <c r="A70" s="14" t="inlineStr">
+      <c r="A70" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>EUS-23080</t>
+          <t>EUS-14623</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
@@ -4453,7 +4485,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L70" s="15" t="inlineStr">
+      <c r="L70" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4465,19 +4497,19 @@
       </c>
     </row>
     <row r="71" ht="40" customHeight="1">
-      <c r="A71" s="14" t="inlineStr">
+      <c r="A71" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>EUS-28782</t>
+          <t>EUS-70649</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>Servicio de mantenimiento anual de la instalacion de climatizacion del fronton de Euba</t>
+          <t>Renocación ACS y climatizadora vestuario exteriores Rekalde</t>
         </is>
       </c>
       <c r="D71" s="6" t="inlineStr">
@@ -4508,7 +4540,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L71" s="15" t="inlineStr">
+      <c r="L71" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4520,19 +4552,19 @@
       </c>
     </row>
     <row r="72" ht="40" customHeight="1">
-      <c r="A72" s="14" t="inlineStr">
+      <c r="A72" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>EUS-87957</t>
+          <t>EUS-45231</t>
         </is>
       </c>
       <c r="C72" s="6" t="inlineStr">
         <is>
-          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiertas hasta el 30.4.26: el pilar 1, con el Fondo Europeo Agrícola de Garantía Agraria FEAGA, aborda sostenibilidad de renta, ayuda redistributi</t>
+          <t>Gestión de residuos de amianto</t>
         </is>
       </c>
       <c r="D72" s="6" t="inlineStr">
@@ -4549,12 +4581,12 @@
       <c r="G72" s="6" t="inlineStr"/>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>Ayuda/Subvencion Euskadi</t>
-        </is>
-      </c>
-      <c r="I72" s="10" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I72" s="8" t="inlineStr">
+        <is>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="J72" s="6" t="inlineStr"/>
@@ -4563,7 +4595,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L72" s="15" t="inlineStr">
+      <c r="L72" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4575,19 +4607,19 @@
       </c>
     </row>
     <row r="73" ht="40" customHeight="1">
-      <c r="A73" s="14" t="inlineStr">
+      <c r="A73" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>EUS-27789</t>
+          <t>EUS-71101</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
+          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiertas hasta el 30.4.26: el pilar 1, con el Fondo Europeo Agrícola de Garantía Agraria FEAGA, aborda sostenibilidad de renta, ayuda redistributi</t>
         </is>
       </c>
       <c r="D73" s="6" t="inlineStr">
@@ -4618,7 +4650,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L73" s="15" t="inlineStr">
+      <c r="L73" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4630,19 +4662,19 @@
       </c>
     </row>
     <row r="74" ht="40" customHeight="1">
-      <c r="A74" s="14" t="inlineStr">
+      <c r="A74" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>EUS-62611</t>
+          <t>EUS-62294</t>
         </is>
       </c>
       <c r="C74" s="6" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
+          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
         </is>
       </c>
       <c r="D74" s="6" t="inlineStr">
@@ -4673,7 +4705,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L74" s="15" t="inlineStr">
+      <c r="L74" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4685,19 +4717,19 @@
       </c>
     </row>
     <row r="75" ht="40" customHeight="1">
-      <c r="A75" s="14" t="inlineStr">
+      <c r="A75" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>EUS-57520</t>
+          <t>EUS-99143</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
+          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
@@ -4728,7 +4760,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L75" s="15" t="inlineStr">
+      <c r="L75" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4740,19 +4772,19 @@
       </c>
     </row>
     <row r="76" ht="40" customHeight="1">
-      <c r="A76" s="14" t="inlineStr">
+      <c r="A76" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>EUS-14509</t>
+          <t>EUS-92631</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
+          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
         </is>
       </c>
       <c r="D76" s="6" t="inlineStr">
@@ -4783,7 +4815,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L76" s="15" t="inlineStr">
+      <c r="L76" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4795,19 +4827,19 @@
       </c>
     </row>
     <row r="77" ht="40" customHeight="1">
-      <c r="A77" s="14" t="inlineStr">
+      <c r="A77" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>EUS-43985</t>
+          <t>EUS-69448</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
+          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
         </is>
       </c>
       <c r="D77" s="6" t="inlineStr">
@@ -4838,7 +4870,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L77" s="15" t="inlineStr">
+      <c r="L77" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4850,19 +4882,19 @@
       </c>
     </row>
     <row r="78" ht="40" customHeight="1">
-      <c r="A78" s="14" t="inlineStr">
+      <c r="A78" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>EUS-18115</t>
+          <t>EUS-50564</t>
         </is>
       </c>
       <c r="C78" s="6" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
         </is>
       </c>
       <c r="D78" s="6" t="inlineStr">
@@ -4893,7 +4925,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L78" s="15" t="inlineStr">
+      <c r="L78" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4905,19 +4937,19 @@
       </c>
     </row>
     <row r="79" ht="40" customHeight="1">
-      <c r="A79" s="14" t="inlineStr">
+      <c r="A79" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>EUS-17900</t>
+          <t>EUS-77719</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="D79" s="6" t="inlineStr">
@@ -4948,7 +4980,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L79" s="15" t="inlineStr">
+      <c r="L79" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4960,19 +4992,19 @@
       </c>
     </row>
     <row r="80" ht="40" customHeight="1">
-      <c r="A80" s="14" t="inlineStr">
+      <c r="A80" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>EUS-60442</t>
+          <t>EUS-39573</t>
         </is>
       </c>
       <c r="C80" s="6" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
         </is>
       </c>
       <c r="D80" s="6" t="inlineStr">
@@ -5003,7 +5035,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L80" s="15" t="inlineStr">
+      <c r="L80" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5015,19 +5047,19 @@
       </c>
     </row>
     <row r="81" ht="40" customHeight="1">
-      <c r="A81" s="14" t="inlineStr">
+      <c r="A81" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>EUS-70226</t>
+          <t>EUS-38452</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
         </is>
       </c>
       <c r="D81" s="6" t="inlineStr">
@@ -5058,7 +5090,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L81" s="15" t="inlineStr">
+      <c r="L81" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5070,19 +5102,19 @@
       </c>
     </row>
     <row r="82" ht="40" customHeight="1">
-      <c r="A82" s="14" t="inlineStr">
+      <c r="A82" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>EUS-90220</t>
+          <t>EUS-33816</t>
         </is>
       </c>
       <c r="C82" s="6" t="inlineStr">
         <is>
-          <t>Asignaciones individualizadas de transporte escolar para el curso 2025-2026 del alumnado de los centros docentes públicos no universitarios de la Comunidad Autónoma del País Vasco financiado por el de</t>
+          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
         </is>
       </c>
       <c r="D82" s="6" t="inlineStr">
@@ -5113,7 +5145,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L82" s="15" t="inlineStr">
+      <c r="L82" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5125,19 +5157,19 @@
       </c>
     </row>
     <row r="83" ht="40" customHeight="1">
-      <c r="A83" s="14" t="inlineStr">
+      <c r="A83" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>EUS-66864</t>
+          <t>EUS-65057</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>fabricación, suministro y colocación de 2 puertas de aluminio en el edificio de markola.</t>
+          <t>Asignaciones individualizadas de transporte escolar para el curso 2025-2026 del alumnado de los centros docentes públicos no universitarios de la Comunidad Autónoma del País Vasco financiado por el de</t>
         </is>
       </c>
       <c r="D83" s="6" t="inlineStr">
@@ -5154,7 +5186,7 @@
       <c r="G83" s="6" t="inlineStr"/>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>Licitacion Euskadi</t>
+          <t>Ayuda/Subvencion Euskadi</t>
         </is>
       </c>
       <c r="I83" s="10" t="inlineStr">
@@ -5168,7 +5200,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L83" s="15" t="inlineStr">
+      <c r="L83" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5180,19 +5212,19 @@
       </c>
     </row>
     <row r="84" ht="40" customHeight="1">
-      <c r="A84" s="14" t="inlineStr">
+      <c r="A84" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>EUS-17425</t>
+          <t>EUS-40954</t>
         </is>
       </c>
       <c r="C84" s="6" t="inlineStr">
         <is>
-          <t>estadio de beraun. otros suministros. material electrico</t>
+          <t>Transporte de vehículo averiado</t>
         </is>
       </c>
       <c r="D84" s="6" t="inlineStr">
@@ -5223,7 +5255,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L84" s="15" t="inlineStr">
+      <c r="L84" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5235,19 +5267,19 @@
       </c>
     </row>
     <row r="85" ht="40" customHeight="1">
-      <c r="A85" s="14" t="inlineStr">
+      <c r="A85" s="15" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>EUS-94850</t>
+          <t>EUS-11728</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>rehabilitación de la tubería de saneamiento en la calle alexander fleming</t>
+          <t>Suministro de productos de limpieza</t>
         </is>
       </c>
       <c r="D85" s="6" t="inlineStr">
@@ -5278,7 +5310,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L85" s="15" t="inlineStr">
+      <c r="L85" s="12" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5289,8 +5321,173 @@
         </is>
       </c>
     </row>
+    <row r="86" ht="40" customHeight="1">
+      <c r="A86" s="15" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>EUS-74653</t>
+        </is>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>Concesión demanial de la cubierta del frontón municipal de Beraun para la instalación y explotación de energía fotovoltaica en comunidades energéticas.</t>
+        </is>
+      </c>
+      <c r="D86" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E86" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="inlineStr"/>
+      <c r="G86" s="6" t="inlineStr"/>
+      <c r="H86" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I86" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J86" s="6" t="inlineStr"/>
+      <c r="K86" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L86" s="12" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M86" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="40" customHeight="1">
+      <c r="A87" s="15" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>EUS-66912</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>Redacción del anteproyecto de edificación de dos edificios de 6 viviendas cada uno con sus anejos en las parcelas 1 y 2 (a.10.1.8 y a.10.1.7) del ámbito J.U.2 del Sector 1 de Altzo</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="inlineStr"/>
+      <c r="G87" s="6" t="inlineStr"/>
+      <c r="H87" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I87" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J87" s="6" t="inlineStr"/>
+      <c r="K87" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L87" s="12" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M87" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="40" customHeight="1">
+      <c r="A88" s="15" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B88" s="6" t="inlineStr">
+        <is>
+          <t>EUS-85669</t>
+        </is>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>Ratones tratados genéticamente y transporte desde EEUU</t>
+        </is>
+      </c>
+      <c r="D88" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E88" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F88" s="6" t="inlineStr"/>
+      <c r="G88" s="6" t="inlineStr"/>
+      <c r="H88" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I88" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J88" s="6" t="inlineStr"/>
+      <c r="K88" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L88" s="12" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M88" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:M85"/>
+  <autoFilter ref="A4:M88"/>
   <mergeCells count="4">
     <mergeCell ref="A65:M65"/>
     <mergeCell ref="A2:M2"/>
@@ -5377,6 +5574,9 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M83" r:id="rId77"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M84" r:id="rId78"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M85" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M86" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M87" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M88" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5388,7 +5588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1184"/>
+  <dimension ref="A1:F1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6931,7 +7131,7 @@
     <row r="106" ht="30" customHeight="1">
       <c r="A106" s="16" t="inlineStr">
         <is>
-          <t>FICHA 8: INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>FICHA 8: INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="B106" s="17" t="n"/>
@@ -6964,7 +7164,7 @@
       </c>
       <c r="B108" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
         </is>
       </c>
       <c r="C108" s="20" t="n"/>
@@ -6980,7 +7180,7 @@
       </c>
       <c r="B109" s="19" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="C109" s="20" t="n"/>
@@ -7092,7 +7292,7 @@
       </c>
       <c r="B116" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
         </is>
       </c>
       <c r="C116" s="20" t="n"/>
@@ -7140,7 +7340,7 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="C119" s="20" t="n"/>
@@ -7151,7 +7351,7 @@
     <row r="121" ht="30" customHeight="1">
       <c r="A121" s="16" t="inlineStr">
         <is>
-          <t>FICHA 9: INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>FICHA 9: INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="B121" s="17" t="n"/>
@@ -7184,7 +7384,7 @@
       </c>
       <c r="B123" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
         </is>
       </c>
       <c r="C123" s="20" t="n"/>
@@ -7200,7 +7400,7 @@
       </c>
       <c r="B124" s="19" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="C124" s="20" t="n"/>
@@ -7312,7 +7512,7 @@
       </c>
       <c r="B131" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
         </is>
       </c>
       <c r="C131" s="20" t="n"/>
@@ -7360,7 +7560,7 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="C134" s="20" t="n"/>
@@ -7371,7 +7571,7 @@
     <row r="136" ht="30" customHeight="1">
       <c r="A136" s="16" t="inlineStr">
         <is>
-          <t>FICHA 10: INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>FICHA 10: INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="B136" s="17" t="n"/>
@@ -7404,7 +7604,7 @@
       </c>
       <c r="B138" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
         </is>
       </c>
       <c r="C138" s="20" t="n"/>
@@ -7420,7 +7620,7 @@
       </c>
       <c r="B139" s="19" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="C139" s="20" t="n"/>
@@ -7532,7 +7732,7 @@
       </c>
       <c r="B146" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
         </is>
       </c>
       <c r="C146" s="20" t="n"/>
@@ -7580,7 +7780,7 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="C149" s="20" t="n"/>
@@ -9967,7 +10167,7 @@
     <row r="316" ht="30" customHeight="1">
       <c r="A316" s="16" t="inlineStr">
         <is>
-          <t>FICHA 22: HORIZON-NEB-2026-01-PARTICIPATION-01</t>
+          <t>FICHA 22: HORIZON-CL5-2026-04-Two-Stage-D3-02</t>
         </is>
       </c>
       <c r="B316" s="17" t="n"/>
@@ -9992,7 +10192,7 @@
       <c r="E317" s="20" t="n"/>
       <c r="F317" s="20" t="n"/>
     </row>
-    <row r="318" ht="45" customHeight="1">
+    <row r="318" ht="20" customHeight="1">
       <c r="A318" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -10000,7 +10200,7 @@
       </c>
       <c r="B318" s="19" t="inlineStr">
         <is>
-          <t>Addressing homelessness through housing-led approaches aligned with the New European Bauhaus</t>
+          <t>Next generation of renewable energy technologies</t>
         </is>
       </c>
       <c r="C318" s="20" t="n"/>
@@ -10016,7 +10216,7 @@
       </c>
       <c r="B319" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
+          <t>HORIZON-CL5-2026-04-Two-Stage-D3-02</t>
         </is>
       </c>
       <c r="C319" s="20" t="n"/>
@@ -10048,7 +10248,7 @@
       </c>
       <c r="B321" s="19" t="inlineStr">
         <is>
-          <t>Forthcoming</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="C321" s="20" t="n"/>
@@ -10064,7 +10264,7 @@
       </c>
       <c r="B322" s="19" t="inlineStr">
         <is>
-          <t>01/12/2026</t>
+          <t>31/03/2026</t>
         </is>
       </c>
       <c r="C322" s="20" t="n"/>
@@ -10096,7 +10296,7 @@
       </c>
       <c r="B324" s="19" t="inlineStr">
         <is>
-          <t>Innovation Actions</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
         </is>
       </c>
       <c r="C324" s="20" t="n"/>
@@ -10112,7 +10312,7 @@
       </c>
       <c r="B325" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01</t>
+          <t>HORIZON-CL5-2026-04-Two-Stage</t>
         </is>
       </c>
       <c r="C325" s="20" t="n"/>
@@ -10128,7 +10328,7 @@
       </c>
       <c r="B326" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Housing-led approaches[1] aligned with the NEB are made available to stakeholders involved in tackling homelessness[1].Robust evidence on NEB-aligned housing-led approaches tackling homelessness (including people temporarily hosted by acquaintances and family) to inform the development and/or update of policies and services for prevention and early intervention in the context of the green transition[1] in neighbourhoods[1]. Scope:Social and affordable housing is being advanced in the EU, inclu</t>
+          <t xml:space="preserve">Expected Outcome:Projects are expected to contribute to all of the following expected outcomes:Breakthrough and game changing renewable energy technologies enabling a faster transition to a net-zero greenhouse gas emissions EU economy by 2050.Measures, knowledge and data have been demonstrating that the technology has a minimal environmental impact (notably on biodiversity and pollution), has gained citizens’ trust, is economically viable and benefits from a multi-level policy support.Establishing a solid long term dependable European innovation base. Scope:The proposal is expected to address </t>
         </is>
       </c>
       <c r="C326" s="20" t="n"/>
@@ -10142,25 +10342,21 @@
           <t>Tags</t>
         </is>
       </c>
-      <c r="B327" s="19" t="inlineStr">
-        <is>
-          <t>New European Bauhaus</t>
-        </is>
-      </c>
+      <c r="B327" s="19" t="inlineStr"/>
       <c r="C327" s="20" t="n"/>
       <c r="D327" s="20" t="n"/>
       <c r="E327" s="20" t="n"/>
       <c r="F327" s="20" t="n"/>
     </row>
-    <row r="328" ht="45" customHeight="1">
+    <row r="328" ht="20" customHeight="1">
       <c r="A328" s="18" t="inlineStr">
         <is>
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B328" s="21" t="inlineStr">
-        <is>
-          <t>ALTA — NEB combina sostenibilidad + diseño + inclusion. Ideal para regeneracion urbana Bilbao (Zorrotzaurre, Casco Viejo).</t>
+      <c r="B328" s="19" t="inlineStr">
+        <is>
+          <t>INFO — Revisar relevancia para el Ayuntamiento de Bilbao.</t>
         </is>
       </c>
       <c r="C328" s="20" t="n"/>
@@ -10176,7 +10372,7 @@
       </c>
       <c r="B329" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-NEB-2026-01-PARTICIPATION-01</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL5-2026-04-Two-Stage-D3-02</t>
         </is>
       </c>
       <c r="C329" s="20" t="n"/>
@@ -10187,7 +10383,7 @@
     <row r="331" ht="30" customHeight="1">
       <c r="A331" s="16" t="inlineStr">
         <is>
-          <t>FICHA 23: HORIZON-NEB-2027-01-BUSINESS-03</t>
+          <t>FICHA 23: HORIZON-CL5-2026-03-D3-22</t>
         </is>
       </c>
       <c r="B331" s="17" t="n"/>
@@ -10220,7 +10416,7 @@
       </c>
       <c r="B333" s="19" t="inlineStr">
         <is>
-          <t>Anticipating the long-term future of neighbourhoods in line with the New European Bauhaus</t>
+          <t>AI-driven forecasting algorithms for Grid and Consumer friendly Energy Sharing – Societal Readiness pilot</t>
         </is>
       </c>
       <c r="C333" s="20" t="n"/>
@@ -10236,7 +10432,7 @@
       </c>
       <c r="B334" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-BUSINESS-03</t>
+          <t>HORIZON-CL5-2026-03-D3-22</t>
         </is>
       </c>
       <c r="C334" s="20" t="n"/>
@@ -10268,7 +10464,7 @@
       </c>
       <c r="B336" s="19" t="inlineStr">
         <is>
-          <t>Forthcoming</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="C336" s="20" t="n"/>
@@ -10284,7 +10480,7 @@
       </c>
       <c r="B337" s="19" t="inlineStr">
         <is>
-          <t>01/12/2027</t>
+          <t>31/03/2026</t>
         </is>
       </c>
       <c r="C337" s="20" t="n"/>
@@ -10300,7 +10496,7 @@
       </c>
       <c r="B338" s="19" t="inlineStr">
         <is>
-          <t>5,500,000</t>
+          <t>5,000,000</t>
         </is>
       </c>
       <c r="C338" s="20" t="n"/>
@@ -10316,7 +10512,7 @@
       </c>
       <c r="B339" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Innovation Actions</t>
         </is>
       </c>
       <c r="C339" s="20" t="n"/>
@@ -10332,7 +10528,7 @@
       </c>
       <c r="B340" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01</t>
+          <t>HORIZON-CL5-2026-03</t>
         </is>
       </c>
       <c r="C340" s="20" t="n"/>
@@ -10348,7 +10544,7 @@
       </c>
       <c r="B341" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Local stakeholders adopt long-term stewardship and participate[1] in anticipating and envisioning the long-term future[2] of their existing neighbourhoods[3].Existing neighbourhoods are more resilient and can adapt to changing socioeconomic, cultural, demographic, and climatic conditions, challenges and needs.  Scope:The New European Bauhaus (NEB) is redefining the way neighbourhoods across Europe and beyond are presently planned, designed, developed, and revitalised by fostering a new paradig</t>
+          <t>Expected Outcome:Projects are expected to contribute to all the following expected outcomes:Develop and test AI-driven forecasting algorithms that use machine learning processes to optimise the value of collective self-consumption through energy sharing for communities and citizensUpscale AI tools and models for grid balancing and forecasting to ensure consumer participation in a distributed energy system.Analysis of social interactions using advanced methods like game-theoretic models to highlight the role of active consumers and communities in energy systems.Deeper understanding of the needs</t>
         </is>
       </c>
       <c r="C341" s="20" t="n"/>
@@ -10368,15 +10564,15 @@
       <c r="E342" s="20" t="n"/>
       <c r="F342" s="20" t="n"/>
     </row>
-    <row r="343" ht="45" customHeight="1">
+    <row r="343" ht="20" customHeight="1">
       <c r="A343" s="18" t="inlineStr">
         <is>
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B343" s="21" t="inlineStr">
-        <is>
-          <t>ALTA — NEB combina sostenibilidad + diseño + inclusion. Ideal para regeneracion urbana Bilbao (Zorrotzaurre, Casco Viejo).</t>
+      <c r="B343" s="19" t="inlineStr">
+        <is>
+          <t>INFO — Revisar relevancia para el Ayuntamiento de Bilbao.</t>
         </is>
       </c>
       <c r="C343" s="20" t="n"/>
@@ -10392,7 +10588,7 @@
       </c>
       <c r="B344" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-NEB-2027-01-BUSINESS-03</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL5-2026-03-D3-22</t>
         </is>
       </c>
       <c r="C344" s="20" t="n"/>
@@ -10403,7 +10599,7 @@
     <row r="346" ht="30" customHeight="1">
       <c r="A346" s="16" t="inlineStr">
         <is>
-          <t>FICHA 24: HORIZON-NEB-2027-01-PARTICIPATION-02</t>
+          <t>FICHA 24: HORIZON-NEB-2026-01-PARTICIPATION-01</t>
         </is>
       </c>
       <c r="B346" s="17" t="n"/>
@@ -10436,7 +10632,7 @@
       </c>
       <c r="B348" s="19" t="inlineStr">
         <is>
-          <t>Intergenerational neighbourhoods and communities aligned with the New European Bauhaus</t>
+          <t>Addressing homelessness through housing-led approaches aligned with the New European Bauhaus</t>
         </is>
       </c>
       <c r="C348" s="20" t="n"/>
@@ -10452,7 +10648,7 @@
       </c>
       <c r="B349" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-PARTICIPATION-02</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
         </is>
       </c>
       <c r="C349" s="20" t="n"/>
@@ -10500,7 +10696,7 @@
       </c>
       <c r="B352" s="19" t="inlineStr">
         <is>
-          <t>01/12/2027</t>
+          <t>01/12/2026</t>
         </is>
       </c>
       <c r="C352" s="20" t="n"/>
@@ -10516,7 +10712,7 @@
       </c>
       <c r="B353" s="19" t="inlineStr">
         <is>
-          <t>5,500,000</t>
+          <t>4,000,000</t>
         </is>
       </c>
       <c r="C353" s="20" t="n"/>
@@ -10548,7 +10744,7 @@
       </c>
       <c r="B355" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01</t>
+          <t>HORIZON-NEB-2026-01</t>
         </is>
       </c>
       <c r="C355" s="20" t="n"/>
@@ -10564,7 +10760,7 @@
       </c>
       <c r="B356" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Demonstrated methodology is used by architects, spatial planners, designers and other relevant actors to identify the extent to which neighbourhoods[1] and communities[1] are intergenerational[1].Demonstrated solutions for intergenerational neighbourhoods and communities are available to public authorities, public/private real estate developers and owners, and stakeholders involved in the green transition[1] of neighbourhoods.The demonstrated solutions make a significant contribution to interg</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Housing-led approaches[1] aligned with the NEB are made available to stakeholders involved in tackling homelessness[1].Robust evidence on NEB-aligned housing-led approaches tackling homelessness (including people temporarily hosted by acquaintances and family) to inform the development and/or update of policies and services for prevention and early intervention in the context of the green transition[1] in neighbourhoods[1]. Scope:Social and affordable housing is being advanced in the EU, inclu</t>
         </is>
       </c>
       <c r="C356" s="20" t="n"/>
@@ -10612,7 +10808,7 @@
       </c>
       <c r="B359" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-NEB-2027-01-PARTICIPATION-02</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-NEB-2026-01-PARTICIPATION-01</t>
         </is>
       </c>
       <c r="C359" s="20" t="n"/>
@@ -10623,7 +10819,7 @@
     <row r="361" ht="30" customHeight="1">
       <c r="A361" s="16" t="inlineStr">
         <is>
-          <t>FICHA 25: HORIZON-CL4-2027-01-MAT-PROD-62</t>
+          <t>FICHA 25: HORIZON-NEB-2027-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="B361" s="17" t="n"/>
@@ -10656,7 +10852,7 @@
       </c>
       <c r="B363" s="19" t="inlineStr">
         <is>
-          <t>Fast Track to Innovation for breakthroughs in the Chemical Industry Action Plan  (Research and Innovation Action)</t>
+          <t>Intergenerational neighbourhoods and communities aligned with the New European Bauhaus</t>
         </is>
       </c>
       <c r="C363" s="20" t="n"/>
@@ -10672,7 +10868,7 @@
       </c>
       <c r="B364" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-62</t>
+          <t>HORIZON-NEB-2027-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="C364" s="20" t="n"/>
@@ -10720,7 +10916,7 @@
       </c>
       <c r="B367" s="19" t="inlineStr">
         <is>
-          <t>02/02/2027</t>
+          <t>01/12/2027</t>
         </is>
       </c>
       <c r="C367" s="20" t="n"/>
@@ -10736,7 +10932,7 @@
       </c>
       <c r="B368" s="19" t="inlineStr">
         <is>
-          <t>0 - 2,500,000</t>
+          <t>5,500,000</t>
         </is>
       </c>
       <c r="C368" s="20" t="n"/>
@@ -10752,7 +10948,7 @@
       </c>
       <c r="B369" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Innovation Actions</t>
         </is>
       </c>
       <c r="C369" s="20" t="n"/>
@@ -10768,7 +10964,7 @@
       </c>
       <c r="B370" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-06</t>
+          <t>HORIZON-NEB-2027-01</t>
         </is>
       </c>
       <c r="C370" s="20" t="n"/>
@@ -10784,7 +10980,7 @@
       </c>
       <c r="B371" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Proposals should describe a credible pathway from their project results and outcomes towards the expected impact of this Destination;Enable the acceleration of the market uptake of groundbreaking innovations in the decarbonisation of the chemical industries as well as alternatives to substances of concern. Scope:This open topic aims to speed up the adoption of new, groundbreaking innovations (starting TRL 4 ) as part of the Chemical Industry Action Plan, in the areas of decarbonisation of energy intensive industries, circular economy or breakthrough production technologies; as</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Demonstrated methodology is used by architects, spatial planners, designers and other relevant actors to identify the extent to which neighbourhoods[1] and communities[1] are intergenerational[1].Demonstrated solutions for intergenerational neighbourhoods and communities are available to public authorities, public/private real estate developers and owners, and stakeholders involved in the green transition[1] of neighbourhoods.The demonstrated solutions make a significant contribution to interg</t>
         </is>
       </c>
       <c r="C371" s="20" t="n"/>
@@ -10798,13 +10994,17 @@
           <t>Tags</t>
         </is>
       </c>
-      <c r="B372" s="19" t="inlineStr"/>
+      <c r="B372" s="19" t="inlineStr">
+        <is>
+          <t>New European Bauhaus</t>
+        </is>
+      </c>
       <c r="C372" s="20" t="n"/>
       <c r="D372" s="20" t="n"/>
       <c r="E372" s="20" t="n"/>
       <c r="F372" s="20" t="n"/>
     </row>
-    <row r="373" ht="20" customHeight="1">
+    <row r="373" ht="45" customHeight="1">
       <c r="A373" s="18" t="inlineStr">
         <is>
           <t>Relevancia Bilbao</t>
@@ -10812,7 +11012,7 @@
       </c>
       <c r="B373" s="21" t="inlineStr">
         <is>
-          <t>ALTA — Bilbao tiene Plan de Economía Circular y proyectos en Mercabilbao.</t>
+          <t>ALTA — NEB combina sostenibilidad + diseño + inclusion. Ideal para regeneracion urbana Bilbao (Zorrotzaurre, Casco Viejo).</t>
         </is>
       </c>
       <c r="C373" s="20" t="n"/>
@@ -10828,7 +11028,7 @@
       </c>
       <c r="B374" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL4-2027-01-MAT-PROD-62</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-NEB-2027-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="C374" s="20" t="n"/>
@@ -10839,7 +11039,7 @@
     <row r="376" ht="30" customHeight="1">
       <c r="A376" s="16" t="inlineStr">
         <is>
-          <t>FICHA 26: HORIZON-MISS-2027-04-CIT-CCRI-04</t>
+          <t>FICHA 26: HORIZON-CL4-2027-01-MAT-PROD-62</t>
         </is>
       </c>
       <c r="B376" s="17" t="n"/>
@@ -10864,7 +11064,7 @@
       <c r="E377" s="20" t="n"/>
       <c r="F377" s="20" t="n"/>
     </row>
-    <row r="378" ht="20" customHeight="1">
+    <row r="378" ht="45" customHeight="1">
       <c r="A378" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -10872,7 +11072,7 @@
       </c>
       <c r="B378" s="19" t="inlineStr">
         <is>
-          <t>Advancing circular logistics solutions in cities</t>
+          <t>Fast Track to Innovation for breakthroughs in the Chemical Industry Action Plan  (Research and Innovation Action)</t>
         </is>
       </c>
       <c r="C378" s="20" t="n"/>
@@ -10888,7 +11088,7 @@
       </c>
       <c r="B379" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-CCRI-04</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-62</t>
         </is>
       </c>
       <c r="C379" s="20" t="n"/>
@@ -10936,7 +11136,7 @@
       </c>
       <c r="B382" s="19" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>02/02/2027</t>
         </is>
       </c>
       <c r="C382" s="20" t="n"/>
@@ -10952,7 +11152,7 @@
       </c>
       <c r="B383" s="19" t="inlineStr">
         <is>
-          <t>7,500,000</t>
+          <t>0 - 2,500,000</t>
         </is>
       </c>
       <c r="C383" s="20" t="n"/>
@@ -10968,7 +11168,7 @@
       </c>
       <c r="B384" s="19" t="inlineStr">
         <is>
-          <t>Innovation Actions</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
         </is>
       </c>
       <c r="C384" s="20" t="n"/>
@@ -10984,7 +11184,7 @@
       </c>
       <c r="B385" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04</t>
+          <t>HORIZON-CL4-2027-06</t>
         </is>
       </c>
       <c r="C385" s="20" t="n"/>
@@ -11000,7 +11200,7 @@
       </c>
       <c r="B386" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Projects are expected to contribute to all the following outcomes:Accelerated transition towards circular economy in the freight transport sector and throughout the urban logistics value chain, contributing to the objectives of the Climate-neutral and Smart Cities Mission and the EU Circular Cities and Regions Initiative (CCRI);Increased adoption by logistics operators of new and tested circular systemic logistics solutions, including modular loading units and reusable transport packaging systems tailored for urban delivery settings;Improved integration of reverse logistics in</t>
+          <t>Expected Outcome:Proposals should describe a credible pathway from their project results and outcomes towards the expected impact of this Destination;Enable the acceleration of the market uptake of groundbreaking innovations in the decarbonisation of the chemical industries as well as alternatives to substances of concern. Scope:This open topic aims to speed up the adoption of new, groundbreaking innovations (starting TRL 4 ) as part of the Chemical Industry Action Plan, in the areas of decarbonisation of energy intensive industries, circular economy or breakthrough production technologies; as</t>
         </is>
       </c>
       <c r="C386" s="20" t="n"/>
@@ -11008,17 +11208,13 @@
       <c r="E386" s="20" t="n"/>
       <c r="F386" s="20" t="n"/>
     </row>
-    <row r="387" ht="45" customHeight="1">
+    <row r="387" ht="20" customHeight="1">
       <c r="A387" s="18" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
       </c>
-      <c r="B387" s="19" t="inlineStr">
-        <is>
-          <t>Circular economy, Climate change mitigation, circular logistics strategies, decarbonisation, e-commerce, urban logistics, urban mobility, urban planning, waste reduction</t>
-        </is>
-      </c>
+      <c r="B387" s="19" t="inlineStr"/>
       <c r="C387" s="20" t="n"/>
       <c r="D387" s="20" t="n"/>
       <c r="E387" s="20" t="n"/>
@@ -11048,7 +11244,7 @@
       </c>
       <c r="B389" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-04-CIT-CCRI-04</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL4-2027-01-MAT-PROD-62</t>
         </is>
       </c>
       <c r="C389" s="20" t="n"/>
@@ -11059,7 +11255,7 @@
     <row r="391" ht="30" customHeight="1">
       <c r="A391" s="16" t="inlineStr">
         <is>
-          <t>FICHA 27: HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
+          <t>FICHA 27: HORIZON-MISS-2027-04-CIT-CCRI-04</t>
         </is>
       </c>
       <c r="B391" s="17" t="n"/>
@@ -11092,7 +11288,7 @@
       </c>
       <c r="B393" s="19" t="inlineStr">
         <is>
-          <t>Bioremediation of Ukraine’s ecosystems contaminated by conflicts</t>
+          <t>Advancing circular logistics solutions in cities</t>
         </is>
       </c>
       <c r="C393" s="20" t="n"/>
@@ -11108,7 +11304,7 @@
       </c>
       <c r="B394" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
+          <t>HORIZON-MISS-2027-04-CIT-CCRI-04</t>
         </is>
       </c>
       <c r="C394" s="20" t="n"/>
@@ -11156,7 +11352,7 @@
       </c>
       <c r="B397" s="19" t="inlineStr">
         <is>
-          <t>17/09/2026</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="C397" s="20" t="n"/>
@@ -11172,7 +11368,7 @@
       </c>
       <c r="B398" s="19" t="inlineStr">
         <is>
-          <t>4,000,000</t>
+          <t>7,500,000</t>
         </is>
       </c>
       <c r="C398" s="20" t="n"/>
@@ -11204,7 +11400,7 @@
       </c>
       <c r="B400" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01</t>
+          <t>HORIZON-MISS-2027-04</t>
         </is>
       </c>
       <c r="C400" s="20" t="n"/>
@@ -11220,7 +11416,7 @@
       </c>
       <c r="B401" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:The actions funded under this topic should support communities, land managers, local administrators, policy makers, and researchers to deploy solutions contributing to the goals of the EU Nature Restoration Regulation and the new EU bioeconomy strategy, through techniques aligned to the Strategy for European Life Sciences and the EU Biotech Act.Project results are expected to contribute to all of the following expected outcomes:innovative biotechnology and Nature-based Solutions (NbS)[1] are developed and made available to communities, land managers, local administrators and p</t>
+          <t>Expected Outcome:Projects are expected to contribute to all the following outcomes:Accelerated transition towards circular economy in the freight transport sector and throughout the urban logistics value chain, contributing to the objectives of the Climate-neutral and Smart Cities Mission and the EU Circular Cities and Regions Initiative (CCRI);Increased adoption by logistics operators of new and tested circular systemic logistics solutions, including modular loading units and reusable transport packaging systems tailored for urban delivery settings;Improved integration of reverse logistics in</t>
         </is>
       </c>
       <c r="C401" s="20" t="n"/>
@@ -11236,7 +11432,7 @@
       </c>
       <c r="B402" s="19" t="inlineStr">
         <is>
-          <t>Bioremediation, Conflict, Contamination, EOSC, EU Soil Observatory (EUSO)., EU enlargement, EU international partnerships, Earth observations, European Open Science Cloud, Life Sciences Strategy, Mission Soil, Nature Restoration Regulation, Restoration, SME, SoilWise, Ukraine, biotechnology, clean environment, land managers, phytoremediation, replication, vulnerable groups, zero-pollution</t>
+          <t>Circular economy, Climate change mitigation, circular logistics strategies, decarbonisation, e-commerce, urban logistics, urban mobility, urban planning, waste reduction</t>
         </is>
       </c>
       <c r="C402" s="20" t="n"/>
@@ -11244,7 +11440,7 @@
       <c r="E402" s="20" t="n"/>
       <c r="F402" s="20" t="n"/>
     </row>
-    <row r="403" ht="45" customHeight="1">
+    <row r="403" ht="20" customHeight="1">
       <c r="A403" s="18" t="inlineStr">
         <is>
           <t>Relevancia Bilbao</t>
@@ -11252,7 +11448,7 @@
       </c>
       <c r="B403" s="21" t="inlineStr">
         <is>
-          <t>ALTA — Proyectos de renaturalización en Zorrotzaurre y Abandoibarra. Plan Verde municipal.</t>
+          <t>ALTA — Bilbao tiene Plan de Economía Circular y proyectos en Mercabilbao.</t>
         </is>
       </c>
       <c r="C403" s="20" t="n"/>
@@ -11268,7 +11464,7 @@
       </c>
       <c r="B404" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-04-CIT-CCRI-04</t>
         </is>
       </c>
       <c r="C404" s="20" t="n"/>
@@ -11279,7 +11475,7 @@
     <row r="406" ht="30" customHeight="1">
       <c r="A406" s="16" t="inlineStr">
         <is>
-          <t>FICHA 28: HORIZON-MISS-2027-04-CIT-02</t>
+          <t>FICHA 28: HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="B406" s="17" t="n"/>
@@ -11312,7 +11508,7 @@
       </c>
       <c r="B408" s="19" t="inlineStr">
         <is>
-          <t>Hydrogen cities</t>
+          <t>Bioremediation of Ukraine’s ecosystems contaminated by conflicts</t>
         </is>
       </c>
       <c r="C408" s="20" t="n"/>
@@ -11328,7 +11524,7 @@
       </c>
       <c r="B409" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-02</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="C409" s="20" t="n"/>
@@ -11376,7 +11572,7 @@
       </c>
       <c r="B412" s="19" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>17/09/2026</t>
         </is>
       </c>
       <c r="C412" s="20" t="n"/>
@@ -11392,7 +11588,7 @@
       </c>
       <c r="B413" s="19" t="inlineStr">
         <is>
-          <t>7,500,000</t>
+          <t>4,000,000</t>
         </is>
       </c>
       <c r="C413" s="20" t="n"/>
@@ -11408,7 +11604,7 @@
       </c>
       <c r="B414" s="19" t="inlineStr">
         <is>
-          <t>Coordination and Support Actions</t>
+          <t>Innovation Actions</t>
         </is>
       </c>
       <c r="C414" s="20" t="n"/>
@@ -11424,7 +11620,7 @@
       </c>
       <c r="B415" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04</t>
+          <t>HORIZON-CL6-2026-01</t>
         </is>
       </c>
       <c r="C415" s="20" t="n"/>
@@ -11440,7 +11636,7 @@
       </c>
       <c r="B416" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expected Outcome:A growing number of cities across Europe is developing hydrogen strategies, either for mobility applications or for decarbonising their local and peri-urban industries and hard-to-abate sectors. By acting as experimentation and innovation hubs, these cities can be testbeds for the energy transition, balancing decarbonisation with competitiveness and social cohesion.Project results are expected to contribute to the following expected outcomes:Investments in - and deployment of - hydrogen applications and infrastructure for hard-to-abate sectors in and around cities to mitigate </t>
+          <t>Expected Outcome:The actions funded under this topic should support communities, land managers, local administrators, policy makers, and researchers to deploy solutions contributing to the goals of the EU Nature Restoration Regulation and the new EU bioeconomy strategy, through techniques aligned to the Strategy for European Life Sciences and the EU Biotech Act.Project results are expected to contribute to all of the following expected outcomes:innovative biotechnology and Nature-based Solutions (NbS)[1] are developed and made available to communities, land managers, local administrators and p</t>
         </is>
       </c>
       <c r="C416" s="20" t="n"/>
@@ -11448,7 +11644,7 @@
       <c r="E416" s="20" t="n"/>
       <c r="F416" s="20" t="n"/>
     </row>
-    <row r="417" ht="20" customHeight="1">
+    <row r="417" ht="45" customHeight="1">
       <c r="A417" s="18" t="inlineStr">
         <is>
           <t>Tags</t>
@@ -11456,7 +11652,7 @@
       </c>
       <c r="B417" s="19" t="inlineStr">
         <is>
-          <t>Climate change mitigation, Decarbonisation, Hydrogen</t>
+          <t>Bioremediation, Conflict, Contamination, EOSC, EU Soil Observatory (EUSO)., EU enlargement, EU international partnerships, Earth observations, European Open Science Cloud, Life Sciences Strategy, Mission Soil, Nature Restoration Regulation, Restoration, SME, SoilWise, Ukraine, biotechnology, clean environment, land managers, phytoremediation, replication, vulnerable groups, zero-pollution</t>
         </is>
       </c>
       <c r="C417" s="20" t="n"/>
@@ -11464,15 +11660,15 @@
       <c r="E417" s="20" t="n"/>
       <c r="F417" s="20" t="n"/>
     </row>
-    <row r="418" ht="20" customHeight="1">
+    <row r="418" ht="45" customHeight="1">
       <c r="A418" s="18" t="inlineStr">
         <is>
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B418" s="19" t="inlineStr">
-        <is>
-          <t>MEDIA — Corredor Vasco del Hidrógeno. Petronor y Puerto de Bilbao involucrados.</t>
+      <c r="B418" s="21" t="inlineStr">
+        <is>
+          <t>ALTA — Proyectos de renaturalización en Zorrotzaurre y Abandoibarra. Plan Verde municipal.</t>
         </is>
       </c>
       <c r="C418" s="20" t="n"/>
@@ -11488,7 +11684,7 @@
       </c>
       <c r="B419" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-04-CIT-02</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="C419" s="20" t="n"/>
@@ -11499,7 +11695,7 @@
     <row r="421" ht="30" customHeight="1">
       <c r="A421" s="16" t="inlineStr">
         <is>
-          <t>FICHA 29: HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
+          <t>FICHA 29: HORIZON-MISS-2027-04-CIT-02</t>
         </is>
       </c>
       <c r="B421" s="17" t="n"/>
@@ -11524,7 +11720,7 @@
       <c r="E422" s="20" t="n"/>
       <c r="F422" s="20" t="n"/>
     </row>
-    <row r="423" ht="45" customHeight="1">
+    <row r="423" ht="20" customHeight="1">
       <c r="A423" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -11532,7 +11728,7 @@
       </c>
       <c r="B423" s="19" t="inlineStr">
         <is>
-          <t>Long-term drivers and consequences of soil degradation: learning from the past to improve future soil health</t>
+          <t>Hydrogen cities</t>
         </is>
       </c>
       <c r="C423" s="20" t="n"/>
@@ -11548,7 +11744,7 @@
       </c>
       <c r="B424" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
+          <t>HORIZON-MISS-2027-04-CIT-02</t>
         </is>
       </c>
       <c r="C424" s="20" t="n"/>
@@ -11596,7 +11792,7 @@
       </c>
       <c r="B427" s="19" t="inlineStr">
         <is>
-          <t>08/04/2027</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="C427" s="20" t="n"/>
@@ -11612,7 +11808,7 @@
       </c>
       <c r="B428" s="19" t="inlineStr">
         <is>
-          <t>12,000,000</t>
+          <t>7,500,000</t>
         </is>
       </c>
       <c r="C428" s="20" t="n"/>
@@ -11628,7 +11824,7 @@
       </c>
       <c r="B429" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Coordination and Support Actions</t>
         </is>
       </c>
       <c r="C429" s="20" t="n"/>
@@ -11644,7 +11840,7 @@
       </c>
       <c r="B430" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-two-stage</t>
+          <t>HORIZON-MISS-2027-04</t>
         </is>
       </c>
       <c r="C430" s="20" t="n"/>
@@ -11660,7 +11856,7 @@
       </c>
       <c r="B431" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expected Outcome:Activities under this topic will help progress towards the objectives and targets of the Mission Soil and the EU Soil Strategy for 2030. Moreover, activities should also contribute to meeting the ambitions of the Sustainable Development Goals[1]. Project results are expected to contribute to all the following expected outcomes:policymakers and other relevant stakeholders have improved access to knowledge and quantitative data on changes in soil degradation over the past centuries to millennia across different pedo-climatic regions, alongside projections for future soil health </t>
+          <t xml:space="preserve">Expected Outcome:A growing number of cities across Europe is developing hydrogen strategies, either for mobility applications or for decarbonising their local and peri-urban industries and hard-to-abate sectors. By acting as experimentation and innovation hubs, these cities can be testbeds for the energy transition, balancing decarbonisation with competitiveness and social cohesion.Project results are expected to contribute to the following expected outcomes:Investments in - and deployment of - hydrogen applications and infrastructure for hard-to-abate sectors in and around cities to mitigate </t>
         </is>
       </c>
       <c r="C431" s="20" t="n"/>
@@ -11668,7 +11864,7 @@
       <c r="E431" s="20" t="n"/>
       <c r="F431" s="20" t="n"/>
     </row>
-    <row r="432" ht="45" customHeight="1">
+    <row r="432" ht="20" customHeight="1">
       <c r="A432" s="18" t="inlineStr">
         <is>
           <t>Tags</t>
@@ -11676,7 +11872,7 @@
       </c>
       <c r="B432" s="19" t="inlineStr">
         <is>
-          <t>Agriculture, Long-term drivers of soil degradation, Soil degradation, Soil health, Soil restoration, Sustainable land management, Transdisciplinary</t>
+          <t>Climate change mitigation, Decarbonisation, Hydrogen</t>
         </is>
       </c>
       <c r="C432" s="20" t="n"/>
@@ -11692,7 +11888,7 @@
       </c>
       <c r="B433" s="19" t="inlineStr">
         <is>
-          <t>MEDIA — Suelos contaminados industriales en Zorrotzaurre y Margen Izquierda.</t>
+          <t>MEDIA — Corredor Vasco del Hidrógeno. Petronor y Puerto de Bilbao involucrados.</t>
         </is>
       </c>
       <c r="C433" s="20" t="n"/>
@@ -11708,7 +11904,7 @@
       </c>
       <c r="B434" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-04-CIT-02</t>
         </is>
       </c>
       <c r="C434" s="20" t="n"/>
@@ -11719,7 +11915,7 @@
     <row r="436" ht="30" customHeight="1">
       <c r="A436" s="16" t="inlineStr">
         <is>
-          <t>FICHA 30: HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
+          <t>FICHA 30: HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
         </is>
       </c>
       <c r="B436" s="17" t="n"/>
@@ -11744,7 +11940,7 @@
       <c r="E437" s="20" t="n"/>
       <c r="F437" s="20" t="n"/>
     </row>
-    <row r="438" ht="20" customHeight="1">
+    <row r="438" ht="45" customHeight="1">
       <c r="A438" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -11752,7 +11948,7 @@
       </c>
       <c r="B438" s="19" t="inlineStr">
         <is>
-          <t>Living Labs for co-creating solutions to reduce eutrophication from agriculture</t>
+          <t>Long-term drivers and consequences of soil degradation: learning from the past to improve future soil health</t>
         </is>
       </c>
       <c r="C438" s="20" t="n"/>
@@ -11768,7 +11964,7 @@
       </c>
       <c r="B439" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
+          <t>HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
         </is>
       </c>
       <c r="C439" s="20" t="n"/>
@@ -11880,7 +12076,7 @@
       </c>
       <c r="B446" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expected Outcome:Activities under this topic respond directly to the goal of the Mission Soil to set up 100 living labs and lighthouses to lead the transition to healthy soils by 2030 and support the objectives and targets of the Mission Soil[1]. Activities should also contribute to the Common Agricultural Policy, and to meeting the European Green Deal ambitions and targets and more specifically those of the EU Biodiversity Strategy for 2030, the EU soil strategy for 2030 and the proposal for a Soil Monitoring and Resilience Directive, as well as the EU Water Framework Directive, the European </t>
+          <t xml:space="preserve">Expected Outcome:Activities under this topic will help progress towards the objectives and targets of the Mission Soil and the EU Soil Strategy for 2030. Moreover, activities should also contribute to meeting the ambitions of the Sustainable Development Goals[1]. Project results are expected to contribute to all the following expected outcomes:policymakers and other relevant stakeholders have improved access to knowledge and quantitative data on changes in soil degradation over the past centuries to millennia across different pedo-climatic regions, alongside projections for future soil health </t>
         </is>
       </c>
       <c r="C446" s="20" t="n"/>
@@ -11896,7 +12092,7 @@
       </c>
       <c r="B447" s="19" t="inlineStr">
         <is>
-          <t>Agriculture, Bottom Up, Co-creation, Eutrophication, Integrated sciences, Living Labs, Participatory research, Soil health, Soil restoration, Sustainable land management</t>
+          <t>Agriculture, Long-term drivers of soil degradation, Soil degradation, Soil health, Soil restoration, Sustainable land management, Transdisciplinary</t>
         </is>
       </c>
       <c r="C447" s="20" t="n"/>
@@ -11928,7 +12124,7 @@
       </c>
       <c r="B449" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
         </is>
       </c>
       <c r="C449" s="20" t="n"/>
@@ -11939,7 +12135,7 @@
     <row r="451" ht="30" customHeight="1">
       <c r="A451" s="16" t="inlineStr">
         <is>
-          <t>FICHA 31: HORIZON-CL5-2027-01-D1-11</t>
+          <t>FICHA 31: HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="B451" s="17" t="n"/>
@@ -11972,7 +12168,7 @@
       </c>
       <c r="B453" s="19" t="inlineStr">
         <is>
-          <t>Africa-EU CO-FUND action on climate</t>
+          <t>Living Labs for co-creating solutions to reduce eutrophication from agriculture</t>
         </is>
       </c>
       <c r="C453" s="20" t="n"/>
@@ -11988,7 +12184,7 @@
       </c>
       <c r="B454" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-01-D1-11</t>
+          <t>HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="C454" s="20" t="n"/>
@@ -12036,7 +12232,7 @@
       </c>
       <c r="B457" s="19" t="inlineStr">
         <is>
-          <t>04/03/2027</t>
+          <t>08/04/2027</t>
         </is>
       </c>
       <c r="C457" s="20" t="n"/>
@@ -12052,7 +12248,7 @@
       </c>
       <c r="B458" s="19" t="inlineStr">
         <is>
-          <t>15,000,000</t>
+          <t>12,000,000</t>
         </is>
       </c>
       <c r="C458" s="20" t="n"/>
@@ -12068,7 +12264,7 @@
       </c>
       <c r="B459" s="19" t="inlineStr">
         <is>
-          <t>Programme Cofund Actions</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
         </is>
       </c>
       <c r="C459" s="20" t="n"/>
@@ -12084,7 +12280,7 @@
       </c>
       <c r="B460" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-01</t>
+          <t>HORIZON-MISS-2027-05-two-stage</t>
         </is>
       </c>
       <c r="C460" s="20" t="n"/>
@@ -12100,7 +12296,7 @@
       </c>
       <c r="B461" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:A long-term collaboration on climate change research between the EU and the African Union is established through development and implementation of the Climate Action pillar of the EU-AU Research and Innovation Partnership on Climate Change and Sustainable Energy (CCSE),[1] in co-design between African and European partners;Reduced fragmentation by aligning the EU, national and multilateral R&amp;amp;I efforts with increased leverage and impact of funding;African scientific, policy and practice com</t>
+          <t xml:space="preserve">Expected Outcome:Activities under this topic respond directly to the goal of the Mission Soil to set up 100 living labs and lighthouses to lead the transition to healthy soils by 2030 and support the objectives and targets of the Mission Soil[1]. Activities should also contribute to the Common Agricultural Policy, and to meeting the European Green Deal ambitions and targets and more specifically those of the EU Biodiversity Strategy for 2030, the EU soil strategy for 2030 and the proposal for a Soil Monitoring and Resilience Directive, as well as the EU Water Framework Directive, the European </t>
         </is>
       </c>
       <c r="C461" s="20" t="n"/>
@@ -12108,13 +12304,17 @@
       <c r="E461" s="20" t="n"/>
       <c r="F461" s="20" t="n"/>
     </row>
-    <row r="462" ht="20" customHeight="1">
+    <row r="462" ht="45" customHeight="1">
       <c r="A462" s="18" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
       </c>
-      <c r="B462" s="19" t="inlineStr"/>
+      <c r="B462" s="19" t="inlineStr">
+        <is>
+          <t>Agriculture, Bottom Up, Co-creation, Eutrophication, Integrated sciences, Living Labs, Participatory research, Soil health, Soil restoration, Sustainable land management</t>
+        </is>
+      </c>
       <c r="C462" s="20" t="n"/>
       <c r="D462" s="20" t="n"/>
       <c r="E462" s="20" t="n"/>
@@ -12128,7 +12328,7 @@
       </c>
       <c r="B463" s="19" t="inlineStr">
         <is>
-          <t>INFO — Revisar relevancia para el Ayuntamiento de Bilbao.</t>
+          <t>MEDIA — Suelos contaminados industriales en Zorrotzaurre y Margen Izquierda.</t>
         </is>
       </c>
       <c r="C463" s="20" t="n"/>
@@ -12144,7 +12344,7 @@
       </c>
       <c r="B464" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL5-2027-01-D1-11</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="C464" s="20" t="n"/>
@@ -13235,7 +13435,7 @@
     <row r="541" ht="30" customHeight="1">
       <c r="A541" s="16" t="inlineStr">
         <is>
-          <t>FICHA 37: HORIZON-CL5-2027-01-D1-13</t>
+          <t>FICHA 37: HORIZON-CL5-2027-01-D1-11</t>
         </is>
       </c>
       <c r="B541" s="17" t="n"/>
@@ -13268,7 +13468,7 @@
       </c>
       <c r="B543" s="19" t="inlineStr">
         <is>
-          <t>Next generation scenarios for informing climate and sustainability transitions</t>
+          <t>Africa-EU CO-FUND action on climate</t>
         </is>
       </c>
       <c r="C543" s="20" t="n"/>
@@ -13284,7 +13484,7 @@
       </c>
       <c r="B544" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-01-D1-13</t>
+          <t>HORIZON-CL5-2027-01-D1-11</t>
         </is>
       </c>
       <c r="C544" s="20" t="n"/>
@@ -13364,7 +13564,7 @@
       </c>
       <c r="B549" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Programme Cofund Actions</t>
         </is>
       </c>
       <c r="C549" s="20" t="n"/>
@@ -13396,7 +13596,7 @@
       </c>
       <c r="B551" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to some of the following expected outcomes:Strengthened collaboration and integration across research communities, better capturing interactions and trade-offs between various climate domains as well as between climate and non-climate objectives, such as biodiversity or pollution related. This will support more comprehensive and consistent evaluations, benefiting key global assessments (IPCC, IPBES) and improving their impact on European and global policies (European Green Deal, UNFCCC, CBD);More relevant, robust and actionable scenar</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:A long-term collaboration on climate change research between the EU and the African Union is established through development and implementation of the Climate Action pillar of the EU-AU Research and Innovation Partnership on Climate Change and Sustainable Energy (CCSE),[1] in co-design between African and European partners;Reduced fragmentation by aligning the EU, national and multilateral R&amp;amp;I efforts with increased leverage and impact of funding;African scientific, policy and practice com</t>
         </is>
       </c>
       <c r="C551" s="20" t="n"/>
@@ -13440,7 +13640,7 @@
       </c>
       <c r="B554" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL5-2027-01-D1-13</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL5-2027-01-D1-11</t>
         </is>
       </c>
       <c r="C554" s="20" t="n"/>
@@ -13451,7 +13651,7 @@
     <row r="556" ht="30" customHeight="1">
       <c r="A556" s="16" t="inlineStr">
         <is>
-          <t>FICHA 38: HORIZON-CL3-2026-01-INFRA-02</t>
+          <t>FICHA 38: HORIZON-CL5-2027-01-D1-13</t>
         </is>
       </c>
       <c r="B556" s="17" t="n"/>
@@ -13484,7 +13684,7 @@
       </c>
       <c r="B558" s="19" t="inlineStr">
         <is>
-          <t>Security challenges of the green transition in urban und peri urban areas</t>
+          <t>Next generation scenarios for informing climate and sustainability transitions</t>
         </is>
       </c>
       <c r="C558" s="20" t="n"/>
@@ -13500,7 +13700,7 @@
       </c>
       <c r="B559" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-INFRA-02</t>
+          <t>HORIZON-CL5-2027-01-D1-13</t>
         </is>
       </c>
       <c r="C559" s="20" t="n"/>
@@ -13548,7 +13748,7 @@
       </c>
       <c r="B562" s="19" t="inlineStr">
         <is>
-          <t>05/11/2026</t>
+          <t>04/03/2027</t>
         </is>
       </c>
       <c r="C562" s="20" t="n"/>
@@ -13564,7 +13764,7 @@
       </c>
       <c r="B563" s="19" t="inlineStr">
         <is>
-          <t>1,330,000</t>
+          <t>15,000,000</t>
         </is>
       </c>
       <c r="C563" s="20" t="n"/>
@@ -13596,7 +13796,7 @@
       </c>
       <c r="B565" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01</t>
+          <t>HORIZON-CL5-2027-01</t>
         </is>
       </c>
       <c r="C565" s="20" t="n"/>
@@ -13612,7 +13812,7 @@
       </c>
       <c r="B566" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to some or all of the following outcomes:Identification and analysis of potential new security risks related to innovative technologies being deployed in the urban and peri-urban environments;Innovative and modern tools to identify and measure changes in urban and peri-urban areas caused by the green transition, insofar as they concern security and possible resilience approaches;Verification of measures countering potential safety and security risks, hazards and challenges arising in areas hosting green technologies;Contribution to bu</t>
+          <t>Expected Outcome:Project results are expected to contribute to some of the following expected outcomes:Strengthened collaboration and integration across research communities, better capturing interactions and trade-offs between various climate domains as well as between climate and non-climate objectives, such as biodiversity or pollution related. This will support more comprehensive and consistent evaluations, benefiting key global assessments (IPCC, IPBES) and improving their impact on European and global policies (European Green Deal, UNFCCC, CBD);More relevant, robust and actionable scenar</t>
         </is>
       </c>
       <c r="C566" s="20" t="n"/>
@@ -13620,17 +13820,13 @@
       <c r="E566" s="20" t="n"/>
       <c r="F566" s="20" t="n"/>
     </row>
-    <row r="567" ht="45" customHeight="1">
+    <row r="567" ht="20" customHeight="1">
       <c r="A567" s="18" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
       </c>
-      <c r="B567" s="19" t="inlineStr">
-        <is>
-          <t>European strategic autonomy, challenges, climate, critical infrastructure, emerging technologies, green technologies, green transition, hazard, innovative technologies, operators, peri urban areas, resilience, safety, security, strategic autonomy</t>
-        </is>
-      </c>
+      <c r="B567" s="19" t="inlineStr"/>
       <c r="C567" s="20" t="n"/>
       <c r="D567" s="20" t="n"/>
       <c r="E567" s="20" t="n"/>
@@ -13660,7 +13856,7 @@
       </c>
       <c r="B569" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL3-2026-01-INFRA-02</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL5-2027-01-D1-13</t>
         </is>
       </c>
       <c r="C569" s="20" t="n"/>
@@ -13671,7 +13867,7 @@
     <row r="571" ht="30" customHeight="1">
       <c r="A571" s="16" t="inlineStr">
         <is>
-          <t>FICHA 39: HORIZON-MISS-2027-04-CIT-05</t>
+          <t>FICHA 39: HORIZON-CL3-2026-01-INFRA-02</t>
         </is>
       </c>
       <c r="B571" s="17" t="n"/>
@@ -13696,7 +13892,7 @@
       <c r="E572" s="20" t="n"/>
       <c r="F572" s="20" t="n"/>
     </row>
-    <row r="573" ht="45" customHeight="1">
+    <row r="573" ht="20" customHeight="1">
       <c r="A573" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -13704,7 +13900,7 @@
       </c>
       <c r="B573" s="19" t="inlineStr">
         <is>
-          <t>Boosting the transformation towards climate-neutral cities, the net-zero economy and open strategic autonomy through Pre-Commercial Procurement (PCP)</t>
+          <t>Security challenges of the green transition in urban und peri urban areas</t>
         </is>
       </c>
       <c r="C573" s="20" t="n"/>
@@ -13720,7 +13916,7 @@
       </c>
       <c r="B574" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-05</t>
+          <t>HORIZON-CL3-2026-01-INFRA-02</t>
         </is>
       </c>
       <c r="C574" s="20" t="n"/>
@@ -13768,7 +13964,7 @@
       </c>
       <c r="B577" s="19" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>05/11/2026</t>
         </is>
       </c>
       <c r="C577" s="20" t="n"/>
@@ -13784,7 +13980,7 @@
       </c>
       <c r="B578" s="19" t="inlineStr">
         <is>
-          <t>7,500,000</t>
+          <t>1,330,000</t>
         </is>
       </c>
       <c r="C578" s="20" t="n"/>
@@ -13800,7 +13996,7 @@
       </c>
       <c r="B579" s="19" t="inlineStr">
         <is>
-          <t>Pre-commercial Procurement</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
         </is>
       </c>
       <c r="C579" s="20" t="n"/>
@@ -13816,7 +14012,7 @@
       </c>
       <c r="B580" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04</t>
+          <t>HORIZON-CL3-2026-01</t>
         </is>
       </c>
       <c r="C580" s="20" t="n"/>
@@ -13832,7 +14028,7 @@
       </c>
       <c r="B581" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Projects are expected to contribute to the following outcomes:Public procurers stimulate from demand side the competitive development of market ready innovative solutions to reduce greenhouse gas and air pollutants emissions that can contribute to the transition of local communities towards climate neutrality, whilst strengthening EU open strategic autonomy [1];Public procurers leverage PCP to bring to the market innovative solutions in sectors relevant for climate change mitigation (such as energy efficiency in buildings, production and use of renewable energy, sustainable an</t>
+          <t>Expected Outcome:Project results are expected to contribute to some or all of the following outcomes:Identification and analysis of potential new security risks related to innovative technologies being deployed in the urban and peri-urban environments;Innovative and modern tools to identify and measure changes in urban and peri-urban areas caused by the green transition, insofar as they concern security and possible resilience approaches;Verification of measures countering potential safety and security risks, hazards and challenges arising in areas hosting green technologies;Contribution to bu</t>
         </is>
       </c>
       <c r="C581" s="20" t="n"/>
@@ -13848,7 +14044,7 @@
       </c>
       <c r="B582" s="19" t="inlineStr">
         <is>
-          <t>Innovation Procurement, Pre-Commercial Procurement, climate-neutral cities, competitiveness, decarbonisation, net-zero technologies, open strategic autonomy</t>
+          <t>European strategic autonomy, challenges, climate, critical infrastructure, emerging technologies, green technologies, green transition, hazard, innovative technologies, operators, peri urban areas, resilience, safety, security, strategic autonomy</t>
         </is>
       </c>
       <c r="C582" s="20" t="n"/>
@@ -13880,7 +14076,7 @@
       </c>
       <c r="B584" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-04-CIT-05</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL3-2026-01-INFRA-02</t>
         </is>
       </c>
       <c r="C584" s="20" t="n"/>
@@ -13891,7 +14087,7 @@
     <row r="586" ht="30" customHeight="1">
       <c r="A586" s="16" t="inlineStr">
         <is>
-          <t>FICHA 40: HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
+          <t>FICHA 40: HORIZON-MISS-2027-04-CIT-05</t>
         </is>
       </c>
       <c r="B586" s="17" t="n"/>
@@ -13924,7 +14120,7 @@
       </c>
       <c r="B588" s="19" t="inlineStr">
         <is>
-          <t>Open topic: Using the Circular Cities and Regions Initiative to strengthen urban manufacturing in support of the Clean Industrial Deal</t>
+          <t>Boosting the transformation towards climate-neutral cities, the net-zero economy and open strategic autonomy through Pre-Commercial Procurement (PCP)</t>
         </is>
       </c>
       <c r="C588" s="20" t="n"/>
@@ -13940,7 +14136,7 @@
       </c>
       <c r="B589" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
+          <t>HORIZON-MISS-2027-04-CIT-05</t>
         </is>
       </c>
       <c r="C589" s="20" t="n"/>
@@ -13988,7 +14184,7 @@
       </c>
       <c r="B592" s="19" t="inlineStr">
         <is>
-          <t>08/04/2027</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="C592" s="20" t="n"/>
@@ -14004,7 +14200,7 @@
       </c>
       <c r="B593" s="19" t="inlineStr">
         <is>
-          <t>6,000,000</t>
+          <t>7,500,000</t>
         </is>
       </c>
       <c r="C593" s="20" t="n"/>
@@ -14020,7 +14216,7 @@
       </c>
       <c r="B594" s="19" t="inlineStr">
         <is>
-          <t>Innovation Actions</t>
+          <t>Pre-commercial Procurement</t>
         </is>
       </c>
       <c r="C594" s="20" t="n"/>
@@ -14036,7 +14232,7 @@
       </c>
       <c r="B595" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-two-stage</t>
+          <t>HORIZON-MISS-2027-04</t>
         </is>
       </c>
       <c r="C595" s="20" t="n"/>
@@ -14052,7 +14248,7 @@
       </c>
       <c r="B596" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:urban manufacturers significantly increase their resource efficiency through increased circular material use or reduced overall material use per output;urban manufacturers contribute significantly to EU climate, zero pollution, circularity and biodiversity goals by engaging in clean, sustainable and circular business practices;improved knowledge sharing and proliferation of digital tools and methods that facilitate the adoption of circular business practices and enable large-scale diffusion.  </t>
+          <t>Expected Outcome:Projects are expected to contribute to the following outcomes:Public procurers stimulate from demand side the competitive development of market ready innovative solutions to reduce greenhouse gas and air pollutants emissions that can contribute to the transition of local communities towards climate neutrality, whilst strengthening EU open strategic autonomy [1];Public procurers leverage PCP to bring to the market innovative solutions in sectors relevant for climate change mitigation (such as energy efficiency in buildings, production and use of renewable energy, sustainable an</t>
         </is>
       </c>
       <c r="C596" s="20" t="n"/>
@@ -14068,7 +14264,7 @@
       </c>
       <c r="B597" s="19" t="inlineStr">
         <is>
-          <t>bauhaus, circular design, circular economy, clean industry, ecodesign, new business models, resource efficiency, sustainable cities, sustainable production</t>
+          <t>Innovation Procurement, Pre-Commercial Procurement, climate-neutral cities, competitiveness, decarbonisation, net-zero technologies, open strategic autonomy</t>
         </is>
       </c>
       <c r="C597" s="20" t="n"/>
@@ -14100,7 +14296,7 @@
       </c>
       <c r="B599" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-MISS-2027-04-CIT-05</t>
         </is>
       </c>
       <c r="C599" s="20" t="n"/>
@@ -14111,7 +14307,7 @@
     <row r="601" ht="30" customHeight="1">
       <c r="A601" s="16" t="inlineStr">
         <is>
-          <t>FICHA 41: HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
+          <t>FICHA 41: HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
         </is>
       </c>
       <c r="B601" s="17" t="n"/>
@@ -14144,7 +14340,7 @@
       </c>
       <c r="B603" s="19" t="inlineStr">
         <is>
-          <t>Deploying circular systemic solutions through living labs in cities and regions (Circular Cities and Regions Initiative topic)</t>
+          <t>Open topic: Using the Circular Cities and Regions Initiative to strengthen urban manufacturing in support of the Clean Industrial Deal</t>
         </is>
       </c>
       <c r="C603" s="20" t="n"/>
@@ -14160,7 +14356,7 @@
       </c>
       <c r="B604" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
         </is>
       </c>
       <c r="C604" s="20" t="n"/>
@@ -14272,7 +14468,7 @@
       </c>
       <c r="B611" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:increased circularity and reduced emissions of greenhouse gases and air pollutants in the economic sectors, services and product value chains at local and/or regional scale. This also includes an efficient valorisation of local resources, with positive effects on air and water quality as well as on biodiversity;widespread deployment and easier replication, scalability and visibility of circular systemic solutions for a multiplication of their economic, social and environmental benefits;enhance</t>
+          <t xml:space="preserve">Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:urban manufacturers significantly increase their resource efficiency through increased circular material use or reduced overall material use per output;urban manufacturers contribute significantly to EU climate, zero pollution, circularity and biodiversity goals by engaging in clean, sustainable and circular business practices;improved knowledge sharing and proliferation of digital tools and methods that facilitate the adoption of circular business practices and enable large-scale diffusion.  </t>
         </is>
       </c>
       <c r="C611" s="20" t="n"/>
@@ -14280,7 +14476,7 @@
       <c r="E611" s="20" t="n"/>
       <c r="F611" s="20" t="n"/>
     </row>
-    <row r="612" ht="20" customHeight="1">
+    <row r="612" ht="45" customHeight="1">
       <c r="A612" s="18" t="inlineStr">
         <is>
           <t>Tags</t>
@@ -14288,7 +14484,7 @@
       </c>
       <c r="B612" s="19" t="inlineStr">
         <is>
-          <t>circular economy, place-based innovation, systemic</t>
+          <t>bauhaus, circular design, circular economy, clean industry, ecodesign, new business models, resource efficiency, sustainable cities, sustainable production</t>
         </is>
       </c>
       <c r="C612" s="20" t="n"/>
@@ -14320,7 +14516,7 @@
       </c>
       <c r="B614" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
         </is>
       </c>
       <c r="C614" s="20" t="n"/>
@@ -14331,7 +14527,7 @@
     <row r="616" ht="30" customHeight="1">
       <c r="A616" s="16" t="inlineStr">
         <is>
-          <t>FICHA 42: HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
+          <t>FICHA 42: HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
         </is>
       </c>
       <c r="B616" s="17" t="n"/>
@@ -14356,7 +14552,7 @@
       <c r="E617" s="20" t="n"/>
       <c r="F617" s="20" t="n"/>
     </row>
-    <row r="618" ht="20" customHeight="1">
+    <row r="618" ht="45" customHeight="1">
       <c r="A618" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -14364,7 +14560,7 @@
       </c>
       <c r="B618" s="19" t="inlineStr">
         <is>
-          <t>Open topic: Innovative solutions for the European Water Resilience Strategy</t>
+          <t>Deploying circular systemic solutions through living labs in cities and regions (Circular Cities and Regions Initiative topic)</t>
         </is>
       </c>
       <c r="C618" s="20" t="n"/>
@@ -14380,7 +14576,7 @@
       </c>
       <c r="B619" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
         </is>
       </c>
       <c r="C619" s="20" t="n"/>
@@ -14444,7 +14640,7 @@
       </c>
       <c r="B623" s="19" t="inlineStr">
         <is>
-          <t>5,500,000</t>
+          <t>6,000,000</t>
         </is>
       </c>
       <c r="C623" s="20" t="n"/>
@@ -14476,7 +14672,7 @@
       </c>
       <c r="B625" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-two-stage</t>
+          <t>HORIZON-CL6-2027-01-two-stage</t>
         </is>
       </c>
       <c r="C625" s="20" t="n"/>
@@ -14492,7 +14688,7 @@
       </c>
       <c r="B626" s="19" t="inlineStr">
         <is>
-          <t>Expected Outcome:Project results are expected to contribute to one or more of the following expected outcomes corresponding to the European Water Resilience Strategy objectives:the water cycle is restored;the economy is following a water-smart path and the EU water industry is competitive;water is clean and affordable for all. Scope:The European Commission adopted the European Water Resilience Strategy[1], which proposes actions to address the expected outcomes described in this Open Topic. With a view of contributing with breakthrough innovation to this strategy, proposals are expected to add</t>
+          <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:increased circularity and reduced emissions of greenhouse gases and air pollutants in the economic sectors, services and product value chains at local and/or regional scale. This also includes an efficient valorisation of local resources, with positive effects on air and water quality as well as on biodiversity;widespread deployment and easier replication, scalability and visibility of circular systemic solutions for a multiplication of their economic, social and environmental benefits;enhance</t>
         </is>
       </c>
       <c r="C626" s="20" t="n"/>
@@ -14508,7 +14704,7 @@
       </c>
       <c r="B627" s="19" t="inlineStr">
         <is>
-          <t>Water efficiency, Water-smart, water cycle, water resilience</t>
+          <t>circular economy, place-based innovation, systemic</t>
         </is>
       </c>
       <c r="C627" s="20" t="n"/>
@@ -14540,7 +14736,7 @@
       </c>
       <c r="B629" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
         </is>
       </c>
       <c r="C629" s="20" t="n"/>
@@ -14551,7 +14747,7 @@
     <row r="631" ht="30" customHeight="1">
       <c r="A631" s="16" t="inlineStr">
         <is>
-          <t>FICHA 43: HORIZON-CL6-2027-01-BIODIV-05</t>
+          <t>FICHA 43: HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
         </is>
       </c>
       <c r="B631" s="17" t="n"/>
@@ -14576,7 +14772,7 @@
       <c r="E632" s="20" t="n"/>
       <c r="F632" s="20" t="n"/>
     </row>
-    <row r="633" ht="45" customHeight="1">
+    <row r="633" ht="20" customHeight="1">
       <c r="A633" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -14584,7 +14780,7 @@
       </c>
       <c r="B633" s="19" t="inlineStr">
         <is>
-          <t>Accelerating the transition to a nature positive economy: Integrating biodiversity into the private sector</t>
+          <t>Open topic: Innovative solutions for the European Water Resilience Strategy</t>
         </is>
       </c>
       <c r="C633" s="20" t="n"/>
@@ -14600,7 +14796,7 @@
       </c>
       <c r="B634" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
         </is>
       </c>
       <c r="C634" s="20" t="n"/>
@@ -14648,7 +14844,7 @@
       </c>
       <c r="B637" s="19" t="inlineStr">
         <is>
-          <t>22/09/2027</t>
+          <t>08/04/2027</t>
         </is>
       </c>
       <c r="C637" s="20" t="n"/>
@@ -14664,7 +14860,7 @@
       </c>
       <c r="B638" s="19" t="inlineStr">
         <is>
-          <t>4,000,000 - 5,000,000</t>
+          <t>5,500,000</t>
         </is>
       </c>
       <c r="C638" s="20" t="n"/>
@@ -14680,7 +14876,7 @@
       </c>
       <c r="B639" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Research and Innovation Actions</t>
+          <t>Innovation Actions</t>
         </is>
       </c>
       <c r="C639" s="20" t="n"/>
@@ -14696,7 +14892,7 @@
       </c>
       <c r="B640" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01</t>
+          <t>HORIZON-CL6-2027-02-two-stage</t>
         </is>
       </c>
       <c r="C640" s="20" t="n"/>
@@ -14712,7 +14908,7 @@
       </c>
       <c r="B641" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expected Outcome:Project results are expected to contribute to all the following expected outcomes, driving transformative change for biodiversity and nature positive economic practices:overall, the economic case for biodiversity protection, restoration, sustainable use and the delivery of ecosystem services upon which all life depends, is strengthened including through robust assessments of the cost of inaction;businesses are better able to mainstream biodiversity considerations in decision-making, fostering transformative business models that enhance inclusion for biodiversity, particularly </t>
+          <t>Expected Outcome:Project results are expected to contribute to one or more of the following expected outcomes corresponding to the European Water Resilience Strategy objectives:the water cycle is restored;the economy is following a water-smart path and the EU water industry is competitive;water is clean and affordable for all. Scope:The European Commission adopted the European Water Resilience Strategy[1], which proposes actions to address the expected outcomes described in this Open Topic. With a view of contributing with breakthrough innovation to this strategy, proposals are expected to add</t>
         </is>
       </c>
       <c r="C641" s="20" t="n"/>
@@ -14720,7 +14916,7 @@
       <c r="E641" s="20" t="n"/>
       <c r="F641" s="20" t="n"/>
     </row>
-    <row r="642" ht="45" customHeight="1">
+    <row r="642" ht="20" customHeight="1">
       <c r="A642" s="18" t="inlineStr">
         <is>
           <t>Tags</t>
@@ -14728,7 +14924,7 @@
       </c>
       <c r="B642" s="19" t="inlineStr">
         <is>
-          <t>Biodiversity, Biodiversity Crisis, Biodiversity Loss, Biodiversity Protection, Biodiversity Restoration, Biodiversity data, Climate Change, Climate Crisis, Economics, Economics for Biodiversity, Ecosystem Services, Green Transition, NBS, Natural Capital, Natural Capital Accounting, Nature Positive Economy, Nature Valuation, Nature-based solutions, SSH, Transformative Change</t>
+          <t>Water efficiency, Water-smart, water cycle, water resilience</t>
         </is>
       </c>
       <c r="C642" s="20" t="n"/>
@@ -14760,7 +14956,7 @@
       </c>
       <c r="B644" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2027-01-BIODIV-05</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
         </is>
       </c>
       <c r="C644" s="20" t="n"/>
@@ -14771,7 +14967,7 @@
     <row r="646" ht="30" customHeight="1">
       <c r="A646" s="16" t="inlineStr">
         <is>
-          <t>FICHA 44: caa3aead-778e-4dce-b1b3-46da20e64a20</t>
+          <t>FICHA 44: HORIZON-CL5-2026-09-D3-03</t>
         </is>
       </c>
       <c r="B646" s="17" t="n"/>
@@ -14796,7 +14992,7 @@
       <c r="E647" s="20" t="n"/>
       <c r="F647" s="20" t="n"/>
     </row>
-    <row r="648" ht="20" customHeight="1">
+    <row r="648" ht="45" customHeight="1">
       <c r="A648" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -14804,7 +15000,7 @@
       </c>
       <c r="B648" s="19" t="inlineStr">
         <is>
-          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
+          <t>Innovative technologies and solutions to improve wind energy systems supporting the Strategic Energy Technology (SET) Plan on wind</t>
         </is>
       </c>
       <c r="C648" s="20" t="n"/>
@@ -14820,7 +15016,7 @@
       </c>
       <c r="B649" s="19" t="inlineStr">
         <is>
-          <t>caa3aead-778e-4dce-b1b3-46da20e64a20</t>
+          <t>HORIZON-CL5-2026-09-D3-03</t>
         </is>
       </c>
       <c r="C649" s="20" t="n"/>
@@ -14834,7 +15030,11 @@
           <t>Programa</t>
         </is>
       </c>
-      <c r="B650" s="19" t="inlineStr"/>
+      <c r="B650" s="19" t="inlineStr">
+        <is>
+          <t>Horizon Europe</t>
+        </is>
+      </c>
       <c r="C650" s="20" t="n"/>
       <c r="D650" s="20" t="n"/>
       <c r="E650" s="20" t="n"/>
@@ -14848,7 +15048,7 @@
       </c>
       <c r="B651" s="19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Forthcoming</t>
         </is>
       </c>
       <c r="C651" s="20" t="n"/>
@@ -14862,7 +15062,11 @@
           <t>Deadline</t>
         </is>
       </c>
-      <c r="B652" s="19" t="inlineStr"/>
+      <c r="B652" s="19" t="inlineStr">
+        <is>
+          <t>15/09/2026</t>
+        </is>
+      </c>
       <c r="C652" s="20" t="n"/>
       <c r="D652" s="20" t="n"/>
       <c r="E652" s="20" t="n"/>
@@ -14876,7 +15080,7 @@
       </c>
       <c r="B653" s="19" t="inlineStr">
         <is>
-          <t>No disponible</t>
+          <t>5,250,000</t>
         </is>
       </c>
       <c r="C653" s="20" t="n"/>
@@ -14892,7 +15096,7 @@
       </c>
       <c r="B654" s="19" t="inlineStr">
         <is>
-          <t>No disponible</t>
+          <t>Innovation Actions</t>
         </is>
       </c>
       <c r="C654" s="20" t="n"/>
@@ -14908,7 +15112,7 @@
       </c>
       <c r="B655" s="19" t="inlineStr">
         <is>
-          <t>NEAR/ANK/2022/EA-RP/0056</t>
+          <t>HORIZON-CL5-2026-09</t>
         </is>
       </c>
       <c r="C655" s="20" t="n"/>
@@ -14916,7 +15120,7 @@
       <c r="E655" s="20" t="n"/>
       <c r="F655" s="20" t="n"/>
     </row>
-    <row r="656" ht="20" customHeight="1">
+    <row r="656" ht="45" customHeight="1">
       <c r="A656" s="18" t="inlineStr">
         <is>
           <t>Descripcion</t>
@@ -14924,7 +15128,7 @@
       </c>
       <c r="B656" s="19" t="inlineStr">
         <is>
-          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
+          <t>Expected Outcome:Project results are expected to contribute to all the following expected outcomes:Advance in the achievement of the Strategic Energy Technology (SET) Plan’s research and innovation priorities and targets for wind energy;Efficient and effective support to wind energy research and innovation through alignment and cooperation among different actors, avoiding fragmentation of efforts;Energy producers and consumers benefit from increased performance of wind energy technologies with the focus on efficiency and flexibility, reduced cost, improved reliability and sustainability, opera</t>
         </is>
       </c>
       <c r="C656" s="20" t="n"/>
@@ -14950,9 +15154,9 @@
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B658" s="23" t="inlineStr">
-        <is>
-          <t>MUY ALTA — Bilbao es nodo TEN-T. Metro, tranvía, BizkaiBus. Proyecto SuperIsla.</t>
+      <c r="B658" s="19" t="inlineStr">
+        <is>
+          <t>INFO — Revisar relevancia para el Ayuntamiento de Bilbao.</t>
         </is>
       </c>
       <c r="C658" s="20" t="n"/>
@@ -14968,7 +15172,7 @@
       </c>
       <c r="B659" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/caa3aead-778e-4dce-b1b3-46da20e64a20</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL5-2026-09-D3-03</t>
         </is>
       </c>
       <c r="C659" s="20" t="n"/>
@@ -14979,7 +15183,7 @@
     <row r="661" ht="30" customHeight="1">
       <c r="A661" s="16" t="inlineStr">
         <is>
-          <t>FICHA 45: c1c9444c-6204-4735-9763-000ea7cd5d46</t>
+          <t>FICHA 45: HORIZON-CL6-2027-01-BIODIV-05</t>
         </is>
       </c>
       <c r="B661" s="17" t="n"/>
@@ -15012,7 +15216,7 @@
       </c>
       <c r="B663" s="19" t="inlineStr">
         <is>
-          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Skopje, including Action plan and guidelines</t>
+          <t>Accelerating the transition to a nature positive economy: Integrating biodiversity into the private sector</t>
         </is>
       </c>
       <c r="C663" s="20" t="n"/>
@@ -15028,7 +15232,7 @@
       </c>
       <c r="B664" s="19" t="inlineStr">
         <is>
-          <t>c1c9444c-6204-4735-9763-000ea7cd5d46</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
         </is>
       </c>
       <c r="C664" s="20" t="n"/>
@@ -15042,7 +15246,11 @@
           <t>Programa</t>
         </is>
       </c>
-      <c r="B665" s="19" t="inlineStr"/>
+      <c r="B665" s="19" t="inlineStr">
+        <is>
+          <t>Horizon Europe</t>
+        </is>
+      </c>
       <c r="C665" s="20" t="n"/>
       <c r="D665" s="20" t="n"/>
       <c r="E665" s="20" t="n"/>
@@ -15056,7 +15264,7 @@
       </c>
       <c r="B666" s="19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Forthcoming</t>
         </is>
       </c>
       <c r="C666" s="20" t="n"/>
@@ -15070,7 +15278,11 @@
           <t>Deadline</t>
         </is>
       </c>
-      <c r="B667" s="19" t="inlineStr"/>
+      <c r="B667" s="19" t="inlineStr">
+        <is>
+          <t>22/09/2027</t>
+        </is>
+      </c>
       <c r="C667" s="20" t="n"/>
       <c r="D667" s="20" t="n"/>
       <c r="E667" s="20" t="n"/>
@@ -15084,7 +15296,7 @@
       </c>
       <c r="B668" s="19" t="inlineStr">
         <is>
-          <t>No disponible</t>
+          <t>4,000,000 - 5,000,000</t>
         </is>
       </c>
       <c r="C668" s="20" t="n"/>
@@ -15100,7 +15312,7 @@
       </c>
       <c r="B669" s="19" t="inlineStr">
         <is>
-          <t>No disponible</t>
+          <t xml:space="preserve"> Research and Innovation Actions</t>
         </is>
       </c>
       <c r="C669" s="20" t="n"/>
@@ -15116,7 +15328,7 @@
       </c>
       <c r="B670" s="19" t="inlineStr">
         <is>
-          <t>NEAR/SKP/2022/EA-RP/0169</t>
+          <t>HORIZON-CL6-2027-01</t>
         </is>
       </c>
       <c r="C670" s="20" t="n"/>
@@ -15132,7 +15344,7 @@
       </c>
       <c r="B671" s="19" t="inlineStr">
         <is>
-          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Skopje, including Action plan and guidelines</t>
+          <t xml:space="preserve">Expected Outcome:Project results are expected to contribute to all the following expected outcomes, driving transformative change for biodiversity and nature positive economic practices:overall, the economic case for biodiversity protection, restoration, sustainable use and the delivery of ecosystem services upon which all life depends, is strengthened including through robust assessments of the cost of inaction;businesses are better able to mainstream biodiversity considerations in decision-making, fostering transformative business models that enhance inclusion for biodiversity, particularly </t>
         </is>
       </c>
       <c r="C671" s="20" t="n"/>
@@ -15140,13 +15352,17 @@
       <c r="E671" s="20" t="n"/>
       <c r="F671" s="20" t="n"/>
     </row>
-    <row r="672" ht="20" customHeight="1">
+    <row r="672" ht="45" customHeight="1">
       <c r="A672" s="18" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
       </c>
-      <c r="B672" s="19" t="inlineStr"/>
+      <c r="B672" s="19" t="inlineStr">
+        <is>
+          <t>Biodiversity, Biodiversity Crisis, Biodiversity Loss, Biodiversity Protection, Biodiversity Restoration, Biodiversity data, Climate Change, Climate Crisis, Economics, Economics for Biodiversity, Ecosystem Services, Green Transition, NBS, Natural Capital, Natural Capital Accounting, Nature Positive Economy, Nature Valuation, Nature-based solutions, SSH, Transformative Change</t>
+        </is>
+      </c>
       <c r="C672" s="20" t="n"/>
       <c r="D672" s="20" t="n"/>
       <c r="E672" s="20" t="n"/>
@@ -15158,9 +15374,9 @@
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B673" s="23" t="inlineStr">
-        <is>
-          <t>MUY ALTA — Bilbao es nodo TEN-T. Metro, tranvía, BizkaiBus. Proyecto SuperIsla.</t>
+      <c r="B673" s="19" t="inlineStr">
+        <is>
+          <t>INFO — Revisar relevancia para el Ayuntamiento de Bilbao.</t>
         </is>
       </c>
       <c r="C673" s="20" t="n"/>
@@ -15176,7 +15392,7 @@
       </c>
       <c r="B674" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/c1c9444c-6204-4735-9763-000ea7cd5d46</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-CL6-2027-01-BIODIV-05</t>
         </is>
       </c>
       <c r="C674" s="20" t="n"/>
@@ -15187,7 +15403,7 @@
     <row r="676" ht="30" customHeight="1">
       <c r="A676" s="16" t="inlineStr">
         <is>
-          <t>FICHA 46: HORIZON</t>
+          <t>FICHA 46: caa3aead-778e-4dce-b1b3-46da20e64a20</t>
         </is>
       </c>
       <c r="B676" s="17" t="n"/>
@@ -15212,7 +15428,7 @@
       <c r="E677" s="20" t="n"/>
       <c r="F677" s="20" t="n"/>
     </row>
-    <row r="678" ht="45" customHeight="1">
+    <row r="678" ht="20" customHeight="1">
       <c r="A678" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -15220,7 +15436,7 @@
       </c>
       <c r="B678" s="19" t="inlineStr">
         <is>
-          <t>Powering access to investment for next generation circular economy initiatives in cities and regions</t>
+          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
         </is>
       </c>
       <c r="C678" s="20" t="n"/>
@@ -15236,7 +15452,7 @@
       </c>
       <c r="B679" s="19" t="inlineStr">
         <is>
-          <t>HORIZON</t>
+          <t>caa3aead-778e-4dce-b1b3-46da20e64a20</t>
         </is>
       </c>
       <c r="C679" s="20" t="n"/>
@@ -15250,11 +15466,7 @@
           <t>Programa</t>
         </is>
       </c>
-      <c r="B680" s="19" t="inlineStr">
-        <is>
-          <t>Horizon Europe</t>
-        </is>
-      </c>
+      <c r="B680" s="19" t="inlineStr"/>
       <c r="C680" s="20" t="n"/>
       <c r="D680" s="20" t="n"/>
       <c r="E680" s="20" t="n"/>
@@ -15328,7 +15540,7 @@
       </c>
       <c r="B685" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2022-CIRCBIO-01</t>
+          <t>NEAR/ANK/2022/EA-RP/0056</t>
         </is>
       </c>
       <c r="C685" s="20" t="n"/>
@@ -15336,7 +15548,7 @@
       <c r="E685" s="20" t="n"/>
       <c r="F685" s="20" t="n"/>
     </row>
-    <row r="686" ht="45" customHeight="1">
+    <row r="686" ht="20" customHeight="1">
       <c r="A686" s="18" t="inlineStr">
         <is>
           <t>Descripcion</t>
@@ -15344,7 +15556,7 @@
       </c>
       <c r="B686" s="19" t="inlineStr">
         <is>
-          <t>Powering access to investment for next generation circular economy initiatives in cities and regions</t>
+          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
         </is>
       </c>
       <c r="C686" s="20" t="n"/>
@@ -15370,9 +15582,9 @@
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B688" s="21" t="inlineStr">
-        <is>
-          <t>ALTA — Bilbao tiene Plan de Economía Circular y proyectos en Mercabilbao.</t>
+      <c r="B688" s="23" t="inlineStr">
+        <is>
+          <t>MUY ALTA — Bilbao es nodo TEN-T. Metro, tranvía, BizkaiBus. Proyecto SuperIsla.</t>
         </is>
       </c>
       <c r="C688" s="20" t="n"/>
@@ -15388,7 +15600,7 @@
       </c>
       <c r="B689" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/caa3aead-778e-4dce-b1b3-46da20e64a20</t>
         </is>
       </c>
       <c r="C689" s="20" t="n"/>
@@ -15399,7 +15611,7 @@
     <row r="691" ht="30" customHeight="1">
       <c r="A691" s="16" t="inlineStr">
         <is>
-          <t>FICHA 47: HORIZON-JU-CLEANH2-2025-04-01</t>
+          <t>FICHA 47: c1c9444c-6204-4735-9763-000ea7cd5d46</t>
         </is>
       </c>
       <c r="B691" s="17" t="n"/>
@@ -15424,7 +15636,7 @@
       <c r="E692" s="20" t="n"/>
       <c r="F692" s="20" t="n"/>
     </row>
-    <row r="693" ht="20" customHeight="1">
+    <row r="693" ht="45" customHeight="1">
       <c r="A693" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -15432,7 +15644,7 @@
       </c>
       <c r="B693" s="19" t="inlineStr">
         <is>
-          <t>Demonstration of stationary fuel cells in renewable energy communities</t>
+          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Skopje, including Action plan and guidelines</t>
         </is>
       </c>
       <c r="C693" s="20" t="n"/>
@@ -15448,7 +15660,7 @@
       </c>
       <c r="B694" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-JU-CLEANH2-2025-04-01</t>
+          <t>c1c9444c-6204-4735-9763-000ea7cd5d46</t>
         </is>
       </c>
       <c r="C694" s="20" t="n"/>
@@ -15462,11 +15674,7 @@
           <t>Programa</t>
         </is>
       </c>
-      <c r="B695" s="19" t="inlineStr">
-        <is>
-          <t>Horizon Europe</t>
-        </is>
-      </c>
+      <c r="B695" s="19" t="inlineStr"/>
       <c r="C695" s="20" t="n"/>
       <c r="D695" s="20" t="n"/>
       <c r="E695" s="20" t="n"/>
@@ -15540,7 +15748,7 @@
       </c>
       <c r="B700" s="19" t="inlineStr">
         <is>
-          <t>HORIZON-JU-CLEANH2-2025</t>
+          <t>NEAR/SKP/2022/EA-RP/0169</t>
         </is>
       </c>
       <c r="C700" s="20" t="n"/>
@@ -15548,7 +15756,7 @@
       <c r="E700" s="20" t="n"/>
       <c r="F700" s="20" t="n"/>
     </row>
-    <row r="701" ht="20" customHeight="1">
+    <row r="701" ht="45" customHeight="1">
       <c r="A701" s="18" t="inlineStr">
         <is>
           <t>Descripcion</t>
@@ -15556,7 +15764,7 @@
       </c>
       <c r="B701" s="19" t="inlineStr">
         <is>
-          <t>Demonstration of stationary fuel cells in renewable energy communities</t>
+          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Skopje, including Action plan and guidelines</t>
         </is>
       </c>
       <c r="C701" s="20" t="n"/>
@@ -15582,9 +15790,9 @@
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B703" s="21" t="inlineStr">
-        <is>
-          <t>ALTA — Estrategia energética municipal incluye comunidades energéticas locales.</t>
+      <c r="B703" s="23" t="inlineStr">
+        <is>
+          <t>MUY ALTA — Bilbao es nodo TEN-T. Metro, tranvía, BizkaiBus. Proyecto SuperIsla.</t>
         </is>
       </c>
       <c r="C703" s="20" t="n"/>
@@ -15600,7 +15808,7 @@
       </c>
       <c r="B704" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON-JU-CLEANH2-2025-04-01</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/c1c9444c-6204-4735-9763-000ea7cd5d46</t>
         </is>
       </c>
       <c r="C704" s="20" t="n"/>
@@ -15611,7 +15819,7 @@
     <row r="706" ht="30" customHeight="1">
       <c r="A706" s="16" t="inlineStr">
         <is>
-          <t>FICHA 48: DIGITAL</t>
+          <t>FICHA 48: HORIZON</t>
         </is>
       </c>
       <c r="B706" s="17" t="n"/>
@@ -15636,7 +15844,7 @@
       <c r="E707" s="20" t="n"/>
       <c r="F707" s="20" t="n"/>
     </row>
-    <row r="708" ht="20" customHeight="1">
+    <row r="708" ht="45" customHeight="1">
       <c r="A708" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -15644,7 +15852,7 @@
       </c>
       <c r="B708" s="19" t="inlineStr">
         <is>
-          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTEMS</t>
+          <t>Powering access to investment for next generation circular economy initiatives in cities and regions</t>
         </is>
       </c>
       <c r="C708" s="20" t="n"/>
@@ -15660,7 +15868,7 @@
       </c>
       <c r="B709" s="19" t="inlineStr">
         <is>
-          <t>DIGITAL</t>
+          <t>HORIZON</t>
         </is>
       </c>
       <c r="C709" s="20" t="n"/>
@@ -15676,7 +15884,7 @@
       </c>
       <c r="B710" s="19" t="inlineStr">
         <is>
-          <t>Digital Europe</t>
+          <t>Horizon Europe</t>
         </is>
       </c>
       <c r="C710" s="20" t="n"/>
@@ -15752,7 +15960,7 @@
       </c>
       <c r="B715" s="19" t="inlineStr">
         <is>
-          <t>DIGITAL-2021-SKILLS-01</t>
+          <t>HORIZON-CL6-2022-CIRCBIO-01</t>
         </is>
       </c>
       <c r="C715" s="20" t="n"/>
@@ -15760,7 +15968,7 @@
       <c r="E715" s="20" t="n"/>
       <c r="F715" s="20" t="n"/>
     </row>
-    <row r="716" ht="20" customHeight="1">
+    <row r="716" ht="45" customHeight="1">
       <c r="A716" s="18" t="inlineStr">
         <is>
           <t>Descripcion</t>
@@ -15768,7 +15976,7 @@
       </c>
       <c r="B716" s="19" t="inlineStr">
         <is>
-          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTEMS</t>
+          <t>Powering access to investment for next generation circular economy initiatives in cities and regions</t>
         </is>
       </c>
       <c r="C716" s="20" t="n"/>
@@ -15796,7 +16004,7 @@
       </c>
       <c r="B718" s="21" t="inlineStr">
         <is>
-          <t>ALTA — Proyecto BIM/GIS de Bilbao. Complementa estrategia digital.</t>
+          <t>ALTA — Bilbao tiene Plan de Economía Circular y proyectos en Mercabilbao.</t>
         </is>
       </c>
       <c r="C718" s="20" t="n"/>
@@ -15812,7 +16020,7 @@
       </c>
       <c r="B719" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/DIGITAL</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/HORIZON</t>
         </is>
       </c>
       <c r="C719" s="20" t="n"/>
@@ -15823,7 +16031,7 @@
     <row r="721" ht="30" customHeight="1">
       <c r="A721" s="16" t="inlineStr">
         <is>
-          <t>FICHA 49: 8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
+          <t>FICHA 49: DIGITAL</t>
         </is>
       </c>
       <c r="B721" s="17" t="n"/>
@@ -15856,7 +16064,7 @@
       </c>
       <c r="B723" s="19" t="inlineStr">
         <is>
-          <t>Technical Assistance for river basin and flood risk plan</t>
+          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTEMS</t>
         </is>
       </c>
       <c r="C723" s="20" t="n"/>
@@ -15872,7 +16080,7 @@
       </c>
       <c r="B724" s="19" t="inlineStr">
         <is>
-          <t>8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
+          <t>DIGITAL</t>
         </is>
       </c>
       <c r="C724" s="20" t="n"/>
@@ -15886,7 +16094,11 @@
           <t>Programa</t>
         </is>
       </c>
-      <c r="B725" s="19" t="inlineStr"/>
+      <c r="B725" s="19" t="inlineStr">
+        <is>
+          <t>Digital Europe</t>
+        </is>
+      </c>
       <c r="C725" s="20" t="n"/>
       <c r="D725" s="20" t="n"/>
       <c r="E725" s="20" t="n"/>
@@ -15960,7 +16172,7 @@
       </c>
       <c r="B730" s="19" t="inlineStr">
         <is>
-          <t>EC-ENEST/BEG/2025/EA-RP/0052-PIN</t>
+          <t>DIGITAL-2021-SKILLS-01</t>
         </is>
       </c>
       <c r="C730" s="20" t="n"/>
@@ -15976,7 +16188,7 @@
       </c>
       <c r="B731" s="19" t="inlineStr">
         <is>
-          <t>Technical Assistance for river basin and flood risk plan</t>
+          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTEMS</t>
         </is>
       </c>
       <c r="C731" s="20" t="n"/>
@@ -15996,7 +16208,7 @@
       <c r="E732" s="20" t="n"/>
       <c r="F732" s="20" t="n"/>
     </row>
-    <row r="733" ht="45" customHeight="1">
+    <row r="733" ht="20" customHeight="1">
       <c r="A733" s="18" t="inlineStr">
         <is>
           <t>Relevancia Bilbao</t>
@@ -16004,7 +16216,7 @@
       </c>
       <c r="B733" s="21" t="inlineStr">
         <is>
-          <t>ALTA — Bilbao tiene historial de inundaciones (ría del Nervión). Planes activos.</t>
+          <t>ALTA — Proyecto BIM/GIS de Bilbao. Complementa estrategia digital.</t>
         </is>
       </c>
       <c r="C733" s="20" t="n"/>
@@ -16020,7 +16232,7 @@
       </c>
       <c r="B734" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/DIGITAL</t>
         </is>
       </c>
       <c r="C734" s="20" t="n"/>
@@ -16031,7 +16243,7 @@
     <row r="736" ht="30" customHeight="1">
       <c r="A736" s="16" t="inlineStr">
         <is>
-          <t>FICHA 50: c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
+          <t>FICHA 50: 8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
         </is>
       </c>
       <c r="B736" s="17" t="n"/>
@@ -16056,7 +16268,7 @@
       <c r="E737" s="20" t="n"/>
       <c r="F737" s="20" t="n"/>
     </row>
-    <row r="738" ht="45" customHeight="1">
+    <row r="738" ht="20" customHeight="1">
       <c r="A738" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -16064,7 +16276,7 @@
       </c>
       <c r="B738" s="19" t="inlineStr">
         <is>
-          <t>EEA/SUN/25/001- Clean tech production in Europe: implications for quality jobs and a just transition</t>
+          <t>Technical Assistance for river basin and flood risk plan</t>
         </is>
       </c>
       <c r="C738" s="20" t="n"/>
@@ -16080,7 +16292,7 @@
       </c>
       <c r="B739" s="19" t="inlineStr">
         <is>
-          <t>c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
+          <t>8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
         </is>
       </c>
       <c r="C739" s="20" t="n"/>
@@ -16168,7 +16380,7 @@
       </c>
       <c r="B745" s="19" t="inlineStr">
         <is>
-          <t>EEA/2025/MVP/0001-EXA</t>
+          <t>EC-ENEST/BEG/2025/EA-RP/0052-PIN</t>
         </is>
       </c>
       <c r="C745" s="20" t="n"/>
@@ -16176,7 +16388,7 @@
       <c r="E745" s="20" t="n"/>
       <c r="F745" s="20" t="n"/>
     </row>
-    <row r="746" ht="45" customHeight="1">
+    <row r="746" ht="20" customHeight="1">
       <c r="A746" s="18" t="inlineStr">
         <is>
           <t>Descripcion</t>
@@ -16184,7 +16396,7 @@
       </c>
       <c r="B746" s="19" t="inlineStr">
         <is>
-          <t>EEA/SUN/25/001- Clean tech production in Europe: implications for quality jobs and a just transition</t>
+          <t>Technical Assistance for river basin and flood risk plan</t>
         </is>
       </c>
       <c r="C746" s="20" t="n"/>
@@ -16204,15 +16416,15 @@
       <c r="E747" s="20" t="n"/>
       <c r="F747" s="20" t="n"/>
     </row>
-    <row r="748" ht="20" customHeight="1">
+    <row r="748" ht="45" customHeight="1">
       <c r="A748" s="18" t="inlineStr">
         <is>
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B748" s="19" t="inlineStr">
-        <is>
-          <t>MEDIA — Margen izquierda con pasado industrial. Potencial reconversión.</t>
+      <c r="B748" s="21" t="inlineStr">
+        <is>
+          <t>ALTA — Bilbao tiene historial de inundaciones (ría del Nervión). Planes activos.</t>
         </is>
       </c>
       <c r="C748" s="20" t="n"/>
@@ -16228,7 +16440,7 @@
       </c>
       <c r="B749" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
         </is>
       </c>
       <c r="C749" s="20" t="n"/>
@@ -16239,7 +16451,7 @@
     <row r="751" ht="30" customHeight="1">
       <c r="A751" s="16" t="inlineStr">
         <is>
-          <t>FICHA 51: IMREG</t>
+          <t>FICHA 51: c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
         </is>
       </c>
       <c r="B751" s="17" t="n"/>
@@ -16264,7 +16476,7 @@
       <c r="E752" s="20" t="n"/>
       <c r="F752" s="20" t="n"/>
     </row>
-    <row r="753" ht="20" customHeight="1">
+    <row r="753" ht="45" customHeight="1">
       <c r="A753" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -16272,7 +16484,7 @@
       </c>
       <c r="B753" s="19" t="inlineStr">
         <is>
-          <t>Cohesion Policy in Bulgaria - our European plan</t>
+          <t>EEA/SUN/25/001- Clean tech production in Europe: implications for quality jobs and a just transition</t>
         </is>
       </c>
       <c r="C753" s="20" t="n"/>
@@ -16288,7 +16500,7 @@
       </c>
       <c r="B754" s="19" t="inlineStr">
         <is>
-          <t>IMREG</t>
+          <t>c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
         </is>
       </c>
       <c r="C754" s="20" t="n"/>
@@ -16376,7 +16588,7 @@
       </c>
       <c r="B760" s="19" t="inlineStr">
         <is>
-          <t>IMREG-2022-INFOME</t>
+          <t>EEA/2025/MVP/0001-EXA</t>
         </is>
       </c>
       <c r="C760" s="20" t="n"/>
@@ -16384,7 +16596,7 @@
       <c r="E760" s="20" t="n"/>
       <c r="F760" s="20" t="n"/>
     </row>
-    <row r="761" ht="20" customHeight="1">
+    <row r="761" ht="45" customHeight="1">
       <c r="A761" s="18" t="inlineStr">
         <is>
           <t>Descripcion</t>
@@ -16392,7 +16604,7 @@
       </c>
       <c r="B761" s="19" t="inlineStr">
         <is>
-          <t>Cohesion Policy in Bulgaria - our European plan</t>
+          <t>EEA/SUN/25/001- Clean tech production in Europe: implications for quality jobs and a just transition</t>
         </is>
       </c>
       <c r="C761" s="20" t="n"/>
@@ -16420,7 +16632,7 @@
       </c>
       <c r="B763" s="19" t="inlineStr">
         <is>
-          <t>MEDIA — País Vasco es región en transición. Fondos FEDER disponibles.</t>
+          <t>MEDIA — Margen izquierda con pasado industrial. Potencial reconversión.</t>
         </is>
       </c>
       <c r="C763" s="20" t="n"/>
@@ -16436,7 +16648,7 @@
       </c>
       <c r="B764" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/IMREG</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
         </is>
       </c>
       <c r="C764" s="20" t="n"/>
@@ -18111,7 +18323,7 @@
     <row r="886" ht="30" customHeight="1">
       <c r="A886" s="16" t="inlineStr">
         <is>
-          <t>FICHA 60: EUS-34302</t>
+          <t>FICHA 60: EUS-26033</t>
         </is>
       </c>
       <c r="B886" s="17" t="n"/>
@@ -18160,7 +18372,7 @@
       </c>
       <c r="B889" s="19" t="inlineStr">
         <is>
-          <t>EUS-34302</t>
+          <t>EUS-26033</t>
         </is>
       </c>
       <c r="C889" s="20" t="n"/>
@@ -18280,7 +18492,7 @@
       </c>
       <c r="B897" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C897" s="20" t="n"/>
@@ -18323,7 +18535,7 @@
     <row r="901" ht="30" customHeight="1">
       <c r="A901" s="16" t="inlineStr">
         <is>
-          <t>FICHA 61: EUS-01741</t>
+          <t>FICHA 61: EUS-89459</t>
         </is>
       </c>
       <c r="B901" s="17" t="n"/>
@@ -18372,7 +18584,7 @@
       </c>
       <c r="B904" s="19" t="inlineStr">
         <is>
-          <t>EUS-01741</t>
+          <t>EUS-89459</t>
         </is>
       </c>
       <c r="C904" s="20" t="n"/>
@@ -18492,7 +18704,7 @@
       </c>
       <c r="B912" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C912" s="20" t="n"/>
@@ -18535,7 +18747,7 @@
     <row r="916" ht="30" customHeight="1">
       <c r="A916" s="16" t="inlineStr">
         <is>
-          <t>FICHA 62: EUS-68453</t>
+          <t>FICHA 62: EUS-53547</t>
         </is>
       </c>
       <c r="B916" s="17" t="n"/>
@@ -18584,7 +18796,7 @@
       </c>
       <c r="B919" s="19" t="inlineStr">
         <is>
-          <t>EUS-68453</t>
+          <t>EUS-53547</t>
         </is>
       </c>
       <c r="C919" s="20" t="n"/>
@@ -18704,7 +18916,7 @@
       </c>
       <c r="B927" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C927" s="20" t="n"/>
@@ -18747,7 +18959,7 @@
     <row r="931" ht="30" customHeight="1">
       <c r="A931" s="16" t="inlineStr">
         <is>
-          <t>FICHA 63: EUS-07749</t>
+          <t>FICHA 63: EUS-32988</t>
         </is>
       </c>
       <c r="B931" s="17" t="n"/>
@@ -18796,7 +19008,7 @@
       </c>
       <c r="B934" s="19" t="inlineStr">
         <is>
-          <t>EUS-07749</t>
+          <t>EUS-32988</t>
         </is>
       </c>
       <c r="C934" s="20" t="n"/>
@@ -18916,7 +19128,7 @@
       </c>
       <c r="B942" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C942" s="20" t="n"/>
@@ -18959,7 +19171,7 @@
     <row r="946" ht="30" customHeight="1">
       <c r="A946" s="16" t="inlineStr">
         <is>
-          <t>FICHA 64: EUS-23080</t>
+          <t>FICHA 64: EUS-14623</t>
         </is>
       </c>
       <c r="B946" s="17" t="n"/>
@@ -19008,7 +19220,7 @@
       </c>
       <c r="B949" s="19" t="inlineStr">
         <is>
-          <t>EUS-23080</t>
+          <t>EUS-14623</t>
         </is>
       </c>
       <c r="C949" s="20" t="n"/>
@@ -19128,7 +19340,7 @@
       </c>
       <c r="B957" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C957" s="20" t="n"/>
@@ -19171,7 +19383,7 @@
     <row r="961" ht="30" customHeight="1">
       <c r="A961" s="16" t="inlineStr">
         <is>
-          <t>FICHA 65: EUS-28782</t>
+          <t>FICHA 65: EUS-70649</t>
         </is>
       </c>
       <c r="B961" s="17" t="n"/>
@@ -19196,7 +19408,7 @@
       <c r="E962" s="20" t="n"/>
       <c r="F962" s="20" t="n"/>
     </row>
-    <row r="963" ht="45" customHeight="1">
+    <row r="963" ht="20" customHeight="1">
       <c r="A963" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -19204,7 +19416,7 @@
       </c>
       <c r="B963" s="19" t="inlineStr">
         <is>
-          <t>Servicio de mantenimiento anual de la instalacion de climatizacion del fronton de Euba</t>
+          <t>Renocación ACS y climatizadora vestuario exteriores Rekalde</t>
         </is>
       </c>
       <c r="C963" s="20" t="n"/>
@@ -19220,7 +19432,7 @@
       </c>
       <c r="B964" s="19" t="inlineStr">
         <is>
-          <t>EUS-28782</t>
+          <t>EUS-70649</t>
         </is>
       </c>
       <c r="C964" s="20" t="n"/>
@@ -19372,7 +19584,7 @@
       </c>
       <c r="B974" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-mantenimiento-anual-instalacion-climatizacion-del-fronton-euba/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/renocacion-acs-y-climatizadora-vestuario-exteriores-rekalde/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C974" s="20" t="n"/>
@@ -19383,7 +19595,7 @@
     <row r="976" ht="30" customHeight="1">
       <c r="A976" s="16" t="inlineStr">
         <is>
-          <t>FICHA 66: EUS-87957</t>
+          <t>FICHA 66: EUS-45231</t>
         </is>
       </c>
       <c r="B976" s="17" t="n"/>
@@ -19408,7 +19620,7 @@
       <c r="E977" s="20" t="n"/>
       <c r="F977" s="20" t="n"/>
     </row>
-    <row r="978" ht="45" customHeight="1">
+    <row r="978" ht="20" customHeight="1">
       <c r="A978" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -19416,7 +19628,7 @@
       </c>
       <c r="B978" s="19" t="inlineStr">
         <is>
-          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiertas hasta el 30.4.26: el pilar 1, con el Fondo Europeo Agrícola de Garantía Agraria FEAGA, aborda sostenibilidad de renta, ayuda redistributi</t>
+          <t>Gestión de residuos de amianto</t>
         </is>
       </c>
       <c r="C978" s="20" t="n"/>
@@ -19432,7 +19644,7 @@
       </c>
       <c r="B979" s="19" t="inlineStr">
         <is>
-          <t>EUS-87957</t>
+          <t>EUS-45231</t>
         </is>
       </c>
       <c r="C979" s="20" t="n"/>
@@ -19508,7 +19720,7 @@
       </c>
       <c r="B984" s="19" t="inlineStr">
         <is>
-          <t>Ayuda/Subvencion Euskadi</t>
+          <t>Licitacion Euskadi</t>
         </is>
       </c>
       <c r="C984" s="20" t="n"/>
@@ -19552,7 +19764,7 @@
       </c>
       <c r="B987" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C987" s="20" t="n"/>
@@ -19566,9 +19778,9 @@
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B988" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MEDIA — </t>
+      <c r="B988" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALTA — </t>
         </is>
       </c>
       <c r="C988" s="20" t="n"/>
@@ -19584,7 +19796,7 @@
       </c>
       <c r="B989" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260216npblaguntzairekiak/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/gestion-residuos-amianto/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C989" s="20" t="n"/>
@@ -19595,7 +19807,7 @@
     <row r="991" ht="30" customHeight="1">
       <c r="A991" s="16" t="inlineStr">
         <is>
-          <t>FICHA 67: EUS-27789</t>
+          <t>FICHA 67: EUS-71101</t>
         </is>
       </c>
       <c r="B991" s="17" t="n"/>
@@ -19628,7 +19840,7 @@
       </c>
       <c r="B993" s="19" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
+          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiertas hasta el 30.4.26: el pilar 1, con el Fondo Europeo Agrícola de Garantía Agraria FEAGA, aborda sostenibilidad de renta, ayuda redistributi</t>
         </is>
       </c>
       <c r="C993" s="20" t="n"/>
@@ -19644,7 +19856,7 @@
       </c>
       <c r="B994" s="19" t="inlineStr">
         <is>
-          <t>EUS-27789</t>
+          <t>EUS-71101</t>
         </is>
       </c>
       <c r="C994" s="20" t="n"/>
@@ -19764,7 +19976,7 @@
       </c>
       <c r="B1002" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1002" s="20" t="n"/>
@@ -19796,7 +20008,7 @@
       </c>
       <c r="B1004" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260204smartcities/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260216npblaguntzairekiak/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1004" s="20" t="n"/>
@@ -19807,7 +20019,7 @@
     <row r="1006" ht="30" customHeight="1">
       <c r="A1006" s="16" t="inlineStr">
         <is>
-          <t>FICHA 68: EUS-62611</t>
+          <t>FICHA 68: EUS-62294</t>
         </is>
       </c>
       <c r="B1006" s="17" t="n"/>
@@ -19840,7 +20052,7 @@
       </c>
       <c r="B1008" s="19" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
+          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
         </is>
       </c>
       <c r="C1008" s="20" t="n"/>
@@ -19856,7 +20068,7 @@
       </c>
       <c r="B1009" s="19" t="inlineStr">
         <is>
-          <t>EUS-62611</t>
+          <t>EUS-62294</t>
         </is>
       </c>
       <c r="C1009" s="20" t="n"/>
@@ -19976,7 +20188,7 @@
       </c>
       <c r="B1017" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1017" s="20" t="n"/>
@@ -20008,7 +20220,7 @@
       </c>
       <c r="B1019" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260119nextlanbidedigital/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260204smartcities/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1019" s="20" t="n"/>
@@ -20019,7 +20231,7 @@
     <row r="1021" ht="30" customHeight="1">
       <c r="A1021" s="16" t="inlineStr">
         <is>
-          <t>FICHA 69: EUS-57520</t>
+          <t>FICHA 69: EUS-99143</t>
         </is>
       </c>
       <c r="B1021" s="17" t="n"/>
@@ -20052,7 +20264,7 @@
       </c>
       <c r="B1023" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
+          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
         </is>
       </c>
       <c r="C1023" s="20" t="n"/>
@@ -20068,7 +20280,7 @@
       </c>
       <c r="B1024" s="19" t="inlineStr">
         <is>
-          <t>EUS-57520</t>
+          <t>EUS-99143</t>
         </is>
       </c>
       <c r="C1024" s="20" t="n"/>
@@ -20188,7 +20400,7 @@
       </c>
       <c r="B1032" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1032" s="20" t="n"/>
@@ -20220,7 +20432,7 @@
       </c>
       <c r="B1034" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/250119horizondiginduspaceklust/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260119nextlanbidedigital/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1034" s="20" t="n"/>
@@ -20231,7 +20443,7 @@
     <row r="1036" ht="30" customHeight="1">
       <c r="A1036" s="16" t="inlineStr">
         <is>
-          <t>FICHA 70: EUS-14509</t>
+          <t>FICHA 70: EUS-92631</t>
         </is>
       </c>
       <c r="B1036" s="17" t="n"/>
@@ -20264,7 +20476,7 @@
       </c>
       <c r="B1038" s="19" t="inlineStr">
         <is>
-          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
+          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
         </is>
       </c>
       <c r="C1038" s="20" t="n"/>
@@ -20280,7 +20492,7 @@
       </c>
       <c r="B1039" s="19" t="inlineStr">
         <is>
-          <t>EUS-14509</t>
+          <t>EUS-92631</t>
         </is>
       </c>
       <c r="C1039" s="20" t="n"/>
@@ -20400,7 +20612,7 @@
       </c>
       <c r="B1047" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1047" s="20" t="n"/>
@@ -20432,7 +20644,7 @@
       </c>
       <c r="B1049" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/horizonkluster5hirimisioa/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/250119horizondiginduspaceklust/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1049" s="20" t="n"/>
@@ -20443,7 +20655,7 @@
     <row r="1051" ht="30" customHeight="1">
       <c r="A1051" s="16" t="inlineStr">
         <is>
-          <t>FICHA 71: EUS-43985</t>
+          <t>FICHA 71: EUS-69448</t>
         </is>
       </c>
       <c r="B1051" s="17" t="n"/>
@@ -20476,7 +20688,7 @@
       </c>
       <c r="B1053" s="19" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
+          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
         </is>
       </c>
       <c r="C1053" s="20" t="n"/>
@@ -20492,7 +20704,7 @@
       </c>
       <c r="B1054" s="19" t="inlineStr">
         <is>
-          <t>EUS-43985</t>
+          <t>EUS-69448</t>
         </is>
       </c>
       <c r="C1054" s="20" t="n"/>
@@ -20612,7 +20824,7 @@
       </c>
       <c r="B1062" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1062" s="20" t="n"/>
@@ -20644,7 +20856,7 @@
       </c>
       <c r="B1064" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/azpitek-2026-programa-de-ayudas/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/horizonkluster5hirimisioa/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1064" s="20" t="n"/>
@@ -20655,7 +20867,7 @@
     <row r="1066" ht="30" customHeight="1">
       <c r="A1066" s="16" t="inlineStr">
         <is>
-          <t>FICHA 72: EUS-18115</t>
+          <t>FICHA 72: EUS-50564</t>
         </is>
       </c>
       <c r="B1066" s="17" t="n"/>
@@ -20680,7 +20892,7 @@
       <c r="E1067" s="20" t="n"/>
       <c r="F1067" s="20" t="n"/>
     </row>
-    <row r="1068" ht="20" customHeight="1">
+    <row r="1068" ht="45" customHeight="1">
       <c r="A1068" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -20688,7 +20900,7 @@
       </c>
       <c r="B1068" s="19" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
         </is>
       </c>
       <c r="C1068" s="20" t="n"/>
@@ -20704,7 +20916,7 @@
       </c>
       <c r="B1069" s="19" t="inlineStr">
         <is>
-          <t>EUS-18115</t>
+          <t>EUS-50564</t>
         </is>
       </c>
       <c r="C1069" s="20" t="n"/>
@@ -20824,7 +21036,7 @@
       </c>
       <c r="B1077" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1077" s="20" t="n"/>
@@ -20856,7 +21068,7 @@
       </c>
       <c r="B1079" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/subvenciones-para-innovacion-en-economia-circular-2026/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/azpitek-2026-programa-de-ayudas/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1079" s="20" t="n"/>
@@ -20867,7 +21079,7 @@
     <row r="1081" ht="30" customHeight="1">
       <c r="A1081" s="16" t="inlineStr">
         <is>
-          <t>FICHA 73: EUS-17900</t>
+          <t>FICHA 73: EUS-77719</t>
         </is>
       </c>
       <c r="B1081" s="17" t="n"/>
@@ -20892,7 +21104,7 @@
       <c r="E1082" s="20" t="n"/>
       <c r="F1082" s="20" t="n"/>
     </row>
-    <row r="1083" ht="45" customHeight="1">
+    <row r="1083" ht="20" customHeight="1">
       <c r="A1083" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -20900,7 +21112,7 @@
       </c>
       <c r="B1083" s="19" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="C1083" s="20" t="n"/>
@@ -20916,7 +21128,7 @@
       </c>
       <c r="B1084" s="19" t="inlineStr">
         <is>
-          <t>EUS-17900</t>
+          <t>EUS-77719</t>
         </is>
       </c>
       <c r="C1084" s="20" t="n"/>
@@ -21036,7 +21248,7 @@
       </c>
       <c r="B1092" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1092" s="20" t="n"/>
@@ -21068,7 +21280,7 @@
       </c>
       <c r="B1094" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/251222horizon2627sprieeni/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/subvenciones-para-innovacion-en-economia-circular-2026/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1094" s="20" t="n"/>
@@ -21079,7 +21291,7 @@
     <row r="1096" ht="30" customHeight="1">
       <c r="A1096" s="16" t="inlineStr">
         <is>
-          <t>FICHA 74: EUS-60442</t>
+          <t>FICHA 74: EUS-39573</t>
         </is>
       </c>
       <c r="B1096" s="17" t="n"/>
@@ -21112,7 +21324,7 @@
       </c>
       <c r="B1098" s="19" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
         </is>
       </c>
       <c r="C1098" s="20" t="n"/>
@@ -21128,7 +21340,7 @@
       </c>
       <c r="B1099" s="19" t="inlineStr">
         <is>
-          <t>EUS-60442</t>
+          <t>EUS-39573</t>
         </is>
       </c>
       <c r="C1099" s="20" t="n"/>
@@ -21248,7 +21460,7 @@
       </c>
       <c r="B1107" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1107" s="20" t="n"/>
@@ -21280,7 +21492,7 @@
       </c>
       <c r="B1109" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/demokraziaezkutua251218/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/251222horizon2627sprieeni/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1109" s="20" t="n"/>
@@ -21291,7 +21503,7 @@
     <row r="1111" ht="30" customHeight="1">
       <c r="A1111" s="16" t="inlineStr">
         <is>
-          <t>FICHA 75: EUS-70226</t>
+          <t>FICHA 75: EUS-38452</t>
         </is>
       </c>
       <c r="B1111" s="17" t="n"/>
@@ -21324,7 +21536,7 @@
       </c>
       <c r="B1113" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
         </is>
       </c>
       <c r="C1113" s="20" t="n"/>
@@ -21340,7 +21552,7 @@
       </c>
       <c r="B1114" s="19" t="inlineStr">
         <is>
-          <t>EUS-70226</t>
+          <t>EUS-38452</t>
         </is>
       </c>
       <c r="C1114" s="20" t="n"/>
@@ -21460,7 +21672,7 @@
       </c>
       <c r="B1122" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1122" s="20" t="n"/>
@@ -21492,7 +21704,7 @@
       </c>
       <c r="B1124" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/ksiberritzalieplus251218/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/demokraziaezkutua251218/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1124" s="20" t="n"/>
@@ -21503,7 +21715,7 @@
     <row r="1126" ht="30" customHeight="1">
       <c r="A1126" s="16" t="inlineStr">
         <is>
-          <t>FICHA 76: EUS-90220</t>
+          <t>FICHA 76: EUS-33816</t>
         </is>
       </c>
       <c r="B1126" s="17" t="n"/>
@@ -21536,7 +21748,7 @@
       </c>
       <c r="B1128" s="19" t="inlineStr">
         <is>
-          <t>Asignaciones individualizadas de transporte escolar para el curso 2025-2026 del alumnado de los centros docentes públicos no universitarios de la Comunidad Autónoma del País Vasco financiado por el de</t>
+          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
         </is>
       </c>
       <c r="C1128" s="20" t="n"/>
@@ -21552,7 +21764,7 @@
       </c>
       <c r="B1129" s="19" t="inlineStr">
         <is>
-          <t>EUS-90220</t>
+          <t>EUS-33816</t>
         </is>
       </c>
       <c r="C1129" s="20" t="n"/>
@@ -21672,7 +21884,7 @@
       </c>
       <c r="B1137" s="19" t="inlineStr">
         <is>
-          <t>renovable</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="C1137" s="20" t="n"/>
@@ -21704,7 +21916,7 @@
       </c>
       <c r="B1139" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/transp-escolar-25-26/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/ksiberritzalieplus251218/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1139" s="20" t="n"/>
@@ -21715,7 +21927,7 @@
     <row r="1141" ht="30" customHeight="1">
       <c r="A1141" s="16" t="inlineStr">
         <is>
-          <t>FICHA 77: EUS-66864</t>
+          <t>FICHA 77: EUS-65057</t>
         </is>
       </c>
       <c r="B1141" s="17" t="n"/>
@@ -21748,7 +21960,7 @@
       </c>
       <c r="B1143" s="19" t="inlineStr">
         <is>
-          <t>fabricación, suministro y colocación de 2 puertas de aluminio en el edificio de markola.</t>
+          <t>Asignaciones individualizadas de transporte escolar para el curso 2025-2026 del alumnado de los centros docentes públicos no universitarios de la Comunidad Autónoma del País Vasco financiado por el de</t>
         </is>
       </c>
       <c r="C1143" s="20" t="n"/>
@@ -21764,7 +21976,7 @@
       </c>
       <c r="B1144" s="19" t="inlineStr">
         <is>
-          <t>EUS-66864</t>
+          <t>EUS-65057</t>
         </is>
       </c>
       <c r="C1144" s="20" t="n"/>
@@ -21840,7 +22052,7 @@
       </c>
       <c r="B1149" s="19" t="inlineStr">
         <is>
-          <t>Licitacion Euskadi</t>
+          <t>Ayuda/Subvencion Euskadi</t>
         </is>
       </c>
       <c r="C1149" s="20" t="n"/>
@@ -21916,7 +22128,7 @@
       </c>
       <c r="B1154" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/fabricacion-suministro-y-colocacion-2-puertas-aluminio-edificio-markola/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/transp-escolar-25-26/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1154" s="20" t="n"/>
@@ -21927,7 +22139,7 @@
     <row r="1156" ht="30" customHeight="1">
       <c r="A1156" s="16" t="inlineStr">
         <is>
-          <t>FICHA 78: EUS-17425</t>
+          <t>FICHA 78: EUS-40954</t>
         </is>
       </c>
       <c r="B1156" s="17" t="n"/>
@@ -21960,7 +22172,7 @@
       </c>
       <c r="B1158" s="19" t="inlineStr">
         <is>
-          <t>estadio de beraun. otros suministros. material electrico</t>
+          <t>Transporte de vehículo averiado</t>
         </is>
       </c>
       <c r="C1158" s="20" t="n"/>
@@ -21976,7 +22188,7 @@
       </c>
       <c r="B1159" s="19" t="inlineStr">
         <is>
-          <t>EUS-17425</t>
+          <t>EUS-40954</t>
         </is>
       </c>
       <c r="C1159" s="20" t="n"/>
@@ -22128,7 +22340,7 @@
       </c>
       <c r="B1169" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/estadio-beraun-otros-suministros-material-electrico/expcm484461/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/transporte-vehiculo-averiado/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1169" s="20" t="n"/>
@@ -22139,7 +22351,7 @@
     <row r="1171" ht="30" customHeight="1">
       <c r="A1171" s="16" t="inlineStr">
         <is>
-          <t>FICHA 79: EUS-94850</t>
+          <t>FICHA 79: EUS-11728</t>
         </is>
       </c>
       <c r="B1171" s="17" t="n"/>
@@ -22172,7 +22384,7 @@
       </c>
       <c r="B1173" s="19" t="inlineStr">
         <is>
-          <t>rehabilitación de la tubería de saneamiento en la calle alexander fleming</t>
+          <t>Suministro de productos de limpieza</t>
         </is>
       </c>
       <c r="C1173" s="20" t="n"/>
@@ -22188,7 +22400,7 @@
       </c>
       <c r="B1174" s="19" t="inlineStr">
         <is>
-          <t>EUS-94850</t>
+          <t>EUS-11728</t>
         </is>
       </c>
       <c r="C1174" s="20" t="n"/>
@@ -22340,7 +22552,7 @@
       </c>
       <c r="B1184" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/rehabilitacion-tuberia-saneamiento-calle-alexander-fleming/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/suministro-productos-limpieza/expcm488042/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1184" s="20" t="n"/>
@@ -22348,8 +22560,644 @@
       <c r="E1184" s="20" t="n"/>
       <c r="F1184" s="20" t="n"/>
     </row>
+    <row r="1186" ht="30" customHeight="1">
+      <c r="A1186" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 80: EUS-74653</t>
+        </is>
+      </c>
+      <c r="B1186" s="17" t="n"/>
+      <c r="C1186" s="17" t="n"/>
+      <c r="D1186" s="17" t="n"/>
+      <c r="E1186" s="17" t="n"/>
+      <c r="F1186" s="17" t="n"/>
+    </row>
+    <row r="1187" ht="20" customHeight="1">
+      <c r="A1187" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1187" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1187" s="20" t="n"/>
+      <c r="D1187" s="20" t="n"/>
+      <c r="E1187" s="20" t="n"/>
+      <c r="F1187" s="20" t="n"/>
+    </row>
+    <row r="1188" ht="45" customHeight="1">
+      <c r="A1188" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1188" s="19" t="inlineStr">
+        <is>
+          <t>Concesión demanial de la cubierta del frontón municipal de Beraun para la instalación y explotación de energía fotovoltaica en comunidades energéticas.</t>
+        </is>
+      </c>
+      <c r="C1188" s="20" t="n"/>
+      <c r="D1188" s="20" t="n"/>
+      <c r="E1188" s="20" t="n"/>
+      <c r="F1188" s="20" t="n"/>
+    </row>
+    <row r="1189" ht="20" customHeight="1">
+      <c r="A1189" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1189" s="19" t="inlineStr">
+        <is>
+          <t>EUS-74653</t>
+        </is>
+      </c>
+      <c r="C1189" s="20" t="n"/>
+      <c r="D1189" s="20" t="n"/>
+      <c r="E1189" s="20" t="n"/>
+      <c r="F1189" s="20" t="n"/>
+    </row>
+    <row r="1190" ht="20" customHeight="1">
+      <c r="A1190" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1190" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1190" s="20" t="n"/>
+      <c r="D1190" s="20" t="n"/>
+      <c r="E1190" s="20" t="n"/>
+      <c r="F1190" s="20" t="n"/>
+    </row>
+    <row r="1191" ht="20" customHeight="1">
+      <c r="A1191" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1191" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1191" s="20" t="n"/>
+      <c r="D1191" s="20" t="n"/>
+      <c r="E1191" s="20" t="n"/>
+      <c r="F1191" s="20" t="n"/>
+    </row>
+    <row r="1192" ht="20" customHeight="1">
+      <c r="A1192" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1192" s="19" t="inlineStr"/>
+      <c r="C1192" s="20" t="n"/>
+      <c r="D1192" s="20" t="n"/>
+      <c r="E1192" s="20" t="n"/>
+      <c r="F1192" s="20" t="n"/>
+    </row>
+    <row r="1193" ht="20" customHeight="1">
+      <c r="A1193" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1193" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1193" s="20" t="n"/>
+      <c r="D1193" s="20" t="n"/>
+      <c r="E1193" s="20" t="n"/>
+      <c r="F1193" s="20" t="n"/>
+    </row>
+    <row r="1194" ht="20" customHeight="1">
+      <c r="A1194" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1194" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1194" s="20" t="n"/>
+      <c r="D1194" s="20" t="n"/>
+      <c r="E1194" s="20" t="n"/>
+      <c r="F1194" s="20" t="n"/>
+    </row>
+    <row r="1195" ht="20" customHeight="1">
+      <c r="A1195" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1195" s="19" t="inlineStr"/>
+      <c r="C1195" s="20" t="n"/>
+      <c r="D1195" s="20" t="n"/>
+      <c r="E1195" s="20" t="n"/>
+      <c r="F1195" s="20" t="n"/>
+    </row>
+    <row r="1196" ht="20" customHeight="1">
+      <c r="A1196" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1196" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1196" s="20" t="n"/>
+      <c r="D1196" s="20" t="n"/>
+      <c r="E1196" s="20" t="n"/>
+      <c r="F1196" s="20" t="n"/>
+    </row>
+    <row r="1197" ht="20" customHeight="1">
+      <c r="A1197" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1197" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1197" s="20" t="n"/>
+      <c r="D1197" s="20" t="n"/>
+      <c r="E1197" s="20" t="n"/>
+      <c r="F1197" s="20" t="n"/>
+    </row>
+    <row r="1198" ht="20" customHeight="1">
+      <c r="A1198" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1198" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1198" s="20" t="n"/>
+      <c r="D1198" s="20" t="n"/>
+      <c r="E1198" s="20" t="n"/>
+      <c r="F1198" s="20" t="n"/>
+    </row>
+    <row r="1199" ht="45" customHeight="1">
+      <c r="A1199" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1199" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/concesion-demanial-cubierta-del-fronton-municipal-beraun-instalacion-y-explotacion-energia-fotovoltaica-comunidades-energeticas/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1199" s="20" t="n"/>
+      <c r="D1199" s="20" t="n"/>
+      <c r="E1199" s="20" t="n"/>
+      <c r="F1199" s="20" t="n"/>
+    </row>
+    <row r="1201" ht="30" customHeight="1">
+      <c r="A1201" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 81: EUS-66912</t>
+        </is>
+      </c>
+      <c r="B1201" s="17" t="n"/>
+      <c r="C1201" s="17" t="n"/>
+      <c r="D1201" s="17" t="n"/>
+      <c r="E1201" s="17" t="n"/>
+      <c r="F1201" s="17" t="n"/>
+    </row>
+    <row r="1202" ht="20" customHeight="1">
+      <c r="A1202" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1202" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1202" s="20" t="n"/>
+      <c r="D1202" s="20" t="n"/>
+      <c r="E1202" s="20" t="n"/>
+      <c r="F1202" s="20" t="n"/>
+    </row>
+    <row r="1203" ht="45" customHeight="1">
+      <c r="A1203" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1203" s="19" t="inlineStr">
+        <is>
+          <t>Redacción del anteproyecto de edificación de dos edificios de 6 viviendas cada uno con sus anejos en las parcelas 1 y 2 (a.10.1.8 y a.10.1.7) del ámbito J.U.2 del Sector 1 de Altzo</t>
+        </is>
+      </c>
+      <c r="C1203" s="20" t="n"/>
+      <c r="D1203" s="20" t="n"/>
+      <c r="E1203" s="20" t="n"/>
+      <c r="F1203" s="20" t="n"/>
+    </row>
+    <row r="1204" ht="20" customHeight="1">
+      <c r="A1204" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1204" s="19" t="inlineStr">
+        <is>
+          <t>EUS-66912</t>
+        </is>
+      </c>
+      <c r="C1204" s="20" t="n"/>
+      <c r="D1204" s="20" t="n"/>
+      <c r="E1204" s="20" t="n"/>
+      <c r="F1204" s="20" t="n"/>
+    </row>
+    <row r="1205" ht="20" customHeight="1">
+      <c r="A1205" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1205" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1205" s="20" t="n"/>
+      <c r="D1205" s="20" t="n"/>
+      <c r="E1205" s="20" t="n"/>
+      <c r="F1205" s="20" t="n"/>
+    </row>
+    <row r="1206" ht="20" customHeight="1">
+      <c r="A1206" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1206" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1206" s="20" t="n"/>
+      <c r="D1206" s="20" t="n"/>
+      <c r="E1206" s="20" t="n"/>
+      <c r="F1206" s="20" t="n"/>
+    </row>
+    <row r="1207" ht="20" customHeight="1">
+      <c r="A1207" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1207" s="19" t="inlineStr"/>
+      <c r="C1207" s="20" t="n"/>
+      <c r="D1207" s="20" t="n"/>
+      <c r="E1207" s="20" t="n"/>
+      <c r="F1207" s="20" t="n"/>
+    </row>
+    <row r="1208" ht="20" customHeight="1">
+      <c r="A1208" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1208" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1208" s="20" t="n"/>
+      <c r="D1208" s="20" t="n"/>
+      <c r="E1208" s="20" t="n"/>
+      <c r="F1208" s="20" t="n"/>
+    </row>
+    <row r="1209" ht="20" customHeight="1">
+      <c r="A1209" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1209" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1209" s="20" t="n"/>
+      <c r="D1209" s="20" t="n"/>
+      <c r="E1209" s="20" t="n"/>
+      <c r="F1209" s="20" t="n"/>
+    </row>
+    <row r="1210" ht="20" customHeight="1">
+      <c r="A1210" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1210" s="19" t="inlineStr"/>
+      <c r="C1210" s="20" t="n"/>
+      <c r="D1210" s="20" t="n"/>
+      <c r="E1210" s="20" t="n"/>
+      <c r="F1210" s="20" t="n"/>
+    </row>
+    <row r="1211" ht="20" customHeight="1">
+      <c r="A1211" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1211" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1211" s="20" t="n"/>
+      <c r="D1211" s="20" t="n"/>
+      <c r="E1211" s="20" t="n"/>
+      <c r="F1211" s="20" t="n"/>
+    </row>
+    <row r="1212" ht="20" customHeight="1">
+      <c r="A1212" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1212" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1212" s="20" t="n"/>
+      <c r="D1212" s="20" t="n"/>
+      <c r="E1212" s="20" t="n"/>
+      <c r="F1212" s="20" t="n"/>
+    </row>
+    <row r="1213" ht="20" customHeight="1">
+      <c r="A1213" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1213" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1213" s="20" t="n"/>
+      <c r="D1213" s="20" t="n"/>
+      <c r="E1213" s="20" t="n"/>
+      <c r="F1213" s="20" t="n"/>
+    </row>
+    <row r="1214" ht="45" customHeight="1">
+      <c r="A1214" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1214" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/redaccion-del-anteproyecto-edificacion-dos-edificios-6-viviendas-cada-uno-sus-anejos-parcelas-1-y-2-10-1-8-y-10-1-7-del-ambito-j-u-2-del-sector-1-altzo/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1214" s="20" t="n"/>
+      <c r="D1214" s="20" t="n"/>
+      <c r="E1214" s="20" t="n"/>
+      <c r="F1214" s="20" t="n"/>
+    </row>
+    <row r="1216" ht="30" customHeight="1">
+      <c r="A1216" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 82: EUS-85669</t>
+        </is>
+      </c>
+      <c r="B1216" s="17" t="n"/>
+      <c r="C1216" s="17" t="n"/>
+      <c r="D1216" s="17" t="n"/>
+      <c r="E1216" s="17" t="n"/>
+      <c r="F1216" s="17" t="n"/>
+    </row>
+    <row r="1217" ht="20" customHeight="1">
+      <c r="A1217" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1217" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1217" s="20" t="n"/>
+      <c r="D1217" s="20" t="n"/>
+      <c r="E1217" s="20" t="n"/>
+      <c r="F1217" s="20" t="n"/>
+    </row>
+    <row r="1218" ht="20" customHeight="1">
+      <c r="A1218" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1218" s="19" t="inlineStr">
+        <is>
+          <t>Ratones tratados genéticamente y transporte desde EEUU</t>
+        </is>
+      </c>
+      <c r="C1218" s="20" t="n"/>
+      <c r="D1218" s="20" t="n"/>
+      <c r="E1218" s="20" t="n"/>
+      <c r="F1218" s="20" t="n"/>
+    </row>
+    <row r="1219" ht="20" customHeight="1">
+      <c r="A1219" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1219" s="19" t="inlineStr">
+        <is>
+          <t>EUS-85669</t>
+        </is>
+      </c>
+      <c r="C1219" s="20" t="n"/>
+      <c r="D1219" s="20" t="n"/>
+      <c r="E1219" s="20" t="n"/>
+      <c r="F1219" s="20" t="n"/>
+    </row>
+    <row r="1220" ht="20" customHeight="1">
+      <c r="A1220" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1220" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1220" s="20" t="n"/>
+      <c r="D1220" s="20" t="n"/>
+      <c r="E1220" s="20" t="n"/>
+      <c r="F1220" s="20" t="n"/>
+    </row>
+    <row r="1221" ht="20" customHeight="1">
+      <c r="A1221" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1221" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1221" s="20" t="n"/>
+      <c r="D1221" s="20" t="n"/>
+      <c r="E1221" s="20" t="n"/>
+      <c r="F1221" s="20" t="n"/>
+    </row>
+    <row r="1222" ht="20" customHeight="1">
+      <c r="A1222" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1222" s="19" t="inlineStr"/>
+      <c r="C1222" s="20" t="n"/>
+      <c r="D1222" s="20" t="n"/>
+      <c r="E1222" s="20" t="n"/>
+      <c r="F1222" s="20" t="n"/>
+    </row>
+    <row r="1223" ht="20" customHeight="1">
+      <c r="A1223" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1223" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1223" s="20" t="n"/>
+      <c r="D1223" s="20" t="n"/>
+      <c r="E1223" s="20" t="n"/>
+      <c r="F1223" s="20" t="n"/>
+    </row>
+    <row r="1224" ht="20" customHeight="1">
+      <c r="A1224" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1224" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1224" s="20" t="n"/>
+      <c r="D1224" s="20" t="n"/>
+      <c r="E1224" s="20" t="n"/>
+      <c r="F1224" s="20" t="n"/>
+    </row>
+    <row r="1225" ht="20" customHeight="1">
+      <c r="A1225" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1225" s="19" t="inlineStr"/>
+      <c r="C1225" s="20" t="n"/>
+      <c r="D1225" s="20" t="n"/>
+      <c r="E1225" s="20" t="n"/>
+      <c r="F1225" s="20" t="n"/>
+    </row>
+    <row r="1226" ht="20" customHeight="1">
+      <c r="A1226" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1226" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1226" s="20" t="n"/>
+      <c r="D1226" s="20" t="n"/>
+      <c r="E1226" s="20" t="n"/>
+      <c r="F1226" s="20" t="n"/>
+    </row>
+    <row r="1227" ht="20" customHeight="1">
+      <c r="A1227" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1227" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1227" s="20" t="n"/>
+      <c r="D1227" s="20" t="n"/>
+      <c r="E1227" s="20" t="n"/>
+      <c r="F1227" s="20" t="n"/>
+    </row>
+    <row r="1228" ht="20" customHeight="1">
+      <c r="A1228" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1228" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1228" s="20" t="n"/>
+      <c r="D1228" s="20" t="n"/>
+      <c r="E1228" s="20" t="n"/>
+      <c r="F1228" s="20" t="n"/>
+    </row>
+    <row r="1229" ht="45" customHeight="1">
+      <c r="A1229" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1229" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/ratones-tratados-geneticamente-y-transporte-eeuu/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1229" s="20" t="n"/>
+      <c r="D1229" s="20" t="n"/>
+      <c r="E1229" s="20" t="n"/>
+      <c r="F1229" s="20" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="1106">
+  <mergeCells count="1148">
     <mergeCell ref="B679:F679"/>
     <mergeCell ref="B666:F666"/>
     <mergeCell ref="B964:F964"/>
@@ -22399,6 +23247,7 @@
     <mergeCell ref="B1099:F1099"/>
     <mergeCell ref="B515:F515"/>
     <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1193:F1193"/>
     <mergeCell ref="A841:F841"/>
     <mergeCell ref="B158:F158"/>
     <mergeCell ref="B1094:F1094"/>
@@ -22441,6 +23290,7 @@
     <mergeCell ref="B199:F199"/>
     <mergeCell ref="B370:F370"/>
     <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1196:F1196"/>
     <mergeCell ref="B1112:F1112"/>
     <mergeCell ref="B291:F291"/>
     <mergeCell ref="B655:F655"/>
@@ -22452,6 +23302,7 @@
     <mergeCell ref="B293:F293"/>
     <mergeCell ref="B657:F657"/>
     <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B1191:F1191"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B672:F672"/>
     <mergeCell ref="B88:F88"/>
@@ -22484,6 +23335,7 @@
     <mergeCell ref="B254:F254"/>
     <mergeCell ref="B909:F909"/>
     <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1207:F1207"/>
     <mergeCell ref="B319:F319"/>
     <mergeCell ref="B490:F490"/>
     <mergeCell ref="B604:F604"/>
@@ -22536,6 +23388,7 @@
     <mergeCell ref="B243:F243"/>
     <mergeCell ref="B1026:F1026"/>
     <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1197:F1197"/>
     <mergeCell ref="B678:F678"/>
     <mergeCell ref="B363:F363"/>
     <mergeCell ref="B534:F534"/>
@@ -22595,11 +23448,14 @@
     <mergeCell ref="B912:F912"/>
     <mergeCell ref="B1083:F1083"/>
     <mergeCell ref="B262:F262"/>
+    <mergeCell ref="A1186:F1186"/>
+    <mergeCell ref="B1210:F1210"/>
     <mergeCell ref="B887:F887"/>
     <mergeCell ref="B862:F862"/>
     <mergeCell ref="B547:F547"/>
     <mergeCell ref="B101:F101"/>
     <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B1212:F1212"/>
     <mergeCell ref="B182:F182"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B467:F467"/>
@@ -22661,6 +23517,7 @@
     <mergeCell ref="B989:F989"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B1218:F1218"/>
     <mergeCell ref="B568:F568"/>
     <mergeCell ref="B186:F186"/>
     <mergeCell ref="B457:F457"/>
@@ -22693,6 +23550,7 @@
     <mergeCell ref="B773:F773"/>
     <mergeCell ref="B1091:F1091"/>
     <mergeCell ref="A526:F526"/>
+    <mergeCell ref="B1213:F1213"/>
     <mergeCell ref="B694:F694"/>
     <mergeCell ref="B786:F786"/>
     <mergeCell ref="B1179:F1179"/>
@@ -22740,12 +23598,14 @@
     <mergeCell ref="B407:F407"/>
     <mergeCell ref="A646:F646"/>
     <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B1208:F1208"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B463:F463"/>
     <mergeCell ref="B438:F438"/>
     <mergeCell ref="B1145:F1145"/>
     <mergeCell ref="B359:F359"/>
     <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B1194:F1194"/>
     <mergeCell ref="B788:F788"/>
     <mergeCell ref="B204:F204"/>
     <mergeCell ref="B198:F198"/>
@@ -22758,6 +23618,7 @@
     <mergeCell ref="B999:F999"/>
     <mergeCell ref="B1061:F1061"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B1188:F1188"/>
     <mergeCell ref="B1097:F1097"/>
     <mergeCell ref="B1153:F1153"/>
     <mergeCell ref="A46:F46"/>
@@ -22776,6 +23637,7 @@
     <mergeCell ref="B1063:F1063"/>
     <mergeCell ref="B1090:F1090"/>
     <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1221:F1221"/>
     <mergeCell ref="B807:F807"/>
     <mergeCell ref="B1000:F1000"/>
     <mergeCell ref="B39:F39"/>
@@ -22845,6 +23707,7 @@
     <mergeCell ref="B297:F297"/>
     <mergeCell ref="B813:F813"/>
     <mergeCell ref="B235:F235"/>
+    <mergeCell ref="A1216:F1216"/>
     <mergeCell ref="B362:F362"/>
     <mergeCell ref="B533:F533"/>
     <mergeCell ref="B831:F831"/>
@@ -22898,11 +23761,14 @@
     <mergeCell ref="B492:F492"/>
     <mergeCell ref="B734:F734"/>
     <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1189:F1189"/>
     <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B1227:F1227"/>
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B1019:F1019"/>
     <mergeCell ref="B131:F131"/>
     <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B1190:F1190"/>
     <mergeCell ref="B307:F307"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="B429:F429"/>
@@ -22922,6 +23788,7 @@
     <mergeCell ref="B890:F890"/>
     <mergeCell ref="B950:F950"/>
     <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1192:F1192"/>
     <mergeCell ref="B431:F431"/>
     <mergeCell ref="B231:F231"/>
     <mergeCell ref="B287:F287"/>
@@ -22970,18 +23837,23 @@
     <mergeCell ref="B663:F663"/>
     <mergeCell ref="B1049:F1049"/>
     <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B1228:F1228"/>
     <mergeCell ref="B1032:F1032"/>
     <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B1203:F1203"/>
     <mergeCell ref="B386:F386"/>
     <mergeCell ref="B442:F442"/>
     <mergeCell ref="B242:F242"/>
     <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B1219:F1219"/>
     <mergeCell ref="B1116:F1116"/>
     <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B1187:F1187"/>
     <mergeCell ref="B969:F969"/>
     <mergeCell ref="B907:F907"/>
     <mergeCell ref="B963:F963"/>
     <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B1205:F1205"/>
     <mergeCell ref="B882:F882"/>
     <mergeCell ref="B1180:F1180"/>
     <mergeCell ref="B219:F219"/>
@@ -23023,12 +23895,14 @@
     <mergeCell ref="B1071:F1071"/>
     <mergeCell ref="B608:F608"/>
     <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1198:F1198"/>
     <mergeCell ref="B595:F595"/>
     <mergeCell ref="B1037:F1037"/>
     <mergeCell ref="B722:F722"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="A856:F856"/>
     <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B1195:F1195"/>
     <mergeCell ref="B1129:F1129"/>
     <mergeCell ref="B374:F374"/>
     <mergeCell ref="B659:F659"/>
@@ -23049,6 +23923,7 @@
     <mergeCell ref="B1040:F1040"/>
     <mergeCell ref="B152:F152"/>
     <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B1211:F1211"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="B621:F621"/>
     <mergeCell ref="B748:F748"/>
@@ -23079,6 +23954,7 @@
     <mergeCell ref="B258:F258"/>
     <mergeCell ref="B147:F147"/>
     <mergeCell ref="A661:F661"/>
+    <mergeCell ref="B1206:F1206"/>
     <mergeCell ref="B245:F245"/>
     <mergeCell ref="B687:F687"/>
     <mergeCell ref="B543:F543"/>
@@ -23102,9 +23978,11 @@
     <mergeCell ref="B1135:F1135"/>
     <mergeCell ref="A1081:F1081"/>
     <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B1224:F1224"/>
     <mergeCell ref="B336:F336"/>
     <mergeCell ref="B634:F634"/>
     <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B1199:F1199"/>
     <mergeCell ref="B311:F311"/>
     <mergeCell ref="B140:F140"/>
     <mergeCell ref="B115:F115"/>
@@ -23116,6 +23994,7 @@
     <mergeCell ref="B674:F674"/>
     <mergeCell ref="B1137:F1137"/>
     <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B1226:F1226"/>
     <mergeCell ref="B698:F698"/>
     <mergeCell ref="B832:F832"/>
     <mergeCell ref="B77:F77"/>
@@ -23141,6 +24020,7 @@
     <mergeCell ref="B1150:F1150"/>
     <mergeCell ref="B329:F329"/>
     <mergeCell ref="B627:F627"/>
+    <mergeCell ref="A1201:F1201"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="B565:F565"/>
     <mergeCell ref="B758:F758"/>
@@ -23187,6 +24067,7 @@
     <mergeCell ref="B261:F261"/>
     <mergeCell ref="B1087:F1087"/>
     <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1214:F1214"/>
     <mergeCell ref="B184:F184"/>
     <mergeCell ref="B1062:F1062"/>
     <mergeCell ref="A301:F301"/>
@@ -23217,6 +24098,7 @@
     <mergeCell ref="B116:F116"/>
     <mergeCell ref="B942:F942"/>
     <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B1209:F1209"/>
     <mergeCell ref="B681:F681"/>
     <mergeCell ref="B352:F352"/>
     <mergeCell ref="B619:F619"/>
@@ -23234,6 +24116,7 @@
     <mergeCell ref="B1031:F1031"/>
     <mergeCell ref="B143:F143"/>
     <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B1202:F1202"/>
     <mergeCell ref="B683:F683"/>
     <mergeCell ref="A751:F751"/>
     <mergeCell ref="B477:F477"/>
@@ -23243,6 +24126,7 @@
     <mergeCell ref="A1036:F1036"/>
     <mergeCell ref="B497:F497"/>
     <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1204:F1204"/>
     <mergeCell ref="B983:F983"/>
     <mergeCell ref="A1051:F1051"/>
     <mergeCell ref="B970:F970"/>
@@ -23258,6 +24142,7 @@
     <mergeCell ref="B922:F922"/>
     <mergeCell ref="B167:F167"/>
     <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1220:F1220"/>
     <mergeCell ref="B332:F332"/>
     <mergeCell ref="B503:F503"/>
     <mergeCell ref="B701:F701"/>
@@ -23277,6 +24162,7 @@
     <mergeCell ref="B567:F567"/>
     <mergeCell ref="B1151:F1151"/>
     <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1222:F1222"/>
     <mergeCell ref="B632:F632"/>
     <mergeCell ref="B803:F803"/>
     <mergeCell ref="B996:F996"/>
@@ -23290,11 +24176,13 @@
     <mergeCell ref="B1159:F1159"/>
     <mergeCell ref="B398:F398"/>
     <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B1229:F1229"/>
     <mergeCell ref="A466:F466"/>
     <mergeCell ref="B696:F696"/>
     <mergeCell ref="B867:F867"/>
     <mergeCell ref="A1066:F1066"/>
     <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B1217:F1217"/>
     <mergeCell ref="B187:F187"/>
     <mergeCell ref="B485:F485"/>
     <mergeCell ref="B1154:F1154"/>
@@ -23393,6 +24281,8 @@
     <mergeCell ref="B206:F206"/>
     <mergeCell ref="B399:F399"/>
     <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1223:F1223"/>
     <mergeCell ref="B1004:F1004"/>
     <mergeCell ref="B1175:F1175"/>
     <mergeCell ref="B860:F860"/>
@@ -23537,6 +24427,9 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1154" r:id="rId77"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1169" r:id="rId78"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1184" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1199" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1214" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1229" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23548,7 +24441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23900,7 +24793,7 @@
     <row r="9" ht="28" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
@@ -23940,7 +24833,7 @@
     <row r="10" ht="28" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
@@ -23980,7 +24873,7 @@
     <row r="11" ht="28" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -24452,12 +25345,12 @@
     <row r="23" ht="28" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
+          <t>HORIZON-CL5-2026-04-Two-Stage-D3-02</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>Addressing homelessness through housing-led approaches align</t>
+          <t>Next generation of renewable energy technologies</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
@@ -24467,17 +25360,17 @@
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>Forthcoming</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>01/12/2026</t>
+          <t>31/03/2026</t>
         </is>
       </c>
       <c r="F23" s="25" t="inlineStr">
         <is>
-          <t>ALTA</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
@@ -24492,12 +25385,12 @@
     <row r="24" ht="28" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-BUSINESS-03</t>
+          <t>HORIZON-CL5-2026-03-D3-22</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anticipating the long-term future of neighbourhoods in line </t>
+          <t>AI-driven forecasting algorithms for Grid and Consumer frien</t>
         </is>
       </c>
       <c r="C24" s="6" t="inlineStr">
@@ -24507,17 +25400,17 @@
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>Forthcoming</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>01/12/2027</t>
+          <t>31/03/2026</t>
         </is>
       </c>
       <c r="F24" s="25" t="inlineStr">
         <is>
-          <t>ALTA</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
@@ -24532,12 +25425,12 @@
     <row r="25" ht="28" customHeight="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-PARTICIPATION-02</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>Intergenerational neighbourhoods and communities aligned wit</t>
+          <t>Addressing homelessness through housing-led approaches align</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">
@@ -24552,7 +25445,7 @@
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>01/12/2027</t>
+          <t>01/12/2026</t>
         </is>
       </c>
       <c r="F25" s="25" t="inlineStr">
@@ -24572,12 +25465,12 @@
     <row r="26" ht="28" customHeight="1">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-62</t>
+          <t>HORIZON-NEB-2027-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>Fast Track to Innovation for breakthroughs in the Chemical I</t>
+          <t>Intergenerational neighbourhoods and communities aligned wit</t>
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr">
@@ -24592,7 +25485,7 @@
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
-          <t>02/02/2027</t>
+          <t>01/12/2027</t>
         </is>
       </c>
       <c r="F26" s="25" t="inlineStr">
@@ -24612,12 +25505,12 @@
     <row r="27" ht="28" customHeight="1">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-CCRI-04</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-62</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>Advancing circular logistics solutions in cities</t>
+          <t>Fast Track to Innovation for breakthroughs in the Chemical I</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
@@ -24632,7 +25525,7 @@
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>02/02/2027</t>
         </is>
       </c>
       <c r="F27" s="25" t="inlineStr">
@@ -24652,12 +25545,12 @@
     <row r="28" ht="28" customHeight="1">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
+          <t>HORIZON-MISS-2027-04-CIT-CCRI-04</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>Bioremediation of Ukraine’s ecosystems contaminated by confl</t>
+          <t>Advancing circular logistics solutions in cities</t>
         </is>
       </c>
       <c r="C28" s="6" t="inlineStr">
@@ -24672,7 +25565,7 @@
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>17/09/2026</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="F28" s="25" t="inlineStr">
@@ -24692,12 +25585,12 @@
     <row r="29" ht="28" customHeight="1">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-02</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen cities</t>
+          <t>Bioremediation of Ukraine’s ecosystems contaminated by confl</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
@@ -24712,12 +25605,12 @@
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>17/09/2026</t>
         </is>
       </c>
       <c r="F29" s="25" t="inlineStr">
         <is>
-          <t>MEDIA</t>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="G29" s="6" t="inlineStr"/>
@@ -24732,12 +25625,12 @@
     <row r="30" ht="28" customHeight="1">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
+          <t>HORIZON-MISS-2027-04-CIT-02</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>Long-term drivers and consequences of soil degradation: lear</t>
+          <t>Hydrogen cities</t>
         </is>
       </c>
       <c r="C30" s="6" t="inlineStr">
@@ -24752,7 +25645,7 @@
       </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>08/04/2027</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="F30" s="25" t="inlineStr">
@@ -24772,12 +25665,12 @@
     <row r="31" ht="28" customHeight="1">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
+          <t>HORIZON-MISS-2027-05-SOIL-06-two-stage</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>Living Labs for co-creating solutions to reduce eutrophicati</t>
+          <t>Long-term drivers and consequences of soil degradation: lear</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
@@ -24812,12 +25705,12 @@
     <row r="32" ht="28" customHeight="1">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-01-D1-11</t>
+          <t>HORIZON-MISS-2027-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>Africa-EU CO-FUND action on climate</t>
+          <t>Living Labs for co-creating solutions to reduce eutrophicati</t>
         </is>
       </c>
       <c r="C32" s="6" t="inlineStr">
@@ -24832,12 +25725,12 @@
       </c>
       <c r="E32" s="6" t="inlineStr">
         <is>
-          <t>04/03/2027</t>
+          <t>08/04/2027</t>
         </is>
       </c>
       <c r="F32" s="25" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>MEDIA</t>
         </is>
       </c>
       <c r="G32" s="6" t="inlineStr"/>
@@ -25052,12 +25945,12 @@
     <row r="38" ht="28" customHeight="1">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-01-D1-13</t>
+          <t>HORIZON-CL5-2027-01-D1-11</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>Next generation scenarios for informing climate and sustaina</t>
+          <t>Africa-EU CO-FUND action on climate</t>
         </is>
       </c>
       <c r="C38" s="6" t="inlineStr">
@@ -25092,12 +25985,12 @@
     <row r="39" ht="28" customHeight="1">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-INFRA-02</t>
+          <t>HORIZON-CL5-2027-01-D1-13</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>Security challenges of the green transition in urban und per</t>
+          <t>Next generation scenarios for informing climate and sustaina</t>
         </is>
       </c>
       <c r="C39" s="6" t="inlineStr">
@@ -25112,7 +26005,7 @@
       </c>
       <c r="E39" s="6" t="inlineStr">
         <is>
-          <t>05/11/2026</t>
+          <t>04/03/2027</t>
         </is>
       </c>
       <c r="F39" s="25" t="inlineStr">
@@ -25132,12 +26025,12 @@
     <row r="40" ht="28" customHeight="1">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-04-CIT-05</t>
+          <t>HORIZON-CL3-2026-01-INFRA-02</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boosting the transformation towards climate-neutral cities, </t>
+          <t>Security challenges of the green transition in urban und per</t>
         </is>
       </c>
       <c r="C40" s="6" t="inlineStr">
@@ -25152,7 +26045,7 @@
       </c>
       <c r="E40" s="6" t="inlineStr">
         <is>
-          <t>07/10/2027</t>
+          <t>05/11/2026</t>
         </is>
       </c>
       <c r="F40" s="25" t="inlineStr">
@@ -25172,12 +26065,12 @@
     <row r="41" ht="28" customHeight="1">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
+          <t>HORIZON-MISS-2027-04-CIT-05</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>Open topic: Using the Circular Cities and Regions Initiative</t>
+          <t xml:space="preserve">Boosting the transformation towards climate-neutral cities, </t>
         </is>
       </c>
       <c r="C41" s="6" t="inlineStr">
@@ -25192,7 +26085,7 @@
       </c>
       <c r="E41" s="6" t="inlineStr">
         <is>
-          <t>08/04/2027</t>
+          <t>07/10/2027</t>
         </is>
       </c>
       <c r="F41" s="25" t="inlineStr">
@@ -25212,12 +26105,12 @@
     <row r="42" ht="28" customHeight="1">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>Deploying circular systemic solutions through living labs in</t>
+          <t>Open topic: Using the Circular Cities and Regions Initiative</t>
         </is>
       </c>
       <c r="C42" s="6" t="inlineStr">
@@ -25252,12 +26145,12 @@
     <row r="43" ht="28" customHeight="1">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>Open topic: Innovative solutions for the European Water Resi</t>
+          <t>Deploying circular systemic solutions through living labs in</t>
         </is>
       </c>
       <c r="C43" s="6" t="inlineStr">
@@ -25292,12 +26185,12 @@
     <row r="44" ht="28" customHeight="1">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>Accelerating the transition to a nature positive economy: In</t>
+          <t>Open topic: Innovative solutions for the European Water Resi</t>
         </is>
       </c>
       <c r="C44" s="6" t="inlineStr">
@@ -25312,7 +26205,7 @@
       </c>
       <c r="E44" s="6" t="inlineStr">
         <is>
-          <t>22/09/2027</t>
+          <t>08/04/2027</t>
         </is>
       </c>
       <c r="F44" s="25" t="inlineStr">
@@ -25332,24 +26225,32 @@
     <row r="45" ht="28" customHeight="1">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>caa3aead-778e-4dce-b1b3-46da20e64a20</t>
+          <t>HORIZON-CL5-2026-09-D3-03</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
-        </is>
-      </c>
-      <c r="C45" s="6" t="inlineStr"/>
+          <t>Innovative technologies and solutions to improve wind energy</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>Horizon Europe</t>
+        </is>
+      </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E45" s="6" t="inlineStr"/>
+          <t>Forthcoming</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>15/09/2026</t>
+        </is>
+      </c>
       <c r="F45" s="25" t="inlineStr">
         <is>
-          <t>MUY ALTA</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G45" s="6" t="inlineStr"/>
@@ -25364,24 +26265,32 @@
     <row r="46" ht="28" customHeight="1">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>c1c9444c-6204-4735-9763-000ea7cd5d46</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Sk</t>
-        </is>
-      </c>
-      <c r="C46" s="6" t="inlineStr"/>
+          <t>Accelerating the transition to a nature positive economy: In</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>Horizon Europe</t>
+        </is>
+      </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E46" s="6" t="inlineStr"/>
+          <t>Forthcoming</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>22/09/2027</t>
+        </is>
+      </c>
       <c r="F46" s="25" t="inlineStr">
         <is>
-          <t>MUY ALTA</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G46" s="6" t="inlineStr"/>
@@ -25396,19 +26305,15 @@
     <row r="47" ht="28" customHeight="1">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>HORIZON</t>
+          <t>caa3aead-778e-4dce-b1b3-46da20e64a20</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
-          <t>Powering access to investment for next generation circular e</t>
-        </is>
-      </c>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>Horizon Europe</t>
-        </is>
-      </c>
+          <t>Kahramanmaras Sustainable Urban Mobility Plan</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr"/>
       <c r="D47" s="6" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -25417,7 +26322,7 @@
       <c r="E47" s="6" t="inlineStr"/>
       <c r="F47" s="25" t="inlineStr">
         <is>
-          <t>ALTA</t>
+          <t>MUY ALTA</t>
         </is>
       </c>
       <c r="G47" s="6" t="inlineStr"/>
@@ -25432,19 +26337,15 @@
     <row r="48" ht="28" customHeight="1">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>HORIZON-JU-CLEANH2-2025-04-01</t>
+          <t>c1c9444c-6204-4735-9763-000ea7cd5d46</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>Demonstration of stationary fuel cells in renewable energy c</t>
-        </is>
-      </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>Horizon Europe</t>
-        </is>
-      </c>
+          <t>Preparation of Sustainable URBAN MOBILITY PLAN (SUMP) for Sk</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr"/>
       <c r="D48" s="6" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -25453,7 +26354,7 @@
       <c r="E48" s="6" t="inlineStr"/>
       <c r="F48" s="25" t="inlineStr">
         <is>
-          <t>ALTA</t>
+          <t>MUY ALTA</t>
         </is>
       </c>
       <c r="G48" s="6" t="inlineStr"/>
@@ -25468,17 +26369,17 @@
     <row r="49" ht="28" customHeight="1">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>DIGITAL</t>
+          <t>HORIZON</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTE</t>
+          <t>Powering access to investment for next generation circular e</t>
         </is>
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>Digital Europe</t>
+          <t>Horizon Europe</t>
         </is>
       </c>
       <c r="D49" s="6" t="inlineStr">
@@ -25504,15 +26405,19 @@
     <row r="50" ht="28" customHeight="1">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
+          <t>DIGITAL</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>Technical Assistance for river basin and flood risk plan</t>
-        </is>
-      </c>
-      <c r="C50" s="6" t="inlineStr"/>
+          <t>DIGITAL TWINS FOR COMPLEX INFRASTRUCTURES AND URBAN ECOSYSTE</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>Digital Europe</t>
+        </is>
+      </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -25536,12 +26441,12 @@
     <row r="51" ht="28" customHeight="1">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
+          <t>8f39fbaa-ed92-4f7a-a36e-c862147e499c-PIN</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>EEA/SUN/25/001- Clean tech production in Europe: implication</t>
+          <t>Technical Assistance for river basin and flood risk plan</t>
         </is>
       </c>
       <c r="C51" s="6" t="inlineStr"/>
@@ -25553,7 +26458,7 @@
       <c r="E51" s="6" t="inlineStr"/>
       <c r="F51" s="25" t="inlineStr">
         <is>
-          <t>MEDIA</t>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="G51" s="6" t="inlineStr"/>
@@ -25568,12 +26473,12 @@
     <row r="52" ht="28" customHeight="1">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>IMREG</t>
+          <t>c36effc6-e7b0-423c-93a5-2b74a21546c0-EXA</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>Cohesion Policy in Bulgaria - our European plan</t>
+          <t>EEA/SUN/25/001- Clean tech production in Europe: implication</t>
         </is>
       </c>
       <c r="C52" s="6" t="inlineStr"/>
@@ -25856,7 +26761,7 @@
     <row r="61" ht="28" customHeight="1">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>EUS-34302</t>
+          <t>EUS-26033</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
@@ -25892,7 +26797,7 @@
     <row r="62" ht="28" customHeight="1">
       <c r="A62" s="6" t="inlineStr">
         <is>
-          <t>EUS-01741</t>
+          <t>EUS-89459</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
@@ -25928,7 +26833,7 @@
     <row r="63" ht="28" customHeight="1">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>EUS-68453</t>
+          <t>EUS-53547</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
@@ -25964,7 +26869,7 @@
     <row r="64" ht="28" customHeight="1">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>EUS-07749</t>
+          <t>EUS-32988</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
@@ -26000,7 +26905,7 @@
     <row r="65" ht="28" customHeight="1">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>EUS-23080</t>
+          <t>EUS-14623</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
@@ -26036,12 +26941,12 @@
     <row r="66" ht="28" customHeight="1">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>EUS-28782</t>
+          <t>EUS-70649</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>Servicio de mantenimiento anual de la instalacion de climati</t>
+          <t>Renocación ACS y climatizadora vestuario exteriores Rekalde</t>
         </is>
       </c>
       <c r="C66" s="6" t="inlineStr">
@@ -26072,12 +26977,12 @@
     <row r="67" ht="28" customHeight="1">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>EUS-87957</t>
+          <t>EUS-45231</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiert</t>
+          <t>Gestión de residuos de amianto</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
@@ -26093,7 +26998,7 @@
       <c r="E67" s="6" t="inlineStr"/>
       <c r="F67" s="25" t="inlineStr">
         <is>
-          <t>MEDIA</t>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="G67" s="6" t="inlineStr"/>
@@ -26108,12 +27013,12 @@
     <row r="68" ht="28" customHeight="1">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>EUS-27789</t>
+          <t>EUS-71101</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligente</t>
+          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiert</t>
         </is>
       </c>
       <c r="C68" s="6" t="inlineStr">
@@ -26144,12 +27049,12 @@
     <row r="69" ht="28" customHeight="1">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>EUS-62611</t>
+          <t>EUS-62294</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos N</t>
+          <t>Programa de impulso a las ciudades y territorios inteligente</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
@@ -26180,12 +27085,12 @@
     <row r="70" ht="28" customHeight="1">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>EUS-57520</t>
+          <t>EUS-99143</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe. Clúster digital, industrial y espacial. Apoy</t>
+          <t>Formación digital para empleabilidad turística: los fondos N</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
@@ -26216,12 +27121,12 @@
     <row r="71" ht="28" customHeight="1">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>EUS-14509</t>
+          <t>EUS-92631</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe: ayudas de la línea de energía del clúster 5 </t>
+          <t>Horizon Europe. Clúster digital, industrial y espacial. Apoy</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
@@ -26252,12 +27157,12 @@
     <row r="72" ht="28" customHeight="1">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>EUS-43985</t>
+          <t>EUS-69448</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instal</t>
+          <t xml:space="preserve">Horizon Europe: ayudas de la línea de energía del clúster 5 </t>
         </is>
       </c>
       <c r="C72" s="6" t="inlineStr">
@@ -26288,12 +27193,12 @@
     <row r="73" ht="28" customHeight="1">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>EUS-18115</t>
+          <t>EUS-50564</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instal</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
@@ -26324,12 +27229,12 @@
     <row r="74" ht="28" customHeight="1">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>EUS-17900</t>
+          <t>EUS-77719</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones amb</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="C74" s="6" t="inlineStr">
@@ -26360,12 +27265,12 @@
     <row r="75" ht="28" customHeight="1">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>EUS-60442</t>
+          <t>EUS-39573</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfab</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones amb</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
@@ -26396,12 +27301,12 @@
     <row r="76" ht="28" customHeight="1">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>EUS-70226</t>
+          <t>EUS-38452</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Indust</t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfab</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
@@ -26432,12 +27337,12 @@
     <row r="77" ht="28" customHeight="1">
       <c r="A77" s="6" t="inlineStr">
         <is>
-          <t>EUS-90220</t>
+          <t>EUS-33816</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asignaciones individualizadas de transporte escolar para el </t>
+          <t>KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Indust</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
@@ -26468,12 +27373,12 @@
     <row r="78" ht="28" customHeight="1">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>EUS-66864</t>
+          <t>EUS-65057</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>fabricación, suministro y colocación de 2 puertas de alumini</t>
+          <t xml:space="preserve">Asignaciones individualizadas de transporte escolar para el </t>
         </is>
       </c>
       <c r="C78" s="6" t="inlineStr">
@@ -26504,12 +27409,12 @@
     <row r="79" ht="28" customHeight="1">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>EUS-17425</t>
+          <t>EUS-40954</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>estadio de beraun. otros suministros. material electrico</t>
+          <t>Transporte de vehículo averiado</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
@@ -26540,12 +27445,12 @@
     <row r="80" ht="28" customHeight="1">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>EUS-94850</t>
+          <t>EUS-11728</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>rehabilitación de la tubería de saneamiento en la calle alex</t>
+          <t>Suministro de productos de limpieza</t>
         </is>
       </c>
       <c r="C80" s="6" t="inlineStr">
@@ -26573,8 +27478,116 @@
       <c r="I80" s="6" t="inlineStr"/>
       <c r="J80" s="6" t="inlineStr"/>
     </row>
+    <row r="81" ht="28" customHeight="1">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>EUS-74653</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>Concesión demanial de la cubierta del frontón municipal de B</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E81" s="6" t="inlineStr"/>
+      <c r="F81" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G81" s="6" t="inlineStr"/>
+      <c r="H81" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I81" s="6" t="inlineStr"/>
+      <c r="J81" s="6" t="inlineStr"/>
+    </row>
+    <row r="82" ht="28" customHeight="1">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>EUS-66912</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>Redacción del anteproyecto de edificación de dos edificios d</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D82" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E82" s="6" t="inlineStr"/>
+      <c r="F82" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G82" s="6" t="inlineStr"/>
+      <c r="H82" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I82" s="6" t="inlineStr"/>
+      <c r="J82" s="6" t="inlineStr"/>
+    </row>
+    <row r="83" ht="28" customHeight="1">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>EUS-85669</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>Ratones tratados genéticamente y transporte desde EEUU</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E83" s="6" t="inlineStr"/>
+      <c r="F83" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G83" s="6" t="inlineStr"/>
+      <c r="H83" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I83" s="6" t="inlineStr"/>
+      <c r="J83" s="6" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J80"/>
+  <autoFilter ref="A1:J83"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/resultados_convocatorias.xlsx
+++ b/docs/resultados_convocatorias.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Recursos" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumen'!$A$4:$M$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Seguimiento'!$A$1:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumen'!$A$4:$M$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Seguimiento'!$A$1:$J$98</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -78,13 +78,13 @@
     <font>
       <name val="Leelawadee UI"/>
       <b val="1"/>
-      <color rgb="00DC2626"/>
+      <color rgb="00065F46"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Leelawadee UI"/>
       <b val="1"/>
-      <color rgb="00065F46"/>
+      <color rgb="00DC2626"/>
       <sz val="10"/>
     </font>
     <font>
@@ -145,11 +145,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FEF2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00DCFCE7"/>
       </patternFill>
     </fill>
@@ -161,6 +156,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00D1FAE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEF2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -243,14 +243,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -290,8 +290,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -691,7 +691,7 @@
     <row r="2" ht="22" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Mision Climatica - Neutralidad 2030 - Actualizado: 21/02/2026 07:47 - 98 convocatorias - 34 nuevas</t>
+          <t>Mision Climatica - Neutralidad 2030 - Actualizado: 22/02/2026 07:55 - 97 convocatorias - 30 nuevas</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
         </is>
       </c>
       <c r="L13" s="6" t="inlineStr"/>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
         </is>
       </c>
       <c r="D14" s="6" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
         </is>
       </c>
       <c r="L14" s="6" t="inlineStr"/>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
         </is>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
@@ -3789,11 +3789,7 @@
           <t>Expected Outcome:Project results are expected to contribute to the following outcome:Accelerating the commercial availability of Direct Air Capture technologies.  Scope:Projects are expected to aim at</t>
         </is>
       </c>
-      <c r="L54" s="12" t="inlineStr">
-        <is>
-          <t>NUEVA</t>
-        </is>
-      </c>
+      <c r="L54" s="6" t="inlineStr"/>
       <c r="M54" s="9" t="inlineStr">
         <is>
           <t>Ver</t>
@@ -3856,11 +3852,7 @@
           <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Strengthening of the joint EU-AU Climate Change and Sustainable Energy Collaborative Partnership e</t>
         </is>
       </c>
-      <c r="L55" s="12" t="inlineStr">
-        <is>
-          <t>NUEVA</t>
-        </is>
-      </c>
+      <c r="L55" s="6" t="inlineStr"/>
       <c r="M55" s="9" t="inlineStr">
         <is>
           <t>Ver</t>
@@ -3923,11 +3915,7 @@
           <t>Expected Outcome:Project results are expected to contribute to all of the following expected outcomes:Advance in the realisation of the Strategic Energy Technology (SET) Plan Action of Renewable fuels</t>
         </is>
       </c>
-      <c r="L56" s="12" t="inlineStr">
-        <is>
-          <t>NUEVA</t>
-        </is>
-      </c>
+      <c r="L56" s="6" t="inlineStr"/>
       <c r="M56" s="9" t="inlineStr">
         <is>
           <t>Ver</t>
@@ -3959,7 +3947,7 @@
       <c r="F57" s="6" t="inlineStr"/>
       <c r="G57" s="6" t="inlineStr"/>
       <c r="H57" s="6" t="inlineStr"/>
-      <c r="I57" s="13" t="inlineStr">
+      <c r="I57" s="12" t="inlineStr">
         <is>
           <t>MUY ALTA</t>
         </is>
@@ -4006,7 +3994,7 @@
       <c r="F58" s="6" t="inlineStr"/>
       <c r="G58" s="6" t="inlineStr"/>
       <c r="H58" s="6" t="inlineStr"/>
-      <c r="I58" s="13" t="inlineStr">
+      <c r="I58" s="12" t="inlineStr">
         <is>
           <t>MUY ALTA</t>
         </is>
@@ -4561,7 +4549,7 @@
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
@@ -4608,7 +4596,7 @@
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
@@ -4695,21 +4683,21 @@
       </c>
     </row>
     <row r="73" ht="28" customHeight="1">
-      <c r="A73" s="14" t="inlineStr">
+      <c r="A73" s="13" t="inlineStr">
         <is>
           <t>🟢 Euskadi</t>
         </is>
       </c>
     </row>
     <row r="74" ht="40" customHeight="1">
-      <c r="A74" s="15" t="inlineStr">
+      <c r="A74" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>EUS-99821</t>
+          <t>EUS-98933</t>
         </is>
       </c>
       <c r="C74" s="6" t="inlineStr">
@@ -4734,7 +4722,7 @@
           <t>Licitacion Euskadi</t>
         </is>
       </c>
-      <c r="I74" s="13" t="inlineStr">
+      <c r="I74" s="12" t="inlineStr">
         <is>
           <t>MUY ALTA</t>
         </is>
@@ -4745,7 +4733,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L74" s="12" t="inlineStr">
+      <c r="L74" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4757,14 +4745,14 @@
       </c>
     </row>
     <row r="75" ht="40" customHeight="1">
-      <c r="A75" s="15" t="inlineStr">
+      <c r="A75" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>EUS-63525</t>
+          <t>EUS-82759</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
@@ -4800,7 +4788,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L75" s="12" t="inlineStr">
+      <c r="L75" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4812,14 +4800,14 @@
       </c>
     </row>
     <row r="76" ht="40" customHeight="1">
-      <c r="A76" s="15" t="inlineStr">
+      <c r="A76" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>EUS-89917</t>
+          <t>EUS-20999</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
@@ -4855,7 +4843,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L76" s="12" t="inlineStr">
+      <c r="L76" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4867,14 +4855,14 @@
       </c>
     </row>
     <row r="77" ht="40" customHeight="1">
-      <c r="A77" s="15" t="inlineStr">
+      <c r="A77" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>EUS-14531</t>
+          <t>EUS-06061</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
@@ -4910,7 +4898,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L77" s="12" t="inlineStr">
+      <c r="L77" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4922,14 +4910,14 @@
       </c>
     </row>
     <row r="78" ht="40" customHeight="1">
-      <c r="A78" s="15" t="inlineStr">
+      <c r="A78" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>EUS-08350</t>
+          <t>EUS-31808</t>
         </is>
       </c>
       <c r="C78" s="6" t="inlineStr">
@@ -4965,7 +4953,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L78" s="12" t="inlineStr">
+      <c r="L78" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -4977,14 +4965,14 @@
       </c>
     </row>
     <row r="79" ht="40" customHeight="1">
-      <c r="A79" s="15" t="inlineStr">
+      <c r="A79" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>EUS-94562</t>
+          <t>EUS-28729</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
@@ -5020,7 +5008,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L79" s="12" t="inlineStr">
+      <c r="L79" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5032,14 +5020,14 @@
       </c>
     </row>
     <row r="80" ht="40" customHeight="1">
-      <c r="A80" s="15" t="inlineStr">
+      <c r="A80" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>EUS-56734</t>
+          <t>EUS-90487</t>
         </is>
       </c>
       <c r="C80" s="6" t="inlineStr">
@@ -5075,7 +5063,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L80" s="12" t="inlineStr">
+      <c r="L80" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5087,19 +5075,19 @@
       </c>
     </row>
     <row r="81" ht="40" customHeight="1">
-      <c r="A81" s="15" t="inlineStr">
+      <c r="A81" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>EUS-74809</t>
+          <t>EUS-69558</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t>Servicios de Asistencia Técnica para la caracterización de los residuos domésticos y similares de Gipuzkoa en 2026</t>
+          <t xml:space="preserve">FEADER, Fondo Europeo Agrícola de Desarrollo Rural, cofinancia convocatorias de ayudas de Gipuzkoa a explotaciones con limitaciones o desfavorecidas, y a compromisos medioambientales, climáticos y de </t>
         </is>
       </c>
       <c r="D81" s="6" t="inlineStr">
@@ -5116,12 +5104,12 @@
       <c r="G81" s="6" t="inlineStr"/>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>Licitacion Euskadi</t>
-        </is>
-      </c>
-      <c r="I81" s="8" t="inlineStr">
-        <is>
-          <t>ALTA</t>
+          <t>Ayuda/Subvencion Euskadi</t>
+        </is>
+      </c>
+      <c r="I81" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
         </is>
       </c>
       <c r="J81" s="6" t="inlineStr"/>
@@ -5130,7 +5118,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L81" s="12" t="inlineStr">
+      <c r="L81" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5142,19 +5130,19 @@
       </c>
     </row>
     <row r="82" ht="40" customHeight="1">
-      <c r="A82" s="15" t="inlineStr">
+      <c r="A82" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>EUS-36721</t>
+          <t>EUS-43782</t>
         </is>
       </c>
       <c r="C82" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">FEADER, Fondo Europeo Agrícola de Desarrollo Rural, cofinancia convocatorias de ayudas de Gipuzkoa a explotaciones con limitaciones o desfavorecidas, y a compromisos medioambientales, climáticos y de </t>
+          <t>Digital Europe, Horizon (programas de la UE). Apoyos para consorcios interestatales de I+D+i. IA, robótica, cuántica, computación, ciberseguridad, electrónica, fotónica, TICs e internet avanzadas, esp</t>
         </is>
       </c>
       <c r="D82" s="6" t="inlineStr">
@@ -5185,7 +5173,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L82" s="12" t="inlineStr">
+      <c r="L82" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5197,19 +5185,19 @@
       </c>
     </row>
     <row r="83" ht="40" customHeight="1">
-      <c r="A83" s="15" t="inlineStr">
+      <c r="A83" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>EUS-88645</t>
+          <t>EUS-07831</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>Digital Europe, Horizon (programas de la UE). Apoyos para consorcios interestatales de I+D+i. IA, robótica, cuántica, computación, ciberseguridad, electrónica, fotónica, TICs e internet avanzadas, esp</t>
+          <t>Salud, cáncer. Programas de Horizon, EIC, IHI. Apoyos para consorcios internacionales de I+D+i. Jornada del Gobierno Vasco y con Enterprise Europe Network y otros socios. Digitalización, dispositivos,</t>
         </is>
       </c>
       <c r="D83" s="6" t="inlineStr">
@@ -5240,7 +5228,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L83" s="12" t="inlineStr">
+      <c r="L83" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5252,19 +5240,19 @@
       </c>
     </row>
     <row r="84" ht="40" customHeight="1">
-      <c r="A84" s="15" t="inlineStr">
+      <c r="A84" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>EUS-55804</t>
+          <t>EUS-30486</t>
         </is>
       </c>
       <c r="C84" s="6" t="inlineStr">
         <is>
-          <t>Salud, cáncer. Programas de Horizon, EIC, IHI. Apoyos para consorcios internacionales de I+D+i. Jornada del Gobierno Vasco y con Enterprise Europe Network y otros socios. Digitalización, dispositivos,</t>
+          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiertas hasta el 30.4.26: el pilar 1, con el Fondo Europeo Agrícola de Garantía Agraria FEAGA, aborda sostenibilidad de renta, ayuda redistributi</t>
         </is>
       </c>
       <c r="D84" s="6" t="inlineStr">
@@ -5295,7 +5283,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L84" s="12" t="inlineStr">
+      <c r="L84" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5307,19 +5295,19 @@
       </c>
     </row>
     <row r="85" ht="40" customHeight="1">
-      <c r="A85" s="15" t="inlineStr">
+      <c r="A85" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>EUS-49713</t>
+          <t>EUS-52331</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiertas hasta el 30.4.26: el pilar 1, con el Fondo Europeo Agrícola de Garantía Agraria FEAGA, aborda sostenibilidad de renta, ayuda redistributi</t>
+          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
         </is>
       </c>
       <c r="D85" s="6" t="inlineStr">
@@ -5350,7 +5338,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L85" s="12" t="inlineStr">
+      <c r="L85" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5362,19 +5350,19 @@
       </c>
     </row>
     <row r="86" ht="40" customHeight="1">
-      <c r="A86" s="15" t="inlineStr">
+      <c r="A86" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B86" s="6" t="inlineStr">
         <is>
-          <t>EUS-29678</t>
+          <t>EUS-70955</t>
         </is>
       </c>
       <c r="C86" s="6" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
+          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
         </is>
       </c>
       <c r="D86" s="6" t="inlineStr">
@@ -5405,7 +5393,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L86" s="12" t="inlineStr">
+      <c r="L86" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5417,19 +5405,19 @@
       </c>
     </row>
     <row r="87" ht="40" customHeight="1">
-      <c r="A87" s="15" t="inlineStr">
+      <c r="A87" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>EUS-12762</t>
+          <t>EUS-28448</t>
         </is>
       </c>
       <c r="C87" s="6" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
+          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
         </is>
       </c>
       <c r="D87" s="6" t="inlineStr">
@@ -5460,7 +5448,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L87" s="12" t="inlineStr">
+      <c r="L87" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5472,19 +5460,19 @@
       </c>
     </row>
     <row r="88" ht="40" customHeight="1">
-      <c r="A88" s="15" t="inlineStr">
+      <c r="A88" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>EUS-65368</t>
+          <t>EUS-61284</t>
         </is>
       </c>
       <c r="C88" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
+          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
         </is>
       </c>
       <c r="D88" s="6" t="inlineStr">
@@ -5515,7 +5503,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L88" s="12" t="inlineStr">
+      <c r="L88" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5527,19 +5515,19 @@
       </c>
     </row>
     <row r="89" ht="40" customHeight="1">
-      <c r="A89" s="15" t="inlineStr">
+      <c r="A89" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>EUS-46726</t>
+          <t>EUS-82808</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
         </is>
       </c>
       <c r="D89" s="6" t="inlineStr">
@@ -5570,7 +5558,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L89" s="12" t="inlineStr">
+      <c r="L89" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5582,19 +5570,19 @@
       </c>
     </row>
     <row r="90" ht="40" customHeight="1">
-      <c r="A90" s="15" t="inlineStr">
+      <c r="A90" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>EUS-94309</t>
+          <t>EUS-36705</t>
         </is>
       </c>
       <c r="C90" s="6" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="D90" s="6" t="inlineStr">
@@ -5625,7 +5613,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L90" s="12" t="inlineStr">
+      <c r="L90" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5637,19 +5625,19 @@
       </c>
     </row>
     <row r="91" ht="40" customHeight="1">
-      <c r="A91" s="15" t="inlineStr">
+      <c r="A91" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>EUS-92798</t>
+          <t>EUS-15893</t>
         </is>
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
         </is>
       </c>
       <c r="D91" s="6" t="inlineStr">
@@ -5680,7 +5668,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L91" s="12" t="inlineStr">
+      <c r="L91" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5692,19 +5680,19 @@
       </c>
     </row>
     <row r="92" ht="40" customHeight="1">
-      <c r="A92" s="15" t="inlineStr">
+      <c r="A92" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
-          <t>EUS-33647</t>
+          <t>EUS-56381</t>
         </is>
       </c>
       <c r="C92" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
         </is>
       </c>
       <c r="D92" s="6" t="inlineStr">
@@ -5735,7 +5723,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L92" s="12" t="inlineStr">
+      <c r="L92" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5747,19 +5735,19 @@
       </c>
     </row>
     <row r="93" ht="40" customHeight="1">
-      <c r="A93" s="15" t="inlineStr">
+      <c r="A93" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>EUS-37213</t>
+          <t>EUS-49807</t>
         </is>
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
+          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
         </is>
       </c>
       <c r="D93" s="6" t="inlineStr">
@@ -5790,7 +5778,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L93" s="12" t="inlineStr">
+      <c r="L93" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5802,19 +5790,19 @@
       </c>
     </row>
     <row r="94" ht="40" customHeight="1">
-      <c r="A94" s="15" t="inlineStr">
+      <c r="A94" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>EUS-17024</t>
+          <t>EUS-04869</t>
         </is>
       </c>
       <c r="C94" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
+          <t>Limpieza pozo de bombeo de los garajes de errebal</t>
         </is>
       </c>
       <c r="D94" s="6" t="inlineStr">
@@ -5831,7 +5819,7 @@
       <c r="G94" s="6" t="inlineStr"/>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>Ayuda/Subvencion Euskadi</t>
+          <t>Licitacion Euskadi</t>
         </is>
       </c>
       <c r="I94" s="10" t="inlineStr">
@@ -5845,7 +5833,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L94" s="12" t="inlineStr">
+      <c r="L94" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5857,19 +5845,19 @@
       </c>
     </row>
     <row r="95" ht="40" customHeight="1">
-      <c r="A95" s="15" t="inlineStr">
+      <c r="A95" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>EUS-94613</t>
+          <t>EUS-58730</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
         <is>
-          <t>Limpieza pozo de bombeo de los garajes de errebal</t>
+          <t>Revisión y acondicionamiento de arqueta de pluviales en milaflores</t>
         </is>
       </c>
       <c r="D95" s="6" t="inlineStr">
@@ -5900,7 +5888,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L95" s="12" t="inlineStr">
+      <c r="L95" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5912,19 +5900,19 @@
       </c>
     </row>
     <row r="96" ht="40" customHeight="1">
-      <c r="A96" s="15" t="inlineStr">
+      <c r="A96" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>EUS-23341</t>
+          <t>EUS-69687</t>
         </is>
       </c>
       <c r="C96" s="6" t="inlineStr">
         <is>
-          <t>Revisión y acondicionamiento de arqueta de pluviales en milaflores</t>
+          <t>servicio de consultoría/educación ambiental para la prestación de la asistencia técnica del pilotaje del programa Agenda 2030 Escolar de Astigarraga</t>
         </is>
       </c>
       <c r="D96" s="6" t="inlineStr">
@@ -5955,7 +5943,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L96" s="12" t="inlineStr">
+      <c r="L96" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -5967,19 +5955,19 @@
       </c>
     </row>
     <row r="97" ht="40" customHeight="1">
-      <c r="A97" s="15" t="inlineStr">
+      <c r="A97" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>EUS-51873</t>
+          <t>EUS-63751</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>servicio de consultoría/educación ambiental para la prestación de la asistencia técnica del pilotaje del programa Agenda 2030 Escolar de Astigarraga</t>
+          <t>Apagado puntual del alumbrado municipal, con motivo de la celebración del espectáculo de Inauguración de Navidad</t>
         </is>
       </c>
       <c r="D97" s="6" t="inlineStr">
@@ -6010,7 +5998,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L97" s="12" t="inlineStr">
+      <c r="L97" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -6022,19 +6010,19 @@
       </c>
     </row>
     <row r="98" ht="40" customHeight="1">
-      <c r="A98" s="15" t="inlineStr">
+      <c r="A98" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>EUS-28738</t>
+          <t>EUS-50368</t>
         </is>
       </c>
       <c r="C98" s="6" t="inlineStr">
         <is>
-          <t>Apagado puntual del alumbrado municipal, con motivo de la celebración del espectáculo de Inauguración de Navidad</t>
+          <t>Realización de trabajos puntuales de reparación en la ventana de la 3ª planta, sustitución de manilla en la 1ª planta y ajuste de la puerta de entrada en el edificio PIA.</t>
         </is>
       </c>
       <c r="D98" s="6" t="inlineStr">
@@ -6065,7 +6053,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L98" s="12" t="inlineStr">
+      <c r="L98" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -6077,19 +6065,19 @@
       </c>
     </row>
     <row r="99" ht="40" customHeight="1">
-      <c r="A99" s="15" t="inlineStr">
+      <c r="A99" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>EUS-81513</t>
+          <t>EUS-66714</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>Realización de trabajos puntuales de reparación en la ventana de la 3ª planta, sustitución de manilla en la 1ª planta y ajuste de la puerta de entrada en el edificio PIA.</t>
+          <t>Servicio puntual para la configuración y adaptación del software para la recogida de solicitudes de participación en la OPE2022</t>
         </is>
       </c>
       <c r="D99" s="6" t="inlineStr">
@@ -6120,7 +6108,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L99" s="12" t="inlineStr">
+      <c r="L99" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -6132,19 +6120,19 @@
       </c>
     </row>
     <row r="100" ht="40" customHeight="1">
-      <c r="A100" s="15" t="inlineStr">
+      <c r="A100" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
-          <t>EUS-64768</t>
+          <t>EUS-57664</t>
         </is>
       </c>
       <c r="C100" s="6" t="inlineStr">
         <is>
-          <t>Servicio puntual para la configuración y adaptación del software para la recogida de solicitudes de participación en la OPE2022</t>
+          <t>Suministro de una Columna de Boca de Riego para habilitación de un punto de agua.</t>
         </is>
       </c>
       <c r="D100" s="6" t="inlineStr">
@@ -6175,7 +6163,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L100" s="12" t="inlineStr">
+      <c r="L100" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -6187,19 +6175,19 @@
       </c>
     </row>
     <row r="101" ht="40" customHeight="1">
-      <c r="A101" s="15" t="inlineStr">
+      <c r="A101" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>EUS-29793</t>
+          <t>EUS-90980</t>
         </is>
       </c>
       <c r="C101" s="6" t="inlineStr">
         <is>
-          <t>Suministro de una Columna de Boca de Riego para habilitación de un punto de agua.</t>
+          <t>Servicio puntual de transporte de diverso material corporativo voluminoso con motivo de la celebración del evento DonoSTEAM 2025</t>
         </is>
       </c>
       <c r="D101" s="6" t="inlineStr">
@@ -6230,7 +6218,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L101" s="12" t="inlineStr">
+      <c r="L101" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -6242,19 +6230,19 @@
       </c>
     </row>
     <row r="102" ht="40" customHeight="1">
-      <c r="A102" s="15" t="inlineStr">
+      <c r="A102" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>EUS-50290</t>
+          <t>EUS-55479</t>
         </is>
       </c>
       <c r="C102" s="6" t="inlineStr">
         <is>
-          <t>Servicio puntual de transporte de diverso material corporativo voluminoso con motivo de la celebración del evento DonoSTEAM 2025</t>
+          <t>Suministro puntual de material de seguridad para el edificio PIA. Botas de agua modelo ISSA talla 42</t>
         </is>
       </c>
       <c r="D102" s="6" t="inlineStr">
@@ -6285,7 +6273,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L102" s="12" t="inlineStr">
+      <c r="L102" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -6297,19 +6285,19 @@
       </c>
     </row>
     <row r="103" ht="40" customHeight="1">
-      <c r="A103" s="15" t="inlineStr">
+      <c r="A103" s="14" t="inlineStr">
         <is>
           <t>Euskadi</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>EUS-71511</t>
+          <t>EUS-25621</t>
         </is>
       </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>Suministro puntual de material de seguridad para el edificio PIA. Botas de agua modelo ISSA talla 42</t>
+          <t xml:space="preserve">Contratación de los servicios de recogida de información mediante encuestas telefónicas para la realización del barómetro ciudadano sobre la percepción social de las políticas de Garantía de Ingresos </t>
         </is>
       </c>
       <c r="D103" s="6" t="inlineStr">
@@ -6340,7 +6328,7 @@
           <t>Gobierno Vasco / Sector Publico Euskadi</t>
         </is>
       </c>
-      <c r="L103" s="12" t="inlineStr">
+      <c r="L103" s="15" t="inlineStr">
         <is>
           <t>NUEVA</t>
         </is>
@@ -6351,63 +6339,8 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="40" customHeight="1">
-      <c r="A104" s="15" t="inlineStr">
-        <is>
-          <t>Euskadi</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
-        <is>
-          <t>EUS-47511</t>
-        </is>
-      </c>
-      <c r="C104" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contratación de los servicios de recogida de información mediante encuestas telefónicas para la realización del barómetro ciudadano sobre la percepción social de las políticas de Garantía de Ingresos </t>
-        </is>
-      </c>
-      <c r="D104" s="6" t="inlineStr">
-        <is>
-          <t>Euskadi</t>
-        </is>
-      </c>
-      <c r="E104" s="7" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="F104" s="6" t="inlineStr"/>
-      <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr">
-        <is>
-          <t>Licitacion Euskadi</t>
-        </is>
-      </c>
-      <c r="I104" s="10" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
-        </is>
-      </c>
-      <c r="J104" s="6" t="inlineStr"/>
-      <c r="K104" s="6" t="inlineStr">
-        <is>
-          <t>Gobierno Vasco / Sector Publico Euskadi</t>
-        </is>
-      </c>
-      <c r="L104" s="12" t="inlineStr">
-        <is>
-          <t>NUEVA</t>
-        </is>
-      </c>
-      <c r="M104" s="9" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:M104"/>
+  <autoFilter ref="A4:M103"/>
   <mergeCells count="4">
     <mergeCell ref="A73:M73"/>
     <mergeCell ref="A2:M2"/>
@@ -6512,7 +6445,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M101" r:id="rId95"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M102" r:id="rId96"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M103" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M104" r:id="rId98"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6524,7 +6456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1469"/>
+  <dimension ref="A1:F1454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8067,7 +7999,7 @@
     <row r="106" ht="30" customHeight="1">
       <c r="A106" s="16" t="inlineStr">
         <is>
-          <t>FICHA 8: INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>FICHA 8: INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="B106" s="17" t="n"/>
@@ -8100,7 +8032,7 @@
       </c>
       <c r="B108" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
         </is>
       </c>
       <c r="C108" s="20" t="n"/>
@@ -8116,7 +8048,7 @@
       </c>
       <c r="B109" s="19" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="C109" s="20" t="n"/>
@@ -8228,7 +8160,7 @@
       </c>
       <c r="B116" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
         </is>
       </c>
       <c r="C116" s="20" t="n"/>
@@ -8276,7 +8208,7 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="C119" s="20" t="n"/>
@@ -8287,7 +8219,7 @@
     <row r="121" ht="30" customHeight="1">
       <c r="A121" s="16" t="inlineStr">
         <is>
-          <t>FICHA 9: INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>FICHA 9: INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="B121" s="17" t="n"/>
@@ -8320,7 +8252,7 @@
       </c>
       <c r="B123" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
         </is>
       </c>
       <c r="C123" s="20" t="n"/>
@@ -8336,7 +8268,7 @@
       </c>
       <c r="B124" s="19" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="C124" s="20" t="n"/>
@@ -8448,7 +8380,7 @@
       </c>
       <c r="B131" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Small-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
         </is>
       </c>
       <c r="C131" s="20" t="n"/>
@@ -8496,7 +8428,7 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="C134" s="20" t="n"/>
@@ -8507,7 +8439,7 @@
     <row r="136" ht="30" customHeight="1">
       <c r="A136" s="16" t="inlineStr">
         <is>
-          <t>FICHA 10: INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>FICHA 10: INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="B136" s="17" t="n"/>
@@ -8540,7 +8472,7 @@
       </c>
       <c r="B138" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
         </is>
       </c>
       <c r="C138" s="20" t="n"/>
@@ -8556,7 +8488,7 @@
       </c>
       <c r="B139" s="19" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="C139" s="20" t="n"/>
@@ -8668,7 +8600,7 @@
       </c>
       <c r="B146" s="19" t="inlineStr">
         <is>
-          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Large-Scale Projects</t>
+          <t>Innovation Fund 2025 Net Zero Technologies - General decarbonisation - Medium-Scale Projects</t>
         </is>
       </c>
       <c r="C146" s="20" t="n"/>
@@ -8716,7 +8648,7 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="C149" s="20" t="n"/>
@@ -20363,7 +20295,7 @@
     <row r="961" ht="30" customHeight="1">
       <c r="A961" s="16" t="inlineStr">
         <is>
-          <t>FICHA 65: 4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>FICHA 65: dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="B961" s="17" t="n"/>
@@ -20412,7 +20344,7 @@
       </c>
       <c r="B964" s="19" t="inlineStr">
         <is>
-          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="C964" s="20" t="n"/>
@@ -20500,7 +20432,7 @@
       </c>
       <c r="B970" s="19" t="inlineStr">
         <is>
-          <t>EC-REGIO/2025/MVP/0036-EXA</t>
+          <t>EC-REGIO/2025/MVP/0023-EXA</t>
         </is>
       </c>
       <c r="C970" s="20" t="n"/>
@@ -20560,7 +20492,7 @@
       </c>
       <c r="B974" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="C974" s="20" t="n"/>
@@ -20571,7 +20503,7 @@
     <row r="976" ht="30" customHeight="1">
       <c r="A976" s="16" t="inlineStr">
         <is>
-          <t>FICHA 66: dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>FICHA 66: 4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="B976" s="17" t="n"/>
@@ -20620,7 +20552,7 @@
       </c>
       <c r="B979" s="19" t="inlineStr">
         <is>
-          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="C979" s="20" t="n"/>
@@ -20708,7 +20640,7 @@
       </c>
       <c r="B985" s="19" t="inlineStr">
         <is>
-          <t>EC-REGIO/2025/MVP/0023-EXA</t>
+          <t>EC-REGIO/2025/MVP/0036-EXA</t>
         </is>
       </c>
       <c r="C985" s="20" t="n"/>
@@ -20768,7 +20700,7 @@
       </c>
       <c r="B989" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="C989" s="20" t="n"/>
@@ -20987,7 +20919,7 @@
     <row r="1006" ht="30" customHeight="1">
       <c r="A1006" s="16" t="inlineStr">
         <is>
-          <t>FICHA 68: EUS-99821</t>
+          <t>FICHA 68: EUS-98933</t>
         </is>
       </c>
       <c r="B1006" s="17" t="n"/>
@@ -21036,7 +20968,7 @@
       </c>
       <c r="B1009" s="19" t="inlineStr">
         <is>
-          <t>EUS-99821</t>
+          <t>EUS-98933</t>
         </is>
       </c>
       <c r="C1009" s="20" t="n"/>
@@ -21199,7 +21131,7 @@
     <row r="1021" ht="30" customHeight="1">
       <c r="A1021" s="16" t="inlineStr">
         <is>
-          <t>FICHA 69: EUS-63525</t>
+          <t>FICHA 69: EUS-82759</t>
         </is>
       </c>
       <c r="B1021" s="17" t="n"/>
@@ -21248,7 +21180,7 @@
       </c>
       <c r="B1024" s="19" t="inlineStr">
         <is>
-          <t>EUS-63525</t>
+          <t>EUS-82759</t>
         </is>
       </c>
       <c r="C1024" s="20" t="n"/>
@@ -21411,7 +21343,7 @@
     <row r="1036" ht="30" customHeight="1">
       <c r="A1036" s="16" t="inlineStr">
         <is>
-          <t>FICHA 70: EUS-89917</t>
+          <t>FICHA 70: EUS-20999</t>
         </is>
       </c>
       <c r="B1036" s="17" t="n"/>
@@ -21460,7 +21392,7 @@
       </c>
       <c r="B1039" s="19" t="inlineStr">
         <is>
-          <t>EUS-89917</t>
+          <t>EUS-20999</t>
         </is>
       </c>
       <c r="C1039" s="20" t="n"/>
@@ -21623,7 +21555,7 @@
     <row r="1051" ht="30" customHeight="1">
       <c r="A1051" s="16" t="inlineStr">
         <is>
-          <t>FICHA 71: EUS-14531</t>
+          <t>FICHA 71: EUS-06061</t>
         </is>
       </c>
       <c r="B1051" s="17" t="n"/>
@@ -21672,7 +21604,7 @@
       </c>
       <c r="B1054" s="19" t="inlineStr">
         <is>
-          <t>EUS-14531</t>
+          <t>EUS-06061</t>
         </is>
       </c>
       <c r="C1054" s="20" t="n"/>
@@ -21835,7 +21767,7 @@
     <row r="1066" ht="30" customHeight="1">
       <c r="A1066" s="16" t="inlineStr">
         <is>
-          <t>FICHA 72: EUS-08350</t>
+          <t>FICHA 72: EUS-31808</t>
         </is>
       </c>
       <c r="B1066" s="17" t="n"/>
@@ -21884,7 +21816,7 @@
       </c>
       <c r="B1069" s="19" t="inlineStr">
         <is>
-          <t>EUS-08350</t>
+          <t>EUS-31808</t>
         </is>
       </c>
       <c r="C1069" s="20" t="n"/>
@@ -22047,7 +21979,7 @@
     <row r="1081" ht="30" customHeight="1">
       <c r="A1081" s="16" t="inlineStr">
         <is>
-          <t>FICHA 73: EUS-94562</t>
+          <t>FICHA 73: EUS-28729</t>
         </is>
       </c>
       <c r="B1081" s="17" t="n"/>
@@ -22096,7 +22028,7 @@
       </c>
       <c r="B1084" s="19" t="inlineStr">
         <is>
-          <t>EUS-94562</t>
+          <t>EUS-28729</t>
         </is>
       </c>
       <c r="C1084" s="20" t="n"/>
@@ -22259,7 +22191,7 @@
     <row r="1096" ht="30" customHeight="1">
       <c r="A1096" s="16" t="inlineStr">
         <is>
-          <t>FICHA 74: EUS-56734</t>
+          <t>FICHA 74: EUS-90487</t>
         </is>
       </c>
       <c r="B1096" s="17" t="n"/>
@@ -22308,7 +22240,7 @@
       </c>
       <c r="B1099" s="19" t="inlineStr">
         <is>
-          <t>EUS-56734</t>
+          <t>EUS-90487</t>
         </is>
       </c>
       <c r="C1099" s="20" t="n"/>
@@ -22471,7 +22403,7 @@
     <row r="1111" ht="30" customHeight="1">
       <c r="A1111" s="16" t="inlineStr">
         <is>
-          <t>FICHA 75: EUS-74809</t>
+          <t>FICHA 75: EUS-69558</t>
         </is>
       </c>
       <c r="B1111" s="17" t="n"/>
@@ -22504,7 +22436,7 @@
       </c>
       <c r="B1113" s="19" t="inlineStr">
         <is>
-          <t>Servicios de Asistencia Técnica para la caracterización de los residuos domésticos y similares de Gipuzkoa en 2026</t>
+          <t xml:space="preserve">FEADER, Fondo Europeo Agrícola de Desarrollo Rural, cofinancia convocatorias de ayudas de Gipuzkoa a explotaciones con limitaciones o desfavorecidas, y a compromisos medioambientales, climáticos y de </t>
         </is>
       </c>
       <c r="C1113" s="20" t="n"/>
@@ -22520,7 +22452,7 @@
       </c>
       <c r="B1114" s="19" t="inlineStr">
         <is>
-          <t>EUS-74809</t>
+          <t>EUS-69558</t>
         </is>
       </c>
       <c r="C1114" s="20" t="n"/>
@@ -22596,7 +22528,7 @@
       </c>
       <c r="B1119" s="19" t="inlineStr">
         <is>
-          <t>Licitacion Euskadi</t>
+          <t>Ayuda/Subvencion Euskadi</t>
         </is>
       </c>
       <c r="C1119" s="20" t="n"/>
@@ -22654,9 +22586,9 @@
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B1123" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALTA — </t>
+      <c r="B1123" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
         </is>
       </c>
       <c r="C1123" s="20" t="n"/>
@@ -22672,7 +22604,7 @@
       </c>
       <c r="B1124" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/servicios-asistencia-tecnica-caracterizacion-residuos-domesticos-y-similares-gipuzkoa-2026/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/lgenfnpbgfa260218/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1124" s="20" t="n"/>
@@ -22683,7 +22615,7 @@
     <row r="1126" ht="30" customHeight="1">
       <c r="A1126" s="16" t="inlineStr">
         <is>
-          <t>FICHA 76: EUS-36721</t>
+          <t>FICHA 76: EUS-43782</t>
         </is>
       </c>
       <c r="B1126" s="17" t="n"/>
@@ -22716,7 +22648,7 @@
       </c>
       <c r="B1128" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">FEADER, Fondo Europeo Agrícola de Desarrollo Rural, cofinancia convocatorias de ayudas de Gipuzkoa a explotaciones con limitaciones o desfavorecidas, y a compromisos medioambientales, climáticos y de </t>
+          <t>Digital Europe, Horizon (programas de la UE). Apoyos para consorcios interestatales de I+D+i. IA, robótica, cuántica, computación, ciberseguridad, electrónica, fotónica, TICs e internet avanzadas, esp</t>
         </is>
       </c>
       <c r="C1128" s="20" t="n"/>
@@ -22732,7 +22664,7 @@
       </c>
       <c r="B1129" s="19" t="inlineStr">
         <is>
-          <t>EUS-36721</t>
+          <t>EUS-43782</t>
         </is>
       </c>
       <c r="C1129" s="20" t="n"/>
@@ -22884,7 +22816,7 @@
       </c>
       <c r="B1139" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/lgenfnpbgfa260218/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260304digitalhorizoneen/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1139" s="20" t="n"/>
@@ -22895,7 +22827,7 @@
     <row r="1141" ht="30" customHeight="1">
       <c r="A1141" s="16" t="inlineStr">
         <is>
-          <t>FICHA 77: EUS-88645</t>
+          <t>FICHA 77: EUS-07831</t>
         </is>
       </c>
       <c r="B1141" s="17" t="n"/>
@@ -22928,7 +22860,7 @@
       </c>
       <c r="B1143" s="19" t="inlineStr">
         <is>
-          <t>Digital Europe, Horizon (programas de la UE). Apoyos para consorcios interestatales de I+D+i. IA, robótica, cuántica, computación, ciberseguridad, electrónica, fotónica, TICs e internet avanzadas, esp</t>
+          <t>Salud, cáncer. Programas de Horizon, EIC, IHI. Apoyos para consorcios internacionales de I+D+i. Jornada del Gobierno Vasco y con Enterprise Europe Network y otros socios. Digitalización, dispositivos,</t>
         </is>
       </c>
       <c r="C1143" s="20" t="n"/>
@@ -22944,7 +22876,7 @@
       </c>
       <c r="B1144" s="19" t="inlineStr">
         <is>
-          <t>EUS-88645</t>
+          <t>EUS-07831</t>
         </is>
       </c>
       <c r="C1144" s="20" t="n"/>
@@ -23096,7 +23028,7 @@
       </c>
       <c r="B1154" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260304digitalhorizoneen/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260303eicihihorizon/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1154" s="20" t="n"/>
@@ -23107,7 +23039,7 @@
     <row r="1156" ht="30" customHeight="1">
       <c r="A1156" s="16" t="inlineStr">
         <is>
-          <t>FICHA 78: EUS-55804</t>
+          <t>FICHA 78: EUS-30486</t>
         </is>
       </c>
       <c r="B1156" s="17" t="n"/>
@@ -23140,7 +23072,7 @@
       </c>
       <c r="B1158" s="19" t="inlineStr">
         <is>
-          <t>Salud, cáncer. Programas de Horizon, EIC, IHI. Apoyos para consorcios internacionales de I+D+i. Jornada del Gobierno Vasco y con Enterprise Europe Network y otros socios. Digitalización, dispositivos,</t>
+          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiertas hasta el 30.4.26: el pilar 1, con el Fondo Europeo Agrícola de Garantía Agraria FEAGA, aborda sostenibilidad de renta, ayuda redistributi</t>
         </is>
       </c>
       <c r="C1158" s="20" t="n"/>
@@ -23156,7 +23088,7 @@
       </c>
       <c r="B1159" s="19" t="inlineStr">
         <is>
-          <t>EUS-55804</t>
+          <t>EUS-30486</t>
         </is>
       </c>
       <c r="C1159" s="20" t="n"/>
@@ -23308,7 +23240,7 @@
       </c>
       <c r="B1169" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260303eicihihorizon/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260216npblaguntzairekiak/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1169" s="20" t="n"/>
@@ -23319,7 +23251,7 @@
     <row r="1171" ht="30" customHeight="1">
       <c r="A1171" s="16" t="inlineStr">
         <is>
-          <t>FICHA 79: EUS-49713</t>
+          <t>FICHA 79: EUS-52331</t>
         </is>
       </c>
       <c r="B1171" s="17" t="n"/>
@@ -23352,7 +23284,7 @@
       </c>
       <c r="B1173" s="19" t="inlineStr">
         <is>
-          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiertas hasta el 30.4.26: el pilar 1, con el Fondo Europeo Agrícola de Garantía Agraria FEAGA, aborda sostenibilidad de renta, ayuda redistributi</t>
+          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
         </is>
       </c>
       <c r="C1173" s="20" t="n"/>
@@ -23368,7 +23300,7 @@
       </c>
       <c r="B1174" s="19" t="inlineStr">
         <is>
-          <t>EUS-49713</t>
+          <t>EUS-52331</t>
         </is>
       </c>
       <c r="C1174" s="20" t="n"/>
@@ -23520,7 +23452,7 @@
       </c>
       <c r="B1184" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260216npblaguntzairekiak/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260204smartcities/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1184" s="20" t="n"/>
@@ -23531,7 +23463,7 @@
     <row r="1186" ht="30" customHeight="1">
       <c r="A1186" s="16" t="inlineStr">
         <is>
-          <t>FICHA 80: EUS-29678</t>
+          <t>FICHA 80: EUS-70955</t>
         </is>
       </c>
       <c r="B1186" s="17" t="n"/>
@@ -23564,7 +23496,7 @@
       </c>
       <c r="B1188" s="19" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligentes para el fomento del desarrollo económico y productivo, que podrá ser cofinanciado por el Programa Plurirregional 2021-2027 del Fondo Europ</t>
+          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
         </is>
       </c>
       <c r="C1188" s="20" t="n"/>
@@ -23580,7 +23512,7 @@
       </c>
       <c r="B1189" s="19" t="inlineStr">
         <is>
-          <t>EUS-29678</t>
+          <t>EUS-70955</t>
         </is>
       </c>
       <c r="C1189" s="20" t="n"/>
@@ -23732,7 +23664,7 @@
       </c>
       <c r="B1199" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260204smartcities/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260119nextlanbidedigital/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1199" s="20" t="n"/>
@@ -23743,7 +23675,7 @@
     <row r="1201" ht="30" customHeight="1">
       <c r="A1201" s="16" t="inlineStr">
         <is>
-          <t>FICHA 81: EUS-12762</t>
+          <t>FICHA 81: EUS-28448</t>
         </is>
       </c>
       <c r="B1201" s="17" t="n"/>
@@ -23776,7 +23708,7 @@
       </c>
       <c r="B1203" s="19" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos Next de la UE apoyan una convocatoria de Lanbide y el Gobierno Vasco, de cursos en línea para mejorar las competencias del sector y de sus py</t>
+          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
         </is>
       </c>
       <c r="C1203" s="20" t="n"/>
@@ -23792,7 +23724,7 @@
       </c>
       <c r="B1204" s="19" t="inlineStr">
         <is>
-          <t>EUS-12762</t>
+          <t>EUS-28448</t>
         </is>
       </c>
       <c r="C1204" s="20" t="n"/>
@@ -23944,7 +23876,7 @@
       </c>
       <c r="B1214" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260119nextlanbidedigital/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/250119horizondiginduspaceklust/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1214" s="20" t="n"/>
@@ -23955,7 +23887,7 @@
     <row r="1216" ht="30" customHeight="1">
       <c r="A1216" s="16" t="inlineStr">
         <is>
-          <t>FICHA 82: EUS-65368</t>
+          <t>FICHA 82: EUS-61284</t>
         </is>
       </c>
       <c r="B1216" s="17" t="n"/>
@@ -23988,7 +23920,7 @@
       </c>
       <c r="B1218" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe. Clúster digital, industrial y espacial. Apoyos a proyectos para tecnologías de inteligencia artificial, internet, mundos virtuales, robótica, cuántica, fotónica, materias primas, bajo </t>
+          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
         </is>
       </c>
       <c r="C1218" s="20" t="n"/>
@@ -24004,7 +23936,7 @@
       </c>
       <c r="B1219" s="19" t="inlineStr">
         <is>
-          <t>EUS-65368</t>
+          <t>EUS-61284</t>
         </is>
       </c>
       <c r="C1219" s="20" t="n"/>
@@ -24156,7 +24088,7 @@
       </c>
       <c r="B1229" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/250119horizondiginduspaceklust/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/horizonkluster5hirimisioa/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1229" s="20" t="n"/>
@@ -24167,7 +24099,7 @@
     <row r="1231" ht="30" customHeight="1">
       <c r="A1231" s="16" t="inlineStr">
         <is>
-          <t>FICHA 83: EUS-46726</t>
+          <t>FICHA 83: EUS-82808</t>
         </is>
       </c>
       <c r="B1231" s="17" t="n"/>
@@ -24200,7 +24132,7 @@
       </c>
       <c r="B1233" s="19" t="inlineStr">
         <is>
-          <t>Horizon Europe: ayudas de la línea de energía del clúster 5 y de la Misión Ciudades. Jornada informativa sobre estas y otras iniciativas en colaboración transestatal para la doble transición ecológica</t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
         </is>
       </c>
       <c r="C1233" s="20" t="n"/>
@@ -24216,7 +24148,7 @@
       </c>
       <c r="B1234" s="19" t="inlineStr">
         <is>
-          <t>EUS-46726</t>
+          <t>EUS-82808</t>
         </is>
       </c>
       <c r="C1234" s="20" t="n"/>
@@ -24368,7 +24300,7 @@
       </c>
       <c r="B1244" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/horizonkluster5hirimisioa/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/azpitek-2026-programa-de-ayudas/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1244" s="20" t="n"/>
@@ -24379,7 +24311,7 @@
     <row r="1246" ht="30" customHeight="1">
       <c r="A1246" s="16" t="inlineStr">
         <is>
-          <t>FICHA 84: EUS-94309</t>
+          <t>FICHA 84: EUS-36705</t>
         </is>
       </c>
       <c r="B1246" s="17" t="n"/>
@@ -24404,7 +24336,7 @@
       <c r="E1247" s="20" t="n"/>
       <c r="F1247" s="20" t="n"/>
     </row>
-    <row r="1248" ht="45" customHeight="1">
+    <row r="1248" ht="20" customHeight="1">
       <c r="A1248" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -24412,7 +24344,7 @@
       </c>
       <c r="B1248" s="19" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instalación, Renovación y Actualización de Infraestructuras de Investigación</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="C1248" s="20" t="n"/>
@@ -24428,7 +24360,7 @@
       </c>
       <c r="B1249" s="19" t="inlineStr">
         <is>
-          <t>EUS-94309</t>
+          <t>EUS-36705</t>
         </is>
       </c>
       <c r="C1249" s="20" t="n"/>
@@ -24580,7 +24512,7 @@
       </c>
       <c r="B1259" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/azpitek-2026-programa-de-ayudas/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/subvenciones-para-innovacion-en-economia-circular-2026/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1259" s="20" t="n"/>
@@ -24591,7 +24523,7 @@
     <row r="1261" ht="30" customHeight="1">
       <c r="A1261" s="16" t="inlineStr">
         <is>
-          <t>FICHA 85: EUS-92798</t>
+          <t>FICHA 85: EUS-15893</t>
         </is>
       </c>
       <c r="B1261" s="17" t="n"/>
@@ -24616,7 +24548,7 @@
       <c r="E1262" s="20" t="n"/>
       <c r="F1262" s="20" t="n"/>
     </row>
-    <row r="1263" ht="20" customHeight="1">
+    <row r="1263" ht="45" customHeight="1">
       <c r="A1263" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -24624,7 +24556,7 @@
       </c>
       <c r="B1263" s="19" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
         </is>
       </c>
       <c r="C1263" s="20" t="n"/>
@@ -24640,7 +24572,7 @@
       </c>
       <c r="B1264" s="19" t="inlineStr">
         <is>
-          <t>EUS-92798</t>
+          <t>EUS-15893</t>
         </is>
       </c>
       <c r="C1264" s="20" t="n"/>
@@ -24792,7 +24724,7 @@
       </c>
       <c r="B1274" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/subvenciones-para-innovacion-en-economia-circular-2026/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/251222horizon2627sprieeni/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1274" s="20" t="n"/>
@@ -24803,7 +24735,7 @@
     <row r="1276" ht="30" customHeight="1">
       <c r="A1276" s="16" t="inlineStr">
         <is>
-          <t>FICHA 86: EUS-33647</t>
+          <t>FICHA 86: EUS-56381</t>
         </is>
       </c>
       <c r="B1276" s="17" t="n"/>
@@ -24836,7 +24768,7 @@
       </c>
       <c r="B1278" s="19" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones ambientales de la UE, partenariados de economía circular, azul o bio, o a la división alimentaria EIT Food del Instituto Europeo de Tecnología,</t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
         </is>
       </c>
       <c r="C1278" s="20" t="n"/>
@@ -24852,7 +24784,7 @@
       </c>
       <c r="B1279" s="19" t="inlineStr">
         <is>
-          <t>EUS-33647</t>
+          <t>EUS-56381</t>
         </is>
       </c>
       <c r="C1279" s="20" t="n"/>
@@ -25004,7 +24936,7 @@
       </c>
       <c r="B1289" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/251222horizon2627sprieeni/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/demokraziaezkutua251218/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1289" s="20" t="n"/>
@@ -25015,7 +24947,7 @@
     <row r="1291" ht="30" customHeight="1">
       <c r="A1291" s="16" t="inlineStr">
         <is>
-          <t>FICHA 87: EUS-37213</t>
+          <t>FICHA 87: EUS-49807</t>
         </is>
       </c>
       <c r="B1291" s="17" t="n"/>
@@ -25048,7 +24980,7 @@
       </c>
       <c r="B1293" s="19" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfabetización mediática y fomento del diálogo y la comprensión en torno a la desinformación digital</t>
+          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
         </is>
       </c>
       <c r="C1293" s="20" t="n"/>
@@ -25064,7 +24996,7 @@
       </c>
       <c r="B1294" s="19" t="inlineStr">
         <is>
-          <t>EUS-37213</t>
+          <t>EUS-49807</t>
         </is>
       </c>
       <c r="C1294" s="20" t="n"/>
@@ -25216,7 +25148,7 @@
       </c>
       <c r="B1304" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/demokraziaezkutua251218/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/ksiberritzalieplus251218/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1304" s="20" t="n"/>
@@ -25227,7 +25159,7 @@
     <row r="1306" ht="30" customHeight="1">
       <c r="A1306" s="16" t="inlineStr">
         <is>
-          <t>FICHA 88: EUS-17024</t>
+          <t>FICHA 88: EUS-04869</t>
         </is>
       </c>
       <c r="B1306" s="17" t="n"/>
@@ -25252,7 +25184,7 @@
       <c r="E1307" s="20" t="n"/>
       <c r="F1307" s="20" t="n"/>
     </row>
-    <row r="1308" ht="45" customHeight="1">
+    <row r="1308" ht="20" customHeight="1">
       <c r="A1308" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -25260,7 +25192,7 @@
       </c>
       <c r="B1308" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Industrias Culturales y Creativas para proyectos innovadores en la triple transición tecnológico-digital, energético-climática y socio-sanitaria, </t>
+          <t>Limpieza pozo de bombeo de los garajes de errebal</t>
         </is>
       </c>
       <c r="C1308" s="20" t="n"/>
@@ -25276,7 +25208,7 @@
       </c>
       <c r="B1309" s="19" t="inlineStr">
         <is>
-          <t>EUS-17024</t>
+          <t>EUS-04869</t>
         </is>
       </c>
       <c r="C1309" s="20" t="n"/>
@@ -25352,7 +25284,7 @@
       </c>
       <c r="B1314" s="19" t="inlineStr">
         <is>
-          <t>Ayuda/Subvencion Euskadi</t>
+          <t>Licitacion Euskadi</t>
         </is>
       </c>
       <c r="C1314" s="20" t="n"/>
@@ -25428,7 +25360,7 @@
       </c>
       <c r="B1319" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/ksiberritzalieplus251218/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/limpieza-pozo-bombeo-garajes-errebal/expgeeibar20583/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1319" s="20" t="n"/>
@@ -25439,7 +25371,7 @@
     <row r="1321" ht="30" customHeight="1">
       <c r="A1321" s="16" t="inlineStr">
         <is>
-          <t>FICHA 89: EUS-94613</t>
+          <t>FICHA 89: EUS-58730</t>
         </is>
       </c>
       <c r="B1321" s="17" t="n"/>
@@ -25472,7 +25404,7 @@
       </c>
       <c r="B1323" s="19" t="inlineStr">
         <is>
-          <t>Limpieza pozo de bombeo de los garajes de errebal</t>
+          <t>Revisión y acondicionamiento de arqueta de pluviales en milaflores</t>
         </is>
       </c>
       <c r="C1323" s="20" t="n"/>
@@ -25488,7 +25420,7 @@
       </c>
       <c r="B1324" s="19" t="inlineStr">
         <is>
-          <t>EUS-94613</t>
+          <t>EUS-58730</t>
         </is>
       </c>
       <c r="C1324" s="20" t="n"/>
@@ -25640,7 +25572,7 @@
       </c>
       <c r="B1334" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/limpieza-pozo-bombeo-garajes-errebal/expgeeibar20583/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/revision-y-acondicionamiento-arqueta-pluviales-milaflores/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1334" s="20" t="n"/>
@@ -25651,7 +25583,7 @@
     <row r="1336" ht="30" customHeight="1">
       <c r="A1336" s="16" t="inlineStr">
         <is>
-          <t>FICHA 90: EUS-23341</t>
+          <t>FICHA 90: EUS-69687</t>
         </is>
       </c>
       <c r="B1336" s="17" t="n"/>
@@ -25676,7 +25608,7 @@
       <c r="E1337" s="20" t="n"/>
       <c r="F1337" s="20" t="n"/>
     </row>
-    <row r="1338" ht="20" customHeight="1">
+    <row r="1338" ht="45" customHeight="1">
       <c r="A1338" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -25684,7 +25616,7 @@
       </c>
       <c r="B1338" s="19" t="inlineStr">
         <is>
-          <t>Revisión y acondicionamiento de arqueta de pluviales en milaflores</t>
+          <t>servicio de consultoría/educación ambiental para la prestación de la asistencia técnica del pilotaje del programa Agenda 2030 Escolar de Astigarraga</t>
         </is>
       </c>
       <c r="C1338" s="20" t="n"/>
@@ -25700,7 +25632,7 @@
       </c>
       <c r="B1339" s="19" t="inlineStr">
         <is>
-          <t>EUS-23341</t>
+          <t>EUS-69687</t>
         </is>
       </c>
       <c r="C1339" s="20" t="n"/>
@@ -25852,7 +25784,7 @@
       </c>
       <c r="B1349" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/revision-y-acondicionamiento-arqueta-pluviales-milaflores/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-consultoria-educacion-ambiental-prestacion-asistencia-tecnica-del-pilotaje-del-programa-agenda-2030-escolar-astigarraga/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1349" s="20" t="n"/>
@@ -25863,7 +25795,7 @@
     <row r="1351" ht="30" customHeight="1">
       <c r="A1351" s="16" t="inlineStr">
         <is>
-          <t>FICHA 91: EUS-51873</t>
+          <t>FICHA 91: EUS-63751</t>
         </is>
       </c>
       <c r="B1351" s="17" t="n"/>
@@ -25896,7 +25828,7 @@
       </c>
       <c r="B1353" s="19" t="inlineStr">
         <is>
-          <t>servicio de consultoría/educación ambiental para la prestación de la asistencia técnica del pilotaje del programa Agenda 2030 Escolar de Astigarraga</t>
+          <t>Apagado puntual del alumbrado municipal, con motivo de la celebración del espectáculo de Inauguración de Navidad</t>
         </is>
       </c>
       <c r="C1353" s="20" t="n"/>
@@ -25912,7 +25844,7 @@
       </c>
       <c r="B1354" s="19" t="inlineStr">
         <is>
-          <t>EUS-51873</t>
+          <t>EUS-63751</t>
         </is>
       </c>
       <c r="C1354" s="20" t="n"/>
@@ -26064,7 +25996,7 @@
       </c>
       <c r="B1364" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-consultoria-educacion-ambiental-prestacion-asistencia-tecnica-del-pilotaje-del-programa-agenda-2030-escolar-astigarraga/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/apagado-puntual-del-alumbrado-municipal-motivo-celebracion-del-espectaculo-inauguracion-navidad/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1364" s="20" t="n"/>
@@ -26075,7 +26007,7 @@
     <row r="1366" ht="30" customHeight="1">
       <c r="A1366" s="16" t="inlineStr">
         <is>
-          <t>FICHA 92: EUS-28738</t>
+          <t>FICHA 92: EUS-50368</t>
         </is>
       </c>
       <c r="B1366" s="17" t="n"/>
@@ -26108,7 +26040,7 @@
       </c>
       <c r="B1368" s="19" t="inlineStr">
         <is>
-          <t>Apagado puntual del alumbrado municipal, con motivo de la celebración del espectáculo de Inauguración de Navidad</t>
+          <t>Realización de trabajos puntuales de reparación en la ventana de la 3ª planta, sustitución de manilla en la 1ª planta y ajuste de la puerta de entrada en el edificio PIA.</t>
         </is>
       </c>
       <c r="C1368" s="20" t="n"/>
@@ -26124,7 +26056,7 @@
       </c>
       <c r="B1369" s="19" t="inlineStr">
         <is>
-          <t>EUS-28738</t>
+          <t>EUS-50368</t>
         </is>
       </c>
       <c r="C1369" s="20" t="n"/>
@@ -26276,7 +26208,7 @@
       </c>
       <c r="B1379" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/apagado-puntual-del-alumbrado-municipal-motivo-celebracion-del-espectaculo-inauguracion-navidad/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/realizacion-trabajos-puntuales-reparacion-ventana-3-planta-sustitucion-manilla-1-planta-y-ajuste-puerta-entrada-edificio-pia/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1379" s="20" t="n"/>
@@ -26287,7 +26219,7 @@
     <row r="1381" ht="30" customHeight="1">
       <c r="A1381" s="16" t="inlineStr">
         <is>
-          <t>FICHA 93: EUS-81513</t>
+          <t>FICHA 93: EUS-66714</t>
         </is>
       </c>
       <c r="B1381" s="17" t="n"/>
@@ -26320,7 +26252,7 @@
       </c>
       <c r="B1383" s="19" t="inlineStr">
         <is>
-          <t>Realización de trabajos puntuales de reparación en la ventana de la 3ª planta, sustitución de manilla en la 1ª planta y ajuste de la puerta de entrada en el edificio PIA.</t>
+          <t>Servicio puntual para la configuración y adaptación del software para la recogida de solicitudes de participación en la OPE2022</t>
         </is>
       </c>
       <c r="C1383" s="20" t="n"/>
@@ -26336,7 +26268,7 @@
       </c>
       <c r="B1384" s="19" t="inlineStr">
         <is>
-          <t>EUS-81513</t>
+          <t>EUS-66714</t>
         </is>
       </c>
       <c r="C1384" s="20" t="n"/>
@@ -26488,7 +26420,7 @@
       </c>
       <c r="B1394" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/realizacion-trabajos-puntuales-reparacion-ventana-3-planta-sustitucion-manilla-1-planta-y-ajuste-puerta-entrada-edificio-pia/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-puntual-configuracion-y-adaptacion-del-software-recogida-solicitudes-participacion-ope2022/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1394" s="20" t="n"/>
@@ -26499,7 +26431,7 @@
     <row r="1396" ht="30" customHeight="1">
       <c r="A1396" s="16" t="inlineStr">
         <is>
-          <t>FICHA 94: EUS-64768</t>
+          <t>FICHA 94: EUS-57664</t>
         </is>
       </c>
       <c r="B1396" s="17" t="n"/>
@@ -26532,7 +26464,7 @@
       </c>
       <c r="B1398" s="19" t="inlineStr">
         <is>
-          <t>Servicio puntual para la configuración y adaptación del software para la recogida de solicitudes de participación en la OPE2022</t>
+          <t>Suministro de una Columna de Boca de Riego para habilitación de un punto de agua.</t>
         </is>
       </c>
       <c r="C1398" s="20" t="n"/>
@@ -26548,7 +26480,7 @@
       </c>
       <c r="B1399" s="19" t="inlineStr">
         <is>
-          <t>EUS-64768</t>
+          <t>EUS-57664</t>
         </is>
       </c>
       <c r="C1399" s="20" t="n"/>
@@ -26700,7 +26632,7 @@
       </c>
       <c r="B1409" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-puntual-configuracion-y-adaptacion-del-software-recogida-solicitudes-participacion-ope2022/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/suministro-columna-boca-riego-habilitacion-punto-agua/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1409" s="20" t="n"/>
@@ -26711,7 +26643,7 @@
     <row r="1411" ht="30" customHeight="1">
       <c r="A1411" s="16" t="inlineStr">
         <is>
-          <t>FICHA 95: EUS-29793</t>
+          <t>FICHA 95: EUS-90980</t>
         </is>
       </c>
       <c r="B1411" s="17" t="n"/>
@@ -26744,7 +26676,7 @@
       </c>
       <c r="B1413" s="19" t="inlineStr">
         <is>
-          <t>Suministro de una Columna de Boca de Riego para habilitación de un punto de agua.</t>
+          <t>Servicio puntual de transporte de diverso material corporativo voluminoso con motivo de la celebración del evento DonoSTEAM 2025</t>
         </is>
       </c>
       <c r="C1413" s="20" t="n"/>
@@ -26760,7 +26692,7 @@
       </c>
       <c r="B1414" s="19" t="inlineStr">
         <is>
-          <t>EUS-29793</t>
+          <t>EUS-90980</t>
         </is>
       </c>
       <c r="C1414" s="20" t="n"/>
@@ -26912,7 +26844,7 @@
       </c>
       <c r="B1424" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/suministro-columna-boca-riego-habilitacion-punto-agua/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-puntual-transporte-diverso-material-corporativo-voluminoso-motivo-celebracion-del-evento-donosteam-2025/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1424" s="20" t="n"/>
@@ -26923,7 +26855,7 @@
     <row r="1426" ht="30" customHeight="1">
       <c r="A1426" s="16" t="inlineStr">
         <is>
-          <t>FICHA 96: EUS-50290</t>
+          <t>FICHA 96: EUS-55479</t>
         </is>
       </c>
       <c r="B1426" s="17" t="n"/>
@@ -26956,7 +26888,7 @@
       </c>
       <c r="B1428" s="19" t="inlineStr">
         <is>
-          <t>Servicio puntual de transporte de diverso material corporativo voluminoso con motivo de la celebración del evento DonoSTEAM 2025</t>
+          <t>Suministro puntual de material de seguridad para el edificio PIA. Botas de agua modelo ISSA talla 42</t>
         </is>
       </c>
       <c r="C1428" s="20" t="n"/>
@@ -26972,7 +26904,7 @@
       </c>
       <c r="B1429" s="19" t="inlineStr">
         <is>
-          <t>EUS-50290</t>
+          <t>EUS-55479</t>
         </is>
       </c>
       <c r="C1429" s="20" t="n"/>
@@ -27124,7 +27056,7 @@
       </c>
       <c r="B1439" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-puntual-transporte-diverso-material-corporativo-voluminoso-motivo-celebracion-del-evento-donosteam-2025/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/suministro-puntual-material-seguridad-edificio-pia-botas-agua-modelo-issa-talla-42/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1439" s="20" t="n"/>
@@ -27135,7 +27067,7 @@
     <row r="1441" ht="30" customHeight="1">
       <c r="A1441" s="16" t="inlineStr">
         <is>
-          <t>FICHA 97: EUS-71511</t>
+          <t>FICHA 97: EUS-25621</t>
         </is>
       </c>
       <c r="B1441" s="17" t="n"/>
@@ -27168,7 +27100,7 @@
       </c>
       <c r="B1443" s="19" t="inlineStr">
         <is>
-          <t>Suministro puntual de material de seguridad para el edificio PIA. Botas de agua modelo ISSA talla 42</t>
+          <t xml:space="preserve">Contratación de los servicios de recogida de información mediante encuestas telefónicas para la realización del barómetro ciudadano sobre la percepción social de las políticas de Garantía de Ingresos </t>
         </is>
       </c>
       <c r="C1443" s="20" t="n"/>
@@ -27184,7 +27116,7 @@
       </c>
       <c r="B1444" s="19" t="inlineStr">
         <is>
-          <t>EUS-71511</t>
+          <t>EUS-25621</t>
         </is>
       </c>
       <c r="C1444" s="20" t="n"/>
@@ -27336,7 +27268,7 @@
       </c>
       <c r="B1454" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/suministro-puntual-material-seguridad-edificio-pia-botas-agua-modelo-issa-talla-42/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/contratacion-servicios-recogida-informacion-mediante-encuestas-telefonicas-realizacion-del-barometro-ciudadano-percepcion-social-politicas-garantia-ingresos-y-inclusion-cae/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1454" s="20" t="n"/>
@@ -27344,220 +27276,8 @@
       <c r="E1454" s="20" t="n"/>
       <c r="F1454" s="20" t="n"/>
     </row>
-    <row r="1456" ht="30" customHeight="1">
-      <c r="A1456" s="16" t="inlineStr">
-        <is>
-          <t>FICHA 98: EUS-47511</t>
-        </is>
-      </c>
-      <c r="B1456" s="17" t="n"/>
-      <c r="C1456" s="17" t="n"/>
-      <c r="D1456" s="17" t="n"/>
-      <c r="E1456" s="17" t="n"/>
-      <c r="F1456" s="17" t="n"/>
-    </row>
-    <row r="1457" ht="20" customHeight="1">
-      <c r="A1457" s="18" t="inlineStr">
-        <is>
-          <t>Fuente</t>
-        </is>
-      </c>
-      <c r="B1457" s="19" t="inlineStr">
-        <is>
-          <t>🟢 Euskadi</t>
-        </is>
-      </c>
-      <c r="C1457" s="20" t="n"/>
-      <c r="D1457" s="20" t="n"/>
-      <c r="E1457" s="20" t="n"/>
-      <c r="F1457" s="20" t="n"/>
-    </row>
-    <row r="1458" ht="45" customHeight="1">
-      <c r="A1458" s="18" t="inlineStr">
-        <is>
-          <t>Titulo</t>
-        </is>
-      </c>
-      <c r="B1458" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contratación de los servicios de recogida de información mediante encuestas telefónicas para la realización del barómetro ciudadano sobre la percepción social de las políticas de Garantía de Ingresos </t>
-        </is>
-      </c>
-      <c r="C1458" s="20" t="n"/>
-      <c r="D1458" s="20" t="n"/>
-      <c r="E1458" s="20" t="n"/>
-      <c r="F1458" s="20" t="n"/>
-    </row>
-    <row r="1459" ht="20" customHeight="1">
-      <c r="A1459" s="18" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1459" s="19" t="inlineStr">
-        <is>
-          <t>EUS-47511</t>
-        </is>
-      </c>
-      <c r="C1459" s="20" t="n"/>
-      <c r="D1459" s="20" t="n"/>
-      <c r="E1459" s="20" t="n"/>
-      <c r="F1459" s="20" t="n"/>
-    </row>
-    <row r="1460" ht="20" customHeight="1">
-      <c r="A1460" s="18" t="inlineStr">
-        <is>
-          <t>Programa</t>
-        </is>
-      </c>
-      <c r="B1460" s="19" t="inlineStr">
-        <is>
-          <t>Euskadi</t>
-        </is>
-      </c>
-      <c r="C1460" s="20" t="n"/>
-      <c r="D1460" s="20" t="n"/>
-      <c r="E1460" s="20" t="n"/>
-      <c r="F1460" s="20" t="n"/>
-    </row>
-    <row r="1461" ht="20" customHeight="1">
-      <c r="A1461" s="18" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="B1461" s="19" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1461" s="20" t="n"/>
-      <c r="D1461" s="20" t="n"/>
-      <c r="E1461" s="20" t="n"/>
-      <c r="F1461" s="20" t="n"/>
-    </row>
-    <row r="1462" ht="20" customHeight="1">
-      <c r="A1462" s="18" t="inlineStr">
-        <is>
-          <t>Deadline</t>
-        </is>
-      </c>
-      <c r="B1462" s="19" t="inlineStr"/>
-      <c r="C1462" s="20" t="n"/>
-      <c r="D1462" s="20" t="n"/>
-      <c r="E1462" s="20" t="n"/>
-      <c r="F1462" s="20" t="n"/>
-    </row>
-    <row r="1463" ht="20" customHeight="1">
-      <c r="A1463" s="18" t="inlineStr">
-        <is>
-          <t>Presupuesto (EUR)</t>
-        </is>
-      </c>
-      <c r="B1463" s="19" t="inlineStr">
-        <is>
-          <t>No disponible</t>
-        </is>
-      </c>
-      <c r="C1463" s="20" t="n"/>
-      <c r="D1463" s="20" t="n"/>
-      <c r="E1463" s="20" t="n"/>
-      <c r="F1463" s="20" t="n"/>
-    </row>
-    <row r="1464" ht="20" customHeight="1">
-      <c r="A1464" s="18" t="inlineStr">
-        <is>
-          <t>Tipo de Accion</t>
-        </is>
-      </c>
-      <c r="B1464" s="19" t="inlineStr">
-        <is>
-          <t>Licitacion Euskadi</t>
-        </is>
-      </c>
-      <c r="C1464" s="20" t="n"/>
-      <c r="D1464" s="20" t="n"/>
-      <c r="E1464" s="20" t="n"/>
-      <c r="F1464" s="20" t="n"/>
-    </row>
-    <row r="1465" ht="20" customHeight="1">
-      <c r="A1465" s="18" t="inlineStr">
-        <is>
-          <t>Call ID</t>
-        </is>
-      </c>
-      <c r="B1465" s="19" t="inlineStr"/>
-      <c r="C1465" s="20" t="n"/>
-      <c r="D1465" s="20" t="n"/>
-      <c r="E1465" s="20" t="n"/>
-      <c r="F1465" s="20" t="n"/>
-    </row>
-    <row r="1466" ht="20" customHeight="1">
-      <c r="A1466" s="18" t="inlineStr">
-        <is>
-          <t>Descripcion</t>
-        </is>
-      </c>
-      <c r="B1466" s="19" t="inlineStr">
-        <is>
-          <t>Gobierno Vasco / Sector Publico Euskadi</t>
-        </is>
-      </c>
-      <c r="C1466" s="20" t="n"/>
-      <c r="D1466" s="20" t="n"/>
-      <c r="E1466" s="20" t="n"/>
-      <c r="F1466" s="20" t="n"/>
-    </row>
-    <row r="1467" ht="20" customHeight="1">
-      <c r="A1467" s="18" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
-      <c r="B1467" s="19" t="inlineStr">
-        <is>
-          <t>energia</t>
-        </is>
-      </c>
-      <c r="C1467" s="20" t="n"/>
-      <c r="D1467" s="20" t="n"/>
-      <c r="E1467" s="20" t="n"/>
-      <c r="F1467" s="20" t="n"/>
-    </row>
-    <row r="1468" ht="20" customHeight="1">
-      <c r="A1468" s="18" t="inlineStr">
-        <is>
-          <t>Relevancia Bilbao</t>
-        </is>
-      </c>
-      <c r="B1468" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MEDIA — </t>
-        </is>
-      </c>
-      <c r="C1468" s="20" t="n"/>
-      <c r="D1468" s="20" t="n"/>
-      <c r="E1468" s="20" t="n"/>
-      <c r="F1468" s="20" t="n"/>
-    </row>
-    <row r="1469" ht="45" customHeight="1">
-      <c r="A1469" s="18" t="inlineStr">
-        <is>
-          <t>Enlace al portal</t>
-        </is>
-      </c>
-      <c r="B1469" s="22" t="inlineStr">
-        <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/contratacion-servicios-recogida-informacion-mediante-encuestas-telefonicas-realizacion-del-barometro-ciudadano-percepcion-social-politicas-garantia-ingresos-y-inclusion-cae/web01-tramite/es/</t>
-        </is>
-      </c>
-      <c r="C1469" s="20" t="n"/>
-      <c r="D1469" s="20" t="n"/>
-      <c r="E1469" s="20" t="n"/>
-      <c r="F1469" s="20" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="1372">
+  <mergeCells count="1358">
     <mergeCell ref="B679:F679"/>
     <mergeCell ref="B1010:F1010"/>
     <mergeCell ref="B276:F276"/>
@@ -27815,13 +27535,11 @@
     <mergeCell ref="B1163:F1163"/>
     <mergeCell ref="B408:F408"/>
     <mergeCell ref="A916:F916"/>
-    <mergeCell ref="B1461:F1461"/>
     <mergeCell ref="B619:F619"/>
     <mergeCell ref="B279:F279"/>
     <mergeCell ref="B410:F410"/>
     <mergeCell ref="B733:F733"/>
     <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B1463:F1463"/>
     <mergeCell ref="B1031:F1031"/>
     <mergeCell ref="B281:F281"/>
     <mergeCell ref="B1033:F1033"/>
@@ -27871,14 +27589,11 @@
     <mergeCell ref="B379:F379"/>
     <mergeCell ref="B702:F702"/>
     <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1459:F1459"/>
     <mergeCell ref="B704:F704"/>
     <mergeCell ref="B1002:F1002"/>
     <mergeCell ref="B399:F399"/>
     <mergeCell ref="B1004:F1004"/>
     <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1460:F1460"/>
     <mergeCell ref="A946:F946"/>
     <mergeCell ref="A631:F631"/>
     <mergeCell ref="B117:F117"/>
@@ -28107,7 +27822,6 @@
     <mergeCell ref="B260:F260"/>
     <mergeCell ref="A496:F496"/>
     <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1458:F1458"/>
     <mergeCell ref="A796:F796"/>
     <mergeCell ref="B309:F309"/>
     <mergeCell ref="A316:F316"/>
@@ -28179,7 +27893,6 @@
     <mergeCell ref="B396:F396"/>
     <mergeCell ref="B267:F267"/>
     <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1457:F1457"/>
     <mergeCell ref="B398:F398"/>
     <mergeCell ref="B1451:F1451"/>
     <mergeCell ref="B696:F696"/>
@@ -28364,7 +28077,6 @@
     <mergeCell ref="B1354:F1354"/>
     <mergeCell ref="B284:F284"/>
     <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B1468:F1468"/>
     <mergeCell ref="B713:F713"/>
     <mergeCell ref="B1011:F1011"/>
     <mergeCell ref="B110:F110"/>
@@ -28415,11 +28127,9 @@
     <mergeCell ref="B378:F378"/>
     <mergeCell ref="A1321:F1321"/>
     <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B1464:F1464"/>
     <mergeCell ref="B1439:F1439"/>
     <mergeCell ref="B740:F740"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B1467:F1467"/>
     <mergeCell ref="B437:F437"/>
     <mergeCell ref="B852:F852"/>
     <mergeCell ref="B10:F10"/>
@@ -28699,7 +28409,6 @@
     <mergeCell ref="B1160:F1160"/>
     <mergeCell ref="B1377:F1377"/>
     <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1466:F1466"/>
     <mergeCell ref="B407:F407"/>
     <mergeCell ref="A646:F646"/>
     <mergeCell ref="B1379:F1379"/>
@@ -28749,7 +28458,6 @@
     <mergeCell ref="B1158:F1158"/>
     <mergeCell ref="B403:F403"/>
     <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B1462:F1462"/>
     <mergeCell ref="B1166:F1166"/>
     <mergeCell ref="B1278:F1278"/>
     <mergeCell ref="B7:F7"/>
@@ -28803,7 +28511,6 @@
     <mergeCell ref="B1274:F1274"/>
     <mergeCell ref="B215:F215"/>
     <mergeCell ref="B513:F513"/>
-    <mergeCell ref="A1456:F1456"/>
     <mergeCell ref="B847:F847"/>
     <mergeCell ref="B244:F244"/>
     <mergeCell ref="B819:F819"/>
@@ -28882,7 +28589,6 @@
     <mergeCell ref="B867:F867"/>
     <mergeCell ref="B1296:F1296"/>
     <mergeCell ref="A1351:F1351"/>
-    <mergeCell ref="B1469:F1469"/>
     <mergeCell ref="B251:F251"/>
     <mergeCell ref="B1014:F1014"/>
     <mergeCell ref="B1008:F1008"/>
@@ -29029,7 +28735,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1424" r:id="rId95"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1439" r:id="rId96"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1454" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1469" r:id="rId98"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29041,7 +28746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29393,7 +29098,7 @@
     <row r="9" ht="28" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
@@ -29433,7 +29138,7 @@
     <row r="10" ht="28" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-SSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
@@ -29473,7 +29178,7 @@
     <row r="11" ht="28" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>INNOVFUND-2025-NZT-GENERAL-LSP</t>
+          <t>INNOVFUND-2025-NZT-GENERAL-MSP</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -31569,7 +31274,7 @@
     <row r="66" ht="28" customHeight="1">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
@@ -31601,7 +31306,7 @@
     <row r="67" ht="28" customHeight="1">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
@@ -31665,7 +31370,7 @@
     <row r="69" ht="28" customHeight="1">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>EUS-99821</t>
+          <t>EUS-98933</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
@@ -31701,7 +31406,7 @@
     <row r="70" ht="28" customHeight="1">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>EUS-63525</t>
+          <t>EUS-82759</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
@@ -31737,7 +31442,7 @@
     <row r="71" ht="28" customHeight="1">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>EUS-89917</t>
+          <t>EUS-20999</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
@@ -31773,7 +31478,7 @@
     <row r="72" ht="28" customHeight="1">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>EUS-14531</t>
+          <t>EUS-06061</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
@@ -31809,7 +31514,7 @@
     <row r="73" ht="28" customHeight="1">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>EUS-08350</t>
+          <t>EUS-31808</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
@@ -31845,7 +31550,7 @@
     <row r="74" ht="28" customHeight="1">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>EUS-94562</t>
+          <t>EUS-28729</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
@@ -31881,7 +31586,7 @@
     <row r="75" ht="28" customHeight="1">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>EUS-56734</t>
+          <t>EUS-90487</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
@@ -31917,12 +31622,12 @@
     <row r="76" ht="28" customHeight="1">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>EUS-74809</t>
+          <t>EUS-69558</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>Servicios de Asistencia Técnica para la caracterización de l</t>
+          <t>FEADER, Fondo Europeo Agrícola de Desarrollo Rural, cofinanc</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
@@ -31938,7 +31643,7 @@
       <c r="E76" s="6" t="inlineStr"/>
       <c r="F76" s="25" t="inlineStr">
         <is>
-          <t>ALTA</t>
+          <t>MEDIA</t>
         </is>
       </c>
       <c r="G76" s="6" t="inlineStr"/>
@@ -31953,12 +31658,12 @@
     <row r="77" ht="28" customHeight="1">
       <c r="A77" s="6" t="inlineStr">
         <is>
-          <t>EUS-36721</t>
+          <t>EUS-43782</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>FEADER, Fondo Europeo Agrícola de Desarrollo Rural, cofinanc</t>
+          <t>Digital Europe, Horizon (programas de la UE). Apoyos para co</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
@@ -31989,12 +31694,12 @@
     <row r="78" ht="28" customHeight="1">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>EUS-88645</t>
+          <t>EUS-07831</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>Digital Europe, Horizon (programas de la UE). Apoyos para co</t>
+          <t>Salud, cáncer. Programas de Horizon, EIC, IHI. Apoyos para c</t>
         </is>
       </c>
       <c r="C78" s="6" t="inlineStr">
@@ -32025,12 +31730,12 @@
     <row r="79" ht="28" customHeight="1">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>EUS-55804</t>
+          <t>EUS-30486</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>Salud, cáncer. Programas de Horizon, EIC, IHI. Apoyos para c</t>
+          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiert</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
@@ -32061,12 +31766,12 @@
     <row r="80" ht="28" customHeight="1">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>EUS-49713</t>
+          <t>EUS-52331</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>Política Agraria Común de la UE de 2026, y sus ayudas abiert</t>
+          <t>Programa de impulso a las ciudades y territorios inteligente</t>
         </is>
       </c>
       <c r="C80" s="6" t="inlineStr">
@@ -32097,12 +31802,12 @@
     <row r="81" ht="28" customHeight="1">
       <c r="A81" s="6" t="inlineStr">
         <is>
-          <t>EUS-29678</t>
+          <t>EUS-70955</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>Programa de impulso a las ciudades y territorios inteligente</t>
+          <t>Formación digital para empleabilidad turística: los fondos N</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
@@ -32133,12 +31838,12 @@
     <row r="82" ht="28" customHeight="1">
       <c r="A82" s="6" t="inlineStr">
         <is>
-          <t>EUS-12762</t>
+          <t>EUS-28448</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>Formación digital para empleabilidad turística: los fondos N</t>
+          <t>Horizon Europe. Clúster digital, industrial y espacial. Apoy</t>
         </is>
       </c>
       <c r="C82" s="6" t="inlineStr">
@@ -32169,12 +31874,12 @@
     <row r="83" ht="28" customHeight="1">
       <c r="A83" s="6" t="inlineStr">
         <is>
-          <t>EUS-65368</t>
+          <t>EUS-61284</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe. Clúster digital, industrial y espacial. Apoy</t>
+          <t xml:space="preserve">Horizon Europe: ayudas de la línea de energía del clúster 5 </t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
@@ -32205,12 +31910,12 @@
     <row r="84" ht="28" customHeight="1">
       <c r="A84" s="6" t="inlineStr">
         <is>
-          <t>EUS-46726</t>
+          <t>EUS-82808</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horizon Europe: ayudas de la línea de energía del clúster 5 </t>
+          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instal</t>
         </is>
       </c>
       <c r="C84" s="6" t="inlineStr">
@@ -32241,12 +31946,12 @@
     <row r="85" ht="28" customHeight="1">
       <c r="A85" s="6" t="inlineStr">
         <is>
-          <t>EUS-94309</t>
+          <t>EUS-36705</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>Azpitek 2026: Programa de Ayudas para la Adquisición, Instal</t>
+          <t>Subvenciones para innovación en economía circular 2026</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
@@ -32277,12 +31982,12 @@
     <row r="86" ht="28" customHeight="1">
       <c r="A86" s="6" t="inlineStr">
         <is>
-          <t>EUS-92798</t>
+          <t>EUS-15893</t>
         </is>
       </c>
       <c r="B86" s="6" t="inlineStr">
         <is>
-          <t>Subvenciones para innovación en economía circular 2026</t>
+          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones amb</t>
         </is>
       </c>
       <c r="C86" s="6" t="inlineStr">
@@ -32313,12 +32018,12 @@
     <row r="87" ht="28" customHeight="1">
       <c r="A87" s="6" t="inlineStr">
         <is>
-          <t>EUS-33647</t>
+          <t>EUS-56381</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>Horizon Europe 2026-27: convocatorias ligadas a misiones amb</t>
+          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfab</t>
         </is>
       </c>
       <c r="C87" s="6" t="inlineStr">
@@ -32349,12 +32054,12 @@
     <row r="88" ht="28" customHeight="1">
       <c r="A88" s="6" t="inlineStr">
         <is>
-          <t>EUS-37213</t>
+          <t>EUS-49807</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>Escudo Europeo de la Democracia: ayudas a proyectos de alfab</t>
+          <t>KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Indust</t>
         </is>
       </c>
       <c r="C88" s="6" t="inlineStr">
@@ -32385,12 +32090,12 @@
     <row r="89" ht="28" customHeight="1">
       <c r="A89" s="6" t="inlineStr">
         <is>
-          <t>EUS-17024</t>
+          <t>EUS-04869</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>KSI Berritzaile Plus: ayudas del Gobierno Vasco a las Indust</t>
+          <t>Limpieza pozo de bombeo de los garajes de errebal</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
@@ -32421,12 +32126,12 @@
     <row r="90" ht="28" customHeight="1">
       <c r="A90" s="6" t="inlineStr">
         <is>
-          <t>EUS-94613</t>
+          <t>EUS-58730</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>Limpieza pozo de bombeo de los garajes de errebal</t>
+          <t>Revisión y acondicionamiento de arqueta de pluviales en mila</t>
         </is>
       </c>
       <c r="C90" s="6" t="inlineStr">
@@ -32457,12 +32162,12 @@
     <row r="91" ht="28" customHeight="1">
       <c r="A91" s="6" t="inlineStr">
         <is>
-          <t>EUS-23341</t>
+          <t>EUS-69687</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>Revisión y acondicionamiento de arqueta de pluviales en mila</t>
+          <t>servicio de consultoría/educación ambiental para la prestaci</t>
         </is>
       </c>
       <c r="C91" s="6" t="inlineStr">
@@ -32493,12 +32198,12 @@
     <row r="92" ht="28" customHeight="1">
       <c r="A92" s="6" t="inlineStr">
         <is>
-          <t>EUS-51873</t>
+          <t>EUS-63751</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
-          <t>servicio de consultoría/educación ambiental para la prestaci</t>
+          <t>Apagado puntual del alumbrado municipal, con motivo de la ce</t>
         </is>
       </c>
       <c r="C92" s="6" t="inlineStr">
@@ -32529,12 +32234,12 @@
     <row r="93" ht="28" customHeight="1">
       <c r="A93" s="6" t="inlineStr">
         <is>
-          <t>EUS-28738</t>
+          <t>EUS-50368</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>Apagado puntual del alumbrado municipal, con motivo de la ce</t>
+          <t>Realización de trabajos puntuales de reparación en la ventan</t>
         </is>
       </c>
       <c r="C93" s="6" t="inlineStr">
@@ -32565,12 +32270,12 @@
     <row r="94" ht="28" customHeight="1">
       <c r="A94" s="6" t="inlineStr">
         <is>
-          <t>EUS-81513</t>
+          <t>EUS-66714</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>Realización de trabajos puntuales de reparación en la ventan</t>
+          <t>Servicio puntual para la configuración y adaptación del soft</t>
         </is>
       </c>
       <c r="C94" s="6" t="inlineStr">
@@ -32601,12 +32306,12 @@
     <row r="95" ht="28" customHeight="1">
       <c r="A95" s="6" t="inlineStr">
         <is>
-          <t>EUS-64768</t>
+          <t>EUS-57664</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>Servicio puntual para la configuración y adaptación del soft</t>
+          <t>Suministro de una Columna de Boca de Riego para habilitación</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
@@ -32637,12 +32342,12 @@
     <row r="96" ht="28" customHeight="1">
       <c r="A96" s="6" t="inlineStr">
         <is>
-          <t>EUS-29793</t>
+          <t>EUS-90980</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>Suministro de una Columna de Boca de Riego para habilitación</t>
+          <t>Servicio puntual de transporte de diverso material corporati</t>
         </is>
       </c>
       <c r="C96" s="6" t="inlineStr">
@@ -32673,12 +32378,12 @@
     <row r="97" ht="28" customHeight="1">
       <c r="A97" s="6" t="inlineStr">
         <is>
-          <t>EUS-50290</t>
+          <t>EUS-55479</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>Servicio puntual de transporte de diverso material corporati</t>
+          <t>Suministro puntual de material de seguridad para el edificio</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
@@ -32709,12 +32414,12 @@
     <row r="98" ht="28" customHeight="1">
       <c r="A98" s="6" t="inlineStr">
         <is>
-          <t>EUS-71511</t>
+          <t>EUS-25621</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>Suministro puntual de material de seguridad para el edificio</t>
+          <t>Contratación de los servicios de recogida de información med</t>
         </is>
       </c>
       <c r="C98" s="6" t="inlineStr">
@@ -32742,44 +32447,8 @@
       <c r="I98" s="6" t="inlineStr"/>
       <c r="J98" s="6" t="inlineStr"/>
     </row>
-    <row r="99" ht="28" customHeight="1">
-      <c r="A99" s="6" t="inlineStr">
-        <is>
-          <t>EUS-47511</t>
-        </is>
-      </c>
-      <c r="B99" s="6" t="inlineStr">
-        <is>
-          <t>Contratación de los servicios de recogida de información med</t>
-        </is>
-      </c>
-      <c r="C99" s="6" t="inlineStr">
-        <is>
-          <t>Euskadi</t>
-        </is>
-      </c>
-      <c r="D99" s="6" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="E99" s="6" t="inlineStr"/>
-      <c r="F99" s="25" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
-        </is>
-      </c>
-      <c r="G99" s="6" t="inlineStr"/>
-      <c r="H99" s="6" t="inlineStr">
-        <is>
-          <t>Por revisar</t>
-        </is>
-      </c>
-      <c r="I99" s="6" t="inlineStr"/>
-      <c r="J99" s="6" t="inlineStr"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J99"/>
+  <autoFilter ref="A1:J98"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/resultados_convocatorias.xlsx
+++ b/docs/resultados_convocatorias.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Recursos" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumen'!$A$4:$M$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Seguimiento'!$A$1:$J$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumen'!$A$4:$M$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Seguimiento'!$A$1:$J$92</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -691,7 +691,7 @@
     <row r="2" ht="22" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Mision Climatica - Neutralidad 2030 - Actualizado: 24/02/2026 08:09 - 90 convocatorias - 23 nuevas</t>
+          <t>Mision Climatica - Neutralidad 2030 - Actualizado: 25/02/2026 08:10 - 91 convocatorias - 24 nuevas</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>EUS-01513</t>
+          <t>EUS-37980</t>
         </is>
       </c>
       <c r="C74" s="6" t="inlineStr">
         <is>
-          <t>Mantenimiento de cubiertas en los centros de Bilbao Kirolak</t>
+          <t>Ayudas a proyectos al amparo de la estrategia de desarrollo local participativo (EDLP), aprobada al grupo de acción local del sector pesquero (GALP) para el desarrollo sostenible de las zonas de pesca</t>
         </is>
       </c>
       <c r="D74" s="6" t="inlineStr">
@@ -4719,12 +4719,12 @@
       <c r="G74" s="6" t="inlineStr"/>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>Licitacion Euskadi</t>
-        </is>
-      </c>
-      <c r="I74" s="12" t="inlineStr">
-        <is>
-          <t>MUY ALTA</t>
+          <t>Ayuda/Subvencion Euskadi</t>
+        </is>
+      </c>
+      <c r="I74" s="8" t="inlineStr">
+        <is>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="J74" s="6" t="inlineStr"/>
@@ -4752,12 +4752,12 @@
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>EUS-46570</t>
+          <t>EUS-88998</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>Ayudas a proyectos al amparo de la estrategia de desarrollo local participativo (EDLP), aprobada al grupo de acción local del sector pesquero (GALP) para el desarrollo sostenible de las zonas de pesca</t>
+          <t>ReSourceEU y materias primas críticas: la UE sigue tramitando convocatorias para favorecer proyectos otorgándoles carácter estratégico, de la mano del Banco Europeo de Inversiones, de cara a ámbitos c</t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>EUS-20748</t>
+          <t>EUS-22037</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
         <is>
-          <t>ReSourceEU y materias primas críticas: la UE sigue tramitando convocatorias para favorecer proyectos otorgándoles carácter estratégico, de la mano del Banco Europeo de Inversiones, de cara a ámbitos c</t>
+          <t>Ciudades sostenibles: los Premios Capital Verde Europea y Hoja Verde de 2028 abren su convocatoria hasta el 01.04.26 para ciudades de más de 100.000 y de más de 20.000 habitantes, climáticamente resil</t>
         </is>
       </c>
       <c r="D76" s="6" t="inlineStr">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>EUS-33329</t>
+          <t>EUS-96198</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
         <is>
-          <t>Ciudades sostenibles: los Premios Capital Verde Europea y Hoja Verde de 2028 abren su convocatoria hasta el 01.04.26 para ciudades de más de 100.000 y de más de 20.000 habitantes, climáticamente resil</t>
+          <t>Presolicitud para programa de ayudas a empresas que realicen inversiones productivas que permitan diversificar líneas de negocio, productos, servicios y mercados, con un enfoque en el crecimiento sost</t>
         </is>
       </c>
       <c r="D77" s="6" t="inlineStr">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>EUS-46971</t>
+          <t>EUS-18212</t>
         </is>
       </c>
       <c r="C78" s="6" t="inlineStr">
         <is>
-          <t>Presolicitud para programa de ayudas a empresas que realicen inversiones productivas que permitan diversificar líneas de negocio, productos, servicios y mercados, con un enfoque en el crecimiento sost</t>
+          <t>Servicio integral de gestión operativa de movilidad que de soporte al plan operativo de movilidad y transporte en las Finales de Rugby EPCR 2026</t>
         </is>
       </c>
       <c r="D78" s="6" t="inlineStr">
@@ -4939,7 +4939,7 @@
       <c r="G78" s="6" t="inlineStr"/>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>Ayuda/Subvencion Euskadi</t>
+          <t>Licitacion Euskadi</t>
         </is>
       </c>
       <c r="I78" s="8" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>EUS-23727</t>
+          <t>EUS-35207</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>EUS-63736</t>
+          <t>EUS-04351</t>
         </is>
       </c>
       <c r="C80" s="6" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>EUS-38314</t>
+          <t>EUS-41297</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>EUS-43135</t>
+          <t>EUS-78717</t>
         </is>
       </c>
       <c r="C82" s="6" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>EUS-00654</t>
+          <t>EUS-25588</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>EUS-24940</t>
+          <t>EUS-33200</t>
         </is>
       </c>
       <c r="C84" s="6" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>EUS-30791</t>
+          <t>EUS-47048</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B86" s="6" t="inlineStr">
         <is>
-          <t>EUS-01008</t>
+          <t>EUS-74734</t>
         </is>
       </c>
       <c r="C86" s="6" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>EUS-10663</t>
+          <t>EUS-60281</t>
         </is>
       </c>
       <c r="C87" s="6" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>EUS-56941</t>
+          <t>EUS-54283</t>
         </is>
       </c>
       <c r="C88" s="6" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>EUS-01208</t>
+          <t>EUS-10026</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>EUS-00233</t>
+          <t>EUS-35931</t>
         </is>
       </c>
       <c r="C90" s="6" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>EUS-15421</t>
+          <t>EUS-44255</t>
         </is>
       </c>
       <c r="C91" s="6" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
-          <t>EUS-74016</t>
+          <t>EUS-75900</t>
         </is>
       </c>
       <c r="C92" s="6" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>EUS-57526</t>
+          <t>EUS-96234</t>
         </is>
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>ejecución de cuneta en acera de kosta kalea para canalizar las aguas, posterior colocación de baldosa negra</t>
+          <t>Reparación de fuga de agua en la acometida den centro escolar CEPA Donostia HHI (Julio Urquijo) de Donostia</t>
         </is>
       </c>
       <c r="D93" s="6" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>EUS-99494</t>
+          <t>EUS-89077</t>
         </is>
       </c>
       <c r="C94" s="6" t="inlineStr">
         <is>
-          <t>evitar y redirigir las aguas, así como eliminar las eflorescencias en la acera de kandido saseta</t>
+          <t>Mantenimiento integral de las instalaciones de alumbrado público exterior, navideño, ornamental de ferias y fiestas y semáforos</t>
         </is>
       </c>
       <c r="D94" s="6" t="inlineStr">
@@ -5852,12 +5852,12 @@
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>EUS-68529</t>
+          <t>EUS-75154</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
         <is>
-          <t>proyecto de nuevo edificio de mercado municipal en la parcela de damarri</t>
+          <t>Auscultación geotécnica de la red de infraestructuras viarias de la Diputación Foral de Gipuzkoa (1-O-54/2025)</t>
         </is>
       </c>
       <c r="D95" s="6" t="inlineStr">
@@ -5907,12 +5907,12 @@
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>EUS-03547</t>
+          <t>EUS-74501</t>
         </is>
       </c>
       <c r="C96" s="6" t="inlineStr">
         <is>
-          <t>renovación de 2 calderas en los vestuarios de la playa</t>
+          <t>Servicio de limpieza viaria</t>
         </is>
       </c>
       <c r="D96" s="6" t="inlineStr">
@@ -5954,8 +5954,63 @@
         </is>
       </c>
     </row>
+    <row r="97" ht="40" customHeight="1">
+      <c r="A97" s="14" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>EUS-26650</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>Ofrecer los servicios de gestión de reservas, utilización, mantenimiento, y  limpieza del albergue Santiagomendi, así como el servicio de organización de actividades naturales en el medio ambiente.</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="inlineStr"/>
+      <c r="G97" s="6" t="inlineStr"/>
+      <c r="H97" s="6" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="I97" s="10" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J97" s="6" t="inlineStr"/>
+      <c r="K97" s="6" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="L97" s="15" t="inlineStr">
+        <is>
+          <t>NUEVA</t>
+        </is>
+      </c>
+      <c r="M97" s="9" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:M96"/>
+  <autoFilter ref="A4:M97"/>
   <mergeCells count="4">
     <mergeCell ref="A73:M73"/>
     <mergeCell ref="A2:M2"/>
@@ -6053,6 +6108,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M94" r:id="rId88"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M95" r:id="rId89"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M96" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M97" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6064,7 +6120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1349"/>
+  <dimension ref="A1:F1364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19903,7 +19959,7 @@
     <row r="961" ht="30" customHeight="1">
       <c r="A961" s="16" t="inlineStr">
         <is>
-          <t>FICHA 65: 4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>FICHA 65: dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="B961" s="17" t="n"/>
@@ -19952,7 +20008,7 @@
       </c>
       <c r="B964" s="19" t="inlineStr">
         <is>
-          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="C964" s="20" t="n"/>
@@ -20040,7 +20096,7 @@
       </c>
       <c r="B970" s="19" t="inlineStr">
         <is>
-          <t>EC-REGIO/2025/MVP/0036-EXA</t>
+          <t>EC-REGIO/2025/MVP/0023-EXA</t>
         </is>
       </c>
       <c r="C970" s="20" t="n"/>
@@ -20100,7 +20156,7 @@
       </c>
       <c r="B974" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="C974" s="20" t="n"/>
@@ -20111,7 +20167,7 @@
     <row r="976" ht="30" customHeight="1">
       <c r="A976" s="16" t="inlineStr">
         <is>
-          <t>FICHA 66: dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>FICHA 66: 4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="B976" s="17" t="n"/>
@@ -20160,7 +20216,7 @@
       </c>
       <c r="B979" s="19" t="inlineStr">
         <is>
-          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="C979" s="20" t="n"/>
@@ -20248,7 +20304,7 @@
       </c>
       <c r="B985" s="19" t="inlineStr">
         <is>
-          <t>EC-REGIO/2025/MVP/0023-EXA</t>
+          <t>EC-REGIO/2025/MVP/0036-EXA</t>
         </is>
       </c>
       <c r="C985" s="20" t="n"/>
@@ -20308,7 +20364,7 @@
       </c>
       <c r="B989" s="22" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>https://ec.europa.eu/info/funding-tenders/opportunities/portal/screen/opportunities/topic-details/4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="C989" s="20" t="n"/>
@@ -20527,7 +20583,7 @@
     <row r="1006" ht="30" customHeight="1">
       <c r="A1006" s="16" t="inlineStr">
         <is>
-          <t>FICHA 68: EUS-01513</t>
+          <t>FICHA 68: EUS-37980</t>
         </is>
       </c>
       <c r="B1006" s="17" t="n"/>
@@ -20552,7 +20608,7 @@
       <c r="E1007" s="20" t="n"/>
       <c r="F1007" s="20" t="n"/>
     </row>
-    <row r="1008" ht="20" customHeight="1">
+    <row r="1008" ht="45" customHeight="1">
       <c r="A1008" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -20560,7 +20616,7 @@
       </c>
       <c r="B1008" s="19" t="inlineStr">
         <is>
-          <t>Mantenimiento de cubiertas en los centros de Bilbao Kirolak</t>
+          <t>Ayudas a proyectos al amparo de la estrategia de desarrollo local participativo (EDLP), aprobada al grupo de acción local del sector pesquero (GALP) para el desarrollo sostenible de las zonas de pesca</t>
         </is>
       </c>
       <c r="C1008" s="20" t="n"/>
@@ -20576,7 +20632,7 @@
       </c>
       <c r="B1009" s="19" t="inlineStr">
         <is>
-          <t>EUS-01513</t>
+          <t>EUS-37980</t>
         </is>
       </c>
       <c r="C1009" s="20" t="n"/>
@@ -20652,7 +20708,7 @@
       </c>
       <c r="B1014" s="19" t="inlineStr">
         <is>
-          <t>Licitacion Euskadi</t>
+          <t>Ayuda/Subvencion Euskadi</t>
         </is>
       </c>
       <c r="C1014" s="20" t="n"/>
@@ -20710,9 +20766,9 @@
           <t>Relevancia Bilbao</t>
         </is>
       </c>
-      <c r="B1018" s="23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MUY ALTA — </t>
+      <c r="B1018" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALTA — </t>
         </is>
       </c>
       <c r="C1018" s="20" t="n"/>
@@ -20728,7 +20784,7 @@
       </c>
       <c r="B1019" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/mantenimiento-cubiertas-centros-bilbao-kirolak/expjaso685080/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/ayudas-al-amparo-de-la-estrategia-de-desarrollo-local-participativo-2026/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1019" s="20" t="n"/>
@@ -20739,7 +20795,7 @@
     <row r="1021" ht="30" customHeight="1">
       <c r="A1021" s="16" t="inlineStr">
         <is>
-          <t>FICHA 69: EUS-46570</t>
+          <t>FICHA 69: EUS-88998</t>
         </is>
       </c>
       <c r="B1021" s="17" t="n"/>
@@ -20772,7 +20828,7 @@
       </c>
       <c r="B1023" s="19" t="inlineStr">
         <is>
-          <t>Ayudas a proyectos al amparo de la estrategia de desarrollo local participativo (EDLP), aprobada al grupo de acción local del sector pesquero (GALP) para el desarrollo sostenible de las zonas de pesca</t>
+          <t>ReSourceEU y materias primas críticas: la UE sigue tramitando convocatorias para favorecer proyectos otorgándoles carácter estratégico, de la mano del Banco Europeo de Inversiones, de cara a ámbitos c</t>
         </is>
       </c>
       <c r="C1023" s="20" t="n"/>
@@ -20788,7 +20844,7 @@
       </c>
       <c r="B1024" s="19" t="inlineStr">
         <is>
-          <t>EUS-46570</t>
+          <t>EUS-88998</t>
         </is>
       </c>
       <c r="C1024" s="20" t="n"/>
@@ -20940,7 +20996,7 @@
       </c>
       <c r="B1034" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/ayudas-al-amparo-de-la-estrategia-de-desarrollo-local-participativo-2026/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260119resourceeumateriaes/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1034" s="20" t="n"/>
@@ -20951,7 +21007,7 @@
     <row r="1036" ht="30" customHeight="1">
       <c r="A1036" s="16" t="inlineStr">
         <is>
-          <t>FICHA 70: EUS-20748</t>
+          <t>FICHA 70: EUS-22037</t>
         </is>
       </c>
       <c r="B1036" s="17" t="n"/>
@@ -20984,7 +21040,7 @@
       </c>
       <c r="B1038" s="19" t="inlineStr">
         <is>
-          <t>ReSourceEU y materias primas críticas: la UE sigue tramitando convocatorias para favorecer proyectos otorgándoles carácter estratégico, de la mano del Banco Europeo de Inversiones, de cara a ámbitos c</t>
+          <t>Ciudades sostenibles: los Premios Capital Verde Europea y Hoja Verde de 2028 abren su convocatoria hasta el 01.04.26 para ciudades de más de 100.000 y de más de 20.000 habitantes, climáticamente resil</t>
         </is>
       </c>
       <c r="C1038" s="20" t="n"/>
@@ -21000,7 +21056,7 @@
       </c>
       <c r="B1039" s="19" t="inlineStr">
         <is>
-          <t>EUS-20748</t>
+          <t>EUS-22037</t>
         </is>
       </c>
       <c r="C1039" s="20" t="n"/>
@@ -21152,7 +21208,7 @@
       </c>
       <c r="B1049" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/260119resourceeumateriaes/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2026/hiriburutahostoberdea2826/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1049" s="20" t="n"/>
@@ -21163,7 +21219,7 @@
     <row r="1051" ht="30" customHeight="1">
       <c r="A1051" s="16" t="inlineStr">
         <is>
-          <t>FICHA 71: EUS-33329</t>
+          <t>FICHA 71: EUS-96198</t>
         </is>
       </c>
       <c r="B1051" s="17" t="n"/>
@@ -21196,7 +21252,7 @@
       </c>
       <c r="B1053" s="19" t="inlineStr">
         <is>
-          <t>Ciudades sostenibles: los Premios Capital Verde Europea y Hoja Verde de 2028 abren su convocatoria hasta el 01.04.26 para ciudades de más de 100.000 y de más de 20.000 habitantes, climáticamente resil</t>
+          <t>Presolicitud para programa de ayudas a empresas que realicen inversiones productivas que permitan diversificar líneas de negocio, productos, servicios y mercados, con un enfoque en el crecimiento sost</t>
         </is>
       </c>
       <c r="C1053" s="20" t="n"/>
@@ -21212,7 +21268,7 @@
       </c>
       <c r="B1054" s="19" t="inlineStr">
         <is>
-          <t>EUS-33329</t>
+          <t>EUS-96198</t>
         </is>
       </c>
       <c r="C1054" s="20" t="n"/>
@@ -21364,7 +21420,7 @@
       </c>
       <c r="B1064" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2026/hiriburutahostoberdea2826/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/ayuda_subvencion/2025/presolicitud-dibertsifika-2026/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1064" s="20" t="n"/>
@@ -21375,7 +21431,7 @@
     <row r="1066" ht="30" customHeight="1">
       <c r="A1066" s="16" t="inlineStr">
         <is>
-          <t>FICHA 72: EUS-46971</t>
+          <t>FICHA 72: EUS-18212</t>
         </is>
       </c>
       <c r="B1066" s="17" t="n"/>
@@ -21408,7 +21464,7 @@
       </c>
       <c r="B1068" s="19" t="inlineStr">
         <is>
-          <t>Presolicitud para programa de ayudas a empresas que realicen inversiones productivas que permitan diversificar líneas de negocio, productos, servicios y mercados, con un enfoque en el crecimiento sost</t>
+          <t>Servicio integral de gestión operativa de movilidad que de soporte al plan operativo de movilidad y transporte en las Finales de Rugby EPCR 2026</t>
         </is>
       </c>
       <c r="C1068" s="20" t="n"/>
@@ -21424,7 +21480,7 @@
       </c>
       <c r="B1069" s="19" t="inlineStr">
         <is>
-          <t>EUS-46971</t>
+          <t>EUS-18212</t>
         </is>
       </c>
       <c r="C1069" s="20" t="n"/>
@@ -21500,7 +21556,7 @@
       </c>
       <c r="B1074" s="19" t="inlineStr">
         <is>
-          <t>Ayuda/Subvencion Euskadi</t>
+          <t>Licitacion Euskadi</t>
         </is>
       </c>
       <c r="C1074" s="20" t="n"/>
@@ -21576,7 +21632,7 @@
       </c>
       <c r="B1079" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/ayuda_subvencion/2025/presolicitud-dibertsifika-2026/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-integral-gestion-operativa-movilidad-que-soporte-al-plan-operativo-movilidad-y-transporte-finales-rugby-epcr-2026/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1079" s="20" t="n"/>
@@ -21587,7 +21643,7 @@
     <row r="1081" ht="30" customHeight="1">
       <c r="A1081" s="16" t="inlineStr">
         <is>
-          <t>FICHA 73: EUS-23727</t>
+          <t>FICHA 73: EUS-35207</t>
         </is>
       </c>
       <c r="B1081" s="17" t="n"/>
@@ -21636,7 +21692,7 @@
       </c>
       <c r="B1084" s="19" t="inlineStr">
         <is>
-          <t>EUS-23727</t>
+          <t>EUS-35207</t>
         </is>
       </c>
       <c r="C1084" s="20" t="n"/>
@@ -21799,7 +21855,7 @@
     <row r="1096" ht="30" customHeight="1">
       <c r="A1096" s="16" t="inlineStr">
         <is>
-          <t>FICHA 74: EUS-63736</t>
+          <t>FICHA 74: EUS-04351</t>
         </is>
       </c>
       <c r="B1096" s="17" t="n"/>
@@ -21848,7 +21904,7 @@
       </c>
       <c r="B1099" s="19" t="inlineStr">
         <is>
-          <t>EUS-63736</t>
+          <t>EUS-04351</t>
         </is>
       </c>
       <c r="C1099" s="20" t="n"/>
@@ -22011,7 +22067,7 @@
     <row r="1111" ht="30" customHeight="1">
       <c r="A1111" s="16" t="inlineStr">
         <is>
-          <t>FICHA 75: EUS-38314</t>
+          <t>FICHA 75: EUS-41297</t>
         </is>
       </c>
       <c r="B1111" s="17" t="n"/>
@@ -22060,7 +22116,7 @@
       </c>
       <c r="B1114" s="19" t="inlineStr">
         <is>
-          <t>EUS-38314</t>
+          <t>EUS-41297</t>
         </is>
       </c>
       <c r="C1114" s="20" t="n"/>
@@ -22223,7 +22279,7 @@
     <row r="1126" ht="30" customHeight="1">
       <c r="A1126" s="16" t="inlineStr">
         <is>
-          <t>FICHA 76: EUS-43135</t>
+          <t>FICHA 76: EUS-78717</t>
         </is>
       </c>
       <c r="B1126" s="17" t="n"/>
@@ -22272,7 +22328,7 @@
       </c>
       <c r="B1129" s="19" t="inlineStr">
         <is>
-          <t>EUS-43135</t>
+          <t>EUS-78717</t>
         </is>
       </c>
       <c r="C1129" s="20" t="n"/>
@@ -22435,7 +22491,7 @@
     <row r="1141" ht="30" customHeight="1">
       <c r="A1141" s="16" t="inlineStr">
         <is>
-          <t>FICHA 77: EUS-00654</t>
+          <t>FICHA 77: EUS-25588</t>
         </is>
       </c>
       <c r="B1141" s="17" t="n"/>
@@ -22484,7 +22540,7 @@
       </c>
       <c r="B1144" s="19" t="inlineStr">
         <is>
-          <t>EUS-00654</t>
+          <t>EUS-25588</t>
         </is>
       </c>
       <c r="C1144" s="20" t="n"/>
@@ -22647,7 +22703,7 @@
     <row r="1156" ht="30" customHeight="1">
       <c r="A1156" s="16" t="inlineStr">
         <is>
-          <t>FICHA 78: EUS-24940</t>
+          <t>FICHA 78: EUS-33200</t>
         </is>
       </c>
       <c r="B1156" s="17" t="n"/>
@@ -22696,7 +22752,7 @@
       </c>
       <c r="B1159" s="19" t="inlineStr">
         <is>
-          <t>EUS-24940</t>
+          <t>EUS-33200</t>
         </is>
       </c>
       <c r="C1159" s="20" t="n"/>
@@ -22859,7 +22915,7 @@
     <row r="1171" ht="30" customHeight="1">
       <c r="A1171" s="16" t="inlineStr">
         <is>
-          <t>FICHA 79: EUS-30791</t>
+          <t>FICHA 79: EUS-47048</t>
         </is>
       </c>
       <c r="B1171" s="17" t="n"/>
@@ -22908,7 +22964,7 @@
       </c>
       <c r="B1174" s="19" t="inlineStr">
         <is>
-          <t>EUS-30791</t>
+          <t>EUS-47048</t>
         </is>
       </c>
       <c r="C1174" s="20" t="n"/>
@@ -23071,7 +23127,7 @@
     <row r="1186" ht="30" customHeight="1">
       <c r="A1186" s="16" t="inlineStr">
         <is>
-          <t>FICHA 80: EUS-01008</t>
+          <t>FICHA 80: EUS-74734</t>
         </is>
       </c>
       <c r="B1186" s="17" t="n"/>
@@ -23120,7 +23176,7 @@
       </c>
       <c r="B1189" s="19" t="inlineStr">
         <is>
-          <t>EUS-01008</t>
+          <t>EUS-74734</t>
         </is>
       </c>
       <c r="C1189" s="20" t="n"/>
@@ -23283,7 +23339,7 @@
     <row r="1201" ht="30" customHeight="1">
       <c r="A1201" s="16" t="inlineStr">
         <is>
-          <t>FICHA 81: EUS-10663</t>
+          <t>FICHA 81: EUS-60281</t>
         </is>
       </c>
       <c r="B1201" s="17" t="n"/>
@@ -23332,7 +23388,7 @@
       </c>
       <c r="B1204" s="19" t="inlineStr">
         <is>
-          <t>EUS-10663</t>
+          <t>EUS-60281</t>
         </is>
       </c>
       <c r="C1204" s="20" t="n"/>
@@ -23495,7 +23551,7 @@
     <row r="1216" ht="30" customHeight="1">
       <c r="A1216" s="16" t="inlineStr">
         <is>
-          <t>FICHA 82: EUS-56941</t>
+          <t>FICHA 82: EUS-54283</t>
         </is>
       </c>
       <c r="B1216" s="17" t="n"/>
@@ -23544,7 +23600,7 @@
       </c>
       <c r="B1219" s="19" t="inlineStr">
         <is>
-          <t>EUS-56941</t>
+          <t>EUS-54283</t>
         </is>
       </c>
       <c r="C1219" s="20" t="n"/>
@@ -23707,7 +23763,7 @@
     <row r="1231" ht="30" customHeight="1">
       <c r="A1231" s="16" t="inlineStr">
         <is>
-          <t>FICHA 83: EUS-01208</t>
+          <t>FICHA 83: EUS-10026</t>
         </is>
       </c>
       <c r="B1231" s="17" t="n"/>
@@ -23756,7 +23812,7 @@
       </c>
       <c r="B1234" s="19" t="inlineStr">
         <is>
-          <t>EUS-01208</t>
+          <t>EUS-10026</t>
         </is>
       </c>
       <c r="C1234" s="20" t="n"/>
@@ -23919,7 +23975,7 @@
     <row r="1246" ht="30" customHeight="1">
       <c r="A1246" s="16" t="inlineStr">
         <is>
-          <t>FICHA 84: EUS-00233</t>
+          <t>FICHA 84: EUS-35931</t>
         </is>
       </c>
       <c r="B1246" s="17" t="n"/>
@@ -23968,7 +24024,7 @@
       </c>
       <c r="B1249" s="19" t="inlineStr">
         <is>
-          <t>EUS-00233</t>
+          <t>EUS-35931</t>
         </is>
       </c>
       <c r="C1249" s="20" t="n"/>
@@ -24131,7 +24187,7 @@
     <row r="1261" ht="30" customHeight="1">
       <c r="A1261" s="16" t="inlineStr">
         <is>
-          <t>FICHA 85: EUS-15421</t>
+          <t>FICHA 85: EUS-44255</t>
         </is>
       </c>
       <c r="B1261" s="17" t="n"/>
@@ -24180,7 +24236,7 @@
       </c>
       <c r="B1264" s="19" t="inlineStr">
         <is>
-          <t>EUS-15421</t>
+          <t>EUS-44255</t>
         </is>
       </c>
       <c r="C1264" s="20" t="n"/>
@@ -24343,7 +24399,7 @@
     <row r="1276" ht="30" customHeight="1">
       <c r="A1276" s="16" t="inlineStr">
         <is>
-          <t>FICHA 86: EUS-74016</t>
+          <t>FICHA 86: EUS-75900</t>
         </is>
       </c>
       <c r="B1276" s="17" t="n"/>
@@ -24392,7 +24448,7 @@
       </c>
       <c r="B1279" s="19" t="inlineStr">
         <is>
-          <t>EUS-74016</t>
+          <t>EUS-75900</t>
         </is>
       </c>
       <c r="C1279" s="20" t="n"/>
@@ -24555,7 +24611,7 @@
     <row r="1291" ht="30" customHeight="1">
       <c r="A1291" s="16" t="inlineStr">
         <is>
-          <t>FICHA 87: EUS-57526</t>
+          <t>FICHA 87: EUS-96234</t>
         </is>
       </c>
       <c r="B1291" s="17" t="n"/>
@@ -24588,7 +24644,7 @@
       </c>
       <c r="B1293" s="19" t="inlineStr">
         <is>
-          <t>ejecución de cuneta en acera de kosta kalea para canalizar las aguas, posterior colocación de baldosa negra</t>
+          <t>Reparación de fuga de agua en la acometida den centro escolar CEPA Donostia HHI (Julio Urquijo) de Donostia</t>
         </is>
       </c>
       <c r="C1293" s="20" t="n"/>
@@ -24604,7 +24660,7 @@
       </c>
       <c r="B1294" s="19" t="inlineStr">
         <is>
-          <t>EUS-57526</t>
+          <t>EUS-96234</t>
         </is>
       </c>
       <c r="C1294" s="20" t="n"/>
@@ -24756,7 +24812,7 @@
       </c>
       <c r="B1304" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/ejecucion-cuneta-acera-kosta-kalea-canalizar-aguas-posterior-colocacion-baldosa-negra/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/reparacion-fuga-agua-acometida-den-centro-escolar-cepa-donostia-hhi-julio-urquijo-donostia/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1304" s="20" t="n"/>
@@ -24767,7 +24823,7 @@
     <row r="1306" ht="30" customHeight="1">
       <c r="A1306" s="16" t="inlineStr">
         <is>
-          <t>FICHA 88: EUS-99494</t>
+          <t>FICHA 88: EUS-89077</t>
         </is>
       </c>
       <c r="B1306" s="17" t="n"/>
@@ -24800,7 +24856,7 @@
       </c>
       <c r="B1308" s="19" t="inlineStr">
         <is>
-          <t>evitar y redirigir las aguas, así como eliminar las eflorescencias en la acera de kandido saseta</t>
+          <t>Mantenimiento integral de las instalaciones de alumbrado público exterior, navideño, ornamental de ferias y fiestas y semáforos</t>
         </is>
       </c>
       <c r="C1308" s="20" t="n"/>
@@ -24816,7 +24872,7 @@
       </c>
       <c r="B1309" s="19" t="inlineStr">
         <is>
-          <t>EUS-99494</t>
+          <t>EUS-89077</t>
         </is>
       </c>
       <c r="C1309" s="20" t="n"/>
@@ -24968,7 +25024,7 @@
       </c>
       <c r="B1319" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/evitar-y-redirigir-aguas-asi-como-eliminar-eflorescencias-acera-kandido-saseta/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/mantenimiento-integral-instalaciones-alumbrado-publico-exterior-navideno-ornamental-ferias-y-fiestas-y-semaforos/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1319" s="20" t="n"/>
@@ -24979,7 +25035,7 @@
     <row r="1321" ht="30" customHeight="1">
       <c r="A1321" s="16" t="inlineStr">
         <is>
-          <t>FICHA 89: EUS-68529</t>
+          <t>FICHA 89: EUS-75154</t>
         </is>
       </c>
       <c r="B1321" s="17" t="n"/>
@@ -25004,7 +25060,7 @@
       <c r="E1322" s="20" t="n"/>
       <c r="F1322" s="20" t="n"/>
     </row>
-    <row r="1323" ht="20" customHeight="1">
+    <row r="1323" ht="45" customHeight="1">
       <c r="A1323" s="18" t="inlineStr">
         <is>
           <t>Titulo</t>
@@ -25012,7 +25068,7 @@
       </c>
       <c r="B1323" s="19" t="inlineStr">
         <is>
-          <t>proyecto de nuevo edificio de mercado municipal en la parcela de damarri</t>
+          <t>Auscultación geotécnica de la red de infraestructuras viarias de la Diputación Foral de Gipuzkoa (1-O-54/2025)</t>
         </is>
       </c>
       <c r="C1323" s="20" t="n"/>
@@ -25028,7 +25084,7 @@
       </c>
       <c r="B1324" s="19" t="inlineStr">
         <is>
-          <t>EUS-68529</t>
+          <t>EUS-75154</t>
         </is>
       </c>
       <c r="C1324" s="20" t="n"/>
@@ -25180,7 +25236,7 @@
       </c>
       <c r="B1334" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/proyecto-nuevo-edificio-mercado-municipal-parcela-damarri/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/auscultacion-geotecnica-red-infraestructuras-viarias-diputacion-foral-gipuzkoa-1-o-54-2025/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1334" s="20" t="n"/>
@@ -25191,7 +25247,7 @@
     <row r="1336" ht="30" customHeight="1">
       <c r="A1336" s="16" t="inlineStr">
         <is>
-          <t>FICHA 90: EUS-03547</t>
+          <t>FICHA 90: EUS-74501</t>
         </is>
       </c>
       <c r="B1336" s="17" t="n"/>
@@ -25224,7 +25280,7 @@
       </c>
       <c r="B1338" s="19" t="inlineStr">
         <is>
-          <t>renovación de 2 calderas en los vestuarios de la playa</t>
+          <t>Servicio de limpieza viaria</t>
         </is>
       </c>
       <c r="C1338" s="20" t="n"/>
@@ -25240,7 +25296,7 @@
       </c>
       <c r="B1339" s="19" t="inlineStr">
         <is>
-          <t>EUS-03547</t>
+          <t>EUS-74501</t>
         </is>
       </c>
       <c r="C1339" s="20" t="n"/>
@@ -25392,7 +25448,7 @@
       </c>
       <c r="B1349" s="22" t="inlineStr">
         <is>
-          <t>https://www.euskadi.eus/anuncio_contratacion/renovacion-2-calderas-vestuarios-playa/web01-tramite/es/</t>
+          <t>https://www.euskadi.eus/anuncio_contratacion/servicio-limpieza-viaria/expgebizkaia3327143/web01-tramite/es/</t>
         </is>
       </c>
       <c r="C1349" s="20" t="n"/>
@@ -25400,8 +25456,220 @@
       <c r="E1349" s="20" t="n"/>
       <c r="F1349" s="20" t="n"/>
     </row>
+    <row r="1351" ht="30" customHeight="1">
+      <c r="A1351" s="16" t="inlineStr">
+        <is>
+          <t>FICHA 91: EUS-26650</t>
+        </is>
+      </c>
+      <c r="B1351" s="17" t="n"/>
+      <c r="C1351" s="17" t="n"/>
+      <c r="D1351" s="17" t="n"/>
+      <c r="E1351" s="17" t="n"/>
+      <c r="F1351" s="17" t="n"/>
+    </row>
+    <row r="1352" ht="20" customHeight="1">
+      <c r="A1352" s="18" t="inlineStr">
+        <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1352" s="19" t="inlineStr">
+        <is>
+          <t>🟢 Euskadi</t>
+        </is>
+      </c>
+      <c r="C1352" s="20" t="n"/>
+      <c r="D1352" s="20" t="n"/>
+      <c r="E1352" s="20" t="n"/>
+      <c r="F1352" s="20" t="n"/>
+    </row>
+    <row r="1353" ht="45" customHeight="1">
+      <c r="A1353" s="18" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="B1353" s="19" t="inlineStr">
+        <is>
+          <t>Ofrecer los servicios de gestión de reservas, utilización, mantenimiento, y  limpieza del albergue Santiagomendi, así como el servicio de organización de actividades naturales en el medio ambiente.</t>
+        </is>
+      </c>
+      <c r="C1353" s="20" t="n"/>
+      <c r="D1353" s="20" t="n"/>
+      <c r="E1353" s="20" t="n"/>
+      <c r="F1353" s="20" t="n"/>
+    </row>
+    <row r="1354" ht="20" customHeight="1">
+      <c r="A1354" s="18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1354" s="19" t="inlineStr">
+        <is>
+          <t>EUS-26650</t>
+        </is>
+      </c>
+      <c r="C1354" s="20" t="n"/>
+      <c r="D1354" s="20" t="n"/>
+      <c r="E1354" s="20" t="n"/>
+      <c r="F1354" s="20" t="n"/>
+    </row>
+    <row r="1355" ht="20" customHeight="1">
+      <c r="A1355" s="18" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1355" s="19" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="C1355" s="20" t="n"/>
+      <c r="D1355" s="20" t="n"/>
+      <c r="E1355" s="20" t="n"/>
+      <c r="F1355" s="20" t="n"/>
+    </row>
+    <row r="1356" ht="20" customHeight="1">
+      <c r="A1356" s="18" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B1356" s="19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1356" s="20" t="n"/>
+      <c r="D1356" s="20" t="n"/>
+      <c r="E1356" s="20" t="n"/>
+      <c r="F1356" s="20" t="n"/>
+    </row>
+    <row r="1357" ht="20" customHeight="1">
+      <c r="A1357" s="18" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="B1357" s="19" t="inlineStr"/>
+      <c r="C1357" s="20" t="n"/>
+      <c r="D1357" s="20" t="n"/>
+      <c r="E1357" s="20" t="n"/>
+      <c r="F1357" s="20" t="n"/>
+    </row>
+    <row r="1358" ht="20" customHeight="1">
+      <c r="A1358" s="18" t="inlineStr">
+        <is>
+          <t>Presupuesto (EUR)</t>
+        </is>
+      </c>
+      <c r="B1358" s="19" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="C1358" s="20" t="n"/>
+      <c r="D1358" s="20" t="n"/>
+      <c r="E1358" s="20" t="n"/>
+      <c r="F1358" s="20" t="n"/>
+    </row>
+    <row r="1359" ht="20" customHeight="1">
+      <c r="A1359" s="18" t="inlineStr">
+        <is>
+          <t>Tipo de Accion</t>
+        </is>
+      </c>
+      <c r="B1359" s="19" t="inlineStr">
+        <is>
+          <t>Licitacion Euskadi</t>
+        </is>
+      </c>
+      <c r="C1359" s="20" t="n"/>
+      <c r="D1359" s="20" t="n"/>
+      <c r="E1359" s="20" t="n"/>
+      <c r="F1359" s="20" t="n"/>
+    </row>
+    <row r="1360" ht="20" customHeight="1">
+      <c r="A1360" s="18" t="inlineStr">
+        <is>
+          <t>Call ID</t>
+        </is>
+      </c>
+      <c r="B1360" s="19" t="inlineStr"/>
+      <c r="C1360" s="20" t="n"/>
+      <c r="D1360" s="20" t="n"/>
+      <c r="E1360" s="20" t="n"/>
+      <c r="F1360" s="20" t="n"/>
+    </row>
+    <row r="1361" ht="20" customHeight="1">
+      <c r="A1361" s="18" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="B1361" s="19" t="inlineStr">
+        <is>
+          <t>Gobierno Vasco / Sector Publico Euskadi</t>
+        </is>
+      </c>
+      <c r="C1361" s="20" t="n"/>
+      <c r="D1361" s="20" t="n"/>
+      <c r="E1361" s="20" t="n"/>
+      <c r="F1361" s="20" t="n"/>
+    </row>
+    <row r="1362" ht="20" customHeight="1">
+      <c r="A1362" s="18" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B1362" s="19" t="inlineStr">
+        <is>
+          <t>energia</t>
+        </is>
+      </c>
+      <c r="C1362" s="20" t="n"/>
+      <c r="D1362" s="20" t="n"/>
+      <c r="E1362" s="20" t="n"/>
+      <c r="F1362" s="20" t="n"/>
+    </row>
+    <row r="1363" ht="20" customHeight="1">
+      <c r="A1363" s="18" t="inlineStr">
+        <is>
+          <t>Relevancia Bilbao</t>
+        </is>
+      </c>
+      <c r="B1363" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA — </t>
+        </is>
+      </c>
+      <c r="C1363" s="20" t="n"/>
+      <c r="D1363" s="20" t="n"/>
+      <c r="E1363" s="20" t="n"/>
+      <c r="F1363" s="20" t="n"/>
+    </row>
+    <row r="1364" ht="45" customHeight="1">
+      <c r="A1364" s="18" t="inlineStr">
+        <is>
+          <t>Enlace al portal</t>
+        </is>
+      </c>
+      <c r="B1364" s="22" t="inlineStr">
+        <is>
+          <t>https://www.euskadi.eus/anuncio_contratacion/ofrecer-servicios-gestion-reservas-utilizacion-mantenimiento-y-limpieza-del-albergue-santiagomendi-asi-como-servicio-organizacion-actividades-naturales-medio-ambiente/web01-tramite/es/</t>
+        </is>
+      </c>
+      <c r="C1364" s="20" t="n"/>
+      <c r="D1364" s="20" t="n"/>
+      <c r="E1364" s="20" t="n"/>
+      <c r="F1364" s="20" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="1260">
+  <mergeCells count="1274">
     <mergeCell ref="B679:F679"/>
     <mergeCell ref="B1010:F1010"/>
     <mergeCell ref="B276:F276"/>
@@ -25596,9 +25864,11 @@
     <mergeCell ref="B593:F593"/>
     <mergeCell ref="B1022:F1022"/>
     <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1356:F1356"/>
     <mergeCell ref="B595:F595"/>
     <mergeCell ref="B893:F893"/>
     <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1358:F1358"/>
     <mergeCell ref="B895:F895"/>
     <mergeCell ref="B321:F321"/>
     <mergeCell ref="B1040:F1040"/>
@@ -25650,17 +25920,21 @@
     <mergeCell ref="B281:F281"/>
     <mergeCell ref="B1033:F1033"/>
     <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1362:F1362"/>
     <mergeCell ref="B759:F759"/>
     <mergeCell ref="B1057:F1057"/>
     <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1364:F1364"/>
     <mergeCell ref="B332:F332"/>
     <mergeCell ref="B937:F937"/>
     <mergeCell ref="B1059:F1059"/>
     <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1357:F1357"/>
     <mergeCell ref="B632:F632"/>
     <mergeCell ref="B175:F175"/>
     <mergeCell ref="B790:F790"/>
     <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1359:F1359"/>
     <mergeCell ref="A1291:F1291"/>
     <mergeCell ref="B806:F806"/>
     <mergeCell ref="B1077:F1077"/>
@@ -25744,6 +26018,7 @@
     <mergeCell ref="B83:F83"/>
     <mergeCell ref="B85:F85"/>
     <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B1355:F1355"/>
     <mergeCell ref="B141:F141"/>
     <mergeCell ref="B439:F439"/>
     <mergeCell ref="B985:F985"/>
@@ -25807,6 +26082,7 @@
     <mergeCell ref="B883:F883"/>
     <mergeCell ref="B1208:F1208"/>
     <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B1353:F1353"/>
     <mergeCell ref="B636:F636"/>
     <mergeCell ref="B296:F296"/>
     <mergeCell ref="B934:F934"/>
@@ -26089,6 +26365,7 @@
     <mergeCell ref="B277:F277"/>
     <mergeCell ref="B575:F575"/>
     <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B1363:F1363"/>
     <mergeCell ref="A1111:F1111"/>
     <mergeCell ref="B170:F170"/>
     <mergeCell ref="B328:F328"/>
@@ -26139,6 +26416,7 @@
     <mergeCell ref="B1018:F1018"/>
     <mergeCell ref="B624:F624"/>
     <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1354:F1354"/>
     <mergeCell ref="B284:F284"/>
     <mergeCell ref="B415:F415"/>
     <mergeCell ref="B713:F713"/>
@@ -26393,6 +26671,7 @@
     <mergeCell ref="A481:F481"/>
     <mergeCell ref="B1026:F1026"/>
     <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1360:F1360"/>
     <mergeCell ref="B599:F599"/>
     <mergeCell ref="B1028:F1028"/>
     <mergeCell ref="B1055:F1055"/>
@@ -26408,6 +26687,7 @@
     <mergeCell ref="B923:F923"/>
     <mergeCell ref="B1054:F1054"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B1352:F1352"/>
     <mergeCell ref="B320:F320"/>
     <mergeCell ref="B1083:F1083"/>
     <mergeCell ref="B38:F38"/>
@@ -26463,6 +26743,7 @@
     <mergeCell ref="B792:F792"/>
     <mergeCell ref="B1063:F1063"/>
     <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1361:F1361"/>
     <mergeCell ref="B1221:F1221"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="B1092:F1092"/>
@@ -26619,6 +26900,7 @@
     <mergeCell ref="A466:F466"/>
     <mergeCell ref="B867:F867"/>
     <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="A1351:F1351"/>
     <mergeCell ref="B251:F251"/>
     <mergeCell ref="B1014:F1014"/>
     <mergeCell ref="B1008:F1008"/>
@@ -26754,6 +27036,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1319" r:id="rId88"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1334" r:id="rId89"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1349" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1364" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26765,7 +27048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29293,7 +29576,7 @@
     <row r="66" ht="28" customHeight="1">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
+          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
@@ -29325,7 +29608,7 @@
     <row r="67" ht="28" customHeight="1">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>dc0033a0-cb94-44ed-8102-0fd0a386989e-EXA</t>
+          <t>4b45d249-5739-4bf7-9595-a4715b73c2f6-EXA</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
@@ -29389,12 +29672,12 @@
     <row r="69" ht="28" customHeight="1">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>EUS-01513</t>
+          <t>EUS-37980</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>Mantenimiento de cubiertas en los centros de Bilbao Kirolak</t>
+          <t xml:space="preserve">Ayudas a proyectos al amparo de la estrategia de desarrollo </t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
@@ -29410,7 +29693,7 @@
       <c r="E69" s="6" t="inlineStr"/>
       <c r="F69" s="25" t="inlineStr">
         <is>
-          <t>MUY ALTA</t>
+          <t>ALTA</t>
         </is>
       </c>
       <c r="G69" s="6" t="inlineStr"/>
@@ -29425,12 +29708,12 @@
     <row r="70" ht="28" customHeight="1">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>EUS-46570</t>
+          <t>EUS-88998</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ayudas a proyectos al amparo de la estrategia de desarrollo </t>
+          <t>ReSourceEU y materias primas críticas: la UE sigue tramitand</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
@@ -29461,12 +29744,12 @@
     <row r="71" ht="28" customHeight="1">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>EUS-20748</t>
+          <t>EUS-22037</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>ReSourceEU y materias primas críticas: la UE sigue tramitand</t>
+          <t>Ciudades sostenibles: los Premios Capital Verde Europea y Ho</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
@@ -29497,12 +29780,12 @@
     <row r="72" ht="28" customHeight="1">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>EUS-33329</t>
+          <t>EUS-96198</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>Ciudades sostenibles: los Premios Capital Verde Europea y Ho</t>
+          <t>Presolicitud para programa de ayudas a empresas que realicen</t>
         </is>
       </c>
       <c r="C72" s="6" t="inlineStr">
@@ -29533,12 +29816,12 @@
     <row r="73" ht="28" customHeight="1">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>EUS-46971</t>
+          <t>EUS-18212</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>Presolicitud para programa de ayudas a empresas que realicen</t>
+          <t>Servicio integral de gestión operativa de movilidad que de s</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
@@ -29569,7 +29852,7 @@
     <row r="74" ht="28" customHeight="1">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>EUS-23727</t>
+          <t>EUS-35207</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
@@ -29605,7 +29888,7 @@
     <row r="75" ht="28" customHeight="1">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>EUS-63736</t>
+          <t>EUS-04351</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
@@ -29641,7 +29924,7 @@
     <row r="76" ht="28" customHeight="1">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>EUS-38314</t>
+          <t>EUS-41297</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
@@ -29677,7 +29960,7 @@
     <row r="77" ht="28" customHeight="1">
       <c r="A77" s="6" t="inlineStr">
         <is>
-          <t>EUS-43135</t>
+          <t>EUS-78717</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
@@ -29713,7 +29996,7 @@
     <row r="78" ht="28" customHeight="1">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>EUS-00654</t>
+          <t>EUS-25588</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
@@ -29749,7 +30032,7 @@
     <row r="79" ht="28" customHeight="1">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>EUS-24940</t>
+          <t>EUS-33200</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
@@ -29785,7 +30068,7 @@
     <row r="80" ht="28" customHeight="1">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>EUS-30791</t>
+          <t>EUS-47048</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
@@ -29821,7 +30104,7 @@
     <row r="81" ht="28" customHeight="1">
       <c r="A81" s="6" t="inlineStr">
         <is>
-          <t>EUS-01008</t>
+          <t>EUS-74734</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
@@ -29857,7 +30140,7 @@
     <row r="82" ht="28" customHeight="1">
       <c r="A82" s="6" t="inlineStr">
         <is>
-          <t>EUS-10663</t>
+          <t>EUS-60281</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
@@ -29893,7 +30176,7 @@
     <row r="83" ht="28" customHeight="1">
       <c r="A83" s="6" t="inlineStr">
         <is>
-          <t>EUS-56941</t>
+          <t>EUS-54283</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
@@ -29929,7 +30212,7 @@
     <row r="84" ht="28" customHeight="1">
       <c r="A84" s="6" t="inlineStr">
         <is>
-          <t>EUS-01208</t>
+          <t>EUS-10026</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
@@ -29965,7 +30248,7 @@
     <row r="85" ht="28" customHeight="1">
       <c r="A85" s="6" t="inlineStr">
         <is>
-          <t>EUS-00233</t>
+          <t>EUS-35931</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
@@ -30001,7 +30284,7 @@
     <row r="86" ht="28" customHeight="1">
       <c r="A86" s="6" t="inlineStr">
         <is>
-          <t>EUS-15421</t>
+          <t>EUS-44255</t>
         </is>
       </c>
       <c r="B86" s="6" t="inlineStr">
@@ -30037,7 +30320,7 @@
     <row r="87" ht="28" customHeight="1">
       <c r="A87" s="6" t="inlineStr">
         <is>
-          <t>EUS-74016</t>
+          <t>EUS-75900</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
@@ -30073,12 +30356,12 @@
     <row r="88" ht="28" customHeight="1">
       <c r="A88" s="6" t="inlineStr">
         <is>
-          <t>EUS-57526</t>
+          <t>EUS-96234</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>ejecución de cuneta en acera de kosta kalea para canalizar l</t>
+          <t>Reparación de fuga de agua en la acometida den centro escola</t>
         </is>
       </c>
       <c r="C88" s="6" t="inlineStr">
@@ -30109,12 +30392,12 @@
     <row r="89" ht="28" customHeight="1">
       <c r="A89" s="6" t="inlineStr">
         <is>
-          <t>EUS-99494</t>
+          <t>EUS-89077</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>evitar y redirigir las aguas, así como eliminar las efloresc</t>
+          <t>Mantenimiento integral de las instalaciones de alumbrado púb</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
@@ -30145,12 +30428,12 @@
     <row r="90" ht="28" customHeight="1">
       <c r="A90" s="6" t="inlineStr">
         <is>
-          <t>EUS-68529</t>
+          <t>EUS-75154</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>proyecto de nuevo edificio de mercado municipal en la parcel</t>
+          <t>Auscultación geotécnica de la red de infraestructuras viaria</t>
         </is>
       </c>
       <c r="C90" s="6" t="inlineStr">
@@ -30181,12 +30464,12 @@
     <row r="91" ht="28" customHeight="1">
       <c r="A91" s="6" t="inlineStr">
         <is>
-          <t>EUS-03547</t>
+          <t>EUS-74501</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>renovación de 2 calderas en los vestuarios de la playa</t>
+          <t>Servicio de limpieza viaria</t>
         </is>
       </c>
       <c r="C91" s="6" t="inlineStr">
@@ -30214,8 +30497,44 @@
       <c r="I91" s="6" t="inlineStr"/>
       <c r="J91" s="6" t="inlineStr"/>
     </row>
+    <row r="92" ht="28" customHeight="1">
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>EUS-26650</t>
+        </is>
+      </c>
+      <c r="B92" s="6" t="inlineStr">
+        <is>
+          <t>Ofrecer los servicios de gestión de reservas, utilización, m</t>
+        </is>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>Euskadi</t>
+        </is>
+      </c>
+      <c r="D92" s="6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E92" s="6" t="inlineStr"/>
+      <c r="F92" s="25" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G92" s="6" t="inlineStr"/>
+      <c r="H92" s="6" t="inlineStr">
+        <is>
+          <t>Por revisar</t>
+        </is>
+      </c>
+      <c r="I92" s="6" t="inlineStr"/>
+      <c r="J92" s="6" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J91"/>
+  <autoFilter ref="A1:J92"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
